--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,15 @@
     <t>['58', '66']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['14', '70', '76']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -719,6 +728,9 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['21', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1336,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1706,7 +1718,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1793,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1897,7 +1909,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2175,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2366,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0.88</v>
@@ -2560,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2661,7 +2673,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3234,7 +3246,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3425,7 +3437,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3512,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4088,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="AT16">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4380,7 +4392,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4658,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT19">
         <v>1.63</v>
@@ -4762,7 +4774,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4849,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -5144,7 +5156,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5234,7 +5246,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU22">
         <v>0.93</v>
@@ -5335,7 +5347,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5526,7 +5538,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5717,7 +5729,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5804,10 +5816,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>1.23</v>
@@ -5908,7 +5920,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5995,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT26">
         <v>0.86</v>
@@ -6099,7 +6111,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6290,7 +6302,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6481,7 +6493,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6672,7 +6684,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6863,7 +6875,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7054,7 +7066,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7144,7 +7156,7 @@
         <v>2.57</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU32">
         <v>1.84</v>
@@ -7526,7 +7538,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <v>1.28</v>
@@ -7818,7 +7830,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7905,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT36">
         <v>1.71</v>
@@ -8009,7 +8021,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8099,7 +8111,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8200,7 +8212,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8287,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT38">
         <v>1.38</v>
@@ -8582,7 +8594,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8773,7 +8785,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -8860,10 +8872,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT41">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU41">
         <v>1.24</v>
@@ -9051,7 +9063,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT42">
         <v>0.57</v>
@@ -9155,7 +9167,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9242,7 +9254,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT43">
         <v>1.38</v>
@@ -9346,7 +9358,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9728,7 +9740,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9818,7 +9830,7 @@
         <v>2.29</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU46">
         <v>1.42</v>
@@ -10492,7 +10504,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10964,7 +10976,7 @@
         <v>0.88</v>
       </c>
       <c r="AT52">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU52">
         <v>0.9399999999999999</v>
@@ -11065,7 +11077,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>13</v>
@@ -11152,10 +11164,10 @@
         <v>2.33</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU53">
         <v>1.12</v>
@@ -11638,7 +11650,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11725,10 +11737,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT56">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU56">
         <v>1.61</v>
@@ -11829,7 +11841,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12211,7 +12223,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12492,7 +12504,7 @@
         <v>2.29</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU60">
         <v>1.4</v>
@@ -12680,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>0.5</v>
@@ -12975,7 +12987,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13062,7 +13074,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13829,7 +13841,7 @@
         <v>0.88</v>
       </c>
       <c r="AT67">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU67">
         <v>1.12</v>
@@ -13930,7 +13942,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>15</v>
@@ -14017,7 +14029,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT68">
         <v>0.86</v>
@@ -14121,7 +14133,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14211,7 +14223,7 @@
         <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU69">
         <v>1.28</v>
@@ -14503,7 +14515,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14694,7 +14706,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14781,7 +14793,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT72">
         <v>1.71</v>
@@ -14885,7 +14897,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14975,7 +14987,7 @@
         <v>0.57</v>
       </c>
       <c r="AT73">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU73">
         <v>1.36</v>
@@ -15076,7 +15088,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15458,7 +15470,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15545,7 +15557,7 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT76">
         <v>1.14</v>
@@ -15649,7 +15661,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -15736,7 +15748,7 @@
         <v>0.8</v>
       </c>
       <c r="AS77">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT77">
         <v>0.75</v>
@@ -15840,7 +15852,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15927,10 +15939,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16031,7 +16043,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16222,7 +16234,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16604,7 +16616,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16795,7 +16807,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17177,7 +17189,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17267,7 +17279,7 @@
         <v>1.71</v>
       </c>
       <c r="AT85">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU85">
         <v>2.04</v>
@@ -17368,7 +17380,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17458,7 +17470,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17559,7 +17571,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17837,7 +17849,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT88">
         <v>0.57</v>
@@ -18031,7 +18043,7 @@
         <v>2.29</v>
       </c>
       <c r="AT89">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU89">
         <v>1.36</v>
@@ -18219,7 +18231,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT90">
         <v>0.5</v>
@@ -18410,10 +18422,10 @@
         <v>0.6</v>
       </c>
       <c r="AS91">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT91">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU91">
         <v>1.74</v>
@@ -18601,7 +18613,7 @@
         <v>1.17</v>
       </c>
       <c r="AS92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT92">
         <v>1.38</v>
@@ -18705,7 +18717,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18795,7 +18807,7 @@
         <v>1.13</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -18896,7 +18908,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19177,7 +19189,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU95">
         <v>1.32</v>
@@ -19469,7 +19481,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19556,7 +19568,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT97">
         <v>1.38</v>
@@ -20042,7 +20054,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20323,7 +20335,7 @@
         <v>2.29</v>
       </c>
       <c r="AT101">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU101">
         <v>1.3</v>
@@ -20424,7 +20436,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20806,7 +20818,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -20997,7 +21009,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21188,7 +21200,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21275,7 +21287,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
         <v>1.38</v>
@@ -21466,10 +21478,10 @@
         <v>1.17</v>
       </c>
       <c r="AS107">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU107">
         <v>1.73</v>
@@ -21570,7 +21582,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21657,10 +21669,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT108">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU108">
         <v>1.18</v>
@@ -21761,7 +21773,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21952,7 +21964,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22039,7 +22051,7 @@
         <v>1.14</v>
       </c>
       <c r="AS110">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT110">
         <v>1.38</v>
@@ -22143,7 +22155,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22233,7 +22245,7 @@
         <v>2.57</v>
       </c>
       <c r="AT111">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU111">
         <v>1.83</v>
@@ -22716,7 +22728,7 @@
         <v>85</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23480,7 +23492,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23862,7 +23874,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24053,7 +24065,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24195,6 +24207,770 @@
       </c>
       <c r="BK121">
         <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4869752</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45142.58333333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" t="s">
+        <v>79</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>175</v>
+      </c>
+      <c r="P122" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q122">
+        <v>2</v>
+      </c>
+      <c r="R122">
+        <v>12</v>
+      </c>
+      <c r="S122">
+        <v>14</v>
+      </c>
+      <c r="T122">
+        <v>3.75</v>
+      </c>
+      <c r="U122">
+        <v>2.2</v>
+      </c>
+      <c r="V122">
+        <v>2.75</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>2.75</v>
+      </c>
+      <c r="Y122">
+        <v>2.75</v>
+      </c>
+      <c r="Z122">
+        <v>1.4</v>
+      </c>
+      <c r="AA122">
+        <v>8</v>
+      </c>
+      <c r="AB122">
+        <v>1.08</v>
+      </c>
+      <c r="AC122">
+        <v>2.98</v>
+      </c>
+      <c r="AD122">
+        <v>3.15</v>
+      </c>
+      <c r="AE122">
+        <v>2.15</v>
+      </c>
+      <c r="AF122">
+        <v>1.05</v>
+      </c>
+      <c r="AG122">
+        <v>10.5</v>
+      </c>
+      <c r="AH122">
+        <v>1.3</v>
+      </c>
+      <c r="AI122">
+        <v>3.3</v>
+      </c>
+      <c r="AJ122">
+        <v>2.01</v>
+      </c>
+      <c r="AK122">
+        <v>1.85</v>
+      </c>
+      <c r="AL122">
+        <v>1.73</v>
+      </c>
+      <c r="AM122">
+        <v>2</v>
+      </c>
+      <c r="AN122">
+        <v>1.7</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>1.33</v>
+      </c>
+      <c r="AQ122">
+        <v>0.71</v>
+      </c>
+      <c r="AR122">
+        <v>1.86</v>
+      </c>
+      <c r="AS122">
+        <v>0.63</v>
+      </c>
+      <c r="AT122">
+        <v>2</v>
+      </c>
+      <c r="AU122">
+        <v>1.35</v>
+      </c>
+      <c r="AV122">
+        <v>1.22</v>
+      </c>
+      <c r="AW122">
+        <v>2.57</v>
+      </c>
+      <c r="AX122">
+        <v>2.25</v>
+      </c>
+      <c r="AY122">
+        <v>5.75</v>
+      </c>
+      <c r="AZ122">
+        <v>1.8</v>
+      </c>
+      <c r="BA122">
+        <v>1.13</v>
+      </c>
+      <c r="BB122">
+        <v>1.24</v>
+      </c>
+      <c r="BC122">
+        <v>1.44</v>
+      </c>
+      <c r="BD122">
+        <v>1.78</v>
+      </c>
+      <c r="BE122">
+        <v>2.17</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>6</v>
+      </c>
+      <c r="BH122">
+        <v>3</v>
+      </c>
+      <c r="BI122">
+        <v>7</v>
+      </c>
+      <c r="BJ122">
+        <v>3</v>
+      </c>
+      <c r="BK122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4869744</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>67</v>
+      </c>
+      <c r="H123" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>103</v>
+      </c>
+      <c r="P123" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="R123">
+        <v>7</v>
+      </c>
+      <c r="S123">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>2.88</v>
+      </c>
+      <c r="U123">
+        <v>2.25</v>
+      </c>
+      <c r="V123">
+        <v>3.5</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>3.25</v>
+      </c>
+      <c r="Y123">
+        <v>2.63</v>
+      </c>
+      <c r="Z123">
+        <v>1.44</v>
+      </c>
+      <c r="AA123">
+        <v>7</v>
+      </c>
+      <c r="AB123">
+        <v>1.1</v>
+      </c>
+      <c r="AC123">
+        <v>2.25</v>
+      </c>
+      <c r="AD123">
+        <v>3.59</v>
+      </c>
+      <c r="AE123">
+        <v>2.92</v>
+      </c>
+      <c r="AF123">
+        <v>1.03</v>
+      </c>
+      <c r="AG123">
+        <v>13</v>
+      </c>
+      <c r="AH123">
+        <v>1.25</v>
+      </c>
+      <c r="AI123">
+        <v>3.75</v>
+      </c>
+      <c r="AJ123">
+        <v>1.67</v>
+      </c>
+      <c r="AK123">
+        <v>2</v>
+      </c>
+      <c r="AL123">
+        <v>1.62</v>
+      </c>
+      <c r="AM123">
+        <v>2.2</v>
+      </c>
+      <c r="AN123">
+        <v>1.4</v>
+      </c>
+      <c r="AO123">
+        <v>1.22</v>
+      </c>
+      <c r="AP123">
+        <v>1.62</v>
+      </c>
+      <c r="AQ123">
+        <v>1.75</v>
+      </c>
+      <c r="AR123">
+        <v>0.86</v>
+      </c>
+      <c r="AS123">
+        <v>1.67</v>
+      </c>
+      <c r="AT123">
+        <v>0.88</v>
+      </c>
+      <c r="AU123">
+        <v>1.33</v>
+      </c>
+      <c r="AV123">
+        <v>1.34</v>
+      </c>
+      <c r="AW123">
+        <v>2.67</v>
+      </c>
+      <c r="AX123">
+        <v>1.81</v>
+      </c>
+      <c r="AY123">
+        <v>9.6</v>
+      </c>
+      <c r="AZ123">
+        <v>2.29</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>1.22</v>
+      </c>
+      <c r="BC123">
+        <v>1.44</v>
+      </c>
+      <c r="BD123">
+        <v>1.79</v>
+      </c>
+      <c r="BE123">
+        <v>2.18</v>
+      </c>
+      <c r="BF123">
+        <v>5</v>
+      </c>
+      <c r="BG123">
+        <v>4</v>
+      </c>
+      <c r="BH123">
+        <v>5</v>
+      </c>
+      <c r="BI123">
+        <v>5</v>
+      </c>
+      <c r="BJ123">
+        <v>10</v>
+      </c>
+      <c r="BK123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4869749</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>69</v>
+      </c>
+      <c r="H124" t="s">
+        <v>77</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>176</v>
+      </c>
+      <c r="P124" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q124">
+        <v>7</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>11</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>2.6</v>
+      </c>
+      <c r="V124">
+        <v>4</v>
+      </c>
+      <c r="W124">
+        <v>1.22</v>
+      </c>
+      <c r="X124">
+        <v>4</v>
+      </c>
+      <c r="Y124">
+        <v>2.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.67</v>
+      </c>
+      <c r="AA124">
+        <v>4.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.18</v>
+      </c>
+      <c r="AC124">
+        <v>1.86</v>
+      </c>
+      <c r="AD124">
+        <v>4.11</v>
+      </c>
+      <c r="AE124">
+        <v>3.71</v>
+      </c>
+      <c r="AF124">
+        <v>1.02</v>
+      </c>
+      <c r="AG124">
+        <v>13</v>
+      </c>
+      <c r="AH124">
+        <v>1.12</v>
+      </c>
+      <c r="AI124">
+        <v>5.5</v>
+      </c>
+      <c r="AJ124">
+        <v>1.4</v>
+      </c>
+      <c r="AK124">
+        <v>2.75</v>
+      </c>
+      <c r="AL124">
+        <v>1.44</v>
+      </c>
+      <c r="AM124">
+        <v>2.63</v>
+      </c>
+      <c r="AN124">
+        <v>1.2</v>
+      </c>
+      <c r="AO124">
+        <v>1.17</v>
+      </c>
+      <c r="AP124">
+        <v>2</v>
+      </c>
+      <c r="AQ124">
+        <v>2.38</v>
+      </c>
+      <c r="AR124">
+        <v>0.88</v>
+      </c>
+      <c r="AS124">
+        <v>2.22</v>
+      </c>
+      <c r="AT124">
+        <v>0.89</v>
+      </c>
+      <c r="AU124">
+        <v>1.76</v>
+      </c>
+      <c r="AV124">
+        <v>1.17</v>
+      </c>
+      <c r="AW124">
+        <v>2.93</v>
+      </c>
+      <c r="AX124">
+        <v>1.41</v>
+      </c>
+      <c r="AY124">
+        <v>6.5</v>
+      </c>
+      <c r="AZ124">
+        <v>3.25</v>
+      </c>
+      <c r="BA124">
+        <v>1.14</v>
+      </c>
+      <c r="BB124">
+        <v>1.26</v>
+      </c>
+      <c r="BC124">
+        <v>1.48</v>
+      </c>
+      <c r="BD124">
+        <v>2</v>
+      </c>
+      <c r="BE124">
+        <v>2.29</v>
+      </c>
+      <c r="BF124">
+        <v>4</v>
+      </c>
+      <c r="BG124">
+        <v>10</v>
+      </c>
+      <c r="BH124">
+        <v>7</v>
+      </c>
+      <c r="BI124">
+        <v>4</v>
+      </c>
+      <c r="BJ124">
+        <v>11</v>
+      </c>
+      <c r="BK124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>4869750</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>66</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>177</v>
+      </c>
+      <c r="P125" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>6</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>2.6</v>
+      </c>
+      <c r="U125">
+        <v>2.25</v>
+      </c>
+      <c r="V125">
+        <v>4</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>3</v>
+      </c>
+      <c r="Y125">
+        <v>2.63</v>
+      </c>
+      <c r="Z125">
+        <v>1.44</v>
+      </c>
+      <c r="AA125">
+        <v>7</v>
+      </c>
+      <c r="AB125">
+        <v>1.1</v>
+      </c>
+      <c r="AC125">
+        <v>1.98</v>
+      </c>
+      <c r="AD125">
+        <v>3.51</v>
+      </c>
+      <c r="AE125">
+        <v>3.69</v>
+      </c>
+      <c r="AF125">
+        <v>1.03</v>
+      </c>
+      <c r="AG125">
+        <v>14</v>
+      </c>
+      <c r="AH125">
+        <v>1.22</v>
+      </c>
+      <c r="AI125">
+        <v>4</v>
+      </c>
+      <c r="AJ125">
+        <v>1.61</v>
+      </c>
+      <c r="AK125">
+        <v>2.05</v>
+      </c>
+      <c r="AL125">
+        <v>1.67</v>
+      </c>
+      <c r="AM125">
+        <v>2.1</v>
+      </c>
+      <c r="AN125">
+        <v>1.28</v>
+      </c>
+      <c r="AO125">
+        <v>1.22</v>
+      </c>
+      <c r="AP125">
+        <v>1.8</v>
+      </c>
+      <c r="AQ125">
+        <v>0.75</v>
+      </c>
+      <c r="AR125">
+        <v>1</v>
+      </c>
+      <c r="AS125">
+        <v>1</v>
+      </c>
+      <c r="AT125">
+        <v>0.88</v>
+      </c>
+      <c r="AU125">
+        <v>1.17</v>
+      </c>
+      <c r="AV125">
+        <v>1.02</v>
+      </c>
+      <c r="AW125">
+        <v>2.19</v>
+      </c>
+      <c r="AX125">
+        <v>1.45</v>
+      </c>
+      <c r="AY125">
+        <v>6</v>
+      </c>
+      <c r="AZ125">
+        <v>3.15</v>
+      </c>
+      <c r="BA125">
+        <v>1.24</v>
+      </c>
+      <c r="BB125">
+        <v>1.52</v>
+      </c>
+      <c r="BC125">
+        <v>1.87</v>
+      </c>
+      <c r="BD125">
+        <v>2.3</v>
+      </c>
+      <c r="BE125">
+        <v>3.14</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>3</v>
+      </c>
+      <c r="BI125">
+        <v>6</v>
+      </c>
+      <c r="BJ125">
+        <v>8</v>
+      </c>
+      <c r="BK125">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,15 @@
     <t>['14', '70', '76']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['40', '74']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -731,6 +740,12 @@
   </si>
   <si>
     <t>['21', '90+3']</t>
+  </si>
+  <si>
+    <t>['54', '78', '82']</t>
+  </si>
+  <si>
+    <t>['63', '79']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK125"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1351,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1423,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
         <v>1.63</v>
@@ -1617,7 +1632,7 @@
         <v>0.88</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1718,7 +1733,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1808,7 +1823,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1909,7 +1924,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1996,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT5">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2381,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2673,7 +2688,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2760,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>0.75</v>
@@ -3246,7 +3261,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3437,7 +3452,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3906,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT15">
         <v>1.71</v>
@@ -4392,7 +4407,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4482,7 +4497,7 @@
         <v>0.88</v>
       </c>
       <c r="AT18">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU18">
         <v>0.89</v>
@@ -4774,7 +4789,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5052,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU21">
         <v>1.91</v>
@@ -5156,7 +5171,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5243,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT22">
         <v>0.89</v>
@@ -5347,7 +5362,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5434,10 +5449,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU23">
         <v>1.5</v>
@@ -5538,7 +5553,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5628,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -5729,7 +5744,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5920,7 +5935,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6111,7 +6126,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6302,7 +6317,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6493,7 +6508,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6684,7 +6699,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6774,7 +6789,7 @@
         <v>2.29</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU30">
         <v>1.12</v>
@@ -6875,7 +6890,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7066,7 +7081,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7153,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT32">
         <v>0.88</v>
@@ -7535,7 +7550,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
         <v>2</v>
@@ -7729,7 +7744,7 @@
         <v>0.88</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU35">
         <v>1.01</v>
@@ -7830,7 +7845,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8021,7 +8036,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8108,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT37">
         <v>0.89</v>
@@ -8212,7 +8227,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8302,7 +8317,7 @@
         <v>2.22</v>
       </c>
       <c r="AT38">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU38">
         <v>1.05</v>
@@ -8493,7 +8508,7 @@
         <v>1.71</v>
       </c>
       <c r="AT39">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU39">
         <v>1.6</v>
@@ -8594,7 +8609,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8681,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT40">
         <v>1.63</v>
@@ -8785,7 +8800,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -9167,7 +9182,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9358,7 +9373,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9448,7 +9463,7 @@
         <v>1.71</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU44">
         <v>1.68</v>
@@ -9639,7 +9654,7 @@
         <v>2.29</v>
       </c>
       <c r="AT45">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU45">
         <v>1.14</v>
@@ -9740,7 +9755,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10400,7 +10415,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10504,7 +10519,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10591,7 +10606,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>0.86</v>
@@ -10782,7 +10797,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT51">
         <v>1.71</v>
@@ -11077,7 +11092,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>13</v>
@@ -11355,7 +11370,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT54">
         <v>1.63</v>
@@ -11549,7 +11564,7 @@
         <v>1.71</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU55">
         <v>1.56</v>
@@ -11650,7 +11665,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11841,7 +11856,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11931,7 +11946,7 @@
         <v>0.57</v>
       </c>
       <c r="AT57">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU57">
         <v>1.32</v>
@@ -12122,7 +12137,7 @@
         <v>2</v>
       </c>
       <c r="AT58">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU58">
         <v>1.87</v>
@@ -12223,7 +12238,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12695,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU61">
         <v>1.04</v>
@@ -12883,7 +12898,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT62">
         <v>0.75</v>
@@ -12987,7 +13002,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13077,7 +13092,7 @@
         <v>2.22</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13456,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13647,7 +13662,7 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>0.57</v>
@@ -13942,7 +13957,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>15</v>
@@ -14133,7 +14148,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14220,7 +14235,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT69">
         <v>0.88</v>
@@ -14414,7 +14429,7 @@
         <v>1.71</v>
       </c>
       <c r="AT70">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU70">
         <v>1.96</v>
@@ -14515,7 +14530,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14706,7 +14721,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14897,7 +14912,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15088,7 +15103,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15178,7 +15193,7 @@
         <v>2.29</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU74">
         <v>1.49</v>
@@ -15369,7 +15384,7 @@
         <v>2</v>
       </c>
       <c r="AT75">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU75">
         <v>1.84</v>
@@ -15470,7 +15485,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15661,7 +15676,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -15852,7 +15867,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16043,7 +16058,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16133,7 +16148,7 @@
         <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16234,7 +16249,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16321,7 +16336,7 @@
         <v>0.5</v>
       </c>
       <c r="AS80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT80">
         <v>1.38</v>
@@ -16512,10 +16527,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT81">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU81">
         <v>1.94</v>
@@ -16616,7 +16631,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16807,7 +16822,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17085,7 +17100,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT84">
         <v>0.86</v>
@@ -17189,7 +17204,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17380,7 +17395,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17571,7 +17586,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17658,7 +17673,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -18234,7 +18249,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU90">
         <v>1.35</v>
@@ -18616,7 +18631,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU92">
         <v>1.21</v>
@@ -18717,7 +18732,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18804,7 +18819,7 @@
         <v>0.8</v>
       </c>
       <c r="AS93">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT93">
         <v>0.88</v>
@@ -18908,7 +18923,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -18995,10 +19010,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT94">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU94">
         <v>1.6</v>
@@ -19377,10 +19392,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19481,7 +19496,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -20054,7 +20069,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20436,7 +20451,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20818,7 +20833,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21009,7 +21024,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21096,7 +21111,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT105">
         <v>1.14</v>
@@ -21200,7 +21215,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21582,7 +21597,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21773,7 +21788,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21860,10 +21875,10 @@
         <v>0.86</v>
       </c>
       <c r="AS109">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT109">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU109">
         <v>1.62</v>
@@ -21964,7 +21979,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22054,7 +22069,7 @@
         <v>0.63</v>
       </c>
       <c r="AT110">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22155,7 +22170,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22242,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT111">
         <v>0.89</v>
@@ -22433,10 +22448,10 @@
         <v>0.57</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT112">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU112">
         <v>1.53</v>
@@ -22627,7 +22642,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22728,7 +22743,7 @@
         <v>85</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23492,7 +23507,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23874,7 +23889,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24065,7 +24080,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24256,7 +24271,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24382,22 +24397,22 @@
         <v>2.17</v>
       </c>
       <c r="BF122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI122">
         <v>7</v>
       </c>
       <c r="BJ122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK122">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:63">
@@ -24638,7 +24653,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -24971,6 +24986,770 @@
       </c>
       <c r="BK125">
         <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4869743</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>65</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>178</v>
+      </c>
+      <c r="P126" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>10</v>
+      </c>
+      <c r="S126">
+        <v>14</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>2.4</v>
+      </c>
+      <c r="V126">
+        <v>3.75</v>
+      </c>
+      <c r="W126">
+        <v>1.29</v>
+      </c>
+      <c r="X126">
+        <v>3.5</v>
+      </c>
+      <c r="Y126">
+        <v>2.25</v>
+      </c>
+      <c r="Z126">
+        <v>1.57</v>
+      </c>
+      <c r="AA126">
+        <v>5.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.14</v>
+      </c>
+      <c r="AC126">
+        <v>2.52</v>
+      </c>
+      <c r="AD126">
+        <v>3.2</v>
+      </c>
+      <c r="AE126">
+        <v>2.42</v>
+      </c>
+      <c r="AF126">
+        <v>1.02</v>
+      </c>
+      <c r="AG126">
+        <v>12</v>
+      </c>
+      <c r="AH126">
+        <v>1.17</v>
+      </c>
+      <c r="AI126">
+        <v>4.5</v>
+      </c>
+      <c r="AJ126">
+        <v>1.55</v>
+      </c>
+      <c r="AK126">
+        <v>2.31</v>
+      </c>
+      <c r="AL126">
+        <v>1.5</v>
+      </c>
+      <c r="AM126">
+        <v>2.5</v>
+      </c>
+      <c r="AN126">
+        <v>1.3</v>
+      </c>
+      <c r="AO126">
+        <v>1.18</v>
+      </c>
+      <c r="AP126">
+        <v>1.83</v>
+      </c>
+      <c r="AQ126">
+        <v>1.5</v>
+      </c>
+      <c r="AR126">
+        <v>1</v>
+      </c>
+      <c r="AS126">
+        <v>1.67</v>
+      </c>
+      <c r="AT126">
+        <v>0.89</v>
+      </c>
+      <c r="AU126">
+        <v>1.47</v>
+      </c>
+      <c r="AV126">
+        <v>1.18</v>
+      </c>
+      <c r="AW126">
+        <v>2.65</v>
+      </c>
+      <c r="AX126">
+        <v>1.71</v>
+      </c>
+      <c r="AY126">
+        <v>5.75</v>
+      </c>
+      <c r="AZ126">
+        <v>2.35</v>
+      </c>
+      <c r="BA126">
+        <v>1.14</v>
+      </c>
+      <c r="BB126">
+        <v>1.27</v>
+      </c>
+      <c r="BC126">
+        <v>1.56</v>
+      </c>
+      <c r="BD126">
+        <v>1.88</v>
+      </c>
+      <c r="BE126">
+        <v>2.3</v>
+      </c>
+      <c r="BF126">
+        <v>6</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>2</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+      <c r="BJ126">
+        <v>8</v>
+      </c>
+      <c r="BK126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>4869745</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" t="s">
+        <v>75</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>179</v>
+      </c>
+      <c r="P127" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q127">
+        <v>8</v>
+      </c>
+      <c r="R127">
+        <v>6</v>
+      </c>
+      <c r="S127">
+        <v>14</v>
+      </c>
+      <c r="T127">
+        <v>2.05</v>
+      </c>
+      <c r="U127">
+        <v>2.6</v>
+      </c>
+      <c r="V127">
+        <v>4.75</v>
+      </c>
+      <c r="W127">
+        <v>1.22</v>
+      </c>
+      <c r="X127">
+        <v>4</v>
+      </c>
+      <c r="Y127">
+        <v>2.1</v>
+      </c>
+      <c r="Z127">
+        <v>1.67</v>
+      </c>
+      <c r="AA127">
+        <v>4.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.18</v>
+      </c>
+      <c r="AC127">
+        <v>1.6</v>
+      </c>
+      <c r="AD127">
+        <v>3.59</v>
+      </c>
+      <c r="AE127">
+        <v>4.17</v>
+      </c>
+      <c r="AF127">
+        <v>1.02</v>
+      </c>
+      <c r="AG127">
+        <v>13</v>
+      </c>
+      <c r="AH127">
+        <v>1.12</v>
+      </c>
+      <c r="AI127">
+        <v>6</v>
+      </c>
+      <c r="AJ127">
+        <v>1.4</v>
+      </c>
+      <c r="AK127">
+        <v>2.73</v>
+      </c>
+      <c r="AL127">
+        <v>1.53</v>
+      </c>
+      <c r="AM127">
+        <v>2.38</v>
+      </c>
+      <c r="AN127">
+        <v>1.11</v>
+      </c>
+      <c r="AO127">
+        <v>1.15</v>
+      </c>
+      <c r="AP127">
+        <v>2.45</v>
+      </c>
+      <c r="AQ127">
+        <v>2</v>
+      </c>
+      <c r="AR127">
+        <v>0.88</v>
+      </c>
+      <c r="AS127">
+        <v>2.13</v>
+      </c>
+      <c r="AT127">
+        <v>0.78</v>
+      </c>
+      <c r="AU127">
+        <v>1.51</v>
+      </c>
+      <c r="AV127">
+        <v>1.29</v>
+      </c>
+      <c r="AW127">
+        <v>2.8</v>
+      </c>
+      <c r="AX127">
+        <v>1.34</v>
+      </c>
+      <c r="AY127">
+        <v>6.25</v>
+      </c>
+      <c r="AZ127">
+        <v>3.65</v>
+      </c>
+      <c r="BA127">
+        <v>1.27</v>
+      </c>
+      <c r="BB127">
+        <v>1.39</v>
+      </c>
+      <c r="BC127">
+        <v>1.9</v>
+      </c>
+      <c r="BD127">
+        <v>2.17</v>
+      </c>
+      <c r="BE127">
+        <v>2.88</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>3</v>
+      </c>
+      <c r="BJ127">
+        <v>8</v>
+      </c>
+      <c r="BK127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>4869748</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>78</v>
+      </c>
+      <c r="H128" t="s">
+        <v>80</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>114</v>
+      </c>
+      <c r="P128" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q128">
+        <v>13</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>17</v>
+      </c>
+      <c r="T128">
+        <v>2.05</v>
+      </c>
+      <c r="U128">
+        <v>2.4</v>
+      </c>
+      <c r="V128">
+        <v>5.5</v>
+      </c>
+      <c r="W128">
+        <v>1.3</v>
+      </c>
+      <c r="X128">
+        <v>3.4</v>
+      </c>
+      <c r="Y128">
+        <v>2.5</v>
+      </c>
+      <c r="Z128">
+        <v>1.5</v>
+      </c>
+      <c r="AA128">
+        <v>6</v>
+      </c>
+      <c r="AB128">
+        <v>1.13</v>
+      </c>
+      <c r="AC128">
+        <v>1.69</v>
+      </c>
+      <c r="AD128">
+        <v>3.65</v>
+      </c>
+      <c r="AE128">
+        <v>3.9</v>
+      </c>
+      <c r="AF128">
+        <v>1.03</v>
+      </c>
+      <c r="AG128">
+        <v>17</v>
+      </c>
+      <c r="AH128">
+        <v>1.22</v>
+      </c>
+      <c r="AI128">
+        <v>4</v>
+      </c>
+      <c r="AJ128">
+        <v>1.61</v>
+      </c>
+      <c r="AK128">
+        <v>2.15</v>
+      </c>
+      <c r="AL128">
+        <v>1.8</v>
+      </c>
+      <c r="AM128">
+        <v>1.91</v>
+      </c>
+      <c r="AN128">
+        <v>1.1</v>
+      </c>
+      <c r="AO128">
+        <v>1.18</v>
+      </c>
+      <c r="AP128">
+        <v>2.4</v>
+      </c>
+      <c r="AQ128">
+        <v>2.57</v>
+      </c>
+      <c r="AR128">
+        <v>0.5</v>
+      </c>
+      <c r="AS128">
+        <v>2.25</v>
+      </c>
+      <c r="AT128">
+        <v>0.78</v>
+      </c>
+      <c r="AU128">
+        <v>1.82</v>
+      </c>
+      <c r="AV128">
+        <v>1.33</v>
+      </c>
+      <c r="AW128">
+        <v>3.15</v>
+      </c>
+      <c r="AX128">
+        <v>1.44</v>
+      </c>
+      <c r="AY128">
+        <v>6.25</v>
+      </c>
+      <c r="AZ128">
+        <v>3.05</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>1.31</v>
+      </c>
+      <c r="BD128">
+        <v>1.56</v>
+      </c>
+      <c r="BE128">
+        <v>1.88</v>
+      </c>
+      <c r="BF128">
+        <v>5</v>
+      </c>
+      <c r="BG128">
+        <v>4</v>
+      </c>
+      <c r="BH128">
+        <v>1</v>
+      </c>
+      <c r="BI128">
+        <v>0</v>
+      </c>
+      <c r="BJ128">
+        <v>6</v>
+      </c>
+      <c r="BK128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4869751</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" t="s">
+        <v>73</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>180</v>
+      </c>
+      <c r="P129" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q129">
+        <v>2</v>
+      </c>
+      <c r="R129">
+        <v>8</v>
+      </c>
+      <c r="S129">
+        <v>10</v>
+      </c>
+      <c r="T129">
+        <v>3.25</v>
+      </c>
+      <c r="U129">
+        <v>2.5</v>
+      </c>
+      <c r="V129">
+        <v>2.63</v>
+      </c>
+      <c r="W129">
+        <v>1.25</v>
+      </c>
+      <c r="X129">
+        <v>3.75</v>
+      </c>
+      <c r="Y129">
+        <v>2.1</v>
+      </c>
+      <c r="Z129">
+        <v>1.67</v>
+      </c>
+      <c r="AA129">
+        <v>4.5</v>
+      </c>
+      <c r="AB129">
+        <v>1.18</v>
+      </c>
+      <c r="AC129">
+        <v>2.57</v>
+      </c>
+      <c r="AD129">
+        <v>3.25</v>
+      </c>
+      <c r="AE129">
+        <v>2.37</v>
+      </c>
+      <c r="AF129">
+        <v>1.02</v>
+      </c>
+      <c r="AG129">
+        <v>13</v>
+      </c>
+      <c r="AH129">
+        <v>1.15</v>
+      </c>
+      <c r="AI129">
+        <v>4.75</v>
+      </c>
+      <c r="AJ129">
+        <v>1.42</v>
+      </c>
+      <c r="AK129">
+        <v>2.65</v>
+      </c>
+      <c r="AL129">
+        <v>1.4</v>
+      </c>
+      <c r="AM129">
+        <v>2.75</v>
+      </c>
+      <c r="AN129">
+        <v>1.72</v>
+      </c>
+      <c r="AO129">
+        <v>1.2</v>
+      </c>
+      <c r="AP129">
+        <v>1.38</v>
+      </c>
+      <c r="AQ129">
+        <v>1.13</v>
+      </c>
+      <c r="AR129">
+        <v>1.38</v>
+      </c>
+      <c r="AS129">
+        <v>1</v>
+      </c>
+      <c r="AT129">
+        <v>1.56</v>
+      </c>
+      <c r="AU129">
+        <v>1.63</v>
+      </c>
+      <c r="AV129">
+        <v>1.65</v>
+      </c>
+      <c r="AW129">
+        <v>3.28</v>
+      </c>
+      <c r="AX129">
+        <v>2.15</v>
+      </c>
+      <c r="AY129">
+        <v>5.75</v>
+      </c>
+      <c r="AZ129">
+        <v>1.8</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>1.24</v>
+      </c>
+      <c r="BC129">
+        <v>1.46</v>
+      </c>
+      <c r="BD129">
+        <v>1.88</v>
+      </c>
+      <c r="BE129">
+        <v>2.23</v>
+      </c>
+      <c r="BF129">
+        <v>7</v>
+      </c>
+      <c r="BG129">
+        <v>6</v>
+      </c>
+      <c r="BH129">
+        <v>8</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>15</v>
+      </c>
+      <c r="BK129">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,39 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['1', '65', '82']</t>
+  </si>
+  <si>
+    <t>['50', '76', '85']</t>
+  </si>
+  <si>
+    <t>['4', '34']</t>
+  </si>
+  <si>
+    <t>['62', '68']</t>
+  </si>
+  <si>
+    <t>['16', '88']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['35', '78']</t>
+  </si>
+  <si>
+    <t>['39', '55', '75']</t>
+  </si>
+  <si>
+    <t>['41', '59']</t>
+  </si>
+  <si>
+    <t>['39', '90+2']</t>
+  </si>
+  <si>
+    <t>['2', '23', '69']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -746,6 +779,30 @@
   </si>
   <si>
     <t>['63', '79']</t>
+  </si>
+  <si>
+    <t>['30', '49']</t>
+  </si>
+  <si>
+    <t>['49', '69', '90+3']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['18', '28', '88', '90+4']</t>
+  </si>
+  <si>
+    <t>['81', '84']</t>
+  </si>
+  <si>
+    <t>['83', '89']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1408,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1438,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1632,7 +1689,7 @@
         <v>0.88</v>
       </c>
       <c r="AT3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1733,7 +1790,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1823,7 +1880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1924,7 +1981,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2011,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT5">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2202,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2393,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT7">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2584,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT8">
         <v>0.89</v>
@@ -2688,7 +2745,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2775,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT9">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3157,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3261,7 +3318,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3348,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3452,7 +3509,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3539,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT13">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3730,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AT14">
         <v>0.86</v>
@@ -3921,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4112,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT16">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4303,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4407,7 +4464,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4497,7 +4554,7 @@
         <v>0.88</v>
       </c>
       <c r="AT18">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU18">
         <v>0.89</v>
@@ -4685,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT19">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU19">
         <v>0.75</v>
@@ -4789,7 +4846,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4879,7 +4936,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>0.46</v>
@@ -5067,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT21">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>1.91</v>
@@ -5171,7 +5228,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5258,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT22">
         <v>0.89</v>
@@ -5362,7 +5419,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5449,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT23">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU23">
         <v>1.5</v>
@@ -5553,7 +5610,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5640,10 +5697,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT24">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -5744,7 +5801,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5831,10 +5888,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU25">
         <v>1.23</v>
@@ -5935,7 +5992,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6022,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT26">
         <v>0.86</v>
@@ -6126,7 +6183,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6213,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>1.79</v>
@@ -6317,7 +6374,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6407,7 +6464,7 @@
         <v>2.29</v>
       </c>
       <c r="AT28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU28">
         <v>0.73</v>
@@ -6508,7 +6565,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6595,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT29">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU29">
         <v>1.38</v>
@@ -6699,7 +6756,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6786,10 +6843,10 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AT30">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.12</v>
@@ -6890,7 +6947,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -6977,10 +7034,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU31">
         <v>1.79</v>
@@ -7081,7 +7138,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7168,10 +7225,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU32">
         <v>1.84</v>
@@ -7359,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT33">
         <v>1.14</v>
@@ -7550,10 +7607,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU34">
         <v>1.28</v>
@@ -7744,7 +7801,7 @@
         <v>0.88</v>
       </c>
       <c r="AT35">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU35">
         <v>1.01</v>
@@ -7845,7 +7902,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7935,7 +7992,7 @@
         <v>1.67</v>
       </c>
       <c r="AT36">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU36">
         <v>1.17</v>
@@ -8036,7 +8093,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8123,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT37">
         <v>0.89</v>
@@ -8227,7 +8284,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8314,10 +8371,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT38">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU38">
         <v>1.05</v>
@@ -8505,10 +8562,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT39">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU39">
         <v>1.6</v>
@@ -8609,7 +8666,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8696,10 +8753,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT40">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -8800,7 +8857,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -8887,10 +8944,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU41">
         <v>1.24</v>
@@ -9078,10 +9135,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU42">
         <v>1.24</v>
@@ -9182,7 +9239,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9269,10 +9326,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU43">
         <v>1.03</v>
@@ -9373,7 +9430,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9460,10 +9517,10 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU44">
         <v>1.68</v>
@@ -9654,7 +9711,7 @@
         <v>2.29</v>
       </c>
       <c r="AT45">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>1.14</v>
@@ -9755,7 +9812,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9842,10 +9899,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AT46">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU46">
         <v>1.42</v>
@@ -10033,7 +10090,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT47">
         <v>1.14</v>
@@ -10224,10 +10281,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT48">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU48">
         <v>1.15</v>
@@ -10415,10 +10472,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU49">
         <v>1.77</v>
@@ -10519,7 +10576,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10606,7 +10663,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT50">
         <v>0.86</v>
@@ -10797,10 +10854,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT51">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -10991,7 +11048,7 @@
         <v>0.88</v>
       </c>
       <c r="AT52">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU52">
         <v>0.9399999999999999</v>
@@ -11092,7 +11149,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>13</v>
@@ -11182,7 +11239,7 @@
         <v>1.67</v>
       </c>
       <c r="AT53">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU53">
         <v>1.12</v>
@@ -11370,10 +11427,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -11561,10 +11618,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU55">
         <v>1.56</v>
@@ -11665,7 +11722,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11752,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT56">
         <v>0.89</v>
@@ -11856,7 +11913,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11943,10 +12000,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT57">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU57">
         <v>1.32</v>
@@ -12134,10 +12191,10 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT58">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU58">
         <v>1.87</v>
@@ -12238,7 +12295,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12325,7 +12382,7 @@
         <v>0.33</v>
       </c>
       <c r="AS59">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AT59">
         <v>1.14</v>
@@ -12519,7 +12576,7 @@
         <v>2.29</v>
       </c>
       <c r="AT60">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU60">
         <v>1.4</v>
@@ -12707,10 +12764,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT61">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.04</v>
@@ -12898,10 +12955,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT62">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU62">
         <v>1.76</v>
@@ -13002,7 +13059,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13089,10 +13146,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT63">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13280,10 +13337,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT64">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU64">
         <v>1.33</v>
@@ -13471,10 +13528,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13662,10 +13719,10 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT66">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU66">
         <v>1.56</v>
@@ -13856,7 +13913,7 @@
         <v>0.88</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU67">
         <v>1.12</v>
@@ -13957,7 +14014,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>15</v>
@@ -14148,7 +14205,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14235,10 +14292,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU69">
         <v>1.28</v>
@@ -14426,10 +14483,10 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>1.96</v>
@@ -14530,7 +14587,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14617,10 +14674,10 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14721,7 +14778,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14808,10 +14865,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT72">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -14912,7 +14969,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14999,7 +15056,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT73">
         <v>0.89</v>
@@ -15103,7 +15160,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15190,10 +15247,10 @@
         <v>1.6</v>
       </c>
       <c r="AS74">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AT74">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU74">
         <v>1.49</v>
@@ -15381,10 +15438,10 @@
         <v>0.8</v>
       </c>
       <c r="AS75">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT75">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.84</v>
@@ -15485,7 +15542,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15572,7 +15629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT76">
         <v>1.14</v>
@@ -15676,7 +15733,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -15763,10 +15820,10 @@
         <v>0.8</v>
       </c>
       <c r="AS77">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT77">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -15867,7 +15924,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -15957,7 +16014,7 @@
         <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16058,7 +16115,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16145,10 +16202,10 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT79">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16249,7 +16306,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16336,10 +16393,10 @@
         <v>0.5</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU80">
         <v>1.62</v>
@@ -16527,10 +16584,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT81">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU81">
         <v>1.94</v>
@@ -16631,7 +16688,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16718,10 +16775,10 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT82">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -16822,7 +16879,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16912,7 +16969,7 @@
         <v>0.88</v>
       </c>
       <c r="AT83">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>1.14</v>
@@ -17100,7 +17157,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT84">
         <v>0.86</v>
@@ -17204,7 +17261,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17291,10 +17348,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU85">
         <v>2.04</v>
@@ -17395,7 +17452,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17482,10 +17539,10 @@
         <v>1.8</v>
       </c>
       <c r="AS86">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17586,7 +17643,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17673,10 +17730,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU87">
         <v>1.64</v>
@@ -17864,10 +17921,10 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT88">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU88">
         <v>1.54</v>
@@ -18249,7 +18306,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.35</v>
@@ -18437,10 +18494,10 @@
         <v>0.6</v>
       </c>
       <c r="AS91">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT91">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU91">
         <v>1.74</v>
@@ -18628,10 +18685,10 @@
         <v>1.17</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT92">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU92">
         <v>1.21</v>
@@ -18732,7 +18789,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18819,10 +18876,10 @@
         <v>0.8</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -18923,7 +18980,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19010,10 +19067,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT94">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU94">
         <v>1.6</v>
@@ -19201,7 +19258,7 @@
         <v>1.17</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT95">
         <v>0.89</v>
@@ -19392,10 +19449,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT96">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19496,7 +19553,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19583,10 +19640,10 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT97">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -19774,10 +19831,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU98">
         <v>1.55</v>
@@ -19968,7 +20025,7 @@
         <v>0.88</v>
       </c>
       <c r="AT99">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU99">
         <v>1.1</v>
@@ -20069,7 +20126,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20156,10 +20213,10 @@
         <v>1.8</v>
       </c>
       <c r="AS100">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU100">
         <v>1.91</v>
@@ -20350,7 +20407,7 @@
         <v>2.29</v>
       </c>
       <c r="AT101">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU101">
         <v>1.3</v>
@@ -20451,7 +20508,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20538,7 +20595,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT102">
         <v>0.86</v>
@@ -20729,10 +20786,10 @@
         <v>0.83</v>
       </c>
       <c r="AS103">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT103">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU103">
         <v>1.41</v>
@@ -20833,7 +20890,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -20920,10 +20977,10 @@
         <v>1.5</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT104">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU104">
         <v>1.82</v>
@@ -21024,7 +21081,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21111,7 +21168,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT105">
         <v>1.14</v>
@@ -21215,7 +21272,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21305,7 +21362,7 @@
         <v>1.67</v>
       </c>
       <c r="AT106">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU106">
         <v>1.31</v>
@@ -21493,10 +21550,10 @@
         <v>1.17</v>
       </c>
       <c r="AS107">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT107">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU107">
         <v>1.73</v>
@@ -21597,7 +21654,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21684,10 +21741,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT108">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU108">
         <v>1.18</v>
@@ -21788,7 +21845,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21875,10 +21932,10 @@
         <v>0.86</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT109">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU109">
         <v>1.62</v>
@@ -21979,7 +22036,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22066,10 +22123,10 @@
         <v>1.14</v>
       </c>
       <c r="AS110">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT110">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22170,7 +22227,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22257,7 +22314,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT111">
         <v>0.89</v>
@@ -22448,10 +22505,10 @@
         <v>0.57</v>
       </c>
       <c r="AS112">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT112">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>1.53</v>
@@ -22639,10 +22696,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT113">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22743,7 +22800,7 @@
         <v>85</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22830,7 +22887,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
         <v>1.14</v>
@@ -23021,10 +23078,10 @@
         <v>2</v>
       </c>
       <c r="AS115">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="AT115">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU115">
         <v>1.68</v>
@@ -23215,7 +23272,7 @@
         <v>2.29</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU116">
         <v>1.21</v>
@@ -23406,7 +23463,7 @@
         <v>0.88</v>
       </c>
       <c r="AT117">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU117">
         <v>1.12</v>
@@ -23507,7 +23564,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23594,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT118">
         <v>0.86</v>
@@ -23785,10 +23842,10 @@
         <v>0.71</v>
       </c>
       <c r="AS119">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT119">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU119">
         <v>1.45</v>
@@ -23889,7 +23946,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -23976,10 +24033,10 @@
         <v>1.71</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT120">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU120">
         <v>1.44</v>
@@ -24080,7 +24137,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24167,10 +24224,10 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT121">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU121">
         <v>1.74</v>
@@ -24271,7 +24328,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24358,10 +24415,10 @@
         <v>1.86</v>
       </c>
       <c r="AS122">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT122">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU122">
         <v>1.35</v>
@@ -24552,7 +24609,7 @@
         <v>1.67</v>
       </c>
       <c r="AT123">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU123">
         <v>1.33</v>
@@ -24653,7 +24710,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -24740,7 +24797,7 @@
         <v>0.88</v>
       </c>
       <c r="AS124">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT124">
         <v>0.89</v>
@@ -24931,10 +24988,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT125">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU125">
         <v>1.17</v>
@@ -25122,10 +25179,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT126">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU126">
         <v>1.47</v>
@@ -25313,10 +25370,10 @@
         <v>0.88</v>
       </c>
       <c r="AS127">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT127">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25417,7 +25474,7 @@
         <v>114</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>13</v>
@@ -25504,10 +25561,10 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT128">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU128">
         <v>1.82</v>
@@ -25608,7 +25665,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -25695,10 +25752,10 @@
         <v>1.38</v>
       </c>
       <c r="AS129">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT129">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU129">
         <v>1.63</v>
@@ -25750,6 +25807,2680 @@
       </c>
       <c r="BK129">
         <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4869760</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45147.54166666666</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>70</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>181</v>
+      </c>
+      <c r="P130" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q130">
+        <v>5</v>
+      </c>
+      <c r="R130">
+        <v>7</v>
+      </c>
+      <c r="S130">
+        <v>12</v>
+      </c>
+      <c r="T130">
+        <v>2.81</v>
+      </c>
+      <c r="U130">
+        <v>2.28</v>
+      </c>
+      <c r="V130">
+        <v>3.44</v>
+      </c>
+      <c r="W130">
+        <v>1.29</v>
+      </c>
+      <c r="X130">
+        <v>3.5</v>
+      </c>
+      <c r="Y130">
+        <v>2.25</v>
+      </c>
+      <c r="Z130">
+        <v>1.6</v>
+      </c>
+      <c r="AA130">
+        <v>4.75</v>
+      </c>
+      <c r="AB130">
+        <v>1.15</v>
+      </c>
+      <c r="AC130">
+        <v>2.2</v>
+      </c>
+      <c r="AD130">
+        <v>3.4</v>
+      </c>
+      <c r="AE130">
+        <v>2.75</v>
+      </c>
+      <c r="AF130">
+        <v>1.03</v>
+      </c>
+      <c r="AG130">
+        <v>11</v>
+      </c>
+      <c r="AH130">
+        <v>1.17</v>
+      </c>
+      <c r="AI130">
+        <v>4.5</v>
+      </c>
+      <c r="AJ130">
+        <v>1.5</v>
+      </c>
+      <c r="AK130">
+        <v>2.3</v>
+      </c>
+      <c r="AL130">
+        <v>1.5</v>
+      </c>
+      <c r="AM130">
+        <v>2.5</v>
+      </c>
+      <c r="AN130">
+        <v>1.4</v>
+      </c>
+      <c r="AO130">
+        <v>1.25</v>
+      </c>
+      <c r="AP130">
+        <v>1.6</v>
+      </c>
+      <c r="AQ130">
+        <v>0.57</v>
+      </c>
+      <c r="AR130">
+        <v>1.71</v>
+      </c>
+      <c r="AS130">
+        <v>0.88</v>
+      </c>
+      <c r="AT130">
+        <v>1.5</v>
+      </c>
+      <c r="AU130">
+        <v>1.49</v>
+      </c>
+      <c r="AV130">
+        <v>1.39</v>
+      </c>
+      <c r="AW130">
+        <v>2.88</v>
+      </c>
+      <c r="AX130">
+        <v>1.62</v>
+      </c>
+      <c r="AY130">
+        <v>5.75</v>
+      </c>
+      <c r="AZ130">
+        <v>2.6</v>
+      </c>
+      <c r="BA130">
+        <v>1.25</v>
+      </c>
+      <c r="BB130">
+        <v>1.5</v>
+      </c>
+      <c r="BC130">
+        <v>1.79</v>
+      </c>
+      <c r="BD130">
+        <v>2.28</v>
+      </c>
+      <c r="BE130">
+        <v>2.9</v>
+      </c>
+      <c r="BF130">
+        <v>5</v>
+      </c>
+      <c r="BG130">
+        <v>7</v>
+      </c>
+      <c r="BH130">
+        <v>4</v>
+      </c>
+      <c r="BI130">
+        <v>3</v>
+      </c>
+      <c r="BJ130">
+        <v>9</v>
+      </c>
+      <c r="BK130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4869759</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45147.54166666666</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" t="s">
+        <v>76</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>182</v>
+      </c>
+      <c r="P131" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>5</v>
+      </c>
+      <c r="T131">
+        <v>2.19</v>
+      </c>
+      <c r="U131">
+        <v>2.55</v>
+      </c>
+      <c r="V131">
+        <v>4.22</v>
+      </c>
+      <c r="W131">
+        <v>1.25</v>
+      </c>
+      <c r="X131">
+        <v>3.75</v>
+      </c>
+      <c r="Y131">
+        <v>2.1</v>
+      </c>
+      <c r="Z131">
+        <v>1.67</v>
+      </c>
+      <c r="AA131">
+        <v>4.33</v>
+      </c>
+      <c r="AB131">
+        <v>1.2</v>
+      </c>
+      <c r="AC131">
+        <v>1.67</v>
+      </c>
+      <c r="AD131">
+        <v>3.7</v>
+      </c>
+      <c r="AE131">
+        <v>4</v>
+      </c>
+      <c r="AF131">
+        <v>1.02</v>
+      </c>
+      <c r="AG131">
+        <v>13</v>
+      </c>
+      <c r="AH131">
+        <v>1.15</v>
+      </c>
+      <c r="AI131">
+        <v>4.75</v>
+      </c>
+      <c r="AJ131">
+        <v>1.46</v>
+      </c>
+      <c r="AK131">
+        <v>2.42</v>
+      </c>
+      <c r="AL131">
+        <v>1.5</v>
+      </c>
+      <c r="AM131">
+        <v>2.5</v>
+      </c>
+      <c r="AN131">
+        <v>1.25</v>
+      </c>
+      <c r="AO131">
+        <v>1.2</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>2.29</v>
+      </c>
+      <c r="AR131">
+        <v>0.75</v>
+      </c>
+      <c r="AS131">
+        <v>2.44</v>
+      </c>
+      <c r="AT131">
+        <v>0.67</v>
+      </c>
+      <c r="AU131">
+        <v>1.77</v>
+      </c>
+      <c r="AV131">
+        <v>1.22</v>
+      </c>
+      <c r="AW131">
+        <v>2.99</v>
+      </c>
+      <c r="AX131">
+        <v>1.27</v>
+      </c>
+      <c r="AY131">
+        <v>11.75</v>
+      </c>
+      <c r="AZ131">
+        <v>4.55</v>
+      </c>
+      <c r="BA131">
+        <v>1.16</v>
+      </c>
+      <c r="BB131">
+        <v>1.29</v>
+      </c>
+      <c r="BC131">
+        <v>1.56</v>
+      </c>
+      <c r="BD131">
+        <v>1.92</v>
+      </c>
+      <c r="BE131">
+        <v>2.34</v>
+      </c>
+      <c r="BF131">
+        <v>6</v>
+      </c>
+      <c r="BG131">
+        <v>3</v>
+      </c>
+      <c r="BH131">
+        <v>5</v>
+      </c>
+      <c r="BI131">
+        <v>3</v>
+      </c>
+      <c r="BJ131">
+        <v>11</v>
+      </c>
+      <c r="BK131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>4869757</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45147.54166666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>67</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>3</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>183</v>
+      </c>
+      <c r="P132" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q132">
+        <v>5</v>
+      </c>
+      <c r="R132">
+        <v>9</v>
+      </c>
+      <c r="S132">
+        <v>14</v>
+      </c>
+      <c r="T132">
+        <v>2.9</v>
+      </c>
+      <c r="U132">
+        <v>2.2</v>
+      </c>
+      <c r="V132">
+        <v>3.51</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>3.25</v>
+      </c>
+      <c r="Y132">
+        <v>2.5</v>
+      </c>
+      <c r="Z132">
+        <v>1.5</v>
+      </c>
+      <c r="AA132">
+        <v>5.5</v>
+      </c>
+      <c r="AB132">
+        <v>1.12</v>
+      </c>
+      <c r="AC132">
+        <v>2.15</v>
+      </c>
+      <c r="AD132">
+        <v>3.3</v>
+      </c>
+      <c r="AE132">
+        <v>2.8</v>
+      </c>
+      <c r="AF132">
+        <v>1.04</v>
+      </c>
+      <c r="AG132">
+        <v>10</v>
+      </c>
+      <c r="AH132">
+        <v>1.22</v>
+      </c>
+      <c r="AI132">
+        <v>4</v>
+      </c>
+      <c r="AJ132">
+        <v>1.61</v>
+      </c>
+      <c r="AK132">
+        <v>2.15</v>
+      </c>
+      <c r="AL132">
+        <v>1.6</v>
+      </c>
+      <c r="AM132">
+        <v>2.25</v>
+      </c>
+      <c r="AN132">
+        <v>1.4</v>
+      </c>
+      <c r="AO132">
+        <v>1.29</v>
+      </c>
+      <c r="AP132">
+        <v>1.57</v>
+      </c>
+      <c r="AQ132">
+        <v>1.71</v>
+      </c>
+      <c r="AR132">
+        <v>1</v>
+      </c>
+      <c r="AS132">
+        <v>1.5</v>
+      </c>
+      <c r="AT132">
+        <v>1.11</v>
+      </c>
+      <c r="AU132">
+        <v>1.46</v>
+      </c>
+      <c r="AV132">
+        <v>1.33</v>
+      </c>
+      <c r="AW132">
+        <v>2.79</v>
+      </c>
+      <c r="AX132">
+        <v>1.62</v>
+      </c>
+      <c r="AY132">
+        <v>6.25</v>
+      </c>
+      <c r="AZ132">
+        <v>2.55</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>1.24</v>
+      </c>
+      <c r="BD132">
+        <v>1.53</v>
+      </c>
+      <c r="BE132">
+        <v>1.69</v>
+      </c>
+      <c r="BF132">
+        <v>8</v>
+      </c>
+      <c r="BG132">
+        <v>6</v>
+      </c>
+      <c r="BH132">
+        <v>4</v>
+      </c>
+      <c r="BI132">
+        <v>10</v>
+      </c>
+      <c r="BJ132">
+        <v>12</v>
+      </c>
+      <c r="BK132">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>4869755</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45147.54166666666</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>71</v>
+      </c>
+      <c r="H133" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>85</v>
+      </c>
+      <c r="P133" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q133">
+        <v>4</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>9</v>
+      </c>
+      <c r="T133">
+        <v>2.95</v>
+      </c>
+      <c r="U133">
+        <v>2.22</v>
+      </c>
+      <c r="V133">
+        <v>3.3</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>3.25</v>
+      </c>
+      <c r="Y133">
+        <v>2.38</v>
+      </c>
+      <c r="Z133">
+        <v>1.53</v>
+      </c>
+      <c r="AA133">
+        <v>5.5</v>
+      </c>
+      <c r="AB133">
+        <v>1.12</v>
+      </c>
+      <c r="AC133">
+        <v>2.37</v>
+      </c>
+      <c r="AD133">
+        <v>3.3</v>
+      </c>
+      <c r="AE133">
+        <v>2.55</v>
+      </c>
+      <c r="AF133">
+        <v>1.04</v>
+      </c>
+      <c r="AG133">
+        <v>10</v>
+      </c>
+      <c r="AH133">
+        <v>1.22</v>
+      </c>
+      <c r="AI133">
+        <v>4</v>
+      </c>
+      <c r="AJ133">
+        <v>1.61</v>
+      </c>
+      <c r="AK133">
+        <v>2.2</v>
+      </c>
+      <c r="AL133">
+        <v>1.53</v>
+      </c>
+      <c r="AM133">
+        <v>2.38</v>
+      </c>
+      <c r="AN133">
+        <v>1.44</v>
+      </c>
+      <c r="AO133">
+        <v>1.25</v>
+      </c>
+      <c r="AP133">
+        <v>1.53</v>
+      </c>
+      <c r="AQ133">
+        <v>2</v>
+      </c>
+      <c r="AR133">
+        <v>1.38</v>
+      </c>
+      <c r="AS133">
+        <v>1.78</v>
+      </c>
+      <c r="AT133">
+        <v>1.56</v>
+      </c>
+      <c r="AU133">
+        <v>1.69</v>
+      </c>
+      <c r="AV133">
+        <v>1.46</v>
+      </c>
+      <c r="AW133">
+        <v>3.15</v>
+      </c>
+      <c r="AX133">
+        <v>1.88</v>
+      </c>
+      <c r="AY133">
+        <v>5.75</v>
+      </c>
+      <c r="AZ133">
+        <v>2.21</v>
+      </c>
+      <c r="BA133">
+        <v>1.23</v>
+      </c>
+      <c r="BB133">
+        <v>1.36</v>
+      </c>
+      <c r="BC133">
+        <v>1.69</v>
+      </c>
+      <c r="BD133">
+        <v>2.07</v>
+      </c>
+      <c r="BE133">
+        <v>2.76</v>
+      </c>
+      <c r="BF133">
+        <v>3</v>
+      </c>
+      <c r="BG133">
+        <v>4</v>
+      </c>
+      <c r="BH133">
+        <v>5</v>
+      </c>
+      <c r="BI133">
+        <v>4</v>
+      </c>
+      <c r="BJ133">
+        <v>8</v>
+      </c>
+      <c r="BK133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>4869753</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45147.54166666666</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" t="s">
+        <v>65</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>184</v>
+      </c>
+      <c r="P134" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>8</v>
+      </c>
+      <c r="T134">
+        <v>2.34</v>
+      </c>
+      <c r="U134">
+        <v>2.23</v>
+      </c>
+      <c r="V134">
+        <v>4.79</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>3</v>
+      </c>
+      <c r="Y134">
+        <v>2.62</v>
+      </c>
+      <c r="Z134">
+        <v>1.44</v>
+      </c>
+      <c r="AA134">
+        <v>6</v>
+      </c>
+      <c r="AB134">
+        <v>1.11</v>
+      </c>
+      <c r="AC134">
+        <v>1.73</v>
+      </c>
+      <c r="AD134">
+        <v>3.4</v>
+      </c>
+      <c r="AE134">
+        <v>4</v>
+      </c>
+      <c r="AF134">
+        <v>1.05</v>
+      </c>
+      <c r="AG134">
+        <v>9</v>
+      </c>
+      <c r="AH134">
+        <v>1.29</v>
+      </c>
+      <c r="AI134">
+        <v>3.5</v>
+      </c>
+      <c r="AJ134">
+        <v>1.75</v>
+      </c>
+      <c r="AK134">
+        <v>2</v>
+      </c>
+      <c r="AL134">
+        <v>1.73</v>
+      </c>
+      <c r="AM134">
+        <v>2</v>
+      </c>
+      <c r="AN134">
+        <v>1.2</v>
+      </c>
+      <c r="AO134">
+        <v>1.29</v>
+      </c>
+      <c r="AP134">
+        <v>1.95</v>
+      </c>
+      <c r="AQ134">
+        <v>2</v>
+      </c>
+      <c r="AR134">
+        <v>0.57</v>
+      </c>
+      <c r="AS134">
+        <v>2.11</v>
+      </c>
+      <c r="AT134">
+        <v>0.5</v>
+      </c>
+      <c r="AU134">
+        <v>1.41</v>
+      </c>
+      <c r="AV134">
+        <v>1.41</v>
+      </c>
+      <c r="AW134">
+        <v>2.82</v>
+      </c>
+      <c r="AX134">
+        <v>1.25</v>
+      </c>
+      <c r="AY134">
+        <v>7.5</v>
+      </c>
+      <c r="AZ134">
+        <v>4.5</v>
+      </c>
+      <c r="BA134">
+        <v>1.13</v>
+      </c>
+      <c r="BB134">
+        <v>1.26</v>
+      </c>
+      <c r="BC134">
+        <v>1.52</v>
+      </c>
+      <c r="BD134">
+        <v>1.78</v>
+      </c>
+      <c r="BE134">
+        <v>2.23</v>
+      </c>
+      <c r="BF134">
+        <v>8</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>6</v>
+      </c>
+      <c r="BI134">
+        <v>6</v>
+      </c>
+      <c r="BJ134">
+        <v>14</v>
+      </c>
+      <c r="BK134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>4869756</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45147.54166666666</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s">
+        <v>78</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135" t="s">
+        <v>84</v>
+      </c>
+      <c r="P135" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>3</v>
+      </c>
+      <c r="S135">
+        <v>6</v>
+      </c>
+      <c r="T135">
+        <v>3.42</v>
+      </c>
+      <c r="U135">
+        <v>2.29</v>
+      </c>
+      <c r="V135">
+        <v>2.81</v>
+      </c>
+      <c r="W135">
+        <v>1.29</v>
+      </c>
+      <c r="X135">
+        <v>3.5</v>
+      </c>
+      <c r="Y135">
+        <v>2.25</v>
+      </c>
+      <c r="Z135">
+        <v>1.6</v>
+      </c>
+      <c r="AA135">
+        <v>4.75</v>
+      </c>
+      <c r="AB135">
+        <v>1.15</v>
+      </c>
+      <c r="AC135">
+        <v>2.65</v>
+      </c>
+      <c r="AD135">
+        <v>3.4</v>
+      </c>
+      <c r="AE135">
+        <v>2.25</v>
+      </c>
+      <c r="AF135">
+        <v>1.03</v>
+      </c>
+      <c r="AG135">
+        <v>11</v>
+      </c>
+      <c r="AH135">
+        <v>1.17</v>
+      </c>
+      <c r="AI135">
+        <v>4.5</v>
+      </c>
+      <c r="AJ135">
+        <v>1.49</v>
+      </c>
+      <c r="AK135">
+        <v>2.34</v>
+      </c>
+      <c r="AL135">
+        <v>1.5</v>
+      </c>
+      <c r="AM135">
+        <v>2.5</v>
+      </c>
+      <c r="AN135">
+        <v>1.6</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1.4</v>
+      </c>
+      <c r="AQ135">
+        <v>1.71</v>
+      </c>
+      <c r="AR135">
+        <v>1.63</v>
+      </c>
+      <c r="AS135">
+        <v>1.5</v>
+      </c>
+      <c r="AT135">
+        <v>1.78</v>
+      </c>
+      <c r="AU135">
+        <v>1.8</v>
+      </c>
+      <c r="AV135">
+        <v>1.14</v>
+      </c>
+      <c r="AW135">
+        <v>2.94</v>
+      </c>
+      <c r="AX135">
+        <v>2.08</v>
+      </c>
+      <c r="AY135">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ135">
+        <v>1.98</v>
+      </c>
+      <c r="BA135">
+        <v>1.18</v>
+      </c>
+      <c r="BB135">
+        <v>1.33</v>
+      </c>
+      <c r="BC135">
+        <v>1.61</v>
+      </c>
+      <c r="BD135">
+        <v>2</v>
+      </c>
+      <c r="BE135">
+        <v>2.41</v>
+      </c>
+      <c r="BF135">
+        <v>3</v>
+      </c>
+      <c r="BG135">
+        <v>4</v>
+      </c>
+      <c r="BH135">
+        <v>2</v>
+      </c>
+      <c r="BI135">
+        <v>2</v>
+      </c>
+      <c r="BJ135">
+        <v>5</v>
+      </c>
+      <c r="BK135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>4869768</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F136">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>77</v>
+      </c>
+      <c r="H136" t="s">
+        <v>73</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>185</v>
+      </c>
+      <c r="P136" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q136">
+        <v>-1</v>
+      </c>
+      <c r="R136">
+        <v>-1</v>
+      </c>
+      <c r="S136">
+        <v>-1</v>
+      </c>
+      <c r="T136">
+        <v>2.3</v>
+      </c>
+      <c r="U136">
+        <v>2.4</v>
+      </c>
+      <c r="V136">
+        <v>3.35</v>
+      </c>
+      <c r="W136">
+        <v>1.25</v>
+      </c>
+      <c r="X136">
+        <v>3.6</v>
+      </c>
+      <c r="Y136">
+        <v>2</v>
+      </c>
+      <c r="Z136">
+        <v>1.66</v>
+      </c>
+      <c r="AA136">
+        <v>4.25</v>
+      </c>
+      <c r="AB136">
+        <v>1.18</v>
+      </c>
+      <c r="AC136">
+        <v>2.25</v>
+      </c>
+      <c r="AD136">
+        <v>3.55</v>
+      </c>
+      <c r="AE136">
+        <v>2.75</v>
+      </c>
+      <c r="AF136">
+        <v>1.02</v>
+      </c>
+      <c r="AG136">
+        <v>18</v>
+      </c>
+      <c r="AH136">
+        <v>1.12</v>
+      </c>
+      <c r="AI136">
+        <v>5.75</v>
+      </c>
+      <c r="AJ136">
+        <v>1.45</v>
+      </c>
+      <c r="AK136">
+        <v>2.7</v>
+      </c>
+      <c r="AL136">
+        <v>1.41</v>
+      </c>
+      <c r="AM136">
+        <v>2.75</v>
+      </c>
+      <c r="AN136">
+        <v>1.31</v>
+      </c>
+      <c r="AO136">
+        <v>1.25</v>
+      </c>
+      <c r="AP136">
+        <v>1.8</v>
+      </c>
+      <c r="AQ136">
+        <v>2.38</v>
+      </c>
+      <c r="AR136">
+        <v>1.56</v>
+      </c>
+      <c r="AS136">
+        <v>2.44</v>
+      </c>
+      <c r="AT136">
+        <v>1.4</v>
+      </c>
+      <c r="AU136">
+        <v>1.76</v>
+      </c>
+      <c r="AV136">
+        <v>1.6</v>
+      </c>
+      <c r="AW136">
+        <v>3.36</v>
+      </c>
+      <c r="AX136">
+        <v>1.8</v>
+      </c>
+      <c r="AY136">
+        <v>5.5</v>
+      </c>
+      <c r="AZ136">
+        <v>2.25</v>
+      </c>
+      <c r="BA136">
+        <v>1.18</v>
+      </c>
+      <c r="BB136">
+        <v>1.31</v>
+      </c>
+      <c r="BC136">
+        <v>1.57</v>
+      </c>
+      <c r="BD136">
+        <v>1.89</v>
+      </c>
+      <c r="BE136">
+        <v>2.32</v>
+      </c>
+      <c r="BF136">
+        <v>-1</v>
+      </c>
+      <c r="BG136">
+        <v>-1</v>
+      </c>
+      <c r="BH136">
+        <v>-1</v>
+      </c>
+      <c r="BI136">
+        <v>-1</v>
+      </c>
+      <c r="BJ136">
+        <v>-1</v>
+      </c>
+      <c r="BK136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>4869767</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
+        <v>80</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>186</v>
+      </c>
+      <c r="P137" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q137">
+        <v>-1</v>
+      </c>
+      <c r="R137">
+        <v>-1</v>
+      </c>
+      <c r="S137">
+        <v>-1</v>
+      </c>
+      <c r="T137">
+        <v>2.9</v>
+      </c>
+      <c r="U137">
+        <v>2.2</v>
+      </c>
+      <c r="V137">
+        <v>2.65</v>
+      </c>
+      <c r="W137">
+        <v>1.27</v>
+      </c>
+      <c r="X137">
+        <v>3.25</v>
+      </c>
+      <c r="Y137">
+        <v>2.35</v>
+      </c>
+      <c r="Z137">
+        <v>1.5</v>
+      </c>
+      <c r="AA137">
+        <v>5.65</v>
+      </c>
+      <c r="AB137">
+        <v>1.12</v>
+      </c>
+      <c r="AC137">
+        <v>2.6</v>
+      </c>
+      <c r="AD137">
+        <v>3.4</v>
+      </c>
+      <c r="AE137">
+        <v>2.45</v>
+      </c>
+      <c r="AF137">
+        <v>1.04</v>
+      </c>
+      <c r="AG137">
+        <v>16.5</v>
+      </c>
+      <c r="AH137">
+        <v>1.17</v>
+      </c>
+      <c r="AI137">
+        <v>4.25</v>
+      </c>
+      <c r="AJ137">
+        <v>1.66</v>
+      </c>
+      <c r="AK137">
+        <v>2.2</v>
+      </c>
+      <c r="AL137">
+        <v>1.53</v>
+      </c>
+      <c r="AM137">
+        <v>2.4</v>
+      </c>
+      <c r="AN137">
+        <v>1.57</v>
+      </c>
+      <c r="AO137">
+        <v>1.27</v>
+      </c>
+      <c r="AP137">
+        <v>1.43</v>
+      </c>
+      <c r="AQ137">
+        <v>0.63</v>
+      </c>
+      <c r="AR137">
+        <v>0.78</v>
+      </c>
+      <c r="AS137">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT137">
+        <v>1</v>
+      </c>
+      <c r="AU137">
+        <v>1.27</v>
+      </c>
+      <c r="AV137">
+        <v>1.25</v>
+      </c>
+      <c r="AW137">
+        <v>2.52</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+      <c r="AY137">
+        <v>5.75</v>
+      </c>
+      <c r="AZ137">
+        <v>2</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>1.2</v>
+      </c>
+      <c r="BC137">
+        <v>1.28</v>
+      </c>
+      <c r="BD137">
+        <v>1.58</v>
+      </c>
+      <c r="BE137">
+        <v>1.87</v>
+      </c>
+      <c r="BF137">
+        <v>-1</v>
+      </c>
+      <c r="BG137">
+        <v>-1</v>
+      </c>
+      <c r="BH137">
+        <v>-1</v>
+      </c>
+      <c r="BI137">
+        <v>-1</v>
+      </c>
+      <c r="BJ137">
+        <v>-1</v>
+      </c>
+      <c r="BK137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>4869766</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H138" t="s">
+        <v>71</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>187</v>
+      </c>
+      <c r="P138" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q138">
+        <v>-1</v>
+      </c>
+      <c r="R138">
+        <v>-1</v>
+      </c>
+      <c r="S138">
+        <v>-1</v>
+      </c>
+      <c r="T138">
+        <v>2.4</v>
+      </c>
+      <c r="U138">
+        <v>2.25</v>
+      </c>
+      <c r="V138">
+        <v>3.25</v>
+      </c>
+      <c r="W138">
+        <v>1.27</v>
+      </c>
+      <c r="X138">
+        <v>3.3</v>
+      </c>
+      <c r="Y138">
+        <v>2.25</v>
+      </c>
+      <c r="Z138">
+        <v>1.55</v>
+      </c>
+      <c r="AA138">
+        <v>4.9</v>
+      </c>
+      <c r="AB138">
+        <v>1.14</v>
+      </c>
+      <c r="AC138">
+        <v>2.15</v>
+      </c>
+      <c r="AD138">
+        <v>3.45</v>
+      </c>
+      <c r="AE138">
+        <v>3</v>
+      </c>
+      <c r="AF138">
+        <v>1.03</v>
+      </c>
+      <c r="AG138">
+        <v>18.25</v>
+      </c>
+      <c r="AH138">
+        <v>1.17</v>
+      </c>
+      <c r="AI138">
+        <v>4.65</v>
+      </c>
+      <c r="AJ138">
+        <v>1.53</v>
+      </c>
+      <c r="AK138">
+        <v>2.45</v>
+      </c>
+      <c r="AL138">
+        <v>1.5</v>
+      </c>
+      <c r="AM138">
+        <v>2.51</v>
+      </c>
+      <c r="AN138">
+        <v>1.33</v>
+      </c>
+      <c r="AO138">
+        <v>1.25</v>
+      </c>
+      <c r="AP138">
+        <v>1.74</v>
+      </c>
+      <c r="AQ138">
+        <v>1</v>
+      </c>
+      <c r="AR138">
+        <v>0.88</v>
+      </c>
+      <c r="AS138">
+        <v>1.2</v>
+      </c>
+      <c r="AT138">
+        <v>0.78</v>
+      </c>
+      <c r="AU138">
+        <v>1.63</v>
+      </c>
+      <c r="AV138">
+        <v>1.34</v>
+      </c>
+      <c r="AW138">
+        <v>2.97</v>
+      </c>
+      <c r="AX138">
+        <v>2</v>
+      </c>
+      <c r="AY138">
+        <v>6</v>
+      </c>
+      <c r="AZ138">
+        <v>1.95</v>
+      </c>
+      <c r="BA138">
+        <v>1.22</v>
+      </c>
+      <c r="BB138">
+        <v>1.36</v>
+      </c>
+      <c r="BC138">
+        <v>1.7</v>
+      </c>
+      <c r="BD138">
+        <v>2.11</v>
+      </c>
+      <c r="BE138">
+        <v>2.46</v>
+      </c>
+      <c r="BF138">
+        <v>-1</v>
+      </c>
+      <c r="BG138">
+        <v>-1</v>
+      </c>
+      <c r="BH138">
+        <v>-1</v>
+      </c>
+      <c r="BI138">
+        <v>-1</v>
+      </c>
+      <c r="BJ138">
+        <v>-1</v>
+      </c>
+      <c r="BK138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>4869765</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" t="s">
+        <v>74</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>154</v>
+      </c>
+      <c r="P139" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>-1</v>
+      </c>
+      <c r="S139">
+        <v>-1</v>
+      </c>
+      <c r="T139">
+        <v>2.7</v>
+      </c>
+      <c r="U139">
+        <v>2.54</v>
+      </c>
+      <c r="V139">
+        <v>3.39</v>
+      </c>
+      <c r="W139">
+        <v>1.22</v>
+      </c>
+      <c r="X139">
+        <v>3.45</v>
+      </c>
+      <c r="Y139">
+        <v>2.1</v>
+      </c>
+      <c r="Z139">
+        <v>1.64</v>
+      </c>
+      <c r="AA139">
+        <v>4.45</v>
+      </c>
+      <c r="AB139">
+        <v>1.17</v>
+      </c>
+      <c r="AC139">
+        <v>2.15</v>
+      </c>
+      <c r="AD139">
+        <v>3.6</v>
+      </c>
+      <c r="AE139">
+        <v>2.95</v>
+      </c>
+      <c r="AF139">
+        <v>1.02</v>
+      </c>
+      <c r="AG139">
+        <v>17</v>
+      </c>
+      <c r="AH139">
+        <v>1.14</v>
+      </c>
+      <c r="AI139">
+        <v>5.25</v>
+      </c>
+      <c r="AJ139">
+        <v>1.47</v>
+      </c>
+      <c r="AK139">
+        <v>2.65</v>
+      </c>
+      <c r="AL139">
+        <v>1.45</v>
+      </c>
+      <c r="AM139">
+        <v>2.7</v>
+      </c>
+      <c r="AN139">
+        <v>1.39</v>
+      </c>
+      <c r="AO139">
+        <v>1.27</v>
+      </c>
+      <c r="AP139">
+        <v>1.68</v>
+      </c>
+      <c r="AQ139">
+        <v>1</v>
+      </c>
+      <c r="AR139">
+        <v>0.89</v>
+      </c>
+      <c r="AS139">
+        <v>0.9</v>
+      </c>
+      <c r="AT139">
+        <v>1.1</v>
+      </c>
+      <c r="AU139">
+        <v>1.18</v>
+      </c>
+      <c r="AV139">
+        <v>1.14</v>
+      </c>
+      <c r="AW139">
+        <v>2.32</v>
+      </c>
+      <c r="AX139">
+        <v>1.6</v>
+      </c>
+      <c r="AY139">
+        <v>5.75</v>
+      </c>
+      <c r="AZ139">
+        <v>2.55</v>
+      </c>
+      <c r="BA139">
+        <v>1.22</v>
+      </c>
+      <c r="BB139">
+        <v>1.36</v>
+      </c>
+      <c r="BC139">
+        <v>1.64</v>
+      </c>
+      <c r="BD139">
+        <v>1.99</v>
+      </c>
+      <c r="BE139">
+        <v>2.47</v>
+      </c>
+      <c r="BF139">
+        <v>-1</v>
+      </c>
+      <c r="BG139">
+        <v>-1</v>
+      </c>
+      <c r="BH139">
+        <v>-1</v>
+      </c>
+      <c r="BI139">
+        <v>-1</v>
+      </c>
+      <c r="BJ139">
+        <v>-1</v>
+      </c>
+      <c r="BK139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>4869763</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s">
+        <v>75</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>188</v>
+      </c>
+      <c r="P140" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q140">
+        <v>-1</v>
+      </c>
+      <c r="R140">
+        <v>-1</v>
+      </c>
+      <c r="S140">
+        <v>-1</v>
+      </c>
+      <c r="T140">
+        <v>1.98</v>
+      </c>
+      <c r="U140">
+        <v>2.56</v>
+      </c>
+      <c r="V140">
+        <v>5.05</v>
+      </c>
+      <c r="W140">
+        <v>1.2</v>
+      </c>
+      <c r="X140">
+        <v>3.8</v>
+      </c>
+      <c r="Y140">
+        <v>2.1</v>
+      </c>
+      <c r="Z140">
+        <v>1.58</v>
+      </c>
+      <c r="AA140">
+        <v>4.25</v>
+      </c>
+      <c r="AB140">
+        <v>1.17</v>
+      </c>
+      <c r="AC140">
+        <v>1.48</v>
+      </c>
+      <c r="AD140">
+        <v>4.33</v>
+      </c>
+      <c r="AE140">
+        <v>5.5</v>
+      </c>
+      <c r="AF140">
+        <v>1.02</v>
+      </c>
+      <c r="AG140">
+        <v>10</v>
+      </c>
+      <c r="AH140">
+        <v>1.15</v>
+      </c>
+      <c r="AI140">
+        <v>4.8</v>
+      </c>
+      <c r="AJ140">
+        <v>1.47</v>
+      </c>
+      <c r="AK140">
+        <v>2.65</v>
+      </c>
+      <c r="AL140">
+        <v>1.57</v>
+      </c>
+      <c r="AM140">
+        <v>2.31</v>
+      </c>
+      <c r="AN140">
+        <v>1.09</v>
+      </c>
+      <c r="AO140">
+        <v>1.2</v>
+      </c>
+      <c r="AP140">
+        <v>2.4</v>
+      </c>
+      <c r="AQ140">
+        <v>2.25</v>
+      </c>
+      <c r="AR140">
+        <v>0.78</v>
+      </c>
+      <c r="AS140">
+        <v>2.33</v>
+      </c>
+      <c r="AT140">
+        <v>0.7</v>
+      </c>
+      <c r="AU140">
+        <v>1.7</v>
+      </c>
+      <c r="AV140">
+        <v>1.25</v>
+      </c>
+      <c r="AW140">
+        <v>2.95</v>
+      </c>
+      <c r="AX140">
+        <v>1.25</v>
+      </c>
+      <c r="AY140">
+        <v>7.25</v>
+      </c>
+      <c r="AZ140">
+        <v>4.35</v>
+      </c>
+      <c r="BA140">
+        <v>1.18</v>
+      </c>
+      <c r="BB140">
+        <v>1.31</v>
+      </c>
+      <c r="BC140">
+        <v>1.62</v>
+      </c>
+      <c r="BD140">
+        <v>2</v>
+      </c>
+      <c r="BE140">
+        <v>2.44</v>
+      </c>
+      <c r="BF140">
+        <v>-1</v>
+      </c>
+      <c r="BG140">
+        <v>-1</v>
+      </c>
+      <c r="BH140">
+        <v>-1</v>
+      </c>
+      <c r="BI140">
+        <v>-1</v>
+      </c>
+      <c r="BJ140">
+        <v>-1</v>
+      </c>
+      <c r="BK140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>4869762</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>68</v>
+      </c>
+      <c r="H141" t="s">
+        <v>79</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P141" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="T141">
+        <v>2.7</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
+        <v>3.2</v>
+      </c>
+      <c r="W141">
+        <v>1.35</v>
+      </c>
+      <c r="X141">
+        <v>2.85</v>
+      </c>
+      <c r="Y141">
+        <v>2.6</v>
+      </c>
+      <c r="Z141">
+        <v>1.4</v>
+      </c>
+      <c r="AA141">
+        <v>6.75</v>
+      </c>
+      <c r="AB141">
+        <v>1.09</v>
+      </c>
+      <c r="AC141">
+        <v>2.45</v>
+      </c>
+      <c r="AD141">
+        <v>3.1</v>
+      </c>
+      <c r="AE141">
+        <v>2.7</v>
+      </c>
+      <c r="AF141">
+        <v>1.03</v>
+      </c>
+      <c r="AG141">
+        <v>13</v>
+      </c>
+      <c r="AH141">
+        <v>1.21</v>
+      </c>
+      <c r="AI141">
+        <v>3.6</v>
+      </c>
+      <c r="AJ141">
+        <v>1.84</v>
+      </c>
+      <c r="AK141">
+        <v>2</v>
+      </c>
+      <c r="AL141">
+        <v>1.65</v>
+      </c>
+      <c r="AM141">
+        <v>2.1</v>
+      </c>
+      <c r="AN141">
+        <v>1.33</v>
+      </c>
+      <c r="AO141">
+        <v>1.25</v>
+      </c>
+      <c r="AP141">
+        <v>1.62</v>
+      </c>
+      <c r="AQ141">
+        <v>2.13</v>
+      </c>
+      <c r="AR141">
+        <v>2</v>
+      </c>
+      <c r="AS141">
+        <v>2.22</v>
+      </c>
+      <c r="AT141">
+        <v>1.78</v>
+      </c>
+      <c r="AU141">
+        <v>1.46</v>
+      </c>
+      <c r="AV141">
+        <v>1.29</v>
+      </c>
+      <c r="AW141">
+        <v>2.75</v>
+      </c>
+      <c r="AX141">
+        <v>1.62</v>
+      </c>
+      <c r="AY141">
+        <v>5.75</v>
+      </c>
+      <c r="AZ141">
+        <v>2.55</v>
+      </c>
+      <c r="BA141">
+        <v>1.16</v>
+      </c>
+      <c r="BB141">
+        <v>1.29</v>
+      </c>
+      <c r="BC141">
+        <v>1.57</v>
+      </c>
+      <c r="BD141">
+        <v>1.95</v>
+      </c>
+      <c r="BE141">
+        <v>2.37</v>
+      </c>
+      <c r="BF141">
+        <v>5</v>
+      </c>
+      <c r="BG141">
+        <v>2</v>
+      </c>
+      <c r="BH141">
+        <v>3</v>
+      </c>
+      <c r="BI141">
+        <v>1</v>
+      </c>
+      <c r="BJ141">
+        <v>8</v>
+      </c>
+      <c r="BK141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>4869761</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>65</v>
+      </c>
+      <c r="H142" t="s">
+        <v>66</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>190</v>
+      </c>
+      <c r="P142" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
+        <v>-1</v>
+      </c>
+      <c r="S142">
+        <v>-1</v>
+      </c>
+      <c r="T142">
+        <v>2.55</v>
+      </c>
+      <c r="U142">
+        <v>2.13</v>
+      </c>
+      <c r="V142">
+        <v>4.33</v>
+      </c>
+      <c r="W142">
+        <v>1.37</v>
+      </c>
+      <c r="X142">
+        <v>2.7</v>
+      </c>
+      <c r="Y142">
+        <v>2.85</v>
+      </c>
+      <c r="Z142">
+        <v>1.31</v>
+      </c>
+      <c r="AA142">
+        <v>7.4</v>
+      </c>
+      <c r="AB142">
+        <v>1.03</v>
+      </c>
+      <c r="AC142">
+        <v>1.85</v>
+      </c>
+      <c r="AD142">
+        <v>3.4</v>
+      </c>
+      <c r="AE142">
+        <v>3.9</v>
+      </c>
+      <c r="AF142">
+        <v>1.02</v>
+      </c>
+      <c r="AG142">
+        <v>11</v>
+      </c>
+      <c r="AH142">
+        <v>1.27</v>
+      </c>
+      <c r="AI142">
+        <v>3.25</v>
+      </c>
+      <c r="AJ142">
+        <v>1.98</v>
+      </c>
+      <c r="AK142">
+        <v>1.86</v>
+      </c>
+      <c r="AL142">
+        <v>1.82</v>
+      </c>
+      <c r="AM142">
+        <v>1.92</v>
+      </c>
+      <c r="AN142">
+        <v>1.22</v>
+      </c>
+      <c r="AO142">
+        <v>1.3</v>
+      </c>
+      <c r="AP142">
+        <v>1.8</v>
+      </c>
+      <c r="AQ142">
+        <v>1.67</v>
+      </c>
+      <c r="AR142">
+        <v>0.88</v>
+      </c>
+      <c r="AS142">
+        <v>1.8</v>
+      </c>
+      <c r="AT142">
+        <v>0.78</v>
+      </c>
+      <c r="AU142">
+        <v>1.43</v>
+      </c>
+      <c r="AV142">
+        <v>0.99</v>
+      </c>
+      <c r="AW142">
+        <v>2.42</v>
+      </c>
+      <c r="AX142">
+        <v>1.44</v>
+      </c>
+      <c r="AY142">
+        <v>6</v>
+      </c>
+      <c r="AZ142">
+        <v>3.1</v>
+      </c>
+      <c r="BA142">
+        <v>1.19</v>
+      </c>
+      <c r="BB142">
+        <v>1.39</v>
+      </c>
+      <c r="BC142">
+        <v>1.74</v>
+      </c>
+      <c r="BD142">
+        <v>2.16</v>
+      </c>
+      <c r="BE142">
+        <v>2.49</v>
+      </c>
+      <c r="BF142">
+        <v>-1</v>
+      </c>
+      <c r="BG142">
+        <v>-1</v>
+      </c>
+      <c r="BH142">
+        <v>-1</v>
+      </c>
+      <c r="BI142">
+        <v>-1</v>
+      </c>
+      <c r="BJ142">
+        <v>-1</v>
+      </c>
+      <c r="BK142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>4869764</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45151.5</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>69</v>
+      </c>
+      <c r="H143" t="s">
+        <v>67</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>191</v>
+      </c>
+      <c r="P143" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q143">
+        <v>-1</v>
+      </c>
+      <c r="R143">
+        <v>-1</v>
+      </c>
+      <c r="S143">
+        <v>-1</v>
+      </c>
+      <c r="T143">
+        <v>2.03</v>
+      </c>
+      <c r="U143">
+        <v>2.51</v>
+      </c>
+      <c r="V143">
+        <v>4.95</v>
+      </c>
+      <c r="W143">
+        <v>1.25</v>
+      </c>
+      <c r="X143">
+        <v>3.72</v>
+      </c>
+      <c r="Y143">
+        <v>2.15</v>
+      </c>
+      <c r="Z143">
+        <v>1.58</v>
+      </c>
+      <c r="AA143">
+        <v>4.85</v>
+      </c>
+      <c r="AB143">
+        <v>1.16</v>
+      </c>
+      <c r="AC143">
+        <v>1.53</v>
+      </c>
+      <c r="AD143">
+        <v>4.33</v>
+      </c>
+      <c r="AE143">
+        <v>4.75</v>
+      </c>
+      <c r="AF143">
+        <v>1.02</v>
+      </c>
+      <c r="AG143">
+        <v>17</v>
+      </c>
+      <c r="AH143">
+        <v>1.12</v>
+      </c>
+      <c r="AI143">
+        <v>5.2</v>
+      </c>
+      <c r="AJ143">
+        <v>1.38</v>
+      </c>
+      <c r="AK143">
+        <v>3</v>
+      </c>
+      <c r="AL143">
+        <v>1.58</v>
+      </c>
+      <c r="AM143">
+        <v>2.29</v>
+      </c>
+      <c r="AN143">
+        <v>1.16</v>
+      </c>
+      <c r="AO143">
+        <v>1.2</v>
+      </c>
+      <c r="AP143">
+        <v>2.41</v>
+      </c>
+      <c r="AQ143">
+        <v>2.22</v>
+      </c>
+      <c r="AR143">
+        <v>1.25</v>
+      </c>
+      <c r="AS143">
+        <v>2.3</v>
+      </c>
+      <c r="AT143">
+        <v>1.11</v>
+      </c>
+      <c r="AU143">
+        <v>1.73</v>
+      </c>
+      <c r="AV143">
+        <v>1.42</v>
+      </c>
+      <c r="AW143">
+        <v>3.15</v>
+      </c>
+      <c r="AX143">
+        <v>1.25</v>
+      </c>
+      <c r="AY143">
+        <v>7.25</v>
+      </c>
+      <c r="AZ143">
+        <v>4.45</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>1.18</v>
+      </c>
+      <c r="BC143">
+        <v>1.3</v>
+      </c>
+      <c r="BD143">
+        <v>1.61</v>
+      </c>
+      <c r="BE143">
+        <v>1.93</v>
+      </c>
+      <c r="BF143">
+        <v>-1</v>
+      </c>
+      <c r="BG143">
+        <v>-1</v>
+      </c>
+      <c r="BH143">
+        <v>-1</v>
+      </c>
+      <c r="BI143">
+        <v>-1</v>
+      </c>
+      <c r="BJ143">
+        <v>-1</v>
+      </c>
+      <c r="BK143">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -27005,13 +27005,13 @@
         <v>85</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S136">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T136">
         <v>2.3</v>
@@ -27128,22 +27128,22 @@
         <v>2.32</v>
       </c>
       <c r="BF136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH136">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI136">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ136">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK136">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:63">
@@ -27196,13 +27196,13 @@
         <v>259</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R137">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="S137">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="T137">
         <v>2.9</v>
@@ -27319,22 +27319,22 @@
         <v>1.87</v>
       </c>
       <c r="BF137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG137">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH137">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI137">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="BJ137">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BK137">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:63">
@@ -27387,13 +27387,13 @@
         <v>85</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R138">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S138">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T138">
         <v>2.4</v>
@@ -27510,22 +27510,22 @@
         <v>2.46</v>
       </c>
       <c r="BF138">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG138">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH138">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI138">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ138">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK138">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:63">
@@ -27578,13 +27578,13 @@
         <v>260</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S139">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T139">
         <v>2.7</v>
@@ -27701,22 +27701,22 @@
         <v>2.47</v>
       </c>
       <c r="BF139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG139">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ139">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK139">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:63">
@@ -27769,13 +27769,13 @@
         <v>261</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R140">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S140">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T140">
         <v>1.98</v>
@@ -27892,22 +27892,22 @@
         <v>2.44</v>
       </c>
       <c r="BF140">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG140">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH140">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ140">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK140">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:63">
@@ -27963,10 +27963,10 @@
         <v>1</v>
       </c>
       <c r="R141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T141">
         <v>2.7</v>
@@ -28083,22 +28083,22 @@
         <v>2.37</v>
       </c>
       <c r="BF141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH141">
         <v>3</v>
       </c>
       <c r="BI141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ141">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK141">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:63">
@@ -28151,13 +28151,13 @@
         <v>99</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R142">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S142">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T142">
         <v>2.55</v>
@@ -28274,22 +28274,22 @@
         <v>2.49</v>
       </c>
       <c r="BF142">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG142">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH142">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ142">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK142">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:63">
@@ -28342,13 +28342,13 @@
         <v>262</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T143">
         <v>2.03</v>
@@ -28465,22 +28465,22 @@
         <v>1.93</v>
       </c>
       <c r="BF143">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG143">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH143">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI143">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ143">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK143">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -571,25 +571,25 @@
     <t>['62', '68']</t>
   </si>
   <si>
-    <t>['16', '88']</t>
+    <t>['39', '90+2']</t>
+  </si>
+  <si>
+    <t>['41', '59']</t>
+  </si>
+  <si>
+    <t>['39', '55', '75']</t>
+  </si>
+  <si>
+    <t>['2', '23', '69']</t>
+  </si>
+  <si>
+    <t>['35', '78']</t>
   </si>
   <si>
     <t>['28']</t>
   </si>
   <si>
-    <t>['35', '78']</t>
-  </si>
-  <si>
-    <t>['39', '55', '75']</t>
-  </si>
-  <si>
-    <t>['41', '59']</t>
-  </si>
-  <si>
-    <t>['39', '90+2']</t>
-  </si>
-  <si>
-    <t>['2', '23', '69']</t>
+    <t>['16', '88']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -787,22 +787,22 @@
     <t>['49', '69', '90+3']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['18', '28', '88', '90+4']</t>
   </si>
   <si>
-    <t>['81', '84']</t>
-  </si>
-  <si>
-    <t>['83', '89']</t>
+    <t>['60']</t>
   </si>
   <si>
     <t>['12']</t>
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['83', '89']</t>
+  </si>
+  <si>
+    <t>['81', '84']</t>
   </si>
 </sst>
 </file>
@@ -26387,7 +26387,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>4869755</v>
+        <v>4869756</v>
       </c>
       <c r="C133" t="s">
         <v>63</v>
@@ -26402,157 +26402,157 @@
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P133" t="s">
         <v>257</v>
       </c>
       <c r="Q133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S133">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T133">
-        <v>2.95</v>
+        <v>3.42</v>
       </c>
       <c r="U133">
-        <v>2.22</v>
+        <v>2.29</v>
       </c>
       <c r="V133">
-        <v>3.3</v>
+        <v>2.81</v>
       </c>
       <c r="W133">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X133">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z133">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AA133">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AB133">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AC133">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AD133">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE133">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="AF133">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG133">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH133">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AI133">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ133">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AK133">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="AL133">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AM133">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AN133">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AO133">
         <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AQ133">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR133">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AS133">
+        <v>1.5</v>
+      </c>
+      <c r="AT133">
         <v>1.78</v>
       </c>
-      <c r="AT133">
-        <v>1.56</v>
-      </c>
       <c r="AU133">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AV133">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="AW133">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="AX133">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="AY133">
-        <v>5.75</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ133">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
       <c r="BA133">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BB133">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BC133">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="BD133">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BE133">
-        <v>2.76</v>
+        <v>2.41</v>
       </c>
       <c r="BF133">
         <v>3</v>
@@ -26561,16 +26561,16 @@
         <v>4</v>
       </c>
       <c r="BH133">
+        <v>2</v>
+      </c>
+      <c r="BI133">
+        <v>2</v>
+      </c>
+      <c r="BJ133">
         <v>5</v>
       </c>
-      <c r="BI133">
-        <v>4</v>
-      </c>
-      <c r="BJ133">
-        <v>8</v>
-      </c>
       <c r="BK133">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:63">
@@ -26578,7 +26578,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>4869753</v>
+        <v>4869755</v>
       </c>
       <c r="C134" t="s">
         <v>63</v>
@@ -26593,10 +26593,10 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H134" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -26608,160 +26608,160 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>1</v>
       </c>
       <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>85</v>
+      </c>
+      <c r="P134" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q134">
+        <v>4</v>
+      </c>
+      <c r="R134">
+        <v>5</v>
+      </c>
+      <c r="S134">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>2.95</v>
+      </c>
+      <c r="U134">
+        <v>2.22</v>
+      </c>
+      <c r="V134">
+        <v>3.3</v>
+      </c>
+      <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>3.25</v>
+      </c>
+      <c r="Y134">
+        <v>2.38</v>
+      </c>
+      <c r="Z134">
+        <v>1.53</v>
+      </c>
+      <c r="AA134">
+        <v>5.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.12</v>
+      </c>
+      <c r="AC134">
+        <v>2.37</v>
+      </c>
+      <c r="AD134">
+        <v>3.3</v>
+      </c>
+      <c r="AE134">
+        <v>2.55</v>
+      </c>
+      <c r="AF134">
+        <v>1.04</v>
+      </c>
+      <c r="AG134">
+        <v>10</v>
+      </c>
+      <c r="AH134">
+        <v>1.22</v>
+      </c>
+      <c r="AI134">
+        <v>4</v>
+      </c>
+      <c r="AJ134">
+        <v>1.61</v>
+      </c>
+      <c r="AK134">
+        <v>2.2</v>
+      </c>
+      <c r="AL134">
+        <v>1.53</v>
+      </c>
+      <c r="AM134">
+        <v>2.38</v>
+      </c>
+      <c r="AN134">
+        <v>1.44</v>
+      </c>
+      <c r="AO134">
+        <v>1.25</v>
+      </c>
+      <c r="AP134">
+        <v>1.53</v>
+      </c>
+      <c r="AQ134">
+        <v>2</v>
+      </c>
+      <c r="AR134">
+        <v>1.38</v>
+      </c>
+      <c r="AS134">
+        <v>1.78</v>
+      </c>
+      <c r="AT134">
+        <v>1.56</v>
+      </c>
+      <c r="AU134">
+        <v>1.69</v>
+      </c>
+      <c r="AV134">
+        <v>1.46</v>
+      </c>
+      <c r="AW134">
+        <v>3.15</v>
+      </c>
+      <c r="AX134">
+        <v>1.88</v>
+      </c>
+      <c r="AY134">
+        <v>5.75</v>
+      </c>
+      <c r="AZ134">
+        <v>2.21</v>
+      </c>
+      <c r="BA134">
+        <v>1.23</v>
+      </c>
+      <c r="BB134">
+        <v>1.36</v>
+      </c>
+      <c r="BC134">
+        <v>1.69</v>
+      </c>
+      <c r="BD134">
+        <v>2.07</v>
+      </c>
+      <c r="BE134">
+        <v>2.76</v>
+      </c>
+      <c r="BF134">
         <v>3</v>
-      </c>
-      <c r="O134" t="s">
-        <v>184</v>
-      </c>
-      <c r="P134" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q134">
-        <v>6</v>
-      </c>
-      <c r="R134">
-        <v>2</v>
-      </c>
-      <c r="S134">
-        <v>8</v>
-      </c>
-      <c r="T134">
-        <v>2.34</v>
-      </c>
-      <c r="U134">
-        <v>2.23</v>
-      </c>
-      <c r="V134">
-        <v>4.79</v>
-      </c>
-      <c r="W134">
-        <v>1.36</v>
-      </c>
-      <c r="X134">
-        <v>3</v>
-      </c>
-      <c r="Y134">
-        <v>2.62</v>
-      </c>
-      <c r="Z134">
-        <v>1.44</v>
-      </c>
-      <c r="AA134">
-        <v>6</v>
-      </c>
-      <c r="AB134">
-        <v>1.11</v>
-      </c>
-      <c r="AC134">
-        <v>1.73</v>
-      </c>
-      <c r="AD134">
-        <v>3.4</v>
-      </c>
-      <c r="AE134">
-        <v>4</v>
-      </c>
-      <c r="AF134">
-        <v>1.05</v>
-      </c>
-      <c r="AG134">
-        <v>9</v>
-      </c>
-      <c r="AH134">
-        <v>1.29</v>
-      </c>
-      <c r="AI134">
-        <v>3.5</v>
-      </c>
-      <c r="AJ134">
-        <v>1.75</v>
-      </c>
-      <c r="AK134">
-        <v>2</v>
-      </c>
-      <c r="AL134">
-        <v>1.73</v>
-      </c>
-      <c r="AM134">
-        <v>2</v>
-      </c>
-      <c r="AN134">
-        <v>1.2</v>
-      </c>
-      <c r="AO134">
-        <v>1.29</v>
-      </c>
-      <c r="AP134">
-        <v>1.95</v>
-      </c>
-      <c r="AQ134">
-        <v>2</v>
-      </c>
-      <c r="AR134">
-        <v>0.57</v>
-      </c>
-      <c r="AS134">
-        <v>2.11</v>
-      </c>
-      <c r="AT134">
-        <v>0.5</v>
-      </c>
-      <c r="AU134">
-        <v>1.41</v>
-      </c>
-      <c r="AV134">
-        <v>1.41</v>
-      </c>
-      <c r="AW134">
-        <v>2.82</v>
-      </c>
-      <c r="AX134">
-        <v>1.25</v>
-      </c>
-      <c r="AY134">
-        <v>7.5</v>
-      </c>
-      <c r="AZ134">
-        <v>4.5</v>
-      </c>
-      <c r="BA134">
-        <v>1.13</v>
-      </c>
-      <c r="BB134">
-        <v>1.26</v>
-      </c>
-      <c r="BC134">
-        <v>1.52</v>
-      </c>
-      <c r="BD134">
-        <v>1.78</v>
-      </c>
-      <c r="BE134">
-        <v>2.23</v>
-      </c>
-      <c r="BF134">
-        <v>8</v>
       </c>
       <c r="BG134">
         <v>4</v>
       </c>
       <c r="BH134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI134">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ134">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BK134">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:63">
@@ -26769,7 +26769,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>4869756</v>
+        <v>4869753</v>
       </c>
       <c r="C135" t="s">
         <v>63</v>
@@ -26784,175 +26784,175 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H135" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O135" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="Q135">
+        <v>6</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>8</v>
+      </c>
+      <c r="T135">
+        <v>2.34</v>
+      </c>
+      <c r="U135">
+        <v>2.23</v>
+      </c>
+      <c r="V135">
+        <v>4.79</v>
+      </c>
+      <c r="W135">
+        <v>1.36</v>
+      </c>
+      <c r="X135">
         <v>3</v>
       </c>
-      <c r="R135">
-        <v>3</v>
-      </c>
-      <c r="S135">
+      <c r="Y135">
+        <v>2.62</v>
+      </c>
+      <c r="Z135">
+        <v>1.44</v>
+      </c>
+      <c r="AA135">
         <v>6</v>
       </c>
-      <c r="T135">
-        <v>3.42</v>
-      </c>
-      <c r="U135">
-        <v>2.29</v>
-      </c>
-      <c r="V135">
-        <v>2.81</v>
-      </c>
-      <c r="W135">
-        <v>1.29</v>
-      </c>
-      <c r="X135">
-        <v>3.5</v>
-      </c>
-      <c r="Y135">
-        <v>2.25</v>
-      </c>
-      <c r="Z135">
-        <v>1.6</v>
-      </c>
-      <c r="AA135">
-        <v>4.75</v>
-      </c>
       <c r="AB135">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AC135">
-        <v>2.65</v>
+        <v>1.73</v>
       </c>
       <c r="AD135">
         <v>3.4</v>
       </c>
       <c r="AE135">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="AF135">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG135">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH135">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AI135">
+        <v>3.5</v>
+      </c>
+      <c r="AJ135">
+        <v>1.75</v>
+      </c>
+      <c r="AK135">
+        <v>2</v>
+      </c>
+      <c r="AL135">
+        <v>1.73</v>
+      </c>
+      <c r="AM135">
+        <v>2</v>
+      </c>
+      <c r="AN135">
+        <v>1.2</v>
+      </c>
+      <c r="AO135">
+        <v>1.29</v>
+      </c>
+      <c r="AP135">
+        <v>1.95</v>
+      </c>
+      <c r="AQ135">
+        <v>2</v>
+      </c>
+      <c r="AR135">
+        <v>0.57</v>
+      </c>
+      <c r="AS135">
+        <v>2.11</v>
+      </c>
+      <c r="AT135">
+        <v>0.5</v>
+      </c>
+      <c r="AU135">
+        <v>1.41</v>
+      </c>
+      <c r="AV135">
+        <v>1.41</v>
+      </c>
+      <c r="AW135">
+        <v>2.82</v>
+      </c>
+      <c r="AX135">
+        <v>1.25</v>
+      </c>
+      <c r="AY135">
+        <v>7.5</v>
+      </c>
+      <c r="AZ135">
         <v>4.5</v>
       </c>
-      <c r="AJ135">
-        <v>1.49</v>
-      </c>
-      <c r="AK135">
-        <v>2.34</v>
-      </c>
-      <c r="AL135">
-        <v>1.5</v>
-      </c>
-      <c r="AM135">
-        <v>2.5</v>
-      </c>
-      <c r="AN135">
-        <v>1.6</v>
-      </c>
-      <c r="AO135">
-        <v>1.25</v>
-      </c>
-      <c r="AP135">
-        <v>1.4</v>
-      </c>
-      <c r="AQ135">
-        <v>1.71</v>
-      </c>
-      <c r="AR135">
-        <v>1.63</v>
-      </c>
-      <c r="AS135">
-        <v>1.5</v>
-      </c>
-      <c r="AT135">
+      <c r="BA135">
+        <v>1.13</v>
+      </c>
+      <c r="BB135">
+        <v>1.26</v>
+      </c>
+      <c r="BC135">
+        <v>1.52</v>
+      </c>
+      <c r="BD135">
         <v>1.78</v>
       </c>
-      <c r="AU135">
-        <v>1.8</v>
-      </c>
-      <c r="AV135">
-        <v>1.14</v>
-      </c>
-      <c r="AW135">
-        <v>2.94</v>
-      </c>
-      <c r="AX135">
-        <v>2.08</v>
-      </c>
-      <c r="AY135">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AZ135">
-        <v>1.98</v>
-      </c>
-      <c r="BA135">
-        <v>1.18</v>
-      </c>
-      <c r="BB135">
-        <v>1.33</v>
-      </c>
-      <c r="BC135">
-        <v>1.61</v>
-      </c>
-      <c r="BD135">
-        <v>2</v>
-      </c>
       <c r="BE135">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="BF135">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG135">
         <v>4</v>
       </c>
       <c r="BH135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ135">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BK135">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:63">
@@ -26960,7 +26960,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>4869768</v>
+        <v>4869761</v>
       </c>
       <c r="C136" t="s">
         <v>63</v>
@@ -26975,10 +26975,10 @@
         <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H136" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -26993,157 +26993,157 @@
         <v>2</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O136" t="s">
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Q136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S136">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T136">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="U136">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="V136">
-        <v>3.35</v>
+        <v>4.33</v>
       </c>
       <c r="W136">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="X136">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Y136">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="Z136">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="AA136">
-        <v>4.25</v>
+        <v>7.4</v>
       </c>
       <c r="AB136">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="AC136">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="AD136">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AE136">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="AF136">
         <v>1.02</v>
       </c>
       <c r="AG136">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH136">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AI136">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="AJ136">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="AK136">
-        <v>2.7</v>
+        <v>1.86</v>
       </c>
       <c r="AL136">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="AM136">
-        <v>2.75</v>
+        <v>1.92</v>
       </c>
       <c r="AN136">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AO136">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP136">
         <v>1.8</v>
       </c>
       <c r="AQ136">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="AR136">
-        <v>1.56</v>
+        <v>0.88</v>
       </c>
       <c r="AS136">
-        <v>2.44</v>
+        <v>1.8</v>
       </c>
       <c r="AT136">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AU136">
-        <v>1.76</v>
+        <v>1.43</v>
       </c>
       <c r="AV136">
-        <v>1.6</v>
+        <v>0.99</v>
       </c>
       <c r="AW136">
-        <v>3.36</v>
+        <v>2.42</v>
       </c>
       <c r="AX136">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AY136">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ136">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="BA136">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BB136">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="BC136">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="BD136">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="BE136">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="BF136">
         <v>3</v>
       </c>
       <c r="BG136">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH136">
         <v>3</v>
       </c>
       <c r="BI136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ136">
         <v>6</v>
       </c>
       <c r="BK136">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:63">
@@ -27151,7 +27151,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>4869767</v>
+        <v>4869762</v>
       </c>
       <c r="C137" t="s">
         <v>63</v>
@@ -27166,25 +27166,25 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N137">
         <v>3</v>
@@ -27193,148 +27193,148 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="Q137">
         <v>1</v>
       </c>
       <c r="R137">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="S137">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="T137">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="U137">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V137">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="W137">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="X137">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="Y137">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA137">
-        <v>5.65</v>
+        <v>6.75</v>
       </c>
       <c r="AB137">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AC137">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AD137">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AE137">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AF137">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG137">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AH137">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AI137">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="AJ137">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="AK137">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AL137">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AM137">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AN137">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO137">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AQ137">
-        <v>0.63</v>
+        <v>2.13</v>
       </c>
       <c r="AR137">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="AS137">
-        <v>0.5600000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AU137">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AV137">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AW137">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="AX137">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AY137">
         <v>5.75</v>
       </c>
       <c r="AZ137">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="BA137">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BB137">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="BC137">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="BD137">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="BE137">
-        <v>1.87</v>
+        <v>2.37</v>
       </c>
       <c r="BF137">
+        <v>7</v>
+      </c>
+      <c r="BG137">
         <v>3</v>
       </c>
-      <c r="BG137">
-        <v>7</v>
-      </c>
       <c r="BH137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI137">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="BJ137">
+        <v>10</v>
+      </c>
+      <c r="BK137">
         <v>5</v>
-      </c>
-      <c r="BK137">
-        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:63">
@@ -27342,7 +27342,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>4869766</v>
+        <v>4869763</v>
       </c>
       <c r="C138" t="s">
         <v>63</v>
@@ -27357,175 +27357,175 @@
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H138" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O138" t="s">
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="Q138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R138">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S138">
+        <v>7</v>
+      </c>
+      <c r="T138">
+        <v>1.98</v>
+      </c>
+      <c r="U138">
+        <v>2.56</v>
+      </c>
+      <c r="V138">
+        <v>5.05</v>
+      </c>
+      <c r="W138">
+        <v>1.2</v>
+      </c>
+      <c r="X138">
+        <v>3.8</v>
+      </c>
+      <c r="Y138">
+        <v>2.1</v>
+      </c>
+      <c r="Z138">
+        <v>1.58</v>
+      </c>
+      <c r="AA138">
+        <v>4.25</v>
+      </c>
+      <c r="AB138">
+        <v>1.17</v>
+      </c>
+      <c r="AC138">
+        <v>1.48</v>
+      </c>
+      <c r="AD138">
+        <v>4.33</v>
+      </c>
+      <c r="AE138">
+        <v>5.5</v>
+      </c>
+      <c r="AF138">
+        <v>1.02</v>
+      </c>
+      <c r="AG138">
+        <v>10</v>
+      </c>
+      <c r="AH138">
+        <v>1.15</v>
+      </c>
+      <c r="AI138">
+        <v>4.8</v>
+      </c>
+      <c r="AJ138">
+        <v>1.47</v>
+      </c>
+      <c r="AK138">
+        <v>2.65</v>
+      </c>
+      <c r="AL138">
+        <v>1.57</v>
+      </c>
+      <c r="AM138">
+        <v>2.31</v>
+      </c>
+      <c r="AN138">
+        <v>1.09</v>
+      </c>
+      <c r="AO138">
+        <v>1.2</v>
+      </c>
+      <c r="AP138">
+        <v>2.4</v>
+      </c>
+      <c r="AQ138">
+        <v>2.25</v>
+      </c>
+      <c r="AR138">
+        <v>0.78</v>
+      </c>
+      <c r="AS138">
+        <v>2.33</v>
+      </c>
+      <c r="AT138">
+        <v>0.7</v>
+      </c>
+      <c r="AU138">
+        <v>1.7</v>
+      </c>
+      <c r="AV138">
+        <v>1.25</v>
+      </c>
+      <c r="AW138">
+        <v>2.95</v>
+      </c>
+      <c r="AX138">
+        <v>1.25</v>
+      </c>
+      <c r="AY138">
+        <v>7.25</v>
+      </c>
+      <c r="AZ138">
+        <v>4.35</v>
+      </c>
+      <c r="BA138">
+        <v>1.18</v>
+      </c>
+      <c r="BB138">
+        <v>1.31</v>
+      </c>
+      <c r="BC138">
+        <v>1.62</v>
+      </c>
+      <c r="BD138">
+        <v>2</v>
+      </c>
+      <c r="BE138">
+        <v>2.44</v>
+      </c>
+      <c r="BF138">
+        <v>5</v>
+      </c>
+      <c r="BG138">
+        <v>6</v>
+      </c>
+      <c r="BH138">
+        <v>6</v>
+      </c>
+      <c r="BI138">
+        <v>4</v>
+      </c>
+      <c r="BJ138">
         <v>11</v>
       </c>
-      <c r="T138">
-        <v>2.4</v>
-      </c>
-      <c r="U138">
-        <v>2.25</v>
-      </c>
-      <c r="V138">
-        <v>3.25</v>
-      </c>
-      <c r="W138">
-        <v>1.27</v>
-      </c>
-      <c r="X138">
-        <v>3.3</v>
-      </c>
-      <c r="Y138">
-        <v>2.25</v>
-      </c>
-      <c r="Z138">
-        <v>1.55</v>
-      </c>
-      <c r="AA138">
-        <v>4.9</v>
-      </c>
-      <c r="AB138">
-        <v>1.14</v>
-      </c>
-      <c r="AC138">
-        <v>2.15</v>
-      </c>
-      <c r="AD138">
-        <v>3.45</v>
-      </c>
-      <c r="AE138">
-        <v>3</v>
-      </c>
-      <c r="AF138">
-        <v>1.03</v>
-      </c>
-      <c r="AG138">
-        <v>18.25</v>
-      </c>
-      <c r="AH138">
-        <v>1.17</v>
-      </c>
-      <c r="AI138">
-        <v>4.65</v>
-      </c>
-      <c r="AJ138">
-        <v>1.53</v>
-      </c>
-      <c r="AK138">
-        <v>2.45</v>
-      </c>
-      <c r="AL138">
-        <v>1.5</v>
-      </c>
-      <c r="AM138">
-        <v>2.51</v>
-      </c>
-      <c r="AN138">
-        <v>1.33</v>
-      </c>
-      <c r="AO138">
-        <v>1.25</v>
-      </c>
-      <c r="AP138">
-        <v>1.74</v>
-      </c>
-      <c r="AQ138">
-        <v>1</v>
-      </c>
-      <c r="AR138">
-        <v>0.88</v>
-      </c>
-      <c r="AS138">
-        <v>1.2</v>
-      </c>
-      <c r="AT138">
-        <v>0.78</v>
-      </c>
-      <c r="AU138">
-        <v>1.63</v>
-      </c>
-      <c r="AV138">
-        <v>1.34</v>
-      </c>
-      <c r="AW138">
-        <v>2.97</v>
-      </c>
-      <c r="AX138">
-        <v>2</v>
-      </c>
-      <c r="AY138">
-        <v>6</v>
-      </c>
-      <c r="AZ138">
-        <v>1.95</v>
-      </c>
-      <c r="BA138">
-        <v>1.22</v>
-      </c>
-      <c r="BB138">
-        <v>1.36</v>
-      </c>
-      <c r="BC138">
-        <v>1.7</v>
-      </c>
-      <c r="BD138">
-        <v>2.11</v>
-      </c>
-      <c r="BE138">
-        <v>2.46</v>
-      </c>
-      <c r="BF138">
-        <v>6</v>
-      </c>
-      <c r="BG138">
-        <v>5</v>
-      </c>
-      <c r="BH138">
-        <v>8</v>
-      </c>
-      <c r="BI138">
+      <c r="BK138">
         <v>10</v>
-      </c>
-      <c r="BJ138">
-        <v>14</v>
-      </c>
-      <c r="BK138">
-        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:63">
@@ -27533,7 +27533,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>4869765</v>
+        <v>4869764</v>
       </c>
       <c r="C139" t="s">
         <v>63</v>
@@ -27548,79 +27548,79 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H139" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O139" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="P139" t="s">
         <v>260</v>
       </c>
       <c r="Q139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T139">
-        <v>2.7</v>
+        <v>2.03</v>
       </c>
       <c r="U139">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="V139">
-        <v>3.39</v>
+        <v>4.95</v>
       </c>
       <c r="W139">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X139">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="Y139">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Z139">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AA139">
-        <v>4.45</v>
+        <v>4.85</v>
       </c>
       <c r="AB139">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AC139">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="AD139">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AE139">
-        <v>2.95</v>
+        <v>4.75</v>
       </c>
       <c r="AF139">
         <v>1.02</v>
@@ -27629,94 +27629,94 @@
         <v>17</v>
       </c>
       <c r="AH139">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AI139">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="AJ139">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AK139">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AL139">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AM139">
-        <v>2.7</v>
+        <v>2.29</v>
       </c>
       <c r="AN139">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="AO139">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>1.68</v>
+        <v>2.41</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AR139">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AS139">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="AT139">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AU139">
+        <v>1.73</v>
+      </c>
+      <c r="AV139">
+        <v>1.42</v>
+      </c>
+      <c r="AW139">
+        <v>3.15</v>
+      </c>
+      <c r="AX139">
+        <v>1.25</v>
+      </c>
+      <c r="AY139">
+        <v>7.25</v>
+      </c>
+      <c r="AZ139">
+        <v>4.45</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
         <v>1.18</v>
       </c>
-      <c r="AV139">
-        <v>1.14</v>
-      </c>
-      <c r="AW139">
-        <v>2.32</v>
-      </c>
-      <c r="AX139">
-        <v>1.6</v>
-      </c>
-      <c r="AY139">
-        <v>5.75</v>
-      </c>
-      <c r="AZ139">
-        <v>2.55</v>
-      </c>
-      <c r="BA139">
-        <v>1.22</v>
-      </c>
-      <c r="BB139">
-        <v>1.36</v>
-      </c>
       <c r="BC139">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="BD139">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="BE139">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="BF139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG139">
         <v>3</v>
       </c>
       <c r="BH139">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI139">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ139">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BK139">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:63">
@@ -27724,7 +27724,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>4869763</v>
+        <v>4869765</v>
       </c>
       <c r="C140" t="s">
         <v>63</v>
@@ -27739,91 +27739,91 @@
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
         <v>3</v>
       </c>
-      <c r="M140">
-        <v>1</v>
-      </c>
-      <c r="N140">
-        <v>4</v>
-      </c>
       <c r="O140" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="P140" t="s">
         <v>261</v>
       </c>
       <c r="Q140">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S140">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T140">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="U140">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V140">
-        <v>5.05</v>
+        <v>3.39</v>
       </c>
       <c r="W140">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X140">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="Y140">
         <v>2.1</v>
       </c>
       <c r="Z140">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AA140">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="AB140">
         <v>1.17</v>
       </c>
       <c r="AC140">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="AD140">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AE140">
-        <v>5.5</v>
+        <v>2.95</v>
       </c>
       <c r="AF140">
         <v>1.02</v>
       </c>
       <c r="AG140">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AH140">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AI140">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="AJ140">
         <v>1.47</v>
@@ -27832,82 +27832,82 @@
         <v>2.65</v>
       </c>
       <c r="AL140">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AM140">
-        <v>2.31</v>
+        <v>2.7</v>
       </c>
       <c r="AN140">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="AO140">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP140">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="AQ140">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AR140">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AS140">
-        <v>2.33</v>
+        <v>0.9</v>
       </c>
       <c r="AT140">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AU140">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="AV140">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AW140">
-        <v>2.95</v>
+        <v>2.32</v>
       </c>
       <c r="AX140">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AY140">
-        <v>7.25</v>
+        <v>5.75</v>
       </c>
       <c r="AZ140">
-        <v>4.35</v>
+        <v>2.55</v>
       </c>
       <c r="BA140">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BB140">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BC140">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="BD140">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="BE140">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="BF140">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG140">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BH140">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BI140">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BJ140">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BK140">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:63">
@@ -27915,7 +27915,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>4869762</v>
+        <v>4869766</v>
       </c>
       <c r="C141" t="s">
         <v>63</v>
@@ -27930,103 +27930,103 @@
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H141" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L141">
         <v>2</v>
       </c>
       <c r="M141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O141" t="s">
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R141">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S141">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T141">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="U141">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V141">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W141">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="X141">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="Y141">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Z141">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AA141">
-        <v>6.75</v>
+        <v>4.9</v>
       </c>
       <c r="AB141">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AC141">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="AD141">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AE141">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AF141">
         <v>1.03</v>
       </c>
       <c r="AG141">
-        <v>13</v>
+        <v>18.25</v>
       </c>
       <c r="AH141">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AI141">
-        <v>3.6</v>
+        <v>4.65</v>
       </c>
       <c r="AJ141">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="AK141">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="AL141">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AM141">
-        <v>2.1</v>
+        <v>2.51</v>
       </c>
       <c r="AN141">
         <v>1.33</v>
@@ -28035,70 +28035,70 @@
         <v>1.25</v>
       </c>
       <c r="AP141">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AQ141">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="AR141">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="AS141">
-        <v>2.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT141">
-        <v>1.78</v>
+        <v>0.78</v>
       </c>
       <c r="AU141">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AV141">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AW141">
-        <v>2.75</v>
+        <v>2.97</v>
       </c>
       <c r="AX141">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AY141">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AZ141">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="BA141">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="BB141">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BC141">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BD141">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="BE141">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="BF141">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG141">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH141">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI141">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ141">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK141">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:63">
@@ -28106,7 +28106,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>4869761</v>
+        <v>4869767</v>
       </c>
       <c r="C142" t="s">
         <v>63</v>
@@ -28121,10 +28121,10 @@
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H142" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -28136,10 +28136,10 @@
         <v>1</v>
       </c>
       <c r="L142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N142">
         <v>3</v>
@@ -28148,148 +28148,148 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="Q142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R142">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S142">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T142">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="U142">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="V142">
-        <v>4.33</v>
+        <v>2.65</v>
       </c>
       <c r="W142">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="X142">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="Y142">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="Z142">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AA142">
-        <v>7.4</v>
+        <v>5.65</v>
       </c>
       <c r="AB142">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AC142">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="AD142">
         <v>3.4</v>
       </c>
       <c r="AE142">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="AF142">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG142">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AH142">
+        <v>1.17</v>
+      </c>
+      <c r="AI142">
+        <v>4.25</v>
+      </c>
+      <c r="AJ142">
+        <v>1.66</v>
+      </c>
+      <c r="AK142">
+        <v>2.2</v>
+      </c>
+      <c r="AL142">
+        <v>1.53</v>
+      </c>
+      <c r="AM142">
+        <v>2.4</v>
+      </c>
+      <c r="AN142">
+        <v>1.57</v>
+      </c>
+      <c r="AO142">
         <v>1.27</v>
       </c>
-      <c r="AI142">
-        <v>3.25</v>
-      </c>
-      <c r="AJ142">
-        <v>1.98</v>
-      </c>
-      <c r="AK142">
-        <v>1.86</v>
-      </c>
-      <c r="AL142">
-        <v>1.82</v>
-      </c>
-      <c r="AM142">
-        <v>1.92</v>
-      </c>
-      <c r="AN142">
-        <v>1.22</v>
-      </c>
-      <c r="AO142">
-        <v>1.3</v>
-      </c>
       <c r="AP142">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AQ142">
-        <v>1.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR142">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AS142">
-        <v>1.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT142">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU142">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AV142">
-        <v>0.99</v>
+        <v>1.25</v>
       </c>
       <c r="AW142">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="AX142">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AY142">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AZ142">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="BA142">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="BB142">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="BC142">
-        <v>1.74</v>
+        <v>1.28</v>
       </c>
       <c r="BD142">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="BE142">
-        <v>2.49</v>
+        <v>1.87</v>
       </c>
       <c r="BF142">
         <v>3</v>
       </c>
       <c r="BG142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI142">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="BJ142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK142">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:63">
@@ -28297,7 +28297,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>4869764</v>
+        <v>4869768</v>
       </c>
       <c r="C143" t="s">
         <v>63</v>
@@ -28312,175 +28312,175 @@
         <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H143" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O143" t="s">
         <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="Q143">
         <v>3</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S143">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T143">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="U143">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="V143">
-        <v>4.95</v>
+        <v>3.35</v>
       </c>
       <c r="W143">
         <v>1.25</v>
       </c>
       <c r="X143">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="Y143">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Z143">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AA143">
-        <v>4.85</v>
+        <v>4.25</v>
       </c>
       <c r="AB143">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AC143">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="AD143">
-        <v>4.33</v>
+        <v>3.55</v>
       </c>
       <c r="AE143">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="AF143">
         <v>1.02</v>
       </c>
       <c r="AG143">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH143">
         <v>1.12</v>
       </c>
       <c r="AI143">
-        <v>5.2</v>
+        <v>5.75</v>
       </c>
       <c r="AJ143">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AK143">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AL143">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AM143">
-        <v>2.29</v>
+        <v>2.75</v>
       </c>
       <c r="AN143">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AO143">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AP143">
-        <v>2.41</v>
+        <v>1.8</v>
       </c>
       <c r="AQ143">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AR143">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AS143">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="AT143">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AU143">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AV143">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AW143">
-        <v>3.15</v>
+        <v>3.36</v>
       </c>
       <c r="AX143">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="AY143">
-        <v>7.25</v>
+        <v>5.5</v>
       </c>
       <c r="AZ143">
-        <v>4.45</v>
+        <v>2.25</v>
       </c>
       <c r="BA143">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BB143">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="BC143">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="BD143">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="BE143">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="BF143">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BG143">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH143">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BI143">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BJ143">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BK143">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,15 @@
     <t>['16', '88']</t>
   </si>
   <si>
+    <t>['57', '61', '71']</t>
+  </si>
+  <si>
+    <t>['3', '79']</t>
+  </si>
+  <si>
+    <t>['4', '36', '48', '50']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -803,6 +812,15 @@
   </si>
   <si>
     <t>['81', '84']</t>
+  </si>
+  <si>
+    <t>['2', '68']</t>
+  </si>
+  <si>
+    <t>['7', '73', '78']</t>
+  </si>
+  <si>
+    <t>['74', '86']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1426,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1498,7 +1516,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1686,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1790,7 +1808,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1877,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
         <v>1.1</v>
@@ -1981,7 +1999,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2745,7 +2763,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2835,7 +2853,7 @@
         <v>1.2</v>
       </c>
       <c r="AT9">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3023,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3214,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT11">
         <v>0.5</v>
@@ -3318,7 +3336,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3509,7 +3527,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4363,7 +4381,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4464,7 +4482,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4551,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT18">
         <v>0.7</v>
@@ -4745,7 +4763,7 @@
         <v>2.3</v>
       </c>
       <c r="AT19">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU19">
         <v>0.75</v>
@@ -4846,7 +4864,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4933,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU20">
         <v>0.46</v>
@@ -5228,7 +5246,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5419,7 +5437,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5610,7 +5628,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5801,7 +5819,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5992,7 +6010,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6183,7 +6201,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6270,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU27">
         <v>1.79</v>
@@ -6374,7 +6392,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6461,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT28">
         <v>0.5</v>
@@ -6565,7 +6583,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6655,7 +6673,7 @@
         <v>0.88</v>
       </c>
       <c r="AT29">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU29">
         <v>1.38</v>
@@ -6756,7 +6774,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6947,7 +6965,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7138,7 +7156,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7419,7 +7437,7 @@
         <v>2.11</v>
       </c>
       <c r="AT33">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU33">
         <v>1.22</v>
@@ -7798,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT35">
         <v>1.1</v>
@@ -7902,7 +7920,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7989,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
         <v>1.5</v>
@@ -8093,7 +8111,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8284,7 +8302,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8666,7 +8684,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8756,7 +8774,7 @@
         <v>1.2</v>
       </c>
       <c r="AT40">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -8857,7 +8875,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -9239,7 +9257,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9329,7 +9347,7 @@
         <v>0.9</v>
       </c>
       <c r="AT43">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU43">
         <v>1.03</v>
@@ -9430,7 +9448,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9517,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT44">
         <v>0.7</v>
@@ -9708,7 +9726,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -9812,7 +9830,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10093,7 +10111,7 @@
         <v>1.78</v>
       </c>
       <c r="AT47">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10284,7 +10302,7 @@
         <v>2.11</v>
       </c>
       <c r="AT48">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU48">
         <v>1.15</v>
@@ -10576,7 +10594,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11045,7 +11063,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT52">
         <v>0.78</v>
@@ -11149,7 +11167,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>13</v>
@@ -11236,7 +11254,7 @@
         <v>2.33</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
         <v>1.78</v>
@@ -11430,7 +11448,7 @@
         <v>2.22</v>
       </c>
       <c r="AT54">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -11722,7 +11740,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11913,7 +11931,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12295,7 +12313,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12385,7 +12403,7 @@
         <v>2.44</v>
       </c>
       <c r="AT59">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU59">
         <v>1.56</v>
@@ -12573,7 +12591,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT60">
         <v>0.78</v>
@@ -12958,7 +12976,7 @@
         <v>2.33</v>
       </c>
       <c r="AT62">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU62">
         <v>1.76</v>
@@ -13059,7 +13077,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13340,7 +13358,7 @@
         <v>2.11</v>
       </c>
       <c r="AT64">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU64">
         <v>1.33</v>
@@ -13910,7 +13928,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT67">
         <v>1.78</v>
@@ -14014,7 +14032,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>15</v>
@@ -14101,7 +14119,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
         <v>0.86</v>
@@ -14205,7 +14223,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14483,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT70">
         <v>1.4</v>
@@ -14587,7 +14605,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14677,7 +14695,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14778,7 +14796,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14969,7 +14987,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15160,7 +15178,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15542,7 +15560,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15632,7 +15650,7 @@
         <v>0.9</v>
       </c>
       <c r="AT76">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU76">
         <v>1.13</v>
@@ -15733,7 +15751,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -15823,7 +15841,7 @@
         <v>2.3</v>
       </c>
       <c r="AT77">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -15924,7 +15942,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16011,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT78">
         <v>0.78</v>
@@ -16115,7 +16133,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16306,7 +16324,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16396,7 +16414,7 @@
         <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU80">
         <v>1.62</v>
@@ -16688,7 +16706,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16778,7 +16796,7 @@
         <v>0.88</v>
       </c>
       <c r="AT82">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -16879,7 +16897,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16966,7 +16984,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT83">
         <v>1.5</v>
@@ -17261,7 +17279,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17348,7 +17366,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT85">
         <v>0.78</v>
@@ -17452,7 +17470,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17643,7 +17661,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -18112,7 +18130,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT89">
         <v>0.89</v>
@@ -18303,7 +18321,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18789,7 +18807,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18980,7 +18998,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19553,7 +19571,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19643,7 +19661,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT97">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -20022,7 +20040,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT99">
         <v>0.5</v>
@@ -20126,7 +20144,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20213,7 +20231,7 @@
         <v>1.8</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
         <v>1.5</v>
@@ -20404,7 +20422,7 @@
         <v>1.67</v>
       </c>
       <c r="AS101">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT101">
         <v>1.78</v>
@@ -20508,7 +20526,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20789,7 +20807,7 @@
         <v>1.5</v>
       </c>
       <c r="AT103">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU103">
         <v>1.41</v>
@@ -20890,7 +20908,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -20980,7 +20998,7 @@
         <v>1.78</v>
       </c>
       <c r="AT104">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU104">
         <v>1.82</v>
@@ -21081,7 +21099,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21171,7 +21189,7 @@
         <v>2.22</v>
       </c>
       <c r="AT105">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU105">
         <v>1.38</v>
@@ -21272,7 +21290,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21359,10 +21377,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU106">
         <v>1.31</v>
@@ -21654,7 +21672,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21845,7 +21863,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22036,7 +22054,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22227,7 +22245,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22800,7 +22818,7 @@
         <v>85</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22887,10 +22905,10 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
         <v>1.85</v>
@@ -23269,7 +23287,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT116">
         <v>1.11</v>
@@ -23460,10 +23478,10 @@
         <v>1.14</v>
       </c>
       <c r="AS117">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT117">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU117">
         <v>1.12</v>
@@ -23564,7 +23582,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23845,7 +23863,7 @@
         <v>0.88</v>
       </c>
       <c r="AT119">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU119">
         <v>1.45</v>
@@ -23946,7 +23964,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24036,7 +24054,7 @@
         <v>2.11</v>
       </c>
       <c r="AT120">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU120">
         <v>1.44</v>
@@ -24137,7 +24155,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24328,7 +24346,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24606,7 +24624,7 @@
         <v>0.86</v>
       </c>
       <c r="AS123">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT123">
         <v>0.78</v>
@@ -24710,7 +24728,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25474,7 +25492,7 @@
         <v>114</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>13</v>
@@ -25665,7 +25683,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -25856,7 +25874,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26137,7 +26155,7 @@
         <v>2.44</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU131">
         <v>1.77</v>
@@ -26238,7 +26256,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26429,7 +26447,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26516,10 +26534,10 @@
         <v>1.63</v>
       </c>
       <c r="AS133">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT133">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU133">
         <v>1.8</v>
@@ -26620,7 +26638,7 @@
         <v>85</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26710,7 +26728,7 @@
         <v>1.78</v>
       </c>
       <c r="AT134">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU134">
         <v>1.69</v>
@@ -27384,7 +27402,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27575,7 +27593,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27766,7 +27784,7 @@
         <v>154</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28148,7 +28166,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28481,6 +28499,770 @@
       </c>
       <c r="BK143">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>4869771</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F144">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H144" t="s">
+        <v>72</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>85</v>
+      </c>
+      <c r="P144" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q144">
+        <v>12</v>
+      </c>
+      <c r="R144">
+        <v>4</v>
+      </c>
+      <c r="S144">
+        <v>16</v>
+      </c>
+      <c r="T144">
+        <v>2.65</v>
+      </c>
+      <c r="U144">
+        <v>2.45</v>
+      </c>
+      <c r="V144">
+        <v>3.4</v>
+      </c>
+      <c r="W144">
+        <v>1.24</v>
+      </c>
+      <c r="X144">
+        <v>3.7</v>
+      </c>
+      <c r="Y144">
+        <v>2.22</v>
+      </c>
+      <c r="Z144">
+        <v>1.6</v>
+      </c>
+      <c r="AA144">
+        <v>4.9</v>
+      </c>
+      <c r="AB144">
+        <v>1.15</v>
+      </c>
+      <c r="AC144">
+        <v>1.95</v>
+      </c>
+      <c r="AD144">
+        <v>3.6</v>
+      </c>
+      <c r="AE144">
+        <v>3.1</v>
+      </c>
+      <c r="AF144">
+        <v>1.02</v>
+      </c>
+      <c r="AG144">
+        <v>19</v>
+      </c>
+      <c r="AH144">
+        <v>1.16</v>
+      </c>
+      <c r="AI144">
+        <v>5</v>
+      </c>
+      <c r="AJ144">
+        <v>1.45</v>
+      </c>
+      <c r="AK144">
+        <v>2.55</v>
+      </c>
+      <c r="AL144">
+        <v>1.45</v>
+      </c>
+      <c r="AM144">
+        <v>2.65</v>
+      </c>
+      <c r="AN144">
+        <v>1.38</v>
+      </c>
+      <c r="AO144">
+        <v>1.2</v>
+      </c>
+      <c r="AP144">
+        <v>1.72</v>
+      </c>
+      <c r="AQ144">
+        <v>1.67</v>
+      </c>
+      <c r="AR144">
+        <v>1.14</v>
+      </c>
+      <c r="AS144">
+        <v>1.5</v>
+      </c>
+      <c r="AT144">
+        <v>1.38</v>
+      </c>
+      <c r="AU144">
+        <v>1.36</v>
+      </c>
+      <c r="AV144">
+        <v>1.26</v>
+      </c>
+      <c r="AW144">
+        <v>2.62</v>
+      </c>
+      <c r="AX144">
+        <v>1.54</v>
+      </c>
+      <c r="AY144">
+        <v>10.25</v>
+      </c>
+      <c r="AZ144">
+        <v>2.89</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>1.24</v>
+      </c>
+      <c r="BC144">
+        <v>1.43</v>
+      </c>
+      <c r="BD144">
+        <v>1.74</v>
+      </c>
+      <c r="BE144">
+        <v>2.2</v>
+      </c>
+      <c r="BF144">
+        <v>7</v>
+      </c>
+      <c r="BG144">
+        <v>7</v>
+      </c>
+      <c r="BH144">
+        <v>8</v>
+      </c>
+      <c r="BI144">
+        <v>7</v>
+      </c>
+      <c r="BJ144">
+        <v>15</v>
+      </c>
+      <c r="BK144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>4869775</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>73</v>
+      </c>
+      <c r="H145" t="s">
+        <v>78</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>6</v>
+      </c>
+      <c r="O145" t="s">
+        <v>192</v>
+      </c>
+      <c r="P145" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q145">
+        <v>-1</v>
+      </c>
+      <c r="R145">
+        <v>-1</v>
+      </c>
+      <c r="S145">
+        <v>-1</v>
+      </c>
+      <c r="T145">
+        <v>2.7</v>
+      </c>
+      <c r="U145">
+        <v>2.35</v>
+      </c>
+      <c r="V145">
+        <v>3.5</v>
+      </c>
+      <c r="W145">
+        <v>1.28</v>
+      </c>
+      <c r="X145">
+        <v>3.4</v>
+      </c>
+      <c r="Y145">
+        <v>2.4</v>
+      </c>
+      <c r="Z145">
+        <v>1.51</v>
+      </c>
+      <c r="AA145">
+        <v>5.45</v>
+      </c>
+      <c r="AB145">
+        <v>1.12</v>
+      </c>
+      <c r="AC145">
+        <v>2.2</v>
+      </c>
+      <c r="AD145">
+        <v>3.6</v>
+      </c>
+      <c r="AE145">
+        <v>2.62</v>
+      </c>
+      <c r="AF145">
+        <v>1.02</v>
+      </c>
+      <c r="AG145">
+        <v>17</v>
+      </c>
+      <c r="AH145">
+        <v>1.2</v>
+      </c>
+      <c r="AI145">
+        <v>4.33</v>
+      </c>
+      <c r="AJ145">
+        <v>1.6</v>
+      </c>
+      <c r="AK145">
+        <v>2.2</v>
+      </c>
+      <c r="AL145">
+        <v>1.57</v>
+      </c>
+      <c r="AM145">
+        <v>2.35</v>
+      </c>
+      <c r="AN145">
+        <v>1.38</v>
+      </c>
+      <c r="AO145">
+        <v>1.22</v>
+      </c>
+      <c r="AP145">
+        <v>1.72</v>
+      </c>
+      <c r="AQ145">
+        <v>2.29</v>
+      </c>
+      <c r="AR145">
+        <v>1.78</v>
+      </c>
+      <c r="AS145">
+        <v>2.13</v>
+      </c>
+      <c r="AT145">
+        <v>1.7</v>
+      </c>
+      <c r="AU145">
+        <v>1.31</v>
+      </c>
+      <c r="AV145">
+        <v>1.11</v>
+      </c>
+      <c r="AW145">
+        <v>2.42</v>
+      </c>
+      <c r="AX145">
+        <v>1.58</v>
+      </c>
+      <c r="AY145">
+        <v>9.5</v>
+      </c>
+      <c r="AZ145">
+        <v>2.39</v>
+      </c>
+      <c r="BA145">
+        <v>1.18</v>
+      </c>
+      <c r="BB145">
+        <v>1.34</v>
+      </c>
+      <c r="BC145">
+        <v>1.61</v>
+      </c>
+      <c r="BD145">
+        <v>2.02</v>
+      </c>
+      <c r="BE145">
+        <v>2.7</v>
+      </c>
+      <c r="BF145">
+        <v>-1</v>
+      </c>
+      <c r="BG145">
+        <v>-1</v>
+      </c>
+      <c r="BH145">
+        <v>-1</v>
+      </c>
+      <c r="BI145">
+        <v>-1</v>
+      </c>
+      <c r="BJ145">
+        <v>-1</v>
+      </c>
+      <c r="BK145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>4869770</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>66</v>
+      </c>
+      <c r="H146" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>193</v>
+      </c>
+      <c r="P146" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q146">
+        <v>-1</v>
+      </c>
+      <c r="R146">
+        <v>-1</v>
+      </c>
+      <c r="S146">
+        <v>-1</v>
+      </c>
+      <c r="T146">
+        <v>2.8</v>
+      </c>
+      <c r="U146">
+        <v>2.2</v>
+      </c>
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.34</v>
+      </c>
+      <c r="X146">
+        <v>3</v>
+      </c>
+      <c r="Y146">
+        <v>2.75</v>
+      </c>
+      <c r="Z146">
+        <v>1.4</v>
+      </c>
+      <c r="AA146">
+        <v>6.9</v>
+      </c>
+      <c r="AB146">
+        <v>1.07</v>
+      </c>
+      <c r="AC146">
+        <v>2.3</v>
+      </c>
+      <c r="AD146">
+        <v>3.4</v>
+      </c>
+      <c r="AE146">
+        <v>2.62</v>
+      </c>
+      <c r="AF146">
+        <v>1.04</v>
+      </c>
+      <c r="AG146">
+        <v>12</v>
+      </c>
+      <c r="AH146">
+        <v>1.28</v>
+      </c>
+      <c r="AI146">
+        <v>3.6</v>
+      </c>
+      <c r="AJ146">
+        <v>1.88</v>
+      </c>
+      <c r="AK146">
+        <v>1.88</v>
+      </c>
+      <c r="AL146">
+        <v>1.72</v>
+      </c>
+      <c r="AM146">
+        <v>2.1</v>
+      </c>
+      <c r="AN146">
+        <v>1.36</v>
+      </c>
+      <c r="AO146">
+        <v>1.25</v>
+      </c>
+      <c r="AP146">
+        <v>1.72</v>
+      </c>
+      <c r="AQ146">
+        <v>0.88</v>
+      </c>
+      <c r="AR146">
+        <v>0.67</v>
+      </c>
+      <c r="AS146">
+        <v>1.11</v>
+      </c>
+      <c r="AT146">
+        <v>0.6</v>
+      </c>
+      <c r="AU146">
+        <v>1.13</v>
+      </c>
+      <c r="AV146">
+        <v>1.2</v>
+      </c>
+      <c r="AW146">
+        <v>2.33</v>
+      </c>
+      <c r="AX146">
+        <v>1.57</v>
+      </c>
+      <c r="AY146">
+        <v>6</v>
+      </c>
+      <c r="AZ146">
+        <v>2.8</v>
+      </c>
+      <c r="BA146">
+        <v>1.18</v>
+      </c>
+      <c r="BB146">
+        <v>1.34</v>
+      </c>
+      <c r="BC146">
+        <v>1.61</v>
+      </c>
+      <c r="BD146">
+        <v>2.02</v>
+      </c>
+      <c r="BE146">
+        <v>2.7</v>
+      </c>
+      <c r="BF146">
+        <v>-1</v>
+      </c>
+      <c r="BG146">
+        <v>-1</v>
+      </c>
+      <c r="BH146">
+        <v>-1</v>
+      </c>
+      <c r="BI146">
+        <v>-1</v>
+      </c>
+      <c r="BJ146">
+        <v>-1</v>
+      </c>
+      <c r="BK146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>4869773</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>74</v>
+      </c>
+      <c r="H147" t="s">
+        <v>68</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147" t="s">
+        <v>194</v>
+      </c>
+      <c r="P147" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q147">
+        <v>6</v>
+      </c>
+      <c r="R147">
+        <v>4</v>
+      </c>
+      <c r="S147">
+        <v>10</v>
+      </c>
+      <c r="T147">
+        <v>3.75</v>
+      </c>
+      <c r="U147">
+        <v>2.45</v>
+      </c>
+      <c r="V147">
+        <v>2.5</v>
+      </c>
+      <c r="W147">
+        <v>1.24</v>
+      </c>
+      <c r="X147">
+        <v>3.7</v>
+      </c>
+      <c r="Y147">
+        <v>2.24</v>
+      </c>
+      <c r="Z147">
+        <v>1.59</v>
+      </c>
+      <c r="AA147">
+        <v>4.95</v>
+      </c>
+      <c r="AB147">
+        <v>1.14</v>
+      </c>
+      <c r="AC147">
+        <v>2.6</v>
+      </c>
+      <c r="AD147">
+        <v>3.7</v>
+      </c>
+      <c r="AE147">
+        <v>2.2</v>
+      </c>
+      <c r="AF147">
+        <v>1.02</v>
+      </c>
+      <c r="AG147">
+        <v>20.5</v>
+      </c>
+      <c r="AH147">
+        <v>1.16</v>
+      </c>
+      <c r="AI147">
+        <v>5</v>
+      </c>
+      <c r="AJ147">
+        <v>1.5</v>
+      </c>
+      <c r="AK147">
+        <v>2.4</v>
+      </c>
+      <c r="AL147">
+        <v>1.47</v>
+      </c>
+      <c r="AM147">
+        <v>2.55</v>
+      </c>
+      <c r="AN147">
+        <v>1.87</v>
+      </c>
+      <c r="AO147">
+        <v>1.2</v>
+      </c>
+      <c r="AP147">
+        <v>1.33</v>
+      </c>
+      <c r="AQ147">
+        <v>1.5</v>
+      </c>
+      <c r="AR147">
+        <v>1.56</v>
+      </c>
+      <c r="AS147">
+        <v>1.67</v>
+      </c>
+      <c r="AT147">
+        <v>1.4</v>
+      </c>
+      <c r="AU147">
+        <v>1.66</v>
+      </c>
+      <c r="AV147">
+        <v>1.44</v>
+      </c>
+      <c r="AW147">
+        <v>3.1</v>
+      </c>
+      <c r="AX147">
+        <v>2.32</v>
+      </c>
+      <c r="AY147">
+        <v>9.1</v>
+      </c>
+      <c r="AZ147">
+        <v>1.81</v>
+      </c>
+      <c r="BA147">
+        <v>1.18</v>
+      </c>
+      <c r="BB147">
+        <v>1.34</v>
+      </c>
+      <c r="BC147">
+        <v>1.61</v>
+      </c>
+      <c r="BD147">
+        <v>2.02</v>
+      </c>
+      <c r="BE147">
+        <v>2.7</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>2</v>
+      </c>
+      <c r="BI147">
+        <v>9</v>
+      </c>
+      <c r="BJ147">
+        <v>8</v>
+      </c>
+      <c r="BK147">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,18 @@
     <t>['4', '36', '48', '50']</t>
   </si>
   <si>
+    <t>['3', '44', '59', '90+1']</t>
+  </si>
+  <si>
+    <t>['6', '61']</t>
+  </si>
+  <si>
+    <t>['25', '42']</t>
+  </si>
+  <si>
+    <t>['2', '55', '61', '85']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -821,6 +833,12 @@
   </si>
   <si>
     <t>['74', '86']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1444,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1808,7 +1826,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1999,7 +2017,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2659,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT8">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2763,7 +2781,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3235,7 +3253,7 @@
         <v>1.67</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3336,7 +3354,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3423,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT12">
         <v>1.11</v>
@@ -3527,7 +3545,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3808,7 +3826,7 @@
         <v>2.44</v>
       </c>
       <c r="AT14">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3999,7 +4017,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4187,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT16">
         <v>0.78</v>
@@ -4378,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
         <v>1.4</v>
@@ -4482,7 +4500,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4864,7 +4882,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5246,7 +5264,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5336,7 +5354,7 @@
         <v>1.8</v>
       </c>
       <c r="AT22">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU22">
         <v>0.93</v>
@@ -5437,7 +5455,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5628,7 +5646,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5715,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT24">
         <v>1.4</v>
@@ -5819,7 +5837,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6010,7 +6028,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6100,7 +6118,7 @@
         <v>0.9</v>
       </c>
       <c r="AT26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU26">
         <v>0.9</v>
@@ -6201,7 +6219,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6392,7 +6410,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6482,7 +6500,7 @@
         <v>2.13</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU28">
         <v>0.73</v>
@@ -6583,7 +6601,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6670,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT29">
         <v>1.4</v>
@@ -6774,7 +6792,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6965,7 +6983,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7052,7 +7070,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT31">
         <v>1.11</v>
@@ -7156,7 +7174,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7434,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT33">
         <v>1.38</v>
@@ -7920,7 +7938,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8010,7 +8028,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>1.17</v>
@@ -8111,7 +8129,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8201,7 +8219,7 @@
         <v>2.22</v>
       </c>
       <c r="AT37">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8302,7 +8320,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8580,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT39">
         <v>0.7</v>
@@ -8684,7 +8702,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8875,7 +8893,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -9156,7 +9174,7 @@
         <v>2.3</v>
       </c>
       <c r="AT42">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU42">
         <v>1.24</v>
@@ -9257,7 +9275,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9448,7 +9466,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9830,7 +9848,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10108,7 +10126,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT47">
         <v>1.38</v>
@@ -10299,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT48">
         <v>0.6</v>
@@ -10594,7 +10612,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10684,7 +10702,7 @@
         <v>1.2</v>
       </c>
       <c r="AT50">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU50">
         <v>1.58</v>
@@ -10875,7 +10893,7 @@
         <v>1.8</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -11167,7 +11185,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q53">
         <v>13</v>
@@ -11636,7 +11654,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
         <v>1.1</v>
@@ -11740,7 +11758,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11830,7 +11848,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT56">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU56">
         <v>1.61</v>
@@ -11931,7 +11949,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12018,7 +12036,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT57">
         <v>1.4</v>
@@ -12209,7 +12227,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT58">
         <v>0.7</v>
@@ -12313,7 +12331,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13077,7 +13095,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13355,7 +13373,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT64">
         <v>1.4</v>
@@ -13740,7 +13758,7 @@
         <v>1.2</v>
       </c>
       <c r="AT66">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU66">
         <v>1.56</v>
@@ -14032,7 +14050,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>15</v>
@@ -14122,7 +14140,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU68">
         <v>1.1</v>
@@ -14223,7 +14241,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14605,7 +14623,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14692,7 +14710,7 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT71">
         <v>1.7</v>
@@ -14796,7 +14814,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14886,7 +14904,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT72">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -14987,7 +15005,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15074,10 +15092,10 @@
         <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT73">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU73">
         <v>1.36</v>
@@ -15178,7 +15196,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15456,7 +15474,7 @@
         <v>0.8</v>
       </c>
       <c r="AS75">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15560,7 +15578,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15751,7 +15769,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -15942,7 +15960,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16133,7 +16151,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16220,7 +16238,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT79">
         <v>0.7</v>
@@ -16324,7 +16342,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16706,7 +16724,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16793,7 +16811,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT82">
         <v>1.7</v>
@@ -16897,7 +16915,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16987,7 +17005,7 @@
         <v>1.11</v>
       </c>
       <c r="AT83">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.14</v>
@@ -17178,7 +17196,7 @@
         <v>2.22</v>
       </c>
       <c r="AT84">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU84">
         <v>1.29</v>
@@ -17279,7 +17297,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17470,7 +17488,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17557,7 +17575,7 @@
         <v>1.8</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT86">
         <v>1.78</v>
@@ -17661,7 +17679,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17942,7 +17960,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU88">
         <v>1.54</v>
@@ -18133,7 +18151,7 @@
         <v>2.13</v>
       </c>
       <c r="AT89">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU89">
         <v>1.36</v>
@@ -18807,7 +18825,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18998,7 +19016,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19276,10 +19294,10 @@
         <v>1.17</v>
       </c>
       <c r="AS95">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT95">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU95">
         <v>1.32</v>
@@ -19571,7 +19589,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -20043,7 +20061,7 @@
         <v>1.11</v>
       </c>
       <c r="AT99">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU99">
         <v>1.1</v>
@@ -20144,7 +20162,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20234,7 +20252,7 @@
         <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU100">
         <v>1.91</v>
@@ -20526,7 +20544,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20613,10 +20631,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT102">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU102">
         <v>1.46</v>
@@ -20804,7 +20822,7 @@
         <v>0.83</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT103">
         <v>0.6</v>
@@ -20908,7 +20926,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -20995,7 +21013,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT104">
         <v>1.7</v>
@@ -21099,7 +21117,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21290,7 +21308,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21672,7 +21690,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21863,7 +21881,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22054,7 +22072,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22245,7 +22263,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22335,7 +22353,7 @@
         <v>2.33</v>
       </c>
       <c r="AT111">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU111">
         <v>1.83</v>
@@ -22714,7 +22732,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT113">
         <v>1.1</v>
@@ -22818,7 +22836,7 @@
         <v>85</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23099,7 +23117,7 @@
         <v>2.44</v>
       </c>
       <c r="AT115">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU115">
         <v>1.68</v>
@@ -23582,7 +23600,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23669,10 +23687,10 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT118">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -23860,7 +23878,7 @@
         <v>0.71</v>
       </c>
       <c r="AS119">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT119">
         <v>0.6</v>
@@ -23964,7 +23982,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24051,7 +24069,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT120">
         <v>1.7</v>
@@ -24155,7 +24173,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24242,10 +24260,10 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT121">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU121">
         <v>1.74</v>
@@ -24346,7 +24364,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24728,7 +24746,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -24818,7 +24836,7 @@
         <v>2.3</v>
       </c>
       <c r="AT124">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU124">
         <v>1.76</v>
@@ -25492,7 +25510,7 @@
         <v>114</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>13</v>
@@ -25683,7 +25701,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -25874,7 +25892,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25961,10 +25979,10 @@
         <v>1.71</v>
       </c>
       <c r="AS130">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT130">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU130">
         <v>1.49</v>
@@ -26256,7 +26274,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26343,7 +26361,7 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT132">
         <v>1.11</v>
@@ -26447,7 +26465,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26638,7 +26656,7 @@
         <v>85</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26725,7 +26743,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT134">
         <v>1.4</v>
@@ -26916,10 +26934,10 @@
         <v>0.57</v>
       </c>
       <c r="AS135">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT135">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU135">
         <v>1.41</v>
@@ -27402,7 +27420,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27593,7 +27611,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27784,7 +27802,7 @@
         <v>154</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28166,7 +28184,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28548,7 +28566,7 @@
         <v>85</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q144">
         <v>12</v>
@@ -28674,22 +28692,22 @@
         <v>2.2</v>
       </c>
       <c r="BF144">
+        <v>6</v>
+      </c>
+      <c r="BG144">
+        <v>9</v>
+      </c>
+      <c r="BH144">
         <v>7</v>
       </c>
-      <c r="BG144">
-        <v>7</v>
-      </c>
-      <c r="BH144">
-        <v>8</v>
-      </c>
       <c r="BI144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ144">
+        <v>13</v>
+      </c>
+      <c r="BK144">
         <v>15</v>
-      </c>
-      <c r="BK144">
-        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:63">
@@ -28739,16 +28757,16 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R145">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S145">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T145">
         <v>2.7</v>
@@ -28865,22 +28883,22 @@
         <v>2.7</v>
       </c>
       <c r="BF145">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG145">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH145">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI145">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ145">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK145">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:63">
@@ -28933,13 +28951,13 @@
         <v>85</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R146">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S146">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T146">
         <v>2.8</v>
@@ -29056,22 +29074,22 @@
         <v>2.7</v>
       </c>
       <c r="BF146">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG146">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH146">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI146">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ146">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK146">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:63">
@@ -29121,7 +29139,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29247,22 +29265,786 @@
         <v>2.7</v>
       </c>
       <c r="BF147">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG147">
         <v>4</v>
       </c>
       <c r="BH147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI147">
+        <v>7</v>
+      </c>
+      <c r="BJ147">
+        <v>11</v>
+      </c>
+      <c r="BK147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>4869772</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>70</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>5</v>
+      </c>
+      <c r="O148" t="s">
+        <v>195</v>
+      </c>
+      <c r="P148" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
         <v>9</v>
       </c>
-      <c r="BJ147">
+      <c r="T148">
+        <v>2.4</v>
+      </c>
+      <c r="U148">
+        <v>2.38</v>
+      </c>
+      <c r="V148">
+        <v>3.9</v>
+      </c>
+      <c r="W148">
+        <v>1.3</v>
+      </c>
+      <c r="X148">
+        <v>3.4</v>
+      </c>
+      <c r="Y148">
+        <v>2.5</v>
+      </c>
+      <c r="Z148">
+        <v>1.5</v>
+      </c>
+      <c r="AA148">
+        <v>6</v>
+      </c>
+      <c r="AB148">
+        <v>1.13</v>
+      </c>
+      <c r="AC148">
+        <v>1.97</v>
+      </c>
+      <c r="AD148">
+        <v>3.65</v>
+      </c>
+      <c r="AE148">
+        <v>3.15</v>
+      </c>
+      <c r="AF148">
+        <v>1.03</v>
+      </c>
+      <c r="AG148">
+        <v>12</v>
+      </c>
+      <c r="AH148">
+        <v>1.17</v>
+      </c>
+      <c r="AI148">
+        <v>4.3</v>
+      </c>
+      <c r="AJ148">
+        <v>1.66</v>
+      </c>
+      <c r="AK148">
+        <v>2.09</v>
+      </c>
+      <c r="AL148">
+        <v>1.62</v>
+      </c>
+      <c r="AM148">
+        <v>2.25</v>
+      </c>
+      <c r="AN148">
+        <v>1.3</v>
+      </c>
+      <c r="AO148">
+        <v>1.28</v>
+      </c>
+      <c r="AP148">
+        <v>1.82</v>
+      </c>
+      <c r="AQ148">
+        <v>1.78</v>
+      </c>
+      <c r="AR148">
+        <v>1.5</v>
+      </c>
+      <c r="AS148">
+        <v>1.9</v>
+      </c>
+      <c r="AT148">
+        <v>1.33</v>
+      </c>
+      <c r="AU148">
+        <v>1.62</v>
+      </c>
+      <c r="AV148">
+        <v>1.43</v>
+      </c>
+      <c r="AW148">
+        <v>3.05</v>
+      </c>
+      <c r="AX148">
+        <v>1.6</v>
+      </c>
+      <c r="AY148">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ148">
+        <v>2.77</v>
+      </c>
+      <c r="BA148">
+        <v>1.2</v>
+      </c>
+      <c r="BB148">
+        <v>1.38</v>
+      </c>
+      <c r="BC148">
+        <v>1.67</v>
+      </c>
+      <c r="BD148">
+        <v>2.12</v>
+      </c>
+      <c r="BE148">
+        <v>2.85</v>
+      </c>
+      <c r="BF148">
+        <v>5</v>
+      </c>
+      <c r="BG148">
+        <v>4</v>
+      </c>
+      <c r="BH148">
+        <v>2</v>
+      </c>
+      <c r="BI148">
+        <v>2</v>
+      </c>
+      <c r="BJ148">
+        <v>7</v>
+      </c>
+      <c r="BK148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>4869774</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>80</v>
+      </c>
+      <c r="H149" t="s">
+        <v>77</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>196</v>
+      </c>
+      <c r="P149" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
         <v>8</v>
       </c>
-      <c r="BK147">
+      <c r="T149">
+        <v>3.1</v>
+      </c>
+      <c r="U149">
+        <v>2.38</v>
+      </c>
+      <c r="V149">
+        <v>3</v>
+      </c>
+      <c r="W149">
+        <v>1.29</v>
+      </c>
+      <c r="X149">
+        <v>3.5</v>
+      </c>
+      <c r="Y149">
+        <v>2.25</v>
+      </c>
+      <c r="Z149">
+        <v>1.57</v>
+      </c>
+      <c r="AA149">
+        <v>5.5</v>
+      </c>
+      <c r="AB149">
+        <v>1.14</v>
+      </c>
+      <c r="AC149">
+        <v>2.62</v>
+      </c>
+      <c r="AD149">
+        <v>3.7</v>
+      </c>
+      <c r="AE149">
+        <v>2.23</v>
+      </c>
+      <c r="AF149">
+        <v>1.03</v>
+      </c>
+      <c r="AG149">
+        <v>9</v>
+      </c>
+      <c r="AH149">
+        <v>1.13</v>
+      </c>
+      <c r="AI149">
+        <v>4.9</v>
+      </c>
+      <c r="AJ149">
+        <v>1.54</v>
+      </c>
+      <c r="AK149">
+        <v>2.32</v>
+      </c>
+      <c r="AL149">
+        <v>1.5</v>
+      </c>
+      <c r="AM149">
+        <v>2.5</v>
+      </c>
+      <c r="AN149">
+        <v>1.57</v>
+      </c>
+      <c r="AO149">
+        <v>1.22</v>
+      </c>
+      <c r="AP149">
+        <v>1.47</v>
+      </c>
+      <c r="AQ149">
+        <v>1.5</v>
+      </c>
+      <c r="AR149">
+        <v>0.89</v>
+      </c>
+      <c r="AS149">
+        <v>1.67</v>
+      </c>
+      <c r="AT149">
+        <v>0.8</v>
+      </c>
+      <c r="AU149">
+        <v>1.49</v>
+      </c>
+      <c r="AV149">
+        <v>1.25</v>
+      </c>
+      <c r="AW149">
+        <v>2.74</v>
+      </c>
+      <c r="AX149">
+        <v>1.97</v>
+      </c>
+      <c r="AY149">
+        <v>9.5</v>
+      </c>
+      <c r="AZ149">
+        <v>2.08</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>1.27</v>
+      </c>
+      <c r="BC149">
+        <v>1.48</v>
+      </c>
+      <c r="BD149">
+        <v>1.8</v>
+      </c>
+      <c r="BE149">
+        <v>2.35</v>
+      </c>
+      <c r="BF149">
+        <v>6</v>
+      </c>
+      <c r="BG149">
+        <v>6</v>
+      </c>
+      <c r="BH149">
+        <v>3</v>
+      </c>
+      <c r="BI149">
+        <v>2</v>
+      </c>
+      <c r="BJ149">
+        <v>9</v>
+      </c>
+      <c r="BK149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>4869776</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>65</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>197</v>
+      </c>
+      <c r="P150" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q150">
+        <v>2</v>
+      </c>
+      <c r="R150">
+        <v>10</v>
+      </c>
+      <c r="S150">
+        <v>12</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>2.3</v>
+      </c>
+      <c r="V150">
+        <v>3.4</v>
+      </c>
+      <c r="W150">
+        <v>1.3</v>
+      </c>
+      <c r="X150">
+        <v>3.4</v>
+      </c>
+      <c r="Y150">
+        <v>2.5</v>
+      </c>
+      <c r="Z150">
+        <v>1.5</v>
+      </c>
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>1.13</v>
+      </c>
+      <c r="AC150">
+        <v>2.08</v>
+      </c>
+      <c r="AD150">
+        <v>3.65</v>
+      </c>
+      <c r="AE150">
+        <v>2.91</v>
+      </c>
+      <c r="AF150">
+        <v>1.03</v>
+      </c>
+      <c r="AG150">
+        <v>12</v>
+      </c>
+      <c r="AH150">
+        <v>1.15</v>
+      </c>
+      <c r="AI150">
+        <v>4.6</v>
+      </c>
+      <c r="AJ150">
+        <v>1.61</v>
+      </c>
+      <c r="AK150">
+        <v>2.17</v>
+      </c>
+      <c r="AL150">
+        <v>1.53</v>
+      </c>
+      <c r="AM150">
+        <v>2.38</v>
+      </c>
+      <c r="AN150">
+        <v>1.35</v>
+      </c>
+      <c r="AO150">
+        <v>1.22</v>
+      </c>
+      <c r="AP150">
+        <v>1.65</v>
+      </c>
+      <c r="AQ150">
+        <v>0.88</v>
+      </c>
+      <c r="AR150">
+        <v>0.5</v>
+      </c>
+      <c r="AS150">
+        <v>1.11</v>
+      </c>
+      <c r="AT150">
+        <v>0.44</v>
+      </c>
+      <c r="AU150">
+        <v>1.45</v>
+      </c>
+      <c r="AV150">
+        <v>1.38</v>
+      </c>
+      <c r="AW150">
+        <v>2.83</v>
+      </c>
+      <c r="AX150">
+        <v>1.77</v>
+      </c>
+      <c r="AY150">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ150">
+        <v>2.38</v>
+      </c>
+      <c r="BA150">
+        <v>1.2</v>
+      </c>
+      <c r="BB150">
+        <v>1.3</v>
+      </c>
+      <c r="BC150">
+        <v>1.55</v>
+      </c>
+      <c r="BD150">
+        <v>2</v>
+      </c>
+      <c r="BE150">
+        <v>2.5</v>
+      </c>
+      <c r="BF150">
+        <v>4</v>
+      </c>
+      <c r="BG150">
+        <v>8</v>
+      </c>
+      <c r="BH150">
+        <v>4</v>
+      </c>
+      <c r="BI150">
+        <v>6</v>
+      </c>
+      <c r="BJ150">
+        <v>8</v>
+      </c>
+      <c r="BK150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>4869769</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>79</v>
+      </c>
+      <c r="H151" t="s">
+        <v>69</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>198</v>
+      </c>
+      <c r="P151" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q151">
+        <v>6</v>
+      </c>
+      <c r="R151">
+        <v>7</v>
+      </c>
+      <c r="S151">
         <v>13</v>
+      </c>
+      <c r="T151">
+        <v>2.6</v>
+      </c>
+      <c r="U151">
+        <v>2.2</v>
+      </c>
+      <c r="V151">
+        <v>3.75</v>
+      </c>
+      <c r="W151">
+        <v>1.36</v>
+      </c>
+      <c r="X151">
+        <v>3</v>
+      </c>
+      <c r="Y151">
+        <v>2.63</v>
+      </c>
+      <c r="Z151">
+        <v>1.44</v>
+      </c>
+      <c r="AA151">
+        <v>7</v>
+      </c>
+      <c r="AB151">
+        <v>1.1</v>
+      </c>
+      <c r="AC151">
+        <v>2.02</v>
+      </c>
+      <c r="AD151">
+        <v>3.45</v>
+      </c>
+      <c r="AE151">
+        <v>3.15</v>
+      </c>
+      <c r="AF151">
+        <v>1.04</v>
+      </c>
+      <c r="AG151">
+        <v>13.75</v>
+      </c>
+      <c r="AH151">
+        <v>1.25</v>
+      </c>
+      <c r="AI151">
+        <v>4</v>
+      </c>
+      <c r="AJ151">
+        <v>1.74</v>
+      </c>
+      <c r="AK151">
+        <v>1.98</v>
+      </c>
+      <c r="AL151">
+        <v>1.68</v>
+      </c>
+      <c r="AM151">
+        <v>2.15</v>
+      </c>
+      <c r="AN151">
+        <v>1.32</v>
+      </c>
+      <c r="AO151">
+        <v>1.25</v>
+      </c>
+      <c r="AP151">
+        <v>1.72</v>
+      </c>
+      <c r="AQ151">
+        <v>2.11</v>
+      </c>
+      <c r="AR151">
+        <v>0.86</v>
+      </c>
+      <c r="AS151">
+        <v>2.2</v>
+      </c>
+      <c r="AT151">
+        <v>0.75</v>
+      </c>
+      <c r="AU151">
+        <v>1.5</v>
+      </c>
+      <c r="AV151">
+        <v>1.41</v>
+      </c>
+      <c r="AW151">
+        <v>2.91</v>
+      </c>
+      <c r="AX151">
+        <v>1.8</v>
+      </c>
+      <c r="AY151">
+        <v>9.5</v>
+      </c>
+      <c r="AZ151">
+        <v>2.31</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>1.27</v>
+      </c>
+      <c r="BC151">
+        <v>1.48</v>
+      </c>
+      <c r="BD151">
+        <v>1.8</v>
+      </c>
+      <c r="BE151">
+        <v>2.35</v>
+      </c>
+      <c r="BF151">
+        <v>10</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>3</v>
+      </c>
+      <c r="BI151">
+        <v>6</v>
+      </c>
+      <c r="BJ151">
+        <v>13</v>
+      </c>
+      <c r="BK151">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,18 @@
     <t>['2', '55', '61', '85']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['63', '71', '90+5']</t>
+  </si>
+  <si>
+    <t>['21', '63']</t>
+  </si>
+  <si>
+    <t>['17', '75', '90+2']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -839,6 +851,18 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['53', '56']</t>
+  </si>
+  <si>
+    <t>['5', '22']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1468,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1531,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT2">
         <v>1.7</v>
@@ -1826,7 +1850,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1916,7 +1940,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2017,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2104,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2295,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT6">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2486,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT7">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2781,7 +2805,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3062,7 +3086,7 @@
         <v>2.13</v>
       </c>
       <c r="AT10">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3354,7 +3378,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3444,7 +3468,7 @@
         <v>1.11</v>
       </c>
       <c r="AT12">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3545,7 +3569,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3632,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3823,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
         <v>0.75</v>
@@ -4014,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT15">
         <v>1.33</v>
@@ -4208,7 +4232,7 @@
         <v>2.2</v>
       </c>
       <c r="AT16">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4396,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT17">
         <v>1.4</v>
@@ -4500,7 +4524,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4590,7 +4614,7 @@
         <v>1.11</v>
       </c>
       <c r="AT18">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU18">
         <v>0.89</v>
@@ -4778,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT19">
         <v>1.7</v>
@@ -4882,7 +4906,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5264,7 +5288,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5351,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT22">
         <v>0.8</v>
@@ -5455,7 +5479,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5542,10 +5566,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU23">
         <v>1.5</v>
@@ -5646,7 +5670,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5736,7 +5760,7 @@
         <v>1.9</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU24">
         <v>1.81</v>
@@ -5837,7 +5861,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5924,10 +5948,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT25">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU25">
         <v>1.23</v>
@@ -6028,7 +6052,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6115,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT26">
         <v>0.75</v>
@@ -6219,7 +6243,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6410,7 +6434,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6601,7 +6625,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6792,7 +6816,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6879,7 +6903,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -6983,7 +7007,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7073,7 +7097,7 @@
         <v>1.9</v>
       </c>
       <c r="AT31">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU31">
         <v>1.79</v>
@@ -7174,7 +7198,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7261,10 +7285,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT32">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.84</v>
@@ -7455,7 +7479,7 @@
         <v>2.2</v>
       </c>
       <c r="AT33">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU33">
         <v>1.22</v>
@@ -7643,10 +7667,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT34">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU34">
         <v>1.28</v>
@@ -7837,7 +7861,7 @@
         <v>1.11</v>
       </c>
       <c r="AT35">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU35">
         <v>1.01</v>
@@ -7938,7 +7962,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8129,7 +8153,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8216,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>0.8</v>
@@ -8320,7 +8344,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8407,10 +8431,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT38">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU38">
         <v>1.05</v>
@@ -8598,10 +8622,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT39">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU39">
         <v>1.6</v>
@@ -8702,7 +8726,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8893,7 +8917,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -8980,10 +9004,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT41">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU41">
         <v>1.24</v>
@@ -9171,7 +9195,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT42">
         <v>0.44</v>
@@ -9275,7 +9299,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9362,7 +9386,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT43">
         <v>1.4</v>
@@ -9466,7 +9490,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9556,7 +9580,7 @@
         <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU44">
         <v>1.68</v>
@@ -9848,7 +9872,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9935,10 +9959,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT46">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>1.42</v>
@@ -10129,7 +10153,7 @@
         <v>1.9</v>
       </c>
       <c r="AT47">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10508,10 +10532,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT49">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU49">
         <v>1.77</v>
@@ -10612,7 +10636,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10890,7 +10914,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT51">
         <v>1.33</v>
@@ -11084,7 +11108,7 @@
         <v>1.11</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU52">
         <v>0.9399999999999999</v>
@@ -11185,7 +11209,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>13</v>
@@ -11275,7 +11299,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU53">
         <v>1.12</v>
@@ -11463,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1.7</v>
@@ -11654,10 +11678,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT55">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU55">
         <v>1.56</v>
@@ -11758,7 +11782,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11845,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT56">
         <v>0.8</v>
@@ -11949,7 +11973,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12039,7 +12063,7 @@
         <v>1.11</v>
       </c>
       <c r="AT57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU57">
         <v>1.32</v>
@@ -12230,7 +12254,7 @@
         <v>1.9</v>
       </c>
       <c r="AT58">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU58">
         <v>1.87</v>
@@ -12331,7 +12355,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12418,10 +12442,10 @@
         <v>0.33</v>
       </c>
       <c r="AS59">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT59">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU59">
         <v>1.56</v>
@@ -12612,7 +12636,7 @@
         <v>2.13</v>
       </c>
       <c r="AT60">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.4</v>
@@ -12800,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12991,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT62">
         <v>0.6</v>
@@ -13095,7 +13119,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13182,10 +13206,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT63">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13564,10 +13588,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT65">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13949,7 +13973,7 @@
         <v>1.11</v>
       </c>
       <c r="AT67">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU67">
         <v>1.12</v>
@@ -14050,7 +14074,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>15</v>
@@ -14241,7 +14265,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14328,10 +14352,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU69">
         <v>1.28</v>
@@ -14522,7 +14546,7 @@
         <v>1.67</v>
       </c>
       <c r="AT70">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU70">
         <v>1.96</v>
@@ -14623,7 +14647,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14710,7 +14734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT71">
         <v>1.7</v>
@@ -14814,7 +14838,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14901,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT72">
         <v>1.33</v>
@@ -15005,7 +15029,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15196,7 +15220,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15283,10 +15307,10 @@
         <v>1.6</v>
       </c>
       <c r="AS74">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT74">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU74">
         <v>1.49</v>
@@ -15578,7 +15602,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15665,10 +15689,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT76">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU76">
         <v>1.13</v>
@@ -15769,7 +15793,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -15856,7 +15880,7 @@
         <v>0.8</v>
       </c>
       <c r="AS77">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT77">
         <v>0.6</v>
@@ -15960,7 +15984,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16050,7 +16074,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16151,7 +16175,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16241,7 +16265,7 @@
         <v>2.2</v>
       </c>
       <c r="AT79">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16342,7 +16366,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16429,7 +16453,7 @@
         <v>0.5</v>
       </c>
       <c r="AS80">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT80">
         <v>1.4</v>
@@ -16620,10 +16644,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT81">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU81">
         <v>1.94</v>
@@ -16724,7 +16748,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16915,7 +16939,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17193,7 +17217,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>0.75</v>
@@ -17297,7 +17321,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17387,7 +17411,7 @@
         <v>1.67</v>
       </c>
       <c r="AT85">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU85">
         <v>2.04</v>
@@ -17488,7 +17512,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17575,10 +17599,10 @@
         <v>1.8</v>
       </c>
       <c r="AS86">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT86">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17679,7 +17703,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17769,7 +17793,7 @@
         <v>1.2</v>
       </c>
       <c r="AT87">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU87">
         <v>1.64</v>
@@ -17957,7 +17981,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT88">
         <v>0.44</v>
@@ -18530,10 +18554,10 @@
         <v>0.6</v>
       </c>
       <c r="AS91">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT91">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU91">
         <v>1.74</v>
@@ -18721,10 +18745,10 @@
         <v>1.17</v>
       </c>
       <c r="AS92">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT92">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>1.21</v>
@@ -18825,7 +18849,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18915,7 +18939,7 @@
         <v>1.2</v>
       </c>
       <c r="AT93">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -19016,7 +19040,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19103,10 +19127,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT94">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU94">
         <v>1.6</v>
@@ -19485,10 +19509,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT96">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19589,7 +19613,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19676,7 +19700,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT97">
         <v>1.4</v>
@@ -19867,10 +19891,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT98">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU98">
         <v>1.55</v>
@@ -20162,7 +20186,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20443,7 +20467,7 @@
         <v>2.13</v>
       </c>
       <c r="AT101">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU101">
         <v>1.3</v>
@@ -20544,7 +20568,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20822,7 +20846,7 @@
         <v>0.83</v>
       </c>
       <c r="AS103">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT103">
         <v>0.6</v>
@@ -20926,7 +20950,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21117,7 +21141,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21204,10 +21228,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU105">
         <v>1.38</v>
@@ -21308,7 +21332,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21586,10 +21610,10 @@
         <v>1.17</v>
       </c>
       <c r="AS107">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT107">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.73</v>
@@ -21690,7 +21714,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21777,10 +21801,10 @@
         <v>0.5</v>
       </c>
       <c r="AS108">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT108">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU108">
         <v>1.18</v>
@@ -21881,7 +21905,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21971,7 +21995,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU109">
         <v>1.62</v>
@@ -22072,7 +22096,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22159,10 +22183,10 @@
         <v>1.14</v>
       </c>
       <c r="AS110">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT110">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22263,7 +22287,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22350,7 +22374,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT111">
         <v>0.8</v>
@@ -22541,7 +22565,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT112">
         <v>1</v>
@@ -22735,7 +22759,7 @@
         <v>2.2</v>
       </c>
       <c r="AT113">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22836,7 +22860,7 @@
         <v>85</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22926,7 +22950,7 @@
         <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU114">
         <v>1.85</v>
@@ -23114,7 +23138,7 @@
         <v>2</v>
       </c>
       <c r="AS115">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT115">
         <v>1.33</v>
@@ -23308,7 +23332,7 @@
         <v>2.13</v>
       </c>
       <c r="AT116">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU116">
         <v>1.21</v>
@@ -23600,7 +23624,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23687,7 +23711,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT118">
         <v>0.75</v>
@@ -23982,7 +24006,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24173,7 +24197,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24364,7 +24388,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24451,10 +24475,10 @@
         <v>1.86</v>
       </c>
       <c r="AS122">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT122">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU122">
         <v>1.35</v>
@@ -24645,7 +24669,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU123">
         <v>1.33</v>
@@ -24746,7 +24770,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -24833,7 +24857,7 @@
         <v>0.88</v>
       </c>
       <c r="AS124">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT124">
         <v>0.8</v>
@@ -25024,10 +25048,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT125">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.17</v>
@@ -25215,10 +25239,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT126">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU126">
         <v>1.47</v>
@@ -25406,10 +25430,10 @@
         <v>0.88</v>
       </c>
       <c r="AS127">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT127">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25510,7 +25534,7 @@
         <v>114</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>13</v>
@@ -25597,7 +25621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT128">
         <v>1</v>
@@ -25701,7 +25725,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -25791,7 +25815,7 @@
         <v>1.2</v>
       </c>
       <c r="AT129">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU129">
         <v>1.63</v>
@@ -25892,7 +25916,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26170,7 +26194,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT131">
         <v>0.6</v>
@@ -26274,7 +26298,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26361,10 +26385,10 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT132">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU132">
         <v>1.46</v>
@@ -26465,7 +26489,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26656,7 +26680,7 @@
         <v>85</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27125,10 +27149,10 @@
         <v>0.88</v>
       </c>
       <c r="AS136">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT136">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU136">
         <v>1.43</v>
@@ -27316,10 +27340,10 @@
         <v>2</v>
       </c>
       <c r="AS137">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT137">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU137">
         <v>1.46</v>
@@ -27420,7 +27444,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27507,10 +27531,10 @@
         <v>0.78</v>
       </c>
       <c r="AS138">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT138">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU138">
         <v>1.7</v>
@@ -27611,7 +27635,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27698,10 +27722,10 @@
         <v>1.25</v>
       </c>
       <c r="AS139">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AT139">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU139">
         <v>1.73</v>
@@ -27802,7 +27826,7 @@
         <v>154</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27889,10 +27913,10 @@
         <v>0.89</v>
       </c>
       <c r="AS140">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT140">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU140">
         <v>1.18</v>
@@ -28083,7 +28107,7 @@
         <v>1.2</v>
       </c>
       <c r="AT141">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU141">
         <v>1.63</v>
@@ -28184,7 +28208,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28271,7 +28295,7 @@
         <v>0.78</v>
       </c>
       <c r="AS142">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT142">
         <v>1</v>
@@ -28462,10 +28486,10 @@
         <v>1.56</v>
       </c>
       <c r="AS143">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT143">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU143">
         <v>1.76</v>
@@ -28566,7 +28590,7 @@
         <v>85</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>12</v>
@@ -28656,7 +28680,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU144">
         <v>1.36</v>
@@ -28757,7 +28781,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>9</v>
@@ -29139,7 +29163,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29521,7 +29545,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29608,7 +29632,7 @@
         <v>0.89</v>
       </c>
       <c r="AS149">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT149">
         <v>0.8</v>
@@ -29712,7 +29736,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30045,6 +30069,1534 @@
       </c>
       <c r="BK151">
         <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>4869784</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45161.54166666666</v>
+      </c>
+      <c r="F152">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>77</v>
+      </c>
+      <c r="H152" t="s">
+        <v>75</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>199</v>
+      </c>
+      <c r="P152" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q152">
+        <v>3</v>
+      </c>
+      <c r="R152">
+        <v>4</v>
+      </c>
+      <c r="S152">
+        <v>7</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.5</v>
+      </c>
+      <c r="V152">
+        <v>4.4</v>
+      </c>
+      <c r="W152">
+        <v>1.26</v>
+      </c>
+      <c r="X152">
+        <v>3.64</v>
+      </c>
+      <c r="Y152">
+        <v>2.22</v>
+      </c>
+      <c r="Z152">
+        <v>1.62</v>
+      </c>
+      <c r="AA152">
+        <v>4.95</v>
+      </c>
+      <c r="AB152">
+        <v>1.16</v>
+      </c>
+      <c r="AC152">
+        <v>1.5</v>
+      </c>
+      <c r="AD152">
+        <v>4.33</v>
+      </c>
+      <c r="AE152">
+        <v>5</v>
+      </c>
+      <c r="AF152">
+        <v>1.02</v>
+      </c>
+      <c r="AG152">
+        <v>12</v>
+      </c>
+      <c r="AH152">
+        <v>1.15</v>
+      </c>
+      <c r="AI152">
+        <v>4.75</v>
+      </c>
+      <c r="AJ152">
+        <v>1.36</v>
+      </c>
+      <c r="AK152">
+        <v>2.9</v>
+      </c>
+      <c r="AL152">
+        <v>1.6</v>
+      </c>
+      <c r="AM152">
+        <v>2.25</v>
+      </c>
+      <c r="AN152">
+        <v>1.18</v>
+      </c>
+      <c r="AO152">
+        <v>1.22</v>
+      </c>
+      <c r="AP152">
+        <v>2.15</v>
+      </c>
+      <c r="AQ152">
+        <v>2.44</v>
+      </c>
+      <c r="AR152">
+        <v>0.7</v>
+      </c>
+      <c r="AS152">
+        <v>2.5</v>
+      </c>
+      <c r="AT152">
+        <v>0.64</v>
+      </c>
+      <c r="AU152">
+        <v>1.76</v>
+      </c>
+      <c r="AV152">
+        <v>1.27</v>
+      </c>
+      <c r="AW152">
+        <v>3.03</v>
+      </c>
+      <c r="AX152">
+        <v>1.38</v>
+      </c>
+      <c r="AY152">
+        <v>8</v>
+      </c>
+      <c r="AZ152">
+        <v>4</v>
+      </c>
+      <c r="BA152">
+        <v>1.18</v>
+      </c>
+      <c r="BB152">
+        <v>1.34</v>
+      </c>
+      <c r="BC152">
+        <v>1.61</v>
+      </c>
+      <c r="BD152">
+        <v>2.02</v>
+      </c>
+      <c r="BE152">
+        <v>2.65</v>
+      </c>
+      <c r="BF152">
+        <v>3</v>
+      </c>
+      <c r="BG152">
+        <v>2</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>6</v>
+      </c>
+      <c r="BJ152">
+        <v>8</v>
+      </c>
+      <c r="BK152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>4869777</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45161.54166666666</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>65</v>
+      </c>
+      <c r="H153" t="s">
+        <v>71</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>200</v>
+      </c>
+      <c r="P153" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="R153">
+        <v>10</v>
+      </c>
+      <c r="S153">
+        <v>11</v>
+      </c>
+      <c r="T153">
+        <v>2.8</v>
+      </c>
+      <c r="U153">
+        <v>2.2</v>
+      </c>
+      <c r="V153">
+        <v>3.2</v>
+      </c>
+      <c r="W153">
+        <v>1.36</v>
+      </c>
+      <c r="X153">
+        <v>3</v>
+      </c>
+      <c r="Y153">
+        <v>2.62</v>
+      </c>
+      <c r="Z153">
+        <v>1.44</v>
+      </c>
+      <c r="AA153">
+        <v>6</v>
+      </c>
+      <c r="AB153">
+        <v>1.11</v>
+      </c>
+      <c r="AC153">
+        <v>2.15</v>
+      </c>
+      <c r="AD153">
+        <v>3.45</v>
+      </c>
+      <c r="AE153">
+        <v>2.95</v>
+      </c>
+      <c r="AF153">
+        <v>1.05</v>
+      </c>
+      <c r="AG153">
+        <v>9</v>
+      </c>
+      <c r="AH153">
+        <v>1.25</v>
+      </c>
+      <c r="AI153">
+        <v>3.75</v>
+      </c>
+      <c r="AJ153">
+        <v>1.75</v>
+      </c>
+      <c r="AK153">
+        <v>1.95</v>
+      </c>
+      <c r="AL153">
+        <v>1.67</v>
+      </c>
+      <c r="AM153">
+        <v>2.1</v>
+      </c>
+      <c r="AN153">
+        <v>1.4</v>
+      </c>
+      <c r="AO153">
+        <v>1.3</v>
+      </c>
+      <c r="AP153">
+        <v>1.53</v>
+      </c>
+      <c r="AQ153">
+        <v>1.8</v>
+      </c>
+      <c r="AR153">
+        <v>0.78</v>
+      </c>
+      <c r="AS153">
+        <v>1.91</v>
+      </c>
+      <c r="AT153">
+        <v>0.7</v>
+      </c>
+      <c r="AU153">
+        <v>1.37</v>
+      </c>
+      <c r="AV153">
+        <v>1.39</v>
+      </c>
+      <c r="AW153">
+        <v>2.76</v>
+      </c>
+      <c r="AX153">
+        <v>1.8</v>
+      </c>
+      <c r="AY153">
+        <v>7</v>
+      </c>
+      <c r="AZ153">
+        <v>2.5</v>
+      </c>
+      <c r="BA153">
+        <v>1.2</v>
+      </c>
+      <c r="BB153">
+        <v>1.38</v>
+      </c>
+      <c r="BC153">
+        <v>1.67</v>
+      </c>
+      <c r="BD153">
+        <v>2.12</v>
+      </c>
+      <c r="BE153">
+        <v>2.85</v>
+      </c>
+      <c r="BF153">
+        <v>5</v>
+      </c>
+      <c r="BG153">
+        <v>10</v>
+      </c>
+      <c r="BH153">
+        <v>5</v>
+      </c>
+      <c r="BI153">
+        <v>2</v>
+      </c>
+      <c r="BJ153">
+        <v>10</v>
+      </c>
+      <c r="BK153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>4869778</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45161.54166666666</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>68</v>
+      </c>
+      <c r="H154" t="s">
+        <v>66</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>85</v>
+      </c>
+      <c r="P154" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q154">
+        <v>9</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="S154">
+        <v>10</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>2.3</v>
+      </c>
+      <c r="V154">
+        <v>5.75</v>
+      </c>
+      <c r="W154">
+        <v>1.36</v>
+      </c>
+      <c r="X154">
+        <v>3</v>
+      </c>
+      <c r="Y154">
+        <v>2.5</v>
+      </c>
+      <c r="Z154">
+        <v>1.5</v>
+      </c>
+      <c r="AA154">
+        <v>6</v>
+      </c>
+      <c r="AB154">
+        <v>1.11</v>
+      </c>
+      <c r="AC154">
+        <v>1.45</v>
+      </c>
+      <c r="AD154">
+        <v>4</v>
+      </c>
+      <c r="AE154">
+        <v>6</v>
+      </c>
+      <c r="AF154">
+        <v>1.04</v>
+      </c>
+      <c r="AG154">
+        <v>10</v>
+      </c>
+      <c r="AH154">
+        <v>1.25</v>
+      </c>
+      <c r="AI154">
+        <v>3.75</v>
+      </c>
+      <c r="AJ154">
+        <v>1.75</v>
+      </c>
+      <c r="AK154">
+        <v>1.95</v>
+      </c>
+      <c r="AL154">
+        <v>1.9</v>
+      </c>
+      <c r="AM154">
+        <v>1.85</v>
+      </c>
+      <c r="AN154">
+        <v>1.15</v>
+      </c>
+      <c r="AO154">
+        <v>1.22</v>
+      </c>
+      <c r="AP154">
+        <v>2.5</v>
+      </c>
+      <c r="AQ154">
+        <v>2.22</v>
+      </c>
+      <c r="AR154">
+        <v>0.78</v>
+      </c>
+      <c r="AS154">
+        <v>2</v>
+      </c>
+      <c r="AT154">
+        <v>1</v>
+      </c>
+      <c r="AU154">
+        <v>1.45</v>
+      </c>
+      <c r="AV154">
+        <v>1.03</v>
+      </c>
+      <c r="AW154">
+        <v>2.48</v>
+      </c>
+      <c r="AX154">
+        <v>1.38</v>
+      </c>
+      <c r="AY154">
+        <v>8</v>
+      </c>
+      <c r="AZ154">
+        <v>4</v>
+      </c>
+      <c r="BA154">
+        <v>1.18</v>
+      </c>
+      <c r="BB154">
+        <v>1.34</v>
+      </c>
+      <c r="BC154">
+        <v>1.61</v>
+      </c>
+      <c r="BD154">
+        <v>2.02</v>
+      </c>
+      <c r="BE154">
+        <v>2.65</v>
+      </c>
+      <c r="BF154">
+        <v>5</v>
+      </c>
+      <c r="BG154">
+        <v>6</v>
+      </c>
+      <c r="BH154">
+        <v>8</v>
+      </c>
+      <c r="BI154">
+        <v>1</v>
+      </c>
+      <c r="BJ154">
+        <v>13</v>
+      </c>
+      <c r="BK154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>4869779</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45161.54166666666</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>78</v>
+      </c>
+      <c r="H155" t="s">
+        <v>79</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>116</v>
+      </c>
+      <c r="P155" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q155">
+        <v>8</v>
+      </c>
+      <c r="R155">
+        <v>6</v>
+      </c>
+      <c r="S155">
+        <v>14</v>
+      </c>
+      <c r="T155">
+        <v>2.8</v>
+      </c>
+      <c r="U155">
+        <v>2.05</v>
+      </c>
+      <c r="V155">
+        <v>3.7</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>2.75</v>
+      </c>
+      <c r="Y155">
+        <v>2.75</v>
+      </c>
+      <c r="Z155">
+        <v>1.4</v>
+      </c>
+      <c r="AA155">
+        <v>7</v>
+      </c>
+      <c r="AB155">
+        <v>1.08</v>
+      </c>
+      <c r="AC155">
+        <v>2.35</v>
+      </c>
+      <c r="AD155">
+        <v>3.35</v>
+      </c>
+      <c r="AE155">
+        <v>2.65</v>
+      </c>
+      <c r="AF155">
+        <v>1.06</v>
+      </c>
+      <c r="AG155">
+        <v>8</v>
+      </c>
+      <c r="AH155">
+        <v>1.33</v>
+      </c>
+      <c r="AI155">
+        <v>3.25</v>
+      </c>
+      <c r="AJ155">
+        <v>1.85</v>
+      </c>
+      <c r="AK155">
+        <v>1.85</v>
+      </c>
+      <c r="AL155">
+        <v>1.8</v>
+      </c>
+      <c r="AM155">
+        <v>1.91</v>
+      </c>
+      <c r="AN155">
+        <v>1.35</v>
+      </c>
+      <c r="AO155">
+        <v>1.32</v>
+      </c>
+      <c r="AP155">
+        <v>1.65</v>
+      </c>
+      <c r="AQ155">
+        <v>2.33</v>
+      </c>
+      <c r="AR155">
+        <v>1.78</v>
+      </c>
+      <c r="AS155">
+        <v>2.1</v>
+      </c>
+      <c r="AT155">
+        <v>1.9</v>
+      </c>
+      <c r="AU155">
+        <v>1.67</v>
+      </c>
+      <c r="AV155">
+        <v>1.25</v>
+      </c>
+      <c r="AW155">
+        <v>2.92</v>
+      </c>
+      <c r="AX155">
+        <v>1.88</v>
+      </c>
+      <c r="AY155">
+        <v>7.5</v>
+      </c>
+      <c r="AZ155">
+        <v>2.3</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>1.24</v>
+      </c>
+      <c r="BC155">
+        <v>1.43</v>
+      </c>
+      <c r="BD155">
+        <v>1.74</v>
+      </c>
+      <c r="BE155">
+        <v>2.23</v>
+      </c>
+      <c r="BF155">
+        <v>4</v>
+      </c>
+      <c r="BG155">
+        <v>9</v>
+      </c>
+      <c r="BH155">
+        <v>2</v>
+      </c>
+      <c r="BI155">
+        <v>3</v>
+      </c>
+      <c r="BJ155">
+        <v>6</v>
+      </c>
+      <c r="BK155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>4869780</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45161.54166666666</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>69</v>
+      </c>
+      <c r="H156" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>85</v>
+      </c>
+      <c r="P156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q156">
+        <v>10</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>12</v>
+      </c>
+      <c r="T156">
+        <v>2.1</v>
+      </c>
+      <c r="U156">
+        <v>2.35</v>
+      </c>
+      <c r="V156">
+        <v>4.7</v>
+      </c>
+      <c r="W156">
+        <v>1.28</v>
+      </c>
+      <c r="X156">
+        <v>3.4</v>
+      </c>
+      <c r="Y156">
+        <v>2.3</v>
+      </c>
+      <c r="Z156">
+        <v>1.55</v>
+      </c>
+      <c r="AA156">
+        <v>5.5</v>
+      </c>
+      <c r="AB156">
+        <v>1.13</v>
+      </c>
+      <c r="AC156">
+        <v>1.57</v>
+      </c>
+      <c r="AD156">
+        <v>4.2</v>
+      </c>
+      <c r="AE156">
+        <v>4.4</v>
+      </c>
+      <c r="AF156">
+        <v>1.03</v>
+      </c>
+      <c r="AG156">
+        <v>17.5</v>
+      </c>
+      <c r="AH156">
+        <v>1.19</v>
+      </c>
+      <c r="AI156">
+        <v>4.72</v>
+      </c>
+      <c r="AJ156">
+        <v>1.4</v>
+      </c>
+      <c r="AK156">
+        <v>2.75</v>
+      </c>
+      <c r="AL156">
+        <v>1.67</v>
+      </c>
+      <c r="AM156">
+        <v>2.1</v>
+      </c>
+      <c r="AN156">
+        <v>1.2</v>
+      </c>
+      <c r="AO156">
+        <v>1.24</v>
+      </c>
+      <c r="AP156">
+        <v>2.2</v>
+      </c>
+      <c r="AQ156">
+        <v>2.3</v>
+      </c>
+      <c r="AR156">
+        <v>1.38</v>
+      </c>
+      <c r="AS156">
+        <v>2.09</v>
+      </c>
+      <c r="AT156">
+        <v>1.56</v>
+      </c>
+      <c r="AU156">
+        <v>1.74</v>
+      </c>
+      <c r="AV156">
+        <v>1.33</v>
+      </c>
+      <c r="AW156">
+        <v>3.07</v>
+      </c>
+      <c r="AX156">
+        <v>1.47</v>
+      </c>
+      <c r="AY156">
+        <v>10.5</v>
+      </c>
+      <c r="AZ156">
+        <v>3.14</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>1.26</v>
+      </c>
+      <c r="BC156">
+        <v>1.47</v>
+      </c>
+      <c r="BD156">
+        <v>1.83</v>
+      </c>
+      <c r="BE156">
+        <v>2.3</v>
+      </c>
+      <c r="BF156">
+        <v>5</v>
+      </c>
+      <c r="BG156">
+        <v>5</v>
+      </c>
+      <c r="BH156">
+        <v>3</v>
+      </c>
+      <c r="BI156">
+        <v>3</v>
+      </c>
+      <c r="BJ156">
+        <v>8</v>
+      </c>
+      <c r="BK156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>4869781</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45161.54166666666</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>70</v>
+      </c>
+      <c r="H157" t="s">
+        <v>67</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>201</v>
+      </c>
+      <c r="P157" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q157">
+        <v>7</v>
+      </c>
+      <c r="R157">
+        <v>1</v>
+      </c>
+      <c r="S157">
+        <v>8</v>
+      </c>
+      <c r="T157">
+        <v>2.9</v>
+      </c>
+      <c r="U157">
+        <v>2.2</v>
+      </c>
+      <c r="V157">
+        <v>3.1</v>
+      </c>
+      <c r="W157">
+        <v>1.33</v>
+      </c>
+      <c r="X157">
+        <v>3.25</v>
+      </c>
+      <c r="Y157">
+        <v>2.5</v>
+      </c>
+      <c r="Z157">
+        <v>1.5</v>
+      </c>
+      <c r="AA157">
+        <v>6</v>
+      </c>
+      <c r="AB157">
+        <v>1.11</v>
+      </c>
+      <c r="AC157">
+        <v>2</v>
+      </c>
+      <c r="AD157">
+        <v>3.5</v>
+      </c>
+      <c r="AE157">
+        <v>3.15</v>
+      </c>
+      <c r="AF157">
+        <v>1.05</v>
+      </c>
+      <c r="AG157">
+        <v>9</v>
+      </c>
+      <c r="AH157">
+        <v>1.25</v>
+      </c>
+      <c r="AI157">
+        <v>3.75</v>
+      </c>
+      <c r="AJ157">
+        <v>1.55</v>
+      </c>
+      <c r="AK157">
+        <v>2.3</v>
+      </c>
+      <c r="AL157">
+        <v>1.62</v>
+      </c>
+      <c r="AM157">
+        <v>2.2</v>
+      </c>
+      <c r="AN157">
+        <v>1.44</v>
+      </c>
+      <c r="AO157">
+        <v>1.29</v>
+      </c>
+      <c r="AP157">
+        <v>1.5</v>
+      </c>
+      <c r="AQ157">
+        <v>0.9</v>
+      </c>
+      <c r="AR157">
+        <v>1.11</v>
+      </c>
+      <c r="AS157">
+        <v>0.91</v>
+      </c>
+      <c r="AT157">
+        <v>1.1</v>
+      </c>
+      <c r="AU157">
+        <v>1.18</v>
+      </c>
+      <c r="AV157">
+        <v>1.39</v>
+      </c>
+      <c r="AW157">
+        <v>2.57</v>
+      </c>
+      <c r="AX157">
+        <v>1.86</v>
+      </c>
+      <c r="AY157">
+        <v>9.5</v>
+      </c>
+      <c r="AZ157">
+        <v>2.26</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>1.27</v>
+      </c>
+      <c r="BC157">
+        <v>1.48</v>
+      </c>
+      <c r="BD157">
+        <v>1.85</v>
+      </c>
+      <c r="BE157">
+        <v>2.35</v>
+      </c>
+      <c r="BF157">
+        <v>7</v>
+      </c>
+      <c r="BG157">
+        <v>6</v>
+      </c>
+      <c r="BH157">
+        <v>17</v>
+      </c>
+      <c r="BI157">
+        <v>3</v>
+      </c>
+      <c r="BJ157">
+        <v>24</v>
+      </c>
+      <c r="BK157">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>4869782</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45161.54166666666</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>80</v>
+      </c>
+      <c r="H158" t="s">
+        <v>73</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>202</v>
+      </c>
+      <c r="P158" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q158">
+        <v>2</v>
+      </c>
+      <c r="R158">
+        <v>11</v>
+      </c>
+      <c r="S158">
+        <v>13</v>
+      </c>
+      <c r="T158">
+        <v>2.88</v>
+      </c>
+      <c r="U158">
+        <v>2.2</v>
+      </c>
+      <c r="V158">
+        <v>3.1</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>3.25</v>
+      </c>
+      <c r="Y158">
+        <v>2.5</v>
+      </c>
+      <c r="Z158">
+        <v>1.5</v>
+      </c>
+      <c r="AA158">
+        <v>5.5</v>
+      </c>
+      <c r="AB158">
+        <v>1.12</v>
+      </c>
+      <c r="AC158">
+        <v>2.55</v>
+      </c>
+      <c r="AD158">
+        <v>3.5</v>
+      </c>
+      <c r="AE158">
+        <v>2.35</v>
+      </c>
+      <c r="AF158">
+        <v>1.04</v>
+      </c>
+      <c r="AG158">
+        <v>10</v>
+      </c>
+      <c r="AH158">
+        <v>1.25</v>
+      </c>
+      <c r="AI158">
+        <v>3.75</v>
+      </c>
+      <c r="AJ158">
+        <v>1.55</v>
+      </c>
+      <c r="AK158">
+        <v>2.3</v>
+      </c>
+      <c r="AL158">
+        <v>1.62</v>
+      </c>
+      <c r="AM158">
+        <v>2.2</v>
+      </c>
+      <c r="AN158">
+        <v>1.44</v>
+      </c>
+      <c r="AO158">
+        <v>1.29</v>
+      </c>
+      <c r="AP158">
+        <v>1.53</v>
+      </c>
+      <c r="AQ158">
+        <v>1.67</v>
+      </c>
+      <c r="AR158">
+        <v>1.4</v>
+      </c>
+      <c r="AS158">
+        <v>1.8</v>
+      </c>
+      <c r="AT158">
+        <v>1.27</v>
+      </c>
+      <c r="AU158">
+        <v>1.48</v>
+      </c>
+      <c r="AV158">
+        <v>1.6</v>
+      </c>
+      <c r="AW158">
+        <v>3.08</v>
+      </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
+      <c r="AY158">
+        <v>8</v>
+      </c>
+      <c r="AZ158">
+        <v>1.55</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>1.24</v>
+      </c>
+      <c r="BC158">
+        <v>1.43</v>
+      </c>
+      <c r="BD158">
+        <v>1.74</v>
+      </c>
+      <c r="BE158">
+        <v>2.23</v>
+      </c>
+      <c r="BF158">
+        <v>6</v>
+      </c>
+      <c r="BG158">
+        <v>4</v>
+      </c>
+      <c r="BH158">
+        <v>3</v>
+      </c>
+      <c r="BI158">
+        <v>2</v>
+      </c>
+      <c r="BJ158">
+        <v>9</v>
+      </c>
+      <c r="BK158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>4869783</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45161.54166666666</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>85</v>
+      </c>
+      <c r="P159" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q159">
+        <v>6</v>
+      </c>
+      <c r="R159">
+        <v>1</v>
+      </c>
+      <c r="S159">
+        <v>7</v>
+      </c>
+      <c r="T159">
+        <v>3.1</v>
+      </c>
+      <c r="U159">
+        <v>2.3</v>
+      </c>
+      <c r="V159">
+        <v>2.75</v>
+      </c>
+      <c r="W159">
+        <v>1.29</v>
+      </c>
+      <c r="X159">
+        <v>3.5</v>
+      </c>
+      <c r="Y159">
+        <v>2.3</v>
+      </c>
+      <c r="Z159">
+        <v>1.57</v>
+      </c>
+      <c r="AA159">
+        <v>4.75</v>
+      </c>
+      <c r="AB159">
+        <v>1.15</v>
+      </c>
+      <c r="AC159">
+        <v>2.45</v>
+      </c>
+      <c r="AD159">
+        <v>3.65</v>
+      </c>
+      <c r="AE159">
+        <v>2.4</v>
+      </c>
+      <c r="AF159">
+        <v>1.02</v>
+      </c>
+      <c r="AG159">
+        <v>12</v>
+      </c>
+      <c r="AH159">
+        <v>1.17</v>
+      </c>
+      <c r="AI159">
+        <v>4.5</v>
+      </c>
+      <c r="AJ159">
+        <v>1.45</v>
+      </c>
+      <c r="AK159">
+        <v>2.55</v>
+      </c>
+      <c r="AL159">
+        <v>1.5</v>
+      </c>
+      <c r="AM159">
+        <v>2.5</v>
+      </c>
+      <c r="AN159">
+        <v>1.5</v>
+      </c>
+      <c r="AO159">
+        <v>1.25</v>
+      </c>
+      <c r="AP159">
+        <v>1.53</v>
+      </c>
+      <c r="AQ159">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR159">
+        <v>1.1</v>
+      </c>
+      <c r="AS159">
+        <v>0.5</v>
+      </c>
+      <c r="AT159">
+        <v>1.27</v>
+      </c>
+      <c r="AU159">
+        <v>1.22</v>
+      </c>
+      <c r="AV159">
+        <v>1.14</v>
+      </c>
+      <c r="AW159">
+        <v>2.36</v>
+      </c>
+      <c r="AX159">
+        <v>2.06</v>
+      </c>
+      <c r="AY159">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ159">
+        <v>2</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>1.27</v>
+      </c>
+      <c r="BC159">
+        <v>1.48</v>
+      </c>
+      <c r="BD159">
+        <v>1.85</v>
+      </c>
+      <c r="BE159">
+        <v>2.35</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
+        <v>3</v>
+      </c>
+      <c r="BH159">
+        <v>4</v>
+      </c>
+      <c r="BI159">
+        <v>7</v>
+      </c>
+      <c r="BJ159">
+        <v>4</v>
+      </c>
+      <c r="BK159">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -30888,10 +30888,10 @@
         <v>10</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T156">
         <v>2.1</v>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,24 @@
     <t>['17', '75', '90+2']</t>
   </si>
   <si>
+    <t>['4', '20', '65']</t>
+  </si>
+  <si>
+    <t>['17', '33']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -653,9 +671,6 @@
   </si>
   <si>
     <t>['37', '74']</t>
-  </si>
-  <si>
-    <t>['73']</t>
   </si>
   <si>
     <t>['30', '39', '63']</t>
@@ -863,6 +878,9 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['9', '49', '59']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1486,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1749,7 +1767,7 @@
         <v>1.11</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1850,7 +1868,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1937,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT4">
         <v>1.27</v>
@@ -2041,7 +2059,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2704,7 +2722,7 @@
         <v>1.9</v>
       </c>
       <c r="AT8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2805,7 +2823,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2892,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT9">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3083,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT10">
         <v>1.56</v>
@@ -3274,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT11">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3378,7 +3396,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3465,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT12">
         <v>1.1</v>
@@ -3569,7 +3587,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3659,7 +3677,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4038,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4229,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT16">
         <v>0.7</v>
@@ -4423,7 +4441,7 @@
         <v>1.8</v>
       </c>
       <c r="AT17">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4524,7 +4542,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4906,7 +4924,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4993,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT20">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU20">
         <v>0.46</v>
@@ -5184,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU21">
         <v>1.91</v>
@@ -5288,7 +5306,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5378,7 +5396,7 @@
         <v>1.91</v>
       </c>
       <c r="AT22">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU22">
         <v>0.93</v>
@@ -5479,7 +5497,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5670,7 +5688,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5861,7 +5879,7 @@
         <v>85</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6052,7 +6070,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6243,7 +6261,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6330,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT27">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU27">
         <v>1.79</v>
@@ -6434,7 +6452,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6521,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT28">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU28">
         <v>0.73</v>
@@ -6625,7 +6643,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6712,10 +6730,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU29">
         <v>1.38</v>
@@ -6816,7 +6834,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6906,7 +6924,7 @@
         <v>2.5</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU30">
         <v>1.12</v>
@@ -7007,7 +7025,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7198,7 +7216,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7285,10 +7303,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU32">
         <v>1.84</v>
@@ -7476,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT33">
         <v>1.56</v>
@@ -7962,7 +7980,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8049,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.17</v>
@@ -8153,7 +8171,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8243,7 +8261,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8344,7 +8362,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8726,7 +8744,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8813,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT40">
         <v>1.7</v>
@@ -8917,7 +8935,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -9198,7 +9216,7 @@
         <v>2.09</v>
       </c>
       <c r="AT42">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU42">
         <v>1.24</v>
@@ -9299,7 +9317,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9389,7 +9407,7 @@
         <v>0.91</v>
       </c>
       <c r="AT43">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU43">
         <v>1.03</v>
@@ -9490,7 +9508,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9577,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT44">
         <v>0.64</v>
@@ -9768,10 +9786,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU45">
         <v>1.14</v>
@@ -9872,7 +9890,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9962,7 +9980,7 @@
         <v>2.5</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU46">
         <v>1.42</v>
@@ -10341,10 +10359,10 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT48">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU48">
         <v>1.15</v>
@@ -10532,7 +10550,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT49">
         <v>1.1</v>
@@ -10636,7 +10654,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10723,7 +10741,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT50">
         <v>0.75</v>
@@ -10917,7 +10935,7 @@
         <v>1.91</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -11209,7 +11227,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>13</v>
@@ -11296,7 +11314,7 @@
         <v>2.33</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT53">
         <v>1.9</v>
@@ -11782,7 +11800,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11872,7 +11890,7 @@
         <v>0.5</v>
       </c>
       <c r="AT56">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU56">
         <v>1.61</v>
@@ -11973,7 +11991,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12060,7 +12078,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT57">
         <v>1.27</v>
@@ -12355,7 +12373,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12633,10 +12651,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU60">
         <v>1.4</v>
@@ -12827,7 +12845,7 @@
         <v>0.91</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU61">
         <v>1.04</v>
@@ -13015,10 +13033,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT62">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU62">
         <v>1.76</v>
@@ -13119,7 +13137,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13397,10 +13415,10 @@
         <v>0.67</v>
       </c>
       <c r="AS64">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT64">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU64">
         <v>1.33</v>
@@ -13779,10 +13797,10 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT66">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU66">
         <v>1.56</v>
@@ -14074,7 +14092,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>15</v>
@@ -14161,7 +14179,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT68">
         <v>0.75</v>
@@ -14265,7 +14283,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14543,7 +14561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT70">
         <v>1.27</v>
@@ -14647,7 +14665,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14838,7 +14856,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14928,7 +14946,7 @@
         <v>0.5</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -15029,7 +15047,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15116,10 +15134,10 @@
         <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT73">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU73">
         <v>1.36</v>
@@ -15220,7 +15238,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15501,7 +15519,7 @@
         <v>1.9</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU75">
         <v>1.84</v>
@@ -15602,7 +15620,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15793,7 +15811,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -15883,7 +15901,7 @@
         <v>2.09</v>
       </c>
       <c r="AT77">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -15984,7 +16002,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16071,10 +16089,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU78">
         <v>1.26</v>
@@ -16175,7 +16193,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16262,7 +16280,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT79">
         <v>0.64</v>
@@ -16366,7 +16384,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16456,7 +16474,7 @@
         <v>1.91</v>
       </c>
       <c r="AT80">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU80">
         <v>1.62</v>
@@ -16644,7 +16662,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT81">
         <v>1.27</v>
@@ -16748,7 +16766,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16835,7 +16853,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT82">
         <v>1.7</v>
@@ -16939,7 +16957,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17029,7 +17047,7 @@
         <v>1.11</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>1.14</v>
@@ -17321,7 +17339,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17408,7 +17426,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT85">
         <v>0.7</v>
@@ -17512,7 +17530,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17703,7 +17721,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17790,7 +17808,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
         <v>1.1</v>
@@ -17984,7 +18002,7 @@
         <v>0.5</v>
       </c>
       <c r="AT88">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU88">
         <v>1.54</v>
@@ -18172,10 +18190,10 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU89">
         <v>1.36</v>
@@ -18363,10 +18381,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU90">
         <v>1.35</v>
@@ -18849,7 +18867,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18936,10 +18954,10 @@
         <v>0.8</v>
       </c>
       <c r="AS93">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU93">
         <v>1.68</v>
@@ -19040,7 +19058,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19318,10 +19336,10 @@
         <v>1.17</v>
       </c>
       <c r="AS95">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT95">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU95">
         <v>1.32</v>
@@ -19509,7 +19527,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT96">
         <v>1.27</v>
@@ -19613,7 +19631,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19703,7 +19721,7 @@
         <v>0.5</v>
       </c>
       <c r="AT97">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -20085,7 +20103,7 @@
         <v>1.11</v>
       </c>
       <c r="AT99">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU99">
         <v>1.1</v>
@@ -20186,7 +20204,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20273,10 +20291,10 @@
         <v>1.8</v>
       </c>
       <c r="AS100">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT100">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU100">
         <v>1.91</v>
@@ -20464,7 +20482,7 @@
         <v>1.67</v>
       </c>
       <c r="AS101">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT101">
         <v>1.9</v>
@@ -20568,7 +20586,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20655,7 +20673,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT102">
         <v>0.75</v>
@@ -20849,7 +20867,7 @@
         <v>1.8</v>
       </c>
       <c r="AT103">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU103">
         <v>1.41</v>
@@ -20950,7 +20968,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21141,7 +21159,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21332,7 +21350,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21419,10 +21437,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT106">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU106">
         <v>1.31</v>
@@ -21613,7 +21631,7 @@
         <v>2.09</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU107">
         <v>1.73</v>
@@ -21714,7 +21732,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21905,7 +21923,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21992,7 +22010,7 @@
         <v>0.86</v>
       </c>
       <c r="AS109">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT109">
         <v>0.64</v>
@@ -22096,7 +22114,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22287,7 +22305,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22374,10 +22392,10 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT111">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU111">
         <v>1.83</v>
@@ -22568,7 +22586,7 @@
         <v>1.91</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU112">
         <v>1.53</v>
@@ -22756,7 +22774,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT113">
         <v>1.27</v>
@@ -22860,7 +22878,7 @@
         <v>85</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22947,7 +22965,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT114">
         <v>1.56</v>
@@ -23141,7 +23159,7 @@
         <v>2.5</v>
       </c>
       <c r="AT115">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU115">
         <v>1.68</v>
@@ -23329,7 +23347,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT116">
         <v>1.1</v>
@@ -23523,7 +23541,7 @@
         <v>1.11</v>
       </c>
       <c r="AT117">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU117">
         <v>1.12</v>
@@ -23624,7 +23642,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23902,10 +23920,10 @@
         <v>0.71</v>
       </c>
       <c r="AS119">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT119">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU119">
         <v>1.45</v>
@@ -24006,7 +24024,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24093,7 +24111,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT120">
         <v>1.7</v>
@@ -24197,7 +24215,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24287,7 +24305,7 @@
         <v>1.9</v>
       </c>
       <c r="AT121">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU121">
         <v>1.74</v>
@@ -24388,7 +24406,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24666,7 +24684,7 @@
         <v>0.86</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT123">
         <v>0.7</v>
@@ -24770,7 +24788,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -24860,7 +24878,7 @@
         <v>2.09</v>
       </c>
       <c r="AT124">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU124">
         <v>1.76</v>
@@ -25051,7 +25069,7 @@
         <v>0.91</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU125">
         <v>1.17</v>
@@ -25534,7 +25552,7 @@
         <v>114</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>13</v>
@@ -25621,10 +25639,10 @@
         <v>0.5</v>
       </c>
       <c r="AS128">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT128">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU128">
         <v>1.82</v>
@@ -25725,7 +25743,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -25812,7 +25830,7 @@
         <v>1.38</v>
       </c>
       <c r="AS129">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT129">
         <v>1.27</v>
@@ -25916,7 +25934,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26003,10 +26021,10 @@
         <v>1.71</v>
       </c>
       <c r="AS130">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT130">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU130">
         <v>1.49</v>
@@ -26197,7 +26215,7 @@
         <v>2.5</v>
       </c>
       <c r="AT131">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU131">
         <v>1.77</v>
@@ -26298,7 +26316,7 @@
         <v>183</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26489,7 +26507,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26576,7 +26594,7 @@
         <v>1.63</v>
       </c>
       <c r="AS133">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT133">
         <v>1.7</v>
@@ -26680,7 +26698,7 @@
         <v>85</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26770,7 +26788,7 @@
         <v>1.9</v>
       </c>
       <c r="AT134">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU134">
         <v>1.69</v>
@@ -26958,10 +26976,10 @@
         <v>0.57</v>
       </c>
       <c r="AS135">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT135">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU135">
         <v>1.41</v>
@@ -27152,7 +27170,7 @@
         <v>1.91</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU136">
         <v>1.43</v>
@@ -27444,7 +27462,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27531,7 +27549,7 @@
         <v>0.78</v>
       </c>
       <c r="AS138">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT138">
         <v>0.64</v>
@@ -27635,7 +27653,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27826,7 +27844,7 @@
         <v>154</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28104,7 +28122,7 @@
         <v>0.88</v>
       </c>
       <c r="AS141">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT141">
         <v>0.7</v>
@@ -28208,7 +28226,7 @@
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28298,7 +28316,7 @@
         <v>0.5</v>
       </c>
       <c r="AT142">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU142">
         <v>1.27</v>
@@ -28590,7 +28608,7 @@
         <v>85</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>12</v>
@@ -28677,7 +28695,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT144">
         <v>1.56</v>
@@ -28781,7 +28799,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>9</v>
@@ -28868,7 +28886,7 @@
         <v>1.78</v>
       </c>
       <c r="AS145">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT145">
         <v>1.7</v>
@@ -29062,7 +29080,7 @@
         <v>1.11</v>
       </c>
       <c r="AT146">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU146">
         <v>1.13</v>
@@ -29163,7 +29181,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29250,10 +29268,10 @@
         <v>1.56</v>
       </c>
       <c r="AS147">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT147">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU147">
         <v>1.66</v>
@@ -29444,7 +29462,7 @@
         <v>1.9</v>
       </c>
       <c r="AT148">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU148">
         <v>1.62</v>
@@ -29545,7 +29563,7 @@
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29635,7 +29653,7 @@
         <v>1.8</v>
       </c>
       <c r="AT149">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU149">
         <v>1.49</v>
@@ -29736,7 +29754,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -29823,10 +29841,10 @@
         <v>0.5</v>
       </c>
       <c r="AS150">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT150">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU150">
         <v>1.45</v>
@@ -30014,7 +30032,7 @@
         <v>0.86</v>
       </c>
       <c r="AS151">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT151">
         <v>0.75</v>
@@ -30309,7 +30327,7 @@
         <v>200</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30500,7 +30518,7 @@
         <v>85</v>
       </c>
       <c r="P154" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q154">
         <v>9</v>
@@ -30590,7 +30608,7 @@
         <v>2</v>
       </c>
       <c r="AT154">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU154">
         <v>1.45</v>
@@ -30691,7 +30709,7 @@
         <v>116</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q155">
         <v>8</v>
@@ -30778,7 +30796,7 @@
         <v>1.78</v>
       </c>
       <c r="AS155">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT155">
         <v>1.9</v>
@@ -31073,7 +31091,7 @@
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31455,7 +31473,7 @@
         <v>85</v>
       </c>
       <c r="P159" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q159">
         <v>6</v>
@@ -31597,6 +31615,1343 @@
       </c>
       <c r="BK159">
         <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>4869789</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45165.41666666666</v>
+      </c>
+      <c r="F160">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160" t="s">
+        <v>85</v>
+      </c>
+      <c r="P160" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q160">
+        <v>6</v>
+      </c>
+      <c r="R160">
+        <v>3</v>
+      </c>
+      <c r="S160">
+        <v>9</v>
+      </c>
+      <c r="T160">
+        <v>3</v>
+      </c>
+      <c r="U160">
+        <v>2.35</v>
+      </c>
+      <c r="V160">
+        <v>3.1</v>
+      </c>
+      <c r="W160">
+        <v>1.26</v>
+      </c>
+      <c r="X160">
+        <v>3.5</v>
+      </c>
+      <c r="Y160">
+        <v>2.24</v>
+      </c>
+      <c r="Z160">
+        <v>1.59</v>
+      </c>
+      <c r="AA160">
+        <v>4.95</v>
+      </c>
+      <c r="AB160">
+        <v>1.14</v>
+      </c>
+      <c r="AC160">
+        <v>2.45</v>
+      </c>
+      <c r="AD160">
+        <v>3.5</v>
+      </c>
+      <c r="AE160">
+        <v>2.45</v>
+      </c>
+      <c r="AF160">
+        <v>1.02</v>
+      </c>
+      <c r="AG160">
+        <v>12</v>
+      </c>
+      <c r="AH160">
+        <v>1.16</v>
+      </c>
+      <c r="AI160">
+        <v>5</v>
+      </c>
+      <c r="AJ160">
+        <v>1.4</v>
+      </c>
+      <c r="AK160">
+        <v>2.75</v>
+      </c>
+      <c r="AL160">
+        <v>1.47</v>
+      </c>
+      <c r="AM160">
+        <v>2.65</v>
+      </c>
+      <c r="AN160">
+        <v>1.52</v>
+      </c>
+      <c r="AO160">
+        <v>1.25</v>
+      </c>
+      <c r="AP160">
+        <v>1.53</v>
+      </c>
+      <c r="AQ160">
+        <v>1.67</v>
+      </c>
+      <c r="AR160">
+        <v>0.8</v>
+      </c>
+      <c r="AS160">
+        <v>1.6</v>
+      </c>
+      <c r="AT160">
+        <v>0.82</v>
+      </c>
+      <c r="AU160">
+        <v>1.64</v>
+      </c>
+      <c r="AV160">
+        <v>1.28</v>
+      </c>
+      <c r="AW160">
+        <v>2.92</v>
+      </c>
+      <c r="AX160">
+        <v>2.07</v>
+      </c>
+      <c r="AY160">
+        <v>9.1</v>
+      </c>
+      <c r="AZ160">
+        <v>2</v>
+      </c>
+      <c r="BA160">
+        <v>1.2</v>
+      </c>
+      <c r="BB160">
+        <v>1.35</v>
+      </c>
+      <c r="BC160">
+        <v>1.63</v>
+      </c>
+      <c r="BD160">
+        <v>2.06</v>
+      </c>
+      <c r="BE160">
+        <v>2.69</v>
+      </c>
+      <c r="BF160">
+        <v>2</v>
+      </c>
+      <c r="BG160">
+        <v>2</v>
+      </c>
+      <c r="BH160">
+        <v>7</v>
+      </c>
+      <c r="BI160">
+        <v>2</v>
+      </c>
+      <c r="BJ160">
+        <v>9</v>
+      </c>
+      <c r="BK160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>4869792</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F161">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>75</v>
+      </c>
+      <c r="H161" t="s">
+        <v>80</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>203</v>
+      </c>
+      <c r="P161" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <v>5</v>
+      </c>
+      <c r="S161">
+        <v>6</v>
+      </c>
+      <c r="T161">
+        <v>3</v>
+      </c>
+      <c r="U161">
+        <v>2.35</v>
+      </c>
+      <c r="V161">
+        <v>3.1</v>
+      </c>
+      <c r="W161">
+        <v>1.26</v>
+      </c>
+      <c r="X161">
+        <v>3.5</v>
+      </c>
+      <c r="Y161">
+        <v>2.29</v>
+      </c>
+      <c r="Z161">
+        <v>1.56</v>
+      </c>
+      <c r="AA161">
+        <v>4.95</v>
+      </c>
+      <c r="AB161">
+        <v>1.14</v>
+      </c>
+      <c r="AC161">
+        <v>2.4</v>
+      </c>
+      <c r="AD161">
+        <v>3.55</v>
+      </c>
+      <c r="AE161">
+        <v>2.55</v>
+      </c>
+      <c r="AF161">
+        <v>1.03</v>
+      </c>
+      <c r="AG161">
+        <v>11</v>
+      </c>
+      <c r="AH161">
+        <v>1.18</v>
+      </c>
+      <c r="AI161">
+        <v>4.75</v>
+      </c>
+      <c r="AJ161">
+        <v>1.51</v>
+      </c>
+      <c r="AK161">
+        <v>2.28</v>
+      </c>
+      <c r="AL161">
+        <v>1.45</v>
+      </c>
+      <c r="AM161">
+        <v>2.6</v>
+      </c>
+      <c r="AN161">
+        <v>1.52</v>
+      </c>
+      <c r="AO161">
+        <v>1.22</v>
+      </c>
+      <c r="AP161">
+        <v>1.53</v>
+      </c>
+      <c r="AQ161">
+        <v>1.11</v>
+      </c>
+      <c r="AR161">
+        <v>1</v>
+      </c>
+      <c r="AS161">
+        <v>1.3</v>
+      </c>
+      <c r="AT161">
+        <v>0.91</v>
+      </c>
+      <c r="AU161">
+        <v>1.41</v>
+      </c>
+      <c r="AV161">
+        <v>1.45</v>
+      </c>
+      <c r="AW161">
+        <v>2.86</v>
+      </c>
+      <c r="AX161">
+        <v>1.94</v>
+      </c>
+      <c r="AY161">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ161">
+        <v>2.1</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>1.19</v>
+      </c>
+      <c r="BC161">
+        <v>1.32</v>
+      </c>
+      <c r="BD161">
+        <v>1.57</v>
+      </c>
+      <c r="BE161">
+        <v>1.9</v>
+      </c>
+      <c r="BF161">
+        <v>3</v>
+      </c>
+      <c r="BG161">
+        <v>4</v>
+      </c>
+      <c r="BH161">
+        <v>0</v>
+      </c>
+      <c r="BI161">
+        <v>1</v>
+      </c>
+      <c r="BJ161">
+        <v>3</v>
+      </c>
+      <c r="BK161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>4869791</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s">
+        <v>76</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>204</v>
+      </c>
+      <c r="P162" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q162">
+        <v>-1</v>
+      </c>
+      <c r="R162">
+        <v>-1</v>
+      </c>
+      <c r="S162">
+        <v>-1</v>
+      </c>
+      <c r="T162">
+        <v>2.1</v>
+      </c>
+      <c r="U162">
+        <v>2.5</v>
+      </c>
+      <c r="V162">
+        <v>5</v>
+      </c>
+      <c r="W162">
+        <v>1.24</v>
+      </c>
+      <c r="X162">
+        <v>3.7</v>
+      </c>
+      <c r="Y162">
+        <v>2.17</v>
+      </c>
+      <c r="Z162">
+        <v>1.63</v>
+      </c>
+      <c r="AA162">
+        <v>4.7</v>
+      </c>
+      <c r="AB162">
+        <v>1.16</v>
+      </c>
+      <c r="AC162">
+        <v>1.22</v>
+      </c>
+      <c r="AD162">
+        <v>6</v>
+      </c>
+      <c r="AE162">
+        <v>9.5</v>
+      </c>
+      <c r="AF162">
+        <v>1.02</v>
+      </c>
+      <c r="AG162">
+        <v>12</v>
+      </c>
+      <c r="AH162">
+        <v>1.14</v>
+      </c>
+      <c r="AI162">
+        <v>5.5</v>
+      </c>
+      <c r="AJ162">
+        <v>1.44</v>
+      </c>
+      <c r="AK162">
+        <v>2.46</v>
+      </c>
+      <c r="AL162">
+        <v>1.55</v>
+      </c>
+      <c r="AM162">
+        <v>2.4</v>
+      </c>
+      <c r="AN162">
+        <v>1.15</v>
+      </c>
+      <c r="AO162">
+        <v>1.18</v>
+      </c>
+      <c r="AP162">
+        <v>2.4</v>
+      </c>
+      <c r="AQ162">
+        <v>2.13</v>
+      </c>
+      <c r="AR162">
+        <v>0.6</v>
+      </c>
+      <c r="AS162">
+        <v>2.22</v>
+      </c>
+      <c r="AT162">
+        <v>0.55</v>
+      </c>
+      <c r="AU162">
+        <v>1.35</v>
+      </c>
+      <c r="AV162">
+        <v>1.18</v>
+      </c>
+      <c r="AW162">
+        <v>2.53</v>
+      </c>
+      <c r="AX162">
+        <v>1.23</v>
+      </c>
+      <c r="AY162">
+        <v>12.5</v>
+      </c>
+      <c r="AZ162">
+        <v>5.18</v>
+      </c>
+      <c r="BA162">
+        <v>1.13</v>
+      </c>
+      <c r="BB162">
+        <v>1.24</v>
+      </c>
+      <c r="BC162">
+        <v>1.5</v>
+      </c>
+      <c r="BD162">
+        <v>1.7</v>
+      </c>
+      <c r="BE162">
+        <v>2.1</v>
+      </c>
+      <c r="BF162">
+        <v>-1</v>
+      </c>
+      <c r="BG162">
+        <v>-1</v>
+      </c>
+      <c r="BH162">
+        <v>-1</v>
+      </c>
+      <c r="BI162">
+        <v>-1</v>
+      </c>
+      <c r="BJ162">
+        <v>-1</v>
+      </c>
+      <c r="BK162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>4869790</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>72</v>
+      </c>
+      <c r="H163" t="s">
+        <v>70</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>205</v>
+      </c>
+      <c r="P163" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q163">
+        <v>5</v>
+      </c>
+      <c r="R163">
+        <v>3</v>
+      </c>
+      <c r="S163">
+        <v>8</v>
+      </c>
+      <c r="T163">
+        <v>2.8</v>
+      </c>
+      <c r="U163">
+        <v>2.25</v>
+      </c>
+      <c r="V163">
+        <v>3.6</v>
+      </c>
+      <c r="W163">
+        <v>1.3</v>
+      </c>
+      <c r="X163">
+        <v>3.2</v>
+      </c>
+      <c r="Y163">
+        <v>2.45</v>
+      </c>
+      <c r="Z163">
+        <v>1.49</v>
+      </c>
+      <c r="AA163">
+        <v>5.9</v>
+      </c>
+      <c r="AB163">
+        <v>1.1</v>
+      </c>
+      <c r="AC163">
+        <v>2.2</v>
+      </c>
+      <c r="AD163">
+        <v>3.64</v>
+      </c>
+      <c r="AE163">
+        <v>3.07</v>
+      </c>
+      <c r="AF163">
+        <v>1.03</v>
+      </c>
+      <c r="AG163">
+        <v>15</v>
+      </c>
+      <c r="AH163">
+        <v>1.22</v>
+      </c>
+      <c r="AI163">
+        <v>4.2</v>
+      </c>
+      <c r="AJ163">
+        <v>1.64</v>
+      </c>
+      <c r="AK163">
+        <v>2.04</v>
+      </c>
+      <c r="AL163">
+        <v>1.57</v>
+      </c>
+      <c r="AM163">
+        <v>2.3</v>
+      </c>
+      <c r="AN163">
+        <v>1.38</v>
+      </c>
+      <c r="AO163">
+        <v>1.25</v>
+      </c>
+      <c r="AP163">
+        <v>1.68</v>
+      </c>
+      <c r="AQ163">
+        <v>1.2</v>
+      </c>
+      <c r="AR163">
+        <v>1.33</v>
+      </c>
+      <c r="AS163">
+        <v>1.36</v>
+      </c>
+      <c r="AT163">
+        <v>1.2</v>
+      </c>
+      <c r="AU163">
+        <v>1.64</v>
+      </c>
+      <c r="AV163">
+        <v>1.4</v>
+      </c>
+      <c r="AW163">
+        <v>3.04</v>
+      </c>
+      <c r="AX163">
+        <v>1.88</v>
+      </c>
+      <c r="AY163">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ163">
+        <v>2.21</v>
+      </c>
+      <c r="BA163">
+        <v>1.2</v>
+      </c>
+      <c r="BB163">
+        <v>1.32</v>
+      </c>
+      <c r="BC163">
+        <v>1.59</v>
+      </c>
+      <c r="BD163">
+        <v>2</v>
+      </c>
+      <c r="BE163">
+        <v>2.58</v>
+      </c>
+      <c r="BF163">
+        <v>3</v>
+      </c>
+      <c r="BG163">
+        <v>2</v>
+      </c>
+      <c r="BH163">
+        <v>3</v>
+      </c>
+      <c r="BI163">
+        <v>1</v>
+      </c>
+      <c r="BJ163">
+        <v>6</v>
+      </c>
+      <c r="BK163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>4869787</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>78</v>
+      </c>
+      <c r="H164" t="s">
+        <v>68</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>206</v>
+      </c>
+      <c r="P164" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q164">
+        <v>1</v>
+      </c>
+      <c r="R164">
+        <v>3</v>
+      </c>
+      <c r="S164">
+        <v>4</v>
+      </c>
+      <c r="T164">
+        <v>2.65</v>
+      </c>
+      <c r="U164">
+        <v>2.3</v>
+      </c>
+      <c r="V164">
+        <v>3.75</v>
+      </c>
+      <c r="W164">
+        <v>1.3</v>
+      </c>
+      <c r="X164">
+        <v>3.2</v>
+      </c>
+      <c r="Y164">
+        <v>2.45</v>
+      </c>
+      <c r="Z164">
+        <v>1.49</v>
+      </c>
+      <c r="AA164">
+        <v>5.9</v>
+      </c>
+      <c r="AB164">
+        <v>1.1</v>
+      </c>
+      <c r="AC164">
+        <v>2.05</v>
+      </c>
+      <c r="AD164">
+        <v>3.55</v>
+      </c>
+      <c r="AE164">
+        <v>3.1</v>
+      </c>
+      <c r="AF164">
+        <v>1.02</v>
+      </c>
+      <c r="AG164">
+        <v>15</v>
+      </c>
+      <c r="AH164">
+        <v>1.22</v>
+      </c>
+      <c r="AI164">
+        <v>4.2</v>
+      </c>
+      <c r="AJ164">
+        <v>1.65</v>
+      </c>
+      <c r="AK164">
+        <v>2.18</v>
+      </c>
+      <c r="AL164">
+        <v>1.6</v>
+      </c>
+      <c r="AM164">
+        <v>2.3</v>
+      </c>
+      <c r="AN164">
+        <v>1.33</v>
+      </c>
+      <c r="AO164">
+        <v>1.22</v>
+      </c>
+      <c r="AP164">
+        <v>1.78</v>
+      </c>
+      <c r="AQ164">
+        <v>2.1</v>
+      </c>
+      <c r="AR164">
+        <v>1.4</v>
+      </c>
+      <c r="AS164">
+        <v>2</v>
+      </c>
+      <c r="AT164">
+        <v>1.36</v>
+      </c>
+      <c r="AU164">
+        <v>1.63</v>
+      </c>
+      <c r="AV164">
+        <v>1.44</v>
+      </c>
+      <c r="AW164">
+        <v>3.07</v>
+      </c>
+      <c r="AX164">
+        <v>1.63</v>
+      </c>
+      <c r="AY164">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ164">
+        <v>2.74</v>
+      </c>
+      <c r="BA164">
+        <v>1.22</v>
+      </c>
+      <c r="BB164">
+        <v>1.43</v>
+      </c>
+      <c r="BC164">
+        <v>1.93</v>
+      </c>
+      <c r="BD164">
+        <v>2.23</v>
+      </c>
+      <c r="BE164">
+        <v>2.93</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>2</v>
+      </c>
+      <c r="BH164">
+        <v>3</v>
+      </c>
+      <c r="BI164">
+        <v>0</v>
+      </c>
+      <c r="BJ164">
+        <v>3</v>
+      </c>
+      <c r="BK164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>4869785</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s">
+        <v>66</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>207</v>
+      </c>
+      <c r="P165" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q165">
+        <v>-1</v>
+      </c>
+      <c r="R165">
+        <v>-1</v>
+      </c>
+      <c r="S165">
+        <v>-1</v>
+      </c>
+      <c r="T165">
+        <v>2.1</v>
+      </c>
+      <c r="U165">
+        <v>2.3</v>
+      </c>
+      <c r="V165">
+        <v>6</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>2.95</v>
+      </c>
+      <c r="Y165">
+        <v>2.7</v>
+      </c>
+      <c r="Z165">
+        <v>1.41</v>
+      </c>
+      <c r="AA165">
+        <v>6.9</v>
+      </c>
+      <c r="AB165">
+        <v>1.07</v>
+      </c>
+      <c r="AC165">
+        <v>1.33</v>
+      </c>
+      <c r="AD165">
+        <v>4.5</v>
+      </c>
+      <c r="AE165">
+        <v>9</v>
+      </c>
+      <c r="AF165">
+        <v>1.04</v>
+      </c>
+      <c r="AG165">
+        <v>12</v>
+      </c>
+      <c r="AH165">
+        <v>1.28</v>
+      </c>
+      <c r="AI165">
+        <v>3.6</v>
+      </c>
+      <c r="AJ165">
+        <v>2.01</v>
+      </c>
+      <c r="AK165">
+        <v>1.77</v>
+      </c>
+      <c r="AL165">
+        <v>1.95</v>
+      </c>
+      <c r="AM165">
+        <v>1.8</v>
+      </c>
+      <c r="AN165">
+        <v>1.11</v>
+      </c>
+      <c r="AO165">
+        <v>1.18</v>
+      </c>
+      <c r="AP165">
+        <v>2.55</v>
+      </c>
+      <c r="AQ165">
+        <v>2.2</v>
+      </c>
+      <c r="AR165">
+        <v>1</v>
+      </c>
+      <c r="AS165">
+        <v>2.27</v>
+      </c>
+      <c r="AT165">
+        <v>0.91</v>
+      </c>
+      <c r="AU165">
+        <v>1.56</v>
+      </c>
+      <c r="AV165">
+        <v>1.04</v>
+      </c>
+      <c r="AW165">
+        <v>2.6</v>
+      </c>
+      <c r="AX165">
+        <v>1.33</v>
+      </c>
+      <c r="AY165">
+        <v>10.5</v>
+      </c>
+      <c r="AZ165">
+        <v>4.19</v>
+      </c>
+      <c r="BA165">
+        <v>1.19</v>
+      </c>
+      <c r="BB165">
+        <v>1.39</v>
+      </c>
+      <c r="BC165">
+        <v>1.72</v>
+      </c>
+      <c r="BD165">
+        <v>2.17</v>
+      </c>
+      <c r="BE165">
+        <v>2.78</v>
+      </c>
+      <c r="BF165">
+        <v>-1</v>
+      </c>
+      <c r="BG165">
+        <v>-1</v>
+      </c>
+      <c r="BH165">
+        <v>-1</v>
+      </c>
+      <c r="BI165">
+        <v>-1</v>
+      </c>
+      <c r="BJ165">
+        <v>-1</v>
+      </c>
+      <c r="BK165">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>4869786</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45165.5</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>67</v>
+      </c>
+      <c r="H166" t="s">
+        <v>65</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>208</v>
+      </c>
+      <c r="P166" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q166">
+        <v>-1</v>
+      </c>
+      <c r="R166">
+        <v>-1</v>
+      </c>
+      <c r="S166">
+        <v>-1</v>
+      </c>
+      <c r="T166">
+        <v>2.65</v>
+      </c>
+      <c r="U166">
+        <v>2.3</v>
+      </c>
+      <c r="V166">
+        <v>3.75</v>
+      </c>
+      <c r="W166">
+        <v>1.33</v>
+      </c>
+      <c r="X166">
+        <v>3.16</v>
+      </c>
+      <c r="Y166">
+        <v>2.52</v>
+      </c>
+      <c r="Z166">
+        <v>1.49</v>
+      </c>
+      <c r="AA166">
+        <v>6</v>
+      </c>
+      <c r="AB166">
+        <v>1.11</v>
+      </c>
+      <c r="AC166">
+        <v>2.1</v>
+      </c>
+      <c r="AD166">
+        <v>3.65</v>
+      </c>
+      <c r="AE166">
+        <v>2.9</v>
+      </c>
+      <c r="AF166">
+        <v>1.03</v>
+      </c>
+      <c r="AG166">
+        <v>13</v>
+      </c>
+      <c r="AH166">
+        <v>1.22</v>
+      </c>
+      <c r="AI166">
+        <v>4.2</v>
+      </c>
+      <c r="AJ166">
+        <v>1.57</v>
+      </c>
+      <c r="AK166">
+        <v>2.34</v>
+      </c>
+      <c r="AL166">
+        <v>1.63</v>
+      </c>
+      <c r="AM166">
+        <v>2.25</v>
+      </c>
+      <c r="AN166">
+        <v>1.33</v>
+      </c>
+      <c r="AO166">
+        <v>1.22</v>
+      </c>
+      <c r="AP166">
+        <v>1.8</v>
+      </c>
+      <c r="AQ166">
+        <v>1.5</v>
+      </c>
+      <c r="AR166">
+        <v>0.44</v>
+      </c>
+      <c r="AS166">
+        <v>1.36</v>
+      </c>
+      <c r="AT166">
+        <v>0.7</v>
+      </c>
+      <c r="AU166">
+        <v>1.4</v>
+      </c>
+      <c r="AV166">
+        <v>1.44</v>
+      </c>
+      <c r="AW166">
+        <v>2.84</v>
+      </c>
+      <c r="AX166">
+        <v>1.82</v>
+      </c>
+      <c r="AY166">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ166">
+        <v>2.31</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>1.2</v>
+      </c>
+      <c r="BC166">
+        <v>1.36</v>
+      </c>
+      <c r="BD166">
+        <v>1.63</v>
+      </c>
+      <c r="BE166">
+        <v>2.08</v>
+      </c>
+      <c r="BF166">
+        <v>-1</v>
+      </c>
+      <c r="BG166">
+        <v>-1</v>
+      </c>
+      <c r="BH166">
+        <v>-1</v>
+      </c>
+      <c r="BI166">
+        <v>-1</v>
+      </c>
+      <c r="BJ166">
+        <v>-1</v>
+      </c>
+      <c r="BK166">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['62', '68']</t>
   </si>
   <si>
+    <t>['16', '88']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -589,9 +592,6 @@
     <t>['28']</t>
   </si>
   <si>
-    <t>['16', '88']</t>
-  </si>
-  <si>
     <t>['57', '61', '71']</t>
   </si>
   <si>
@@ -601,19 +601,16 @@
     <t>['4', '36', '48', '50']</t>
   </si>
   <si>
-    <t>['3', '44', '59', '90+1']</t>
+    <t>['6', '61']</t>
   </si>
   <si>
-    <t>['6', '61']</t>
+    <t>['3', '44', '59', '90+1']</t>
   </si>
   <si>
     <t>['25', '42']</t>
   </si>
   <si>
     <t>['2', '55', '61', '85']</t>
-  </si>
-  <si>
-    <t>['44']</t>
   </si>
   <si>
     <t>['63', '71', '90+5']</t>
@@ -623,6 +620,9 @@
   </si>
   <si>
     <t>['17', '75', '90+2']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
   <si>
     <t>['4', '20', '65']</t>
@@ -832,10 +832,10 @@
     <t>['30', '49']</t>
   </si>
   <si>
-    <t>['49', '69', '90+3']</t>
+    <t>['18', '28', '88', '90+4']</t>
   </si>
   <si>
-    <t>['18', '28', '88', '90+4']</t>
+    <t>['49', '69', '90+3']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>['9', '49', '59']</t>
+  </si>
+  <si>
+    <t>['21', '42', '49']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2719,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT8">
         <v>0.82</v>
@@ -3868,7 +3871,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -5775,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT24">
         <v>1.27</v>
@@ -6160,7 +6163,7 @@
         <v>0.91</v>
       </c>
       <c r="AT26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>0.9</v>
@@ -7112,7 +7115,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT31">
         <v>1.1</v>
@@ -10168,7 +10171,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
         <v>1.56</v>
@@ -10744,7 +10747,7 @@
         <v>1.36</v>
       </c>
       <c r="AT50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.58</v>
@@ -12269,7 +12272,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT58">
         <v>0.64</v>
@@ -14182,7 +14185,7 @@
         <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.1</v>
@@ -15516,7 +15519,7 @@
         <v>0.8</v>
       </c>
       <c r="AS75">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT75">
         <v>0.91</v>
@@ -17238,7 +17241,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.29</v>
@@ -20676,7 +20679,7 @@
         <v>1.3</v>
       </c>
       <c r="AT102">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.46</v>
@@ -21055,7 +21058,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT104">
         <v>1.7</v>
@@ -23732,7 +23735,7 @@
         <v>1.8</v>
       </c>
       <c r="AT118">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.38</v>
@@ -24302,7 +24305,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT121">
         <v>0.7</v>
@@ -26274,7 +26277,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>4869757</v>
+        <v>4869756</v>
       </c>
       <c r="C132" t="s">
         <v>63</v>
@@ -26289,175 +26292,175 @@
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H132" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K132">
         <v>2</v>
       </c>
       <c r="L132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N132">
         <v>5</v>
       </c>
       <c r="O132" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="P132" t="s">
         <v>272</v>
       </c>
       <c r="Q132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R132">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S132">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T132">
-        <v>2.9</v>
+        <v>3.42</v>
       </c>
       <c r="U132">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="V132">
-        <v>3.51</v>
+        <v>2.81</v>
       </c>
       <c r="W132">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
+        <v>2.25</v>
+      </c>
+      <c r="Z132">
+        <v>1.6</v>
+      </c>
+      <c r="AA132">
+        <v>4.75</v>
+      </c>
+      <c r="AB132">
+        <v>1.15</v>
+      </c>
+      <c r="AC132">
+        <v>2.65</v>
+      </c>
+      <c r="AD132">
+        <v>3.4</v>
+      </c>
+      <c r="AE132">
+        <v>2.25</v>
+      </c>
+      <c r="AF132">
+        <v>1.03</v>
+      </c>
+      <c r="AG132">
+        <v>11</v>
+      </c>
+      <c r="AH132">
+        <v>1.17</v>
+      </c>
+      <c r="AI132">
+        <v>4.5</v>
+      </c>
+      <c r="AJ132">
+        <v>1.49</v>
+      </c>
+      <c r="AK132">
+        <v>2.34</v>
+      </c>
+      <c r="AL132">
+        <v>1.5</v>
+      </c>
+      <c r="AM132">
         <v>2.5</v>
       </c>
-      <c r="Z132">
-        <v>1.5</v>
-      </c>
-      <c r="AA132">
-        <v>5.5</v>
-      </c>
-      <c r="AB132">
-        <v>1.12</v>
-      </c>
-      <c r="AC132">
-        <v>2.15</v>
-      </c>
-      <c r="AD132">
-        <v>3.3</v>
-      </c>
-      <c r="AE132">
-        <v>2.8</v>
-      </c>
-      <c r="AF132">
-        <v>1.04</v>
-      </c>
-      <c r="AG132">
-        <v>10</v>
-      </c>
-      <c r="AH132">
-        <v>1.22</v>
-      </c>
-      <c r="AI132">
-        <v>4</v>
-      </c>
-      <c r="AJ132">
-        <v>1.61</v>
-      </c>
-      <c r="AK132">
-        <v>2.15</v>
-      </c>
-      <c r="AL132">
+      <c r="AN132">
         <v>1.6</v>
       </c>
-      <c r="AM132">
-        <v>2.25</v>
-      </c>
-      <c r="AN132">
+      <c r="AO132">
+        <v>1.25</v>
+      </c>
+      <c r="AP132">
         <v>1.4</v>
-      </c>
-      <c r="AO132">
-        <v>1.29</v>
-      </c>
-      <c r="AP132">
-        <v>1.57</v>
       </c>
       <c r="AQ132">
         <v>1.71</v>
       </c>
       <c r="AR132">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AS132">
+        <v>1.6</v>
+      </c>
+      <c r="AT132">
+        <v>1.7</v>
+      </c>
+      <c r="AU132">
         <v>1.8</v>
       </c>
-      <c r="AT132">
-        <v>1.1</v>
-      </c>
-      <c r="AU132">
-        <v>1.46</v>
-      </c>
       <c r="AV132">
+        <v>1.14</v>
+      </c>
+      <c r="AW132">
+        <v>2.94</v>
+      </c>
+      <c r="AX132">
+        <v>2.08</v>
+      </c>
+      <c r="AY132">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ132">
+        <v>1.98</v>
+      </c>
+      <c r="BA132">
+        <v>1.18</v>
+      </c>
+      <c r="BB132">
         <v>1.33</v>
       </c>
-      <c r="AW132">
-        <v>2.79</v>
-      </c>
-      <c r="AX132">
-        <v>1.62</v>
-      </c>
-      <c r="AY132">
-        <v>6.25</v>
-      </c>
-      <c r="AZ132">
-        <v>2.55</v>
-      </c>
-      <c r="BA132">
-        <v>0</v>
-      </c>
-      <c r="BB132">
-        <v>0</v>
-      </c>
       <c r="BC132">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="BD132">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="BE132">
-        <v>1.69</v>
+        <v>2.41</v>
       </c>
       <c r="BF132">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG132">
+        <v>4</v>
+      </c>
+      <c r="BH132">
+        <v>2</v>
+      </c>
+      <c r="BI132">
+        <v>2</v>
+      </c>
+      <c r="BJ132">
+        <v>5</v>
+      </c>
+      <c r="BK132">
         <v>6</v>
-      </c>
-      <c r="BH132">
-        <v>4</v>
-      </c>
-      <c r="BI132">
-        <v>10</v>
-      </c>
-      <c r="BJ132">
-        <v>12</v>
-      </c>
-      <c r="BK132">
-        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:63">
@@ -26465,7 +26468,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>4869756</v>
+        <v>4869757</v>
       </c>
       <c r="C133" t="s">
         <v>63</v>
@@ -26480,175 +26483,175 @@
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H133" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>2</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N133">
         <v>5</v>
       </c>
       <c r="O133" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="P133" t="s">
         <v>273</v>
       </c>
       <c r="Q133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R133">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S133">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T133">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="U133">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="V133">
-        <v>2.81</v>
+        <v>3.51</v>
       </c>
       <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>3.25</v>
+      </c>
+      <c r="Y133">
+        <v>2.5</v>
+      </c>
+      <c r="Z133">
+        <v>1.5</v>
+      </c>
+      <c r="AA133">
+        <v>5.5</v>
+      </c>
+      <c r="AB133">
+        <v>1.12</v>
+      </c>
+      <c r="AC133">
+        <v>2.15</v>
+      </c>
+      <c r="AD133">
+        <v>3.3</v>
+      </c>
+      <c r="AE133">
+        <v>2.8</v>
+      </c>
+      <c r="AF133">
+        <v>1.04</v>
+      </c>
+      <c r="AG133">
+        <v>10</v>
+      </c>
+      <c r="AH133">
+        <v>1.22</v>
+      </c>
+      <c r="AI133">
+        <v>4</v>
+      </c>
+      <c r="AJ133">
+        <v>1.61</v>
+      </c>
+      <c r="AK133">
+        <v>2.15</v>
+      </c>
+      <c r="AL133">
+        <v>1.6</v>
+      </c>
+      <c r="AM133">
+        <v>2.25</v>
+      </c>
+      <c r="AN133">
+        <v>1.4</v>
+      </c>
+      <c r="AO133">
         <v>1.29</v>
       </c>
-      <c r="X133">
-        <v>3.5</v>
-      </c>
-      <c r="Y133">
-        <v>2.25</v>
-      </c>
-      <c r="Z133">
-        <v>1.6</v>
-      </c>
-      <c r="AA133">
-        <v>4.75</v>
-      </c>
-      <c r="AB133">
-        <v>1.15</v>
-      </c>
-      <c r="AC133">
-        <v>2.65</v>
-      </c>
-      <c r="AD133">
-        <v>3.4</v>
-      </c>
-      <c r="AE133">
-        <v>2.25</v>
-      </c>
-      <c r="AF133">
-        <v>1.03</v>
-      </c>
-      <c r="AG133">
-        <v>11</v>
-      </c>
-      <c r="AH133">
-        <v>1.17</v>
-      </c>
-      <c r="AI133">
-        <v>4.5</v>
-      </c>
-      <c r="AJ133">
-        <v>1.49</v>
-      </c>
-      <c r="AK133">
-        <v>2.34</v>
-      </c>
-      <c r="AL133">
-        <v>1.5</v>
-      </c>
-      <c r="AM133">
-        <v>2.5</v>
-      </c>
-      <c r="AN133">
-        <v>1.6</v>
-      </c>
-      <c r="AO133">
-        <v>1.25</v>
-      </c>
       <c r="AP133">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AQ133">
         <v>1.71</v>
       </c>
       <c r="AR133">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AS133">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AT133">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AU133">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="AV133">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AW133">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="AX133">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="AY133">
-        <v>9.300000000000001</v>
+        <v>6.25</v>
       </c>
       <c r="AZ133">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="BA133">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="BB133">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BC133">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="BD133">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="BE133">
-        <v>2.41</v>
+        <v>1.69</v>
       </c>
       <c r="BF133">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG133">
+        <v>6</v>
+      </c>
+      <c r="BH133">
         <v>4</v>
       </c>
-      <c r="BH133">
-        <v>2</v>
-      </c>
       <c r="BI133">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ133">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BK133">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:63">
@@ -26656,7 +26659,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>4869755</v>
+        <v>4869753</v>
       </c>
       <c r="C134" t="s">
         <v>63</v>
@@ -26671,10 +26674,10 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H134" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -26686,160 +26689,160 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <v>1</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O134" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>8</v>
+      </c>
+      <c r="T134">
+        <v>2.34</v>
+      </c>
+      <c r="U134">
+        <v>2.23</v>
+      </c>
+      <c r="V134">
+        <v>4.79</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>3</v>
+      </c>
+      <c r="Y134">
+        <v>2.62</v>
+      </c>
+      <c r="Z134">
+        <v>1.44</v>
+      </c>
+      <c r="AA134">
+        <v>6</v>
+      </c>
+      <c r="AB134">
+        <v>1.11</v>
+      </c>
+      <c r="AC134">
+        <v>1.73</v>
+      </c>
+      <c r="AD134">
+        <v>3.4</v>
+      </c>
+      <c r="AE134">
         <v>4</v>
       </c>
-      <c r="R134">
-        <v>5</v>
-      </c>
-      <c r="S134">
+      <c r="AF134">
+        <v>1.05</v>
+      </c>
+      <c r="AG134">
         <v>9</v>
       </c>
-      <c r="T134">
-        <v>2.95</v>
-      </c>
-      <c r="U134">
-        <v>2.22</v>
-      </c>
-      <c r="V134">
-        <v>3.3</v>
-      </c>
-      <c r="W134">
-        <v>1.33</v>
-      </c>
-      <c r="X134">
-        <v>3.25</v>
-      </c>
-      <c r="Y134">
-        <v>2.38</v>
-      </c>
-      <c r="Z134">
-        <v>1.53</v>
-      </c>
-      <c r="AA134">
-        <v>5.5</v>
-      </c>
-      <c r="AB134">
-        <v>1.12</v>
-      </c>
-      <c r="AC134">
-        <v>2.37</v>
-      </c>
-      <c r="AD134">
-        <v>3.3</v>
-      </c>
-      <c r="AE134">
-        <v>2.55</v>
-      </c>
-      <c r="AF134">
-        <v>1.04</v>
-      </c>
-      <c r="AG134">
-        <v>10</v>
-      </c>
       <c r="AH134">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AI134">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ134">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AK134">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AL134">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AM134">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AN134">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AO134">
+        <v>1.29</v>
+      </c>
+      <c r="AP134">
+        <v>1.95</v>
+      </c>
+      <c r="AQ134">
+        <v>2</v>
+      </c>
+      <c r="AR134">
+        <v>0.57</v>
+      </c>
+      <c r="AS134">
+        <v>2.27</v>
+      </c>
+      <c r="AT134">
+        <v>0.7</v>
+      </c>
+      <c r="AU134">
+        <v>1.41</v>
+      </c>
+      <c r="AV134">
+        <v>1.41</v>
+      </c>
+      <c r="AW134">
+        <v>2.82</v>
+      </c>
+      <c r="AX134">
         <v>1.25</v>
       </c>
-      <c r="AP134">
-        <v>1.53</v>
-      </c>
-      <c r="AQ134">
-        <v>2</v>
-      </c>
-      <c r="AR134">
-        <v>1.38</v>
-      </c>
-      <c r="AS134">
-        <v>1.9</v>
-      </c>
-      <c r="AT134">
-        <v>1.36</v>
-      </c>
-      <c r="AU134">
-        <v>1.69</v>
-      </c>
-      <c r="AV134">
-        <v>1.46</v>
-      </c>
-      <c r="AW134">
-        <v>3.15</v>
-      </c>
-      <c r="AX134">
-        <v>1.88</v>
-      </c>
       <c r="AY134">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="AZ134">
-        <v>2.21</v>
+        <v>4.5</v>
       </c>
       <c r="BA134">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="BB134">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="BC134">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="BD134">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="BE134">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="BF134">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG134">
         <v>4</v>
       </c>
       <c r="BH134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ134">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BK134">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:63">
@@ -26847,7 +26850,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>4869753</v>
+        <v>4869755</v>
       </c>
       <c r="C135" t="s">
         <v>63</v>
@@ -26862,10 +26865,10 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H135" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -26877,160 +26880,160 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>1</v>
       </c>
       <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>85</v>
+      </c>
+      <c r="P135" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+      <c r="S135">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>2.95</v>
+      </c>
+      <c r="U135">
+        <v>2.22</v>
+      </c>
+      <c r="V135">
+        <v>3.3</v>
+      </c>
+      <c r="W135">
+        <v>1.33</v>
+      </c>
+      <c r="X135">
+        <v>3.25</v>
+      </c>
+      <c r="Y135">
+        <v>2.38</v>
+      </c>
+      <c r="Z135">
+        <v>1.53</v>
+      </c>
+      <c r="AA135">
+        <v>5.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.12</v>
+      </c>
+      <c r="AC135">
+        <v>2.37</v>
+      </c>
+      <c r="AD135">
+        <v>3.3</v>
+      </c>
+      <c r="AE135">
+        <v>2.55</v>
+      </c>
+      <c r="AF135">
+        <v>1.04</v>
+      </c>
+      <c r="AG135">
+        <v>10</v>
+      </c>
+      <c r="AH135">
+        <v>1.22</v>
+      </c>
+      <c r="AI135">
+        <v>4</v>
+      </c>
+      <c r="AJ135">
+        <v>1.61</v>
+      </c>
+      <c r="AK135">
+        <v>2.2</v>
+      </c>
+      <c r="AL135">
+        <v>1.53</v>
+      </c>
+      <c r="AM135">
+        <v>2.38</v>
+      </c>
+      <c r="AN135">
+        <v>1.44</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1.53</v>
+      </c>
+      <c r="AQ135">
+        <v>2</v>
+      </c>
+      <c r="AR135">
+        <v>1.38</v>
+      </c>
+      <c r="AS135">
+        <v>1.73</v>
+      </c>
+      <c r="AT135">
+        <v>1.36</v>
+      </c>
+      <c r="AU135">
+        <v>1.69</v>
+      </c>
+      <c r="AV135">
+        <v>1.46</v>
+      </c>
+      <c r="AW135">
+        <v>3.15</v>
+      </c>
+      <c r="AX135">
+        <v>1.88</v>
+      </c>
+      <c r="AY135">
+        <v>5.75</v>
+      </c>
+      <c r="AZ135">
+        <v>2.21</v>
+      </c>
+      <c r="BA135">
+        <v>1.23</v>
+      </c>
+      <c r="BB135">
+        <v>1.36</v>
+      </c>
+      <c r="BC135">
+        <v>1.69</v>
+      </c>
+      <c r="BD135">
+        <v>2.07</v>
+      </c>
+      <c r="BE135">
+        <v>2.76</v>
+      </c>
+      <c r="BF135">
         <v>3</v>
-      </c>
-      <c r="O135" t="s">
-        <v>184</v>
-      </c>
-      <c r="P135" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q135">
-        <v>6</v>
-      </c>
-      <c r="R135">
-        <v>2</v>
-      </c>
-      <c r="S135">
-        <v>8</v>
-      </c>
-      <c r="T135">
-        <v>2.34</v>
-      </c>
-      <c r="U135">
-        <v>2.23</v>
-      </c>
-      <c r="V135">
-        <v>4.79</v>
-      </c>
-      <c r="W135">
-        <v>1.36</v>
-      </c>
-      <c r="X135">
-        <v>3</v>
-      </c>
-      <c r="Y135">
-        <v>2.62</v>
-      </c>
-      <c r="Z135">
-        <v>1.44</v>
-      </c>
-      <c r="AA135">
-        <v>6</v>
-      </c>
-      <c r="AB135">
-        <v>1.11</v>
-      </c>
-      <c r="AC135">
-        <v>1.73</v>
-      </c>
-      <c r="AD135">
-        <v>3.4</v>
-      </c>
-      <c r="AE135">
-        <v>4</v>
-      </c>
-      <c r="AF135">
-        <v>1.05</v>
-      </c>
-      <c r="AG135">
-        <v>9</v>
-      </c>
-      <c r="AH135">
-        <v>1.29</v>
-      </c>
-      <c r="AI135">
-        <v>3.5</v>
-      </c>
-      <c r="AJ135">
-        <v>1.75</v>
-      </c>
-      <c r="AK135">
-        <v>2</v>
-      </c>
-      <c r="AL135">
-        <v>1.73</v>
-      </c>
-      <c r="AM135">
-        <v>2</v>
-      </c>
-      <c r="AN135">
-        <v>1.2</v>
-      </c>
-      <c r="AO135">
-        <v>1.29</v>
-      </c>
-      <c r="AP135">
-        <v>1.95</v>
-      </c>
-      <c r="AQ135">
-        <v>2</v>
-      </c>
-      <c r="AR135">
-        <v>0.57</v>
-      </c>
-      <c r="AS135">
-        <v>2.27</v>
-      </c>
-      <c r="AT135">
-        <v>0.7</v>
-      </c>
-      <c r="AU135">
-        <v>1.41</v>
-      </c>
-      <c r="AV135">
-        <v>1.41</v>
-      </c>
-      <c r="AW135">
-        <v>2.82</v>
-      </c>
-      <c r="AX135">
-        <v>1.25</v>
-      </c>
-      <c r="AY135">
-        <v>7.5</v>
-      </c>
-      <c r="AZ135">
-        <v>4.5</v>
-      </c>
-      <c r="BA135">
-        <v>1.13</v>
-      </c>
-      <c r="BB135">
-        <v>1.26</v>
-      </c>
-      <c r="BC135">
-        <v>1.52</v>
-      </c>
-      <c r="BD135">
-        <v>1.78</v>
-      </c>
-      <c r="BE135">
-        <v>2.23</v>
-      </c>
-      <c r="BF135">
-        <v>8</v>
       </c>
       <c r="BG135">
         <v>4</v>
       </c>
       <c r="BH135">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI135">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ135">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BK135">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:63">
@@ -27038,7 +27041,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>4869761</v>
+        <v>4869768</v>
       </c>
       <c r="C136" t="s">
         <v>63</v>
@@ -27053,10 +27056,10 @@
         <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H136" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -27071,157 +27074,157 @@
         <v>2</v>
       </c>
       <c r="M136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O136" t="s">
         <v>185</v>
       </c>
       <c r="P136" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="Q136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S136">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T136">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="U136">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="V136">
-        <v>4.33</v>
+        <v>3.35</v>
       </c>
       <c r="W136">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="X136">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y136">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="Z136">
-        <v>1.31</v>
+        <v>1.66</v>
       </c>
       <c r="AA136">
-        <v>7.4</v>
+        <v>4.25</v>
       </c>
       <c r="AB136">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="AC136">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AD136">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AE136">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="AF136">
         <v>1.02</v>
       </c>
       <c r="AG136">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AH136">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AI136">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="AJ136">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="AK136">
-        <v>1.86</v>
+        <v>2.7</v>
       </c>
       <c r="AL136">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="AM136">
-        <v>1.92</v>
+        <v>2.75</v>
       </c>
       <c r="AN136">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AO136">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AP136">
         <v>1.8</v>
       </c>
       <c r="AQ136">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="AR136">
-        <v>0.88</v>
+        <v>1.56</v>
       </c>
       <c r="AS136">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="AT136">
-        <v>0.91</v>
+        <v>1.27</v>
       </c>
       <c r="AU136">
-        <v>1.43</v>
+        <v>1.76</v>
       </c>
       <c r="AV136">
-        <v>0.99</v>
+        <v>1.6</v>
       </c>
       <c r="AW136">
-        <v>2.42</v>
+        <v>3.36</v>
       </c>
       <c r="AX136">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AY136">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ136">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="BA136">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BB136">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="BC136">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="BD136">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="BE136">
-        <v>2.49</v>
+        <v>2.32</v>
       </c>
       <c r="BF136">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BG136">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BH136">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BI136">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ136">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BK136">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:63">
@@ -27229,7 +27232,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>4869762</v>
+        <v>4869761</v>
       </c>
       <c r="C137" t="s">
         <v>63</v>
@@ -27244,19 +27247,19 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H137" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L137">
         <v>2</v>
@@ -27271,136 +27274,136 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R137">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S137">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T137">
+        <v>2.55</v>
+      </c>
+      <c r="U137">
+        <v>2.13</v>
+      </c>
+      <c r="V137">
+        <v>4.33</v>
+      </c>
+      <c r="W137">
+        <v>1.37</v>
+      </c>
+      <c r="X137">
         <v>2.7</v>
       </c>
-      <c r="U137">
-        <v>2.05</v>
-      </c>
-      <c r="V137">
-        <v>3.2</v>
-      </c>
-      <c r="W137">
-        <v>1.35</v>
-      </c>
-      <c r="X137">
+      <c r="Y137">
         <v>2.85</v>
       </c>
-      <c r="Y137">
-        <v>2.6</v>
-      </c>
       <c r="Z137">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AA137">
-        <v>6.75</v>
+        <v>7.4</v>
       </c>
       <c r="AB137">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AC137">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="AD137">
+        <v>3.4</v>
+      </c>
+      <c r="AE137">
+        <v>3.9</v>
+      </c>
+      <c r="AF137">
+        <v>1.02</v>
+      </c>
+      <c r="AG137">
+        <v>11</v>
+      </c>
+      <c r="AH137">
+        <v>1.27</v>
+      </c>
+      <c r="AI137">
+        <v>3.25</v>
+      </c>
+      <c r="AJ137">
+        <v>1.98</v>
+      </c>
+      <c r="AK137">
+        <v>1.86</v>
+      </c>
+      <c r="AL137">
+        <v>1.82</v>
+      </c>
+      <c r="AM137">
+        <v>1.92</v>
+      </c>
+      <c r="AN137">
+        <v>1.22</v>
+      </c>
+      <c r="AO137">
+        <v>1.3</v>
+      </c>
+      <c r="AP137">
+        <v>1.8</v>
+      </c>
+      <c r="AQ137">
+        <v>1.67</v>
+      </c>
+      <c r="AR137">
+        <v>0.88</v>
+      </c>
+      <c r="AS137">
+        <v>1.91</v>
+      </c>
+      <c r="AT137">
+        <v>0.91</v>
+      </c>
+      <c r="AU137">
+        <v>1.43</v>
+      </c>
+      <c r="AV137">
+        <v>0.99</v>
+      </c>
+      <c r="AW137">
+        <v>2.42</v>
+      </c>
+      <c r="AX137">
+        <v>1.44</v>
+      </c>
+      <c r="AY137">
+        <v>6</v>
+      </c>
+      <c r="AZ137">
         <v>3.1</v>
       </c>
-      <c r="AE137">
-        <v>2.7</v>
-      </c>
-      <c r="AF137">
-        <v>1.03</v>
-      </c>
-      <c r="AG137">
-        <v>13</v>
-      </c>
-      <c r="AH137">
-        <v>1.21</v>
-      </c>
-      <c r="AI137">
-        <v>3.6</v>
-      </c>
-      <c r="AJ137">
-        <v>1.84</v>
-      </c>
-      <c r="AK137">
-        <v>2</v>
-      </c>
-      <c r="AL137">
-        <v>1.65</v>
-      </c>
-      <c r="AM137">
-        <v>2.1</v>
-      </c>
-      <c r="AN137">
-        <v>1.33</v>
-      </c>
-      <c r="AO137">
-        <v>1.25</v>
-      </c>
-      <c r="AP137">
-        <v>1.62</v>
-      </c>
-      <c r="AQ137">
-        <v>2.13</v>
-      </c>
-      <c r="AR137">
-        <v>2</v>
-      </c>
-      <c r="AS137">
-        <v>2</v>
-      </c>
-      <c r="AT137">
-        <v>1.9</v>
-      </c>
-      <c r="AU137">
-        <v>1.46</v>
-      </c>
-      <c r="AV137">
-        <v>1.29</v>
-      </c>
-      <c r="AW137">
-        <v>2.75</v>
-      </c>
-      <c r="AX137">
-        <v>1.62</v>
-      </c>
-      <c r="AY137">
-        <v>5.75</v>
-      </c>
-      <c r="AZ137">
-        <v>2.55</v>
-      </c>
       <c r="BA137">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="BB137">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="BC137">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="BD137">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="BE137">
-        <v>2.37</v>
+        <v>2.49</v>
       </c>
       <c r="BF137">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG137">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH137">
         <v>3</v>
@@ -27409,10 +27412,10 @@
         <v>2</v>
       </c>
       <c r="BJ137">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BK137">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:63">
@@ -27420,7 +27423,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>4869763</v>
+        <v>4869762</v>
       </c>
       <c r="C138" t="s">
         <v>63</v>
@@ -27435,10 +27438,10 @@
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H138" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -27450,160 +27453,160 @@
         <v>2</v>
       </c>
       <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
         <v>3</v>
-      </c>
-      <c r="M138">
-        <v>1</v>
-      </c>
-      <c r="N138">
-        <v>4</v>
       </c>
       <c r="O138" t="s">
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="Q138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R138">
+        <v>4</v>
+      </c>
+      <c r="S138">
         <v>5</v>
       </c>
-      <c r="S138">
+      <c r="T138">
+        <v>2.7</v>
+      </c>
+      <c r="U138">
+        <v>2.05</v>
+      </c>
+      <c r="V138">
+        <v>3.2</v>
+      </c>
+      <c r="W138">
+        <v>1.35</v>
+      </c>
+      <c r="X138">
+        <v>2.85</v>
+      </c>
+      <c r="Y138">
+        <v>2.6</v>
+      </c>
+      <c r="Z138">
+        <v>1.4</v>
+      </c>
+      <c r="AA138">
+        <v>6.75</v>
+      </c>
+      <c r="AB138">
+        <v>1.09</v>
+      </c>
+      <c r="AC138">
+        <v>2.45</v>
+      </c>
+      <c r="AD138">
+        <v>3.1</v>
+      </c>
+      <c r="AE138">
+        <v>2.7</v>
+      </c>
+      <c r="AF138">
+        <v>1.03</v>
+      </c>
+      <c r="AG138">
+        <v>13</v>
+      </c>
+      <c r="AH138">
+        <v>1.21</v>
+      </c>
+      <c r="AI138">
+        <v>3.6</v>
+      </c>
+      <c r="AJ138">
+        <v>1.84</v>
+      </c>
+      <c r="AK138">
+        <v>2</v>
+      </c>
+      <c r="AL138">
+        <v>1.65</v>
+      </c>
+      <c r="AM138">
+        <v>2.1</v>
+      </c>
+      <c r="AN138">
+        <v>1.33</v>
+      </c>
+      <c r="AO138">
+        <v>1.25</v>
+      </c>
+      <c r="AP138">
+        <v>1.62</v>
+      </c>
+      <c r="AQ138">
+        <v>2.13</v>
+      </c>
+      <c r="AR138">
+        <v>2</v>
+      </c>
+      <c r="AS138">
+        <v>2</v>
+      </c>
+      <c r="AT138">
+        <v>1.9</v>
+      </c>
+      <c r="AU138">
+        <v>1.46</v>
+      </c>
+      <c r="AV138">
+        <v>1.29</v>
+      </c>
+      <c r="AW138">
+        <v>2.75</v>
+      </c>
+      <c r="AX138">
+        <v>1.62</v>
+      </c>
+      <c r="AY138">
+        <v>5.75</v>
+      </c>
+      <c r="AZ138">
+        <v>2.55</v>
+      </c>
+      <c r="BA138">
+        <v>1.16</v>
+      </c>
+      <c r="BB138">
+        <v>1.29</v>
+      </c>
+      <c r="BC138">
+        <v>1.57</v>
+      </c>
+      <c r="BD138">
+        <v>1.95</v>
+      </c>
+      <c r="BE138">
+        <v>2.37</v>
+      </c>
+      <c r="BF138">
         <v>7</v>
       </c>
-      <c r="T138">
-        <v>1.98</v>
-      </c>
-      <c r="U138">
-        <v>2.56</v>
-      </c>
-      <c r="V138">
-        <v>5.05</v>
-      </c>
-      <c r="W138">
-        <v>1.2</v>
-      </c>
-      <c r="X138">
-        <v>3.8</v>
-      </c>
-      <c r="Y138">
-        <v>2.1</v>
-      </c>
-      <c r="Z138">
-        <v>1.58</v>
-      </c>
-      <c r="AA138">
-        <v>4.25</v>
-      </c>
-      <c r="AB138">
-        <v>1.17</v>
-      </c>
-      <c r="AC138">
-        <v>1.48</v>
-      </c>
-      <c r="AD138">
-        <v>4.33</v>
-      </c>
-      <c r="AE138">
-        <v>5.5</v>
-      </c>
-      <c r="AF138">
-        <v>1.02</v>
-      </c>
-      <c r="AG138">
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>3</v>
+      </c>
+      <c r="BI138">
+        <v>2</v>
+      </c>
+      <c r="BJ138">
         <v>10</v>
       </c>
-      <c r="AH138">
-        <v>1.15</v>
-      </c>
-      <c r="AI138">
-        <v>4.8</v>
-      </c>
-      <c r="AJ138">
-        <v>1.47</v>
-      </c>
-      <c r="AK138">
-        <v>2.65</v>
-      </c>
-      <c r="AL138">
-        <v>1.57</v>
-      </c>
-      <c r="AM138">
-        <v>2.31</v>
-      </c>
-      <c r="AN138">
-        <v>1.09</v>
-      </c>
-      <c r="AO138">
-        <v>1.2</v>
-      </c>
-      <c r="AP138">
-        <v>2.4</v>
-      </c>
-      <c r="AQ138">
-        <v>2.25</v>
-      </c>
-      <c r="AR138">
-        <v>0.78</v>
-      </c>
-      <c r="AS138">
-        <v>2</v>
-      </c>
-      <c r="AT138">
-        <v>0.64</v>
-      </c>
-      <c r="AU138">
-        <v>1.7</v>
-      </c>
-      <c r="AV138">
-        <v>1.25</v>
-      </c>
-      <c r="AW138">
-        <v>2.95</v>
-      </c>
-      <c r="AX138">
-        <v>1.25</v>
-      </c>
-      <c r="AY138">
-        <v>7.25</v>
-      </c>
-      <c r="AZ138">
-        <v>4.35</v>
-      </c>
-      <c r="BA138">
-        <v>1.18</v>
-      </c>
-      <c r="BB138">
-        <v>1.31</v>
-      </c>
-      <c r="BC138">
-        <v>1.62</v>
-      </c>
-      <c r="BD138">
-        <v>2</v>
-      </c>
-      <c r="BE138">
-        <v>2.44</v>
-      </c>
-      <c r="BF138">
+      <c r="BK138">
         <v>5</v>
-      </c>
-      <c r="BG138">
-        <v>6</v>
-      </c>
-      <c r="BH138">
-        <v>6</v>
-      </c>
-      <c r="BI138">
-        <v>4</v>
-      </c>
-      <c r="BJ138">
-        <v>11</v>
-      </c>
-      <c r="BK138">
-        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:63">
@@ -27611,7 +27614,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>4869764</v>
+        <v>4869763</v>
       </c>
       <c r="C139" t="s">
         <v>63</v>
@@ -27626,16 +27629,16 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H139" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139">
         <v>2</v>
@@ -27653,106 +27656,106 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S139">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T139">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="U139">
-        <v>2.51</v>
+        <v>2.56</v>
       </c>
       <c r="V139">
-        <v>4.95</v>
+        <v>5.05</v>
       </c>
       <c r="W139">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X139">
-        <v>3.72</v>
+        <v>3.8</v>
       </c>
       <c r="Y139">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z139">
         <v>1.58</v>
       </c>
       <c r="AA139">
-        <v>4.85</v>
+        <v>4.25</v>
       </c>
       <c r="AB139">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AC139">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AD139">
         <v>4.33</v>
       </c>
       <c r="AE139">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AF139">
         <v>1.02</v>
       </c>
       <c r="AG139">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AH139">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AI139">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AJ139">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AK139">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="AL139">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AM139">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AN139">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AO139">
         <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ139">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AR139">
+        <v>0.78</v>
+      </c>
+      <c r="AS139">
+        <v>2</v>
+      </c>
+      <c r="AT139">
+        <v>0.64</v>
+      </c>
+      <c r="AU139">
+        <v>1.7</v>
+      </c>
+      <c r="AV139">
         <v>1.25</v>
       </c>
-      <c r="AS139">
-        <v>2.09</v>
-      </c>
-      <c r="AT139">
-        <v>1.1</v>
-      </c>
-      <c r="AU139">
-        <v>1.73</v>
-      </c>
-      <c r="AV139">
-        <v>1.42</v>
-      </c>
       <c r="AW139">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="AX139">
         <v>1.25</v>
@@ -27761,37 +27764,37 @@
         <v>7.25</v>
       </c>
       <c r="AZ139">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="BA139">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BB139">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="BC139">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="BD139">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="BE139">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="BF139">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG139">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI139">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ139">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK139">
         <v>10</v>
@@ -27802,7 +27805,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>4869765</v>
+        <v>4869764</v>
       </c>
       <c r="C140" t="s">
         <v>63</v>
@@ -27817,79 +27820,79 @@
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H140" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>189</v>
+      </c>
+      <c r="P140" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q140">
         <v>3</v>
       </c>
-      <c r="O140" t="s">
-        <v>154</v>
-      </c>
-      <c r="P140" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q140">
-        <v>7</v>
-      </c>
       <c r="R140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T140">
-        <v>2.7</v>
+        <v>2.03</v>
       </c>
       <c r="U140">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="V140">
-        <v>3.39</v>
+        <v>4.95</v>
       </c>
       <c r="W140">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X140">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="Y140">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Z140">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AA140">
-        <v>4.45</v>
+        <v>4.85</v>
       </c>
       <c r="AB140">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AC140">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="AD140">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AE140">
-        <v>2.95</v>
+        <v>4.75</v>
       </c>
       <c r="AF140">
         <v>1.02</v>
@@ -27898,94 +27901,94 @@
         <v>17</v>
       </c>
       <c r="AH140">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AI140">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="AJ140">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AK140">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AL140">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AM140">
-        <v>2.7</v>
+        <v>2.29</v>
       </c>
       <c r="AN140">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="AO140">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP140">
-        <v>1.68</v>
+        <v>2.41</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AR140">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AS140">
-        <v>0.91</v>
+        <v>2.09</v>
       </c>
       <c r="AT140">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AU140">
+        <v>1.73</v>
+      </c>
+      <c r="AV140">
+        <v>1.42</v>
+      </c>
+      <c r="AW140">
+        <v>3.15</v>
+      </c>
+      <c r="AX140">
+        <v>1.25</v>
+      </c>
+      <c r="AY140">
+        <v>7.25</v>
+      </c>
+      <c r="AZ140">
+        <v>4.45</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
         <v>1.18</v>
       </c>
-      <c r="AV140">
-        <v>1.14</v>
-      </c>
-      <c r="AW140">
-        <v>2.32</v>
-      </c>
-      <c r="AX140">
-        <v>1.6</v>
-      </c>
-      <c r="AY140">
-        <v>5.75</v>
-      </c>
-      <c r="AZ140">
-        <v>2.55</v>
-      </c>
-      <c r="BA140">
-        <v>1.22</v>
-      </c>
-      <c r="BB140">
-        <v>1.36</v>
-      </c>
       <c r="BC140">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="BD140">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="BE140">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="BF140">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG140">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH140">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI140">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ140">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK140">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:63">
@@ -27993,7 +27996,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>4869766</v>
+        <v>4869765</v>
       </c>
       <c r="C141" t="s">
         <v>63</v>
@@ -28008,142 +28011,142 @@
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H141" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O141" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="P141" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="Q141">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R141">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S141">
         <v>11</v>
       </c>
       <c r="T141">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="U141">
-        <v>2.25</v>
+        <v>2.54</v>
       </c>
       <c r="V141">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="W141">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="X141">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Y141">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AA141">
-        <v>4.9</v>
+        <v>4.45</v>
       </c>
       <c r="AB141">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AC141">
         <v>2.15</v>
       </c>
       <c r="AD141">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AE141">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AF141">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG141">
-        <v>18.25</v>
+        <v>17</v>
       </c>
       <c r="AH141">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AI141">
-        <v>4.65</v>
+        <v>5.25</v>
       </c>
       <c r="AJ141">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AK141">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AL141">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AM141">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="AN141">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AO141">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AP141">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="AQ141">
         <v>1</v>
       </c>
       <c r="AR141">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AS141">
-        <v>1.36</v>
+        <v>0.91</v>
       </c>
       <c r="AT141">
-        <v>0.7</v>
+        <v>1.27</v>
       </c>
       <c r="AU141">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="AV141">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="AW141">
-        <v>2.97</v>
+        <v>2.32</v>
       </c>
       <c r="AX141">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AY141">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AZ141">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="BA141">
         <v>1.22</v>
@@ -28152,31 +28155,31 @@
         <v>1.36</v>
       </c>
       <c r="BC141">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="BD141">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="BE141">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="BF141">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BG141">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH141">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BI141">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BJ141">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BK141">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:63">
@@ -28184,7 +28187,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>4869767</v>
+        <v>4869766</v>
       </c>
       <c r="C142" t="s">
         <v>63</v>
@@ -28199,10 +28202,10 @@
         <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H142" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -28214,160 +28217,160 @@
         <v>1</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O142" t="s">
         <v>190</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>85</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R142">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="S142">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T142">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="U142">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V142">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="W142">
         <v>1.27</v>
       </c>
       <c r="X142">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Y142">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="Z142">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AA142">
-        <v>5.65</v>
+        <v>4.9</v>
       </c>
       <c r="AB142">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AC142">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="AD142">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AE142">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="AF142">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG142">
-        <v>16.5</v>
+        <v>18.25</v>
       </c>
       <c r="AH142">
         <v>1.17</v>
       </c>
       <c r="AI142">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
       <c r="AJ142">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="AK142">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AL142">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AM142">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="AN142">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO142">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AP142">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="AQ142">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AR142">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="AS142">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT142">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="AU142">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="AV142">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AW142">
-        <v>2.52</v>
+        <v>2.97</v>
       </c>
       <c r="AX142">
         <v>2</v>
       </c>
       <c r="AY142">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AZ142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BA142">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BB142">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="BC142">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="BD142">
-        <v>1.58</v>
+        <v>2.11</v>
       </c>
       <c r="BE142">
-        <v>1.87</v>
+        <v>2.46</v>
       </c>
       <c r="BF142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH142">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI142">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="BJ142">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BK142">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:63">
@@ -28375,7 +28378,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>4869768</v>
+        <v>4869767</v>
       </c>
       <c r="C143" t="s">
         <v>63</v>
@@ -28390,10 +28393,10 @@
         <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H143" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -28405,160 +28408,160 @@
         <v>1</v>
       </c>
       <c r="L143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O143" t="s">
         <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>85</v>
+        <v>278</v>
       </c>
       <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143">
+        <v>15</v>
+      </c>
+      <c r="S143">
+        <v>16</v>
+      </c>
+      <c r="T143">
+        <v>2.9</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>2.65</v>
+      </c>
+      <c r="W143">
+        <v>1.27</v>
+      </c>
+      <c r="X143">
+        <v>3.25</v>
+      </c>
+      <c r="Y143">
+        <v>2.35</v>
+      </c>
+      <c r="Z143">
+        <v>1.5</v>
+      </c>
+      <c r="AA143">
+        <v>5.65</v>
+      </c>
+      <c r="AB143">
+        <v>1.12</v>
+      </c>
+      <c r="AC143">
+        <v>2.6</v>
+      </c>
+      <c r="AD143">
+        <v>3.4</v>
+      </c>
+      <c r="AE143">
+        <v>2.45</v>
+      </c>
+      <c r="AF143">
+        <v>1.04</v>
+      </c>
+      <c r="AG143">
+        <v>16.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.17</v>
+      </c>
+      <c r="AI143">
+        <v>4.25</v>
+      </c>
+      <c r="AJ143">
+        <v>1.66</v>
+      </c>
+      <c r="AK143">
+        <v>2.2</v>
+      </c>
+      <c r="AL143">
+        <v>1.53</v>
+      </c>
+      <c r="AM143">
+        <v>2.4</v>
+      </c>
+      <c r="AN143">
+        <v>1.57</v>
+      </c>
+      <c r="AO143">
+        <v>1.27</v>
+      </c>
+      <c r="AP143">
+        <v>1.43</v>
+      </c>
+      <c r="AQ143">
+        <v>0.63</v>
+      </c>
+      <c r="AR143">
+        <v>0.78</v>
+      </c>
+      <c r="AS143">
+        <v>0.5</v>
+      </c>
+      <c r="AT143">
+        <v>0.91</v>
+      </c>
+      <c r="AU143">
+        <v>1.27</v>
+      </c>
+      <c r="AV143">
+        <v>1.25</v>
+      </c>
+      <c r="AW143">
+        <v>2.52</v>
+      </c>
+      <c r="AX143">
+        <v>2</v>
+      </c>
+      <c r="AY143">
+        <v>5.75</v>
+      </c>
+      <c r="AZ143">
+        <v>2</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>1.2</v>
+      </c>
+      <c r="BC143">
+        <v>1.28</v>
+      </c>
+      <c r="BD143">
+        <v>1.58</v>
+      </c>
+      <c r="BE143">
+        <v>1.87</v>
+      </c>
+      <c r="BF143">
         <v>3</v>
       </c>
-      <c r="R143">
+      <c r="BG143">
+        <v>7</v>
+      </c>
+      <c r="BH143">
+        <v>2</v>
+      </c>
+      <c r="BI143">
+        <v>26</v>
+      </c>
+      <c r="BJ143">
         <v>5</v>
       </c>
-      <c r="S143">
-        <v>8</v>
-      </c>
-      <c r="T143">
-        <v>2.3</v>
-      </c>
-      <c r="U143">
-        <v>2.4</v>
-      </c>
-      <c r="V143">
-        <v>3.35</v>
-      </c>
-      <c r="W143">
-        <v>1.25</v>
-      </c>
-      <c r="X143">
-        <v>3.6</v>
-      </c>
-      <c r="Y143">
-        <v>2</v>
-      </c>
-      <c r="Z143">
-        <v>1.66</v>
-      </c>
-      <c r="AA143">
-        <v>4.25</v>
-      </c>
-      <c r="AB143">
-        <v>1.18</v>
-      </c>
-      <c r="AC143">
-        <v>2.25</v>
-      </c>
-      <c r="AD143">
-        <v>3.55</v>
-      </c>
-      <c r="AE143">
-        <v>2.75</v>
-      </c>
-      <c r="AF143">
-        <v>1.02</v>
-      </c>
-      <c r="AG143">
-        <v>18</v>
-      </c>
-      <c r="AH143">
-        <v>1.12</v>
-      </c>
-      <c r="AI143">
-        <v>5.75</v>
-      </c>
-      <c r="AJ143">
-        <v>1.45</v>
-      </c>
-      <c r="AK143">
-        <v>2.7</v>
-      </c>
-      <c r="AL143">
-        <v>1.41</v>
-      </c>
-      <c r="AM143">
-        <v>2.75</v>
-      </c>
-      <c r="AN143">
-        <v>1.31</v>
-      </c>
-      <c r="AO143">
-        <v>1.25</v>
-      </c>
-      <c r="AP143">
-        <v>1.8</v>
-      </c>
-      <c r="AQ143">
-        <v>2.38</v>
-      </c>
-      <c r="AR143">
-        <v>1.56</v>
-      </c>
-      <c r="AS143">
-        <v>2.5</v>
-      </c>
-      <c r="AT143">
-        <v>1.27</v>
-      </c>
-      <c r="AU143">
-        <v>1.76</v>
-      </c>
-      <c r="AV143">
-        <v>1.6</v>
-      </c>
-      <c r="AW143">
-        <v>3.36</v>
-      </c>
-      <c r="AX143">
-        <v>1.8</v>
-      </c>
-      <c r="AY143">
-        <v>5.5</v>
-      </c>
-      <c r="AZ143">
-        <v>2.25</v>
-      </c>
-      <c r="BA143">
-        <v>1.18</v>
-      </c>
-      <c r="BB143">
-        <v>1.31</v>
-      </c>
-      <c r="BC143">
-        <v>1.57</v>
-      </c>
-      <c r="BD143">
-        <v>1.89</v>
-      </c>
-      <c r="BE143">
-        <v>2.32</v>
-      </c>
-      <c r="BF143">
-        <v>-1</v>
-      </c>
-      <c r="BG143">
-        <v>-1</v>
-      </c>
-      <c r="BH143">
-        <v>-1</v>
-      </c>
-      <c r="BI143">
-        <v>-1</v>
-      </c>
-      <c r="BJ143">
-        <v>-1</v>
-      </c>
       <c r="BK143">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:63">
@@ -29330,7 +29333,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>4869772</v>
+        <v>4869774</v>
       </c>
       <c r="C148" t="s">
         <v>63</v>
@@ -29345,175 +29348,175 @@
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H148" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
         <v>3</v>
-      </c>
-      <c r="L148">
-        <v>4</v>
-      </c>
-      <c r="M148">
-        <v>1</v>
-      </c>
-      <c r="N148">
-        <v>5</v>
       </c>
       <c r="O148" t="s">
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>3</v>
       </c>
       <c r="R148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S148">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T148">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="U148">
         <v>2.38</v>
       </c>
       <c r="V148">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="W148">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z148">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA148">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB148">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AC148">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="AD148">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AE148">
-        <v>3.15</v>
+        <v>2.23</v>
       </c>
       <c r="AF148">
         <v>1.03</v>
       </c>
       <c r="AG148">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH148">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AI148">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="AJ148">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AK148">
-        <v>2.09</v>
+        <v>2.32</v>
       </c>
       <c r="AL148">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AM148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AN148">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO148">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AP148">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="AQ148">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AS148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT148">
-        <v>1.2</v>
+        <v>0.82</v>
       </c>
       <c r="AU148">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AV148">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AW148">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="AX148">
-        <v>1.6</v>
+        <v>1.97</v>
       </c>
       <c r="AY148">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AZ148">
-        <v>2.77</v>
+        <v>2.08</v>
       </c>
       <c r="BA148">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BB148">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="BC148">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="BD148">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="BE148">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
       <c r="BF148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI148">
         <v>2</v>
       </c>
       <c r="BJ148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK148">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:63">
@@ -29521,7 +29524,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>4869774</v>
+        <v>4869772</v>
       </c>
       <c r="C149" t="s">
         <v>63</v>
@@ -29536,175 +29539,175 @@
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H149" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M149">
         <v>1</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O149" t="s">
         <v>196</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="Q149">
         <v>3</v>
       </c>
       <c r="R149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T149">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="U149">
         <v>2.38</v>
       </c>
       <c r="V149">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="W149">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X149">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y149">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z149">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA149">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB149">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AC149">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="AD149">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AE149">
-        <v>2.23</v>
+        <v>3.15</v>
       </c>
       <c r="AF149">
         <v>1.03</v>
       </c>
       <c r="AG149">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH149">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AI149">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="AJ149">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="AK149">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="AL149">
+        <v>1.62</v>
+      </c>
+      <c r="AM149">
+        <v>2.25</v>
+      </c>
+      <c r="AN149">
+        <v>1.3</v>
+      </c>
+      <c r="AO149">
+        <v>1.28</v>
+      </c>
+      <c r="AP149">
+        <v>1.82</v>
+      </c>
+      <c r="AQ149">
+        <v>1.78</v>
+      </c>
+      <c r="AR149">
         <v>1.5</v>
       </c>
-      <c r="AM149">
-        <v>2.5</v>
-      </c>
-      <c r="AN149">
-        <v>1.57</v>
-      </c>
-      <c r="AO149">
-        <v>1.22</v>
-      </c>
-      <c r="AP149">
-        <v>1.47</v>
-      </c>
-      <c r="AQ149">
-        <v>1.5</v>
-      </c>
-      <c r="AR149">
-        <v>0.89</v>
-      </c>
       <c r="AS149">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT149">
-        <v>0.82</v>
+        <v>1.2</v>
       </c>
       <c r="AU149">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AV149">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AW149">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="AX149">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="AY149">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AZ149">
-        <v>2.08</v>
+        <v>2.77</v>
       </c>
       <c r="BA149">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BB149">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="BC149">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="BD149">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="BE149">
-        <v>2.35</v>
+        <v>2.85</v>
       </c>
       <c r="BF149">
+        <v>5</v>
+      </c>
+      <c r="BG149">
+        <v>4</v>
+      </c>
+      <c r="BH149">
+        <v>2</v>
+      </c>
+      <c r="BI149">
+        <v>2</v>
+      </c>
+      <c r="BJ149">
+        <v>7</v>
+      </c>
+      <c r="BK149">
         <v>6</v>
-      </c>
-      <c r="BG149">
-        <v>6</v>
-      </c>
-      <c r="BH149">
-        <v>3</v>
-      </c>
-      <c r="BI149">
-        <v>2</v>
-      </c>
-      <c r="BJ149">
-        <v>9</v>
-      </c>
-      <c r="BK149">
-        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:63">
@@ -30035,7 +30038,7 @@
         <v>2.27</v>
       </c>
       <c r="AT151">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>1.5</v>
@@ -30094,7 +30097,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>4869784</v>
+        <v>4869777</v>
       </c>
       <c r="C152" t="s">
         <v>63</v>
@@ -30109,175 +30112,175 @@
         <v>20</v>
       </c>
       <c r="G152" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H152" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O152" t="s">
         <v>199</v>
       </c>
       <c r="P152" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
       <c r="Q152">
+        <v>1</v>
+      </c>
+      <c r="R152">
+        <v>10</v>
+      </c>
+      <c r="S152">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>2.8</v>
+      </c>
+      <c r="U152">
+        <v>2.2</v>
+      </c>
+      <c r="V152">
+        <v>3.2</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
         <v>3</v>
       </c>
-      <c r="R152">
-        <v>4</v>
-      </c>
-      <c r="S152">
+      <c r="Y152">
+        <v>2.62</v>
+      </c>
+      <c r="Z152">
+        <v>1.44</v>
+      </c>
+      <c r="AA152">
+        <v>6</v>
+      </c>
+      <c r="AB152">
+        <v>1.11</v>
+      </c>
+      <c r="AC152">
+        <v>2.15</v>
+      </c>
+      <c r="AD152">
+        <v>3.45</v>
+      </c>
+      <c r="AE152">
+        <v>2.95</v>
+      </c>
+      <c r="AF152">
+        <v>1.05</v>
+      </c>
+      <c r="AG152">
+        <v>9</v>
+      </c>
+      <c r="AH152">
+        <v>1.25</v>
+      </c>
+      <c r="AI152">
+        <v>3.75</v>
+      </c>
+      <c r="AJ152">
+        <v>1.75</v>
+      </c>
+      <c r="AK152">
+        <v>1.95</v>
+      </c>
+      <c r="AL152">
+        <v>1.67</v>
+      </c>
+      <c r="AM152">
+        <v>2.1</v>
+      </c>
+      <c r="AN152">
+        <v>1.4</v>
+      </c>
+      <c r="AO152">
+        <v>1.3</v>
+      </c>
+      <c r="AP152">
+        <v>1.53</v>
+      </c>
+      <c r="AQ152">
+        <v>1.8</v>
+      </c>
+      <c r="AR152">
+        <v>0.78</v>
+      </c>
+      <c r="AS152">
+        <v>1.91</v>
+      </c>
+      <c r="AT152">
+        <v>0.7</v>
+      </c>
+      <c r="AU152">
+        <v>1.37</v>
+      </c>
+      <c r="AV152">
+        <v>1.39</v>
+      </c>
+      <c r="AW152">
+        <v>2.76</v>
+      </c>
+      <c r="AX152">
+        <v>1.8</v>
+      </c>
+      <c r="AY152">
         <v>7</v>
       </c>
-      <c r="T152">
-        <v>2</v>
-      </c>
-      <c r="U152">
+      <c r="AZ152">
         <v>2.5</v>
       </c>
-      <c r="V152">
-        <v>4.4</v>
-      </c>
-      <c r="W152">
-        <v>1.26</v>
-      </c>
-      <c r="X152">
-        <v>3.64</v>
-      </c>
-      <c r="Y152">
-        <v>2.22</v>
-      </c>
-      <c r="Z152">
-        <v>1.62</v>
-      </c>
-      <c r="AA152">
-        <v>4.95</v>
-      </c>
-      <c r="AB152">
-        <v>1.16</v>
-      </c>
-      <c r="AC152">
-        <v>1.5</v>
-      </c>
-      <c r="AD152">
-        <v>4.33</v>
-      </c>
-      <c r="AE152">
+      <c r="BA152">
+        <v>1.2</v>
+      </c>
+      <c r="BB152">
+        <v>1.38</v>
+      </c>
+      <c r="BC152">
+        <v>1.67</v>
+      </c>
+      <c r="BD152">
+        <v>2.12</v>
+      </c>
+      <c r="BE152">
+        <v>2.85</v>
+      </c>
+      <c r="BF152">
         <v>5</v>
       </c>
-      <c r="AF152">
-        <v>1.02</v>
-      </c>
-      <c r="AG152">
-        <v>12</v>
-      </c>
-      <c r="AH152">
-        <v>1.15</v>
-      </c>
-      <c r="AI152">
-        <v>4.75</v>
-      </c>
-      <c r="AJ152">
-        <v>1.36</v>
-      </c>
-      <c r="AK152">
-        <v>2.9</v>
-      </c>
-      <c r="AL152">
-        <v>1.6</v>
-      </c>
-      <c r="AM152">
-        <v>2.25</v>
-      </c>
-      <c r="AN152">
-        <v>1.18</v>
-      </c>
-      <c r="AO152">
-        <v>1.22</v>
-      </c>
-      <c r="AP152">
-        <v>2.15</v>
-      </c>
-      <c r="AQ152">
-        <v>2.44</v>
-      </c>
-      <c r="AR152">
-        <v>0.7</v>
-      </c>
-      <c r="AS152">
-        <v>2.5</v>
-      </c>
-      <c r="AT152">
-        <v>0.64</v>
-      </c>
-      <c r="AU152">
-        <v>1.76</v>
-      </c>
-      <c r="AV152">
-        <v>1.27</v>
-      </c>
-      <c r="AW152">
-        <v>3.03</v>
-      </c>
-      <c r="AX152">
-        <v>1.38</v>
-      </c>
-      <c r="AY152">
-        <v>8</v>
-      </c>
-      <c r="AZ152">
-        <v>4</v>
-      </c>
-      <c r="BA152">
-        <v>1.18</v>
-      </c>
-      <c r="BB152">
-        <v>1.34</v>
-      </c>
-      <c r="BC152">
-        <v>1.61</v>
-      </c>
-      <c r="BD152">
-        <v>2.02</v>
-      </c>
-      <c r="BE152">
-        <v>2.65</v>
-      </c>
-      <c r="BF152">
-        <v>3</v>
-      </c>
       <c r="BG152">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BH152">
         <v>5</v>
       </c>
       <c r="BI152">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK152">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:63">
@@ -30285,7 +30288,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>4869777</v>
+        <v>4869778</v>
       </c>
       <c r="C153" t="s">
         <v>63</v>
@@ -30300,52 +30303,52 @@
         <v>20</v>
       </c>
       <c r="G153" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H153" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M153">
         <v>1</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="Q153">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R153">
+        <v>1</v>
+      </c>
+      <c r="S153">
         <v>10</v>
       </c>
-      <c r="S153">
-        <v>11</v>
-      </c>
       <c r="T153">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V153">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="W153">
         <v>1.36</v>
@@ -30354,10 +30357,10 @@
         <v>3</v>
       </c>
       <c r="Y153">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Z153">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA153">
         <v>6</v>
@@ -30366,19 +30369,19 @@
         <v>1.11</v>
       </c>
       <c r="AC153">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="AD153">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="AE153">
-        <v>2.95</v>
+        <v>6</v>
       </c>
       <c r="AF153">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH153">
         <v>1.25</v>
@@ -30393,82 +30396,82 @@
         <v>1.95</v>
       </c>
       <c r="AL153">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AM153">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AN153">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AO153">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AP153">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="AQ153">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="AR153">
         <v>0.78</v>
       </c>
       <c r="AS153">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT153">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU153">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AV153">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="AW153">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="AX153">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AY153">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ153">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BA153">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB153">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BC153">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BD153">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="BE153">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="BF153">
         <v>5</v>
       </c>
       <c r="BG153">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BH153">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ153">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK153">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:63">
@@ -30476,7 +30479,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>4869778</v>
+        <v>4869779</v>
       </c>
       <c r="C154" t="s">
         <v>63</v>
@@ -30491,175 +30494,175 @@
         <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H154" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O154" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="P154" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="Q154">
+        <v>8</v>
+      </c>
+      <c r="R154">
+        <v>6</v>
+      </c>
+      <c r="S154">
+        <v>14</v>
+      </c>
+      <c r="T154">
+        <v>2.8</v>
+      </c>
+      <c r="U154">
+        <v>2.05</v>
+      </c>
+      <c r="V154">
+        <v>3.7</v>
+      </c>
+      <c r="W154">
+        <v>1.4</v>
+      </c>
+      <c r="X154">
+        <v>2.75</v>
+      </c>
+      <c r="Y154">
+        <v>2.75</v>
+      </c>
+      <c r="Z154">
+        <v>1.4</v>
+      </c>
+      <c r="AA154">
+        <v>7</v>
+      </c>
+      <c r="AB154">
+        <v>1.08</v>
+      </c>
+      <c r="AC154">
+        <v>2.35</v>
+      </c>
+      <c r="AD154">
+        <v>3.35</v>
+      </c>
+      <c r="AE154">
+        <v>2.65</v>
+      </c>
+      <c r="AF154">
+        <v>1.06</v>
+      </c>
+      <c r="AG154">
+        <v>8</v>
+      </c>
+      <c r="AH154">
+        <v>1.33</v>
+      </c>
+      <c r="AI154">
+        <v>3.25</v>
+      </c>
+      <c r="AJ154">
+        <v>1.85</v>
+      </c>
+      <c r="AK154">
+        <v>1.85</v>
+      </c>
+      <c r="AL154">
+        <v>1.8</v>
+      </c>
+      <c r="AM154">
+        <v>1.91</v>
+      </c>
+      <c r="AN154">
+        <v>1.35</v>
+      </c>
+      <c r="AO154">
+        <v>1.32</v>
+      </c>
+      <c r="AP154">
+        <v>1.65</v>
+      </c>
+      <c r="AQ154">
+        <v>2.33</v>
+      </c>
+      <c r="AR154">
+        <v>1.78</v>
+      </c>
+      <c r="AS154">
+        <v>2</v>
+      </c>
+      <c r="AT154">
+        <v>1.9</v>
+      </c>
+      <c r="AU154">
+        <v>1.67</v>
+      </c>
+      <c r="AV154">
+        <v>1.25</v>
+      </c>
+      <c r="AW154">
+        <v>2.92</v>
+      </c>
+      <c r="AX154">
+        <v>1.88</v>
+      </c>
+      <c r="AY154">
+        <v>7.5</v>
+      </c>
+      <c r="AZ154">
+        <v>2.3</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>1.24</v>
+      </c>
+      <c r="BC154">
+        <v>1.43</v>
+      </c>
+      <c r="BD154">
+        <v>1.74</v>
+      </c>
+      <c r="BE154">
+        <v>2.23</v>
+      </c>
+      <c r="BF154">
+        <v>4</v>
+      </c>
+      <c r="BG154">
         <v>9</v>
       </c>
-      <c r="R154">
-        <v>1</v>
-      </c>
-      <c r="S154">
-        <v>10</v>
-      </c>
-      <c r="T154">
-        <v>2</v>
-      </c>
-      <c r="U154">
-        <v>2.3</v>
-      </c>
-      <c r="V154">
-        <v>5.75</v>
-      </c>
-      <c r="W154">
-        <v>1.36</v>
-      </c>
-      <c r="X154">
+      <c r="BH154">
+        <v>2</v>
+      </c>
+      <c r="BI154">
         <v>3</v>
       </c>
-      <c r="Y154">
-        <v>2.5</v>
-      </c>
-      <c r="Z154">
-        <v>1.5</v>
-      </c>
-      <c r="AA154">
+      <c r="BJ154">
         <v>6</v>
       </c>
-      <c r="AB154">
-        <v>1.11</v>
-      </c>
-      <c r="AC154">
-        <v>1.45</v>
-      </c>
-      <c r="AD154">
-        <v>4</v>
-      </c>
-      <c r="AE154">
-        <v>6</v>
-      </c>
-      <c r="AF154">
-        <v>1.04</v>
-      </c>
-      <c r="AG154">
-        <v>10</v>
-      </c>
-      <c r="AH154">
-        <v>1.25</v>
-      </c>
-      <c r="AI154">
-        <v>3.75</v>
-      </c>
-      <c r="AJ154">
-        <v>1.75</v>
-      </c>
-      <c r="AK154">
-        <v>1.95</v>
-      </c>
-      <c r="AL154">
-        <v>1.9</v>
-      </c>
-      <c r="AM154">
-        <v>1.85</v>
-      </c>
-      <c r="AN154">
-        <v>1.15</v>
-      </c>
-      <c r="AO154">
-        <v>1.22</v>
-      </c>
-      <c r="AP154">
-        <v>2.5</v>
-      </c>
-      <c r="AQ154">
-        <v>2.22</v>
-      </c>
-      <c r="AR154">
-        <v>0.78</v>
-      </c>
-      <c r="AS154">
-        <v>2</v>
-      </c>
-      <c r="AT154">
-        <v>0.91</v>
-      </c>
-      <c r="AU154">
-        <v>1.45</v>
-      </c>
-      <c r="AV154">
-        <v>1.03</v>
-      </c>
-      <c r="AW154">
-        <v>2.48</v>
-      </c>
-      <c r="AX154">
-        <v>1.38</v>
-      </c>
-      <c r="AY154">
-        <v>8</v>
-      </c>
-      <c r="AZ154">
-        <v>4</v>
-      </c>
-      <c r="BA154">
-        <v>1.18</v>
-      </c>
-      <c r="BB154">
-        <v>1.34</v>
-      </c>
-      <c r="BC154">
-        <v>1.61</v>
-      </c>
-      <c r="BD154">
-        <v>2.02</v>
-      </c>
-      <c r="BE154">
-        <v>2.65</v>
-      </c>
-      <c r="BF154">
-        <v>5</v>
-      </c>
-      <c r="BG154">
-        <v>6</v>
-      </c>
-      <c r="BH154">
-        <v>8</v>
-      </c>
-      <c r="BI154">
-        <v>1</v>
-      </c>
-      <c r="BJ154">
-        <v>13</v>
-      </c>
       <c r="BK154">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:63">
@@ -30667,7 +30670,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>4869779</v>
+        <v>4869780</v>
       </c>
       <c r="C155" t="s">
         <v>63</v>
@@ -30682,175 +30685,175 @@
         <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H155" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>85</v>
+      </c>
+      <c r="P155" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q155">
+        <v>10</v>
+      </c>
+      <c r="R155">
         <v>3</v>
       </c>
-      <c r="O155" t="s">
-        <v>116</v>
-      </c>
-      <c r="P155" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q155">
-        <v>8</v>
-      </c>
-      <c r="R155">
-        <v>6</v>
-      </c>
       <c r="S155">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T155">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="U155">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="V155">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="W155">
+        <v>1.28</v>
+      </c>
+      <c r="X155">
+        <v>3.4</v>
+      </c>
+      <c r="Y155">
+        <v>2.3</v>
+      </c>
+      <c r="Z155">
+        <v>1.55</v>
+      </c>
+      <c r="AA155">
+        <v>5.5</v>
+      </c>
+      <c r="AB155">
+        <v>1.13</v>
+      </c>
+      <c r="AC155">
+        <v>1.57</v>
+      </c>
+      <c r="AD155">
+        <v>4.2</v>
+      </c>
+      <c r="AE155">
+        <v>4.4</v>
+      </c>
+      <c r="AF155">
+        <v>1.03</v>
+      </c>
+      <c r="AG155">
+        <v>17.5</v>
+      </c>
+      <c r="AH155">
+        <v>1.19</v>
+      </c>
+      <c r="AI155">
+        <v>4.72</v>
+      </c>
+      <c r="AJ155">
         <v>1.4</v>
       </c>
-      <c r="X155">
+      <c r="AK155">
         <v>2.75</v>
       </c>
-      <c r="Y155">
-        <v>2.75</v>
-      </c>
-      <c r="Z155">
-        <v>1.4</v>
-      </c>
-      <c r="AA155">
-        <v>7</v>
-      </c>
-      <c r="AB155">
-        <v>1.08</v>
-      </c>
-      <c r="AC155">
-        <v>2.35</v>
-      </c>
-      <c r="AD155">
-        <v>3.35</v>
-      </c>
-      <c r="AE155">
-        <v>2.65</v>
-      </c>
-      <c r="AF155">
-        <v>1.06</v>
-      </c>
-      <c r="AG155">
-        <v>8</v>
-      </c>
-      <c r="AH155">
+      <c r="AL155">
+        <v>1.67</v>
+      </c>
+      <c r="AM155">
+        <v>2.1</v>
+      </c>
+      <c r="AN155">
+        <v>1.2</v>
+      </c>
+      <c r="AO155">
+        <v>1.24</v>
+      </c>
+      <c r="AP155">
+        <v>2.2</v>
+      </c>
+      <c r="AQ155">
+        <v>2.3</v>
+      </c>
+      <c r="AR155">
+        <v>1.38</v>
+      </c>
+      <c r="AS155">
+        <v>2.09</v>
+      </c>
+      <c r="AT155">
+        <v>1.56</v>
+      </c>
+      <c r="AU155">
+        <v>1.74</v>
+      </c>
+      <c r="AV155">
         <v>1.33</v>
       </c>
-      <c r="AI155">
-        <v>3.25</v>
-      </c>
-      <c r="AJ155">
-        <v>1.85</v>
-      </c>
-      <c r="AK155">
-        <v>1.85</v>
-      </c>
-      <c r="AL155">
-        <v>1.8</v>
-      </c>
-      <c r="AM155">
-        <v>1.91</v>
-      </c>
-      <c r="AN155">
-        <v>1.35</v>
-      </c>
-      <c r="AO155">
-        <v>1.32</v>
-      </c>
-      <c r="AP155">
-        <v>1.65</v>
-      </c>
-      <c r="AQ155">
-        <v>2.33</v>
-      </c>
-      <c r="AR155">
-        <v>1.78</v>
-      </c>
-      <c r="AS155">
-        <v>2</v>
-      </c>
-      <c r="AT155">
-        <v>1.9</v>
-      </c>
-      <c r="AU155">
-        <v>1.67</v>
-      </c>
-      <c r="AV155">
-        <v>1.25</v>
-      </c>
       <c r="AW155">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="AX155">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="AY155">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="AZ155">
+        <v>3.14</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>1.26</v>
+      </c>
+      <c r="BC155">
+        <v>1.47</v>
+      </c>
+      <c r="BD155">
+        <v>1.83</v>
+      </c>
+      <c r="BE155">
         <v>2.3</v>
       </c>
-      <c r="BA155">
-        <v>0</v>
-      </c>
-      <c r="BB155">
-        <v>1.24</v>
-      </c>
-      <c r="BC155">
-        <v>1.43</v>
-      </c>
-      <c r="BD155">
-        <v>1.74</v>
-      </c>
-      <c r="BE155">
-        <v>2.23</v>
-      </c>
       <c r="BF155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG155">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BH155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI155">
         <v>3</v>
       </c>
       <c r="BJ155">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK155">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:63">
@@ -30858,7 +30861,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>4869780</v>
+        <v>4869781</v>
       </c>
       <c r="C156" t="s">
         <v>63</v>
@@ -30873,175 +30876,175 @@
         <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H156" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O156" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="Q156">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S156">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T156">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="U156">
+        <v>2.2</v>
+      </c>
+      <c r="V156">
+        <v>3.1</v>
+      </c>
+      <c r="W156">
+        <v>1.33</v>
+      </c>
+      <c r="X156">
+        <v>3.25</v>
+      </c>
+      <c r="Y156">
+        <v>2.5</v>
+      </c>
+      <c r="Z156">
+        <v>1.5</v>
+      </c>
+      <c r="AA156">
+        <v>6</v>
+      </c>
+      <c r="AB156">
+        <v>1.11</v>
+      </c>
+      <c r="AC156">
+        <v>2</v>
+      </c>
+      <c r="AD156">
+        <v>3.5</v>
+      </c>
+      <c r="AE156">
+        <v>3.15</v>
+      </c>
+      <c r="AF156">
+        <v>1.05</v>
+      </c>
+      <c r="AG156">
+        <v>9</v>
+      </c>
+      <c r="AH156">
+        <v>1.25</v>
+      </c>
+      <c r="AI156">
+        <v>3.75</v>
+      </c>
+      <c r="AJ156">
+        <v>1.55</v>
+      </c>
+      <c r="AK156">
+        <v>2.3</v>
+      </c>
+      <c r="AL156">
+        <v>1.62</v>
+      </c>
+      <c r="AM156">
+        <v>2.2</v>
+      </c>
+      <c r="AN156">
+        <v>1.44</v>
+      </c>
+      <c r="AO156">
+        <v>1.29</v>
+      </c>
+      <c r="AP156">
+        <v>1.5</v>
+      </c>
+      <c r="AQ156">
+        <v>0.9</v>
+      </c>
+      <c r="AR156">
+        <v>1.11</v>
+      </c>
+      <c r="AS156">
+        <v>0.91</v>
+      </c>
+      <c r="AT156">
+        <v>1.1</v>
+      </c>
+      <c r="AU156">
+        <v>1.18</v>
+      </c>
+      <c r="AV156">
+        <v>1.39</v>
+      </c>
+      <c r="AW156">
+        <v>2.57</v>
+      </c>
+      <c r="AX156">
+        <v>1.86</v>
+      </c>
+      <c r="AY156">
+        <v>9.5</v>
+      </c>
+      <c r="AZ156">
+        <v>2.26</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>1.27</v>
+      </c>
+      <c r="BC156">
+        <v>1.48</v>
+      </c>
+      <c r="BD156">
+        <v>1.85</v>
+      </c>
+      <c r="BE156">
         <v>2.35</v>
       </c>
-      <c r="V156">
-        <v>4.7</v>
-      </c>
-      <c r="W156">
-        <v>1.28</v>
-      </c>
-      <c r="X156">
-        <v>3.4</v>
-      </c>
-      <c r="Y156">
-        <v>2.3</v>
-      </c>
-      <c r="Z156">
-        <v>1.55</v>
-      </c>
-      <c r="AA156">
-        <v>5.5</v>
-      </c>
-      <c r="AB156">
-        <v>1.13</v>
-      </c>
-      <c r="AC156">
-        <v>1.57</v>
-      </c>
-      <c r="AD156">
-        <v>4.2</v>
-      </c>
-      <c r="AE156">
-        <v>4.4</v>
-      </c>
-      <c r="AF156">
-        <v>1.03</v>
-      </c>
-      <c r="AG156">
-        <v>17.5</v>
-      </c>
-      <c r="AH156">
-        <v>1.19</v>
-      </c>
-      <c r="AI156">
-        <v>4.72</v>
-      </c>
-      <c r="AJ156">
-        <v>1.4</v>
-      </c>
-      <c r="AK156">
-        <v>2.75</v>
-      </c>
-      <c r="AL156">
-        <v>1.67</v>
-      </c>
-      <c r="AM156">
-        <v>2.1</v>
-      </c>
-      <c r="AN156">
-        <v>1.2</v>
-      </c>
-      <c r="AO156">
-        <v>1.24</v>
-      </c>
-      <c r="AP156">
-        <v>2.2</v>
-      </c>
-      <c r="AQ156">
-        <v>2.3</v>
-      </c>
-      <c r="AR156">
-        <v>1.38</v>
-      </c>
-      <c r="AS156">
-        <v>2.09</v>
-      </c>
-      <c r="AT156">
-        <v>1.56</v>
-      </c>
-      <c r="AU156">
-        <v>1.74</v>
-      </c>
-      <c r="AV156">
-        <v>1.33</v>
-      </c>
-      <c r="AW156">
-        <v>3.07</v>
-      </c>
-      <c r="AX156">
-        <v>1.47</v>
-      </c>
-      <c r="AY156">
-        <v>10.5</v>
-      </c>
-      <c r="AZ156">
-        <v>3.14</v>
-      </c>
-      <c r="BA156">
-        <v>0</v>
-      </c>
-      <c r="BB156">
-        <v>1.26</v>
-      </c>
-      <c r="BC156">
-        <v>1.47</v>
-      </c>
-      <c r="BD156">
-        <v>1.83</v>
-      </c>
-      <c r="BE156">
-        <v>2.3</v>
-      </c>
       <c r="BF156">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH156">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="BI156">
         <v>3</v>
       </c>
       <c r="BJ156">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="BK156">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:63">
@@ -31049,7 +31052,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>4869781</v>
+        <v>4869782</v>
       </c>
       <c r="C157" t="s">
         <v>63</v>
@@ -31064,46 +31067,46 @@
         <v>20</v>
       </c>
       <c r="G157" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H157" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
         <v>3</v>
       </c>
-      <c r="L157">
-        <v>2</v>
-      </c>
       <c r="M157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O157" t="s">
         <v>201</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="Q157">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R157">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S157">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T157">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="U157">
         <v>2.2</v>
@@ -31124,25 +31127,25 @@
         <v>1.5</v>
       </c>
       <c r="AA157">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB157">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC157">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AD157">
         <v>3.5</v>
       </c>
       <c r="AE157">
-        <v>3.15</v>
+        <v>2.35</v>
       </c>
       <c r="AF157">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG157">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH157">
         <v>1.25</v>
@@ -31169,70 +31172,70 @@
         <v>1.29</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AQ157">
-        <v>0.9</v>
+        <v>1.67</v>
       </c>
       <c r="AR157">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AS157">
-        <v>0.91</v>
+        <v>1.8</v>
       </c>
       <c r="AT157">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU157">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="AV157">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AW157">
-        <v>2.57</v>
+        <v>3.08</v>
       </c>
       <c r="AX157">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="AY157">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AZ157">
-        <v>2.26</v>
+        <v>1.55</v>
       </c>
       <c r="BA157">
         <v>0</v>
       </c>
       <c r="BB157">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BC157">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BD157">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BE157">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="BF157">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG157">
+        <v>4</v>
+      </c>
+      <c r="BH157">
+        <v>3</v>
+      </c>
+      <c r="BI157">
+        <v>2</v>
+      </c>
+      <c r="BJ157">
+        <v>9</v>
+      </c>
+      <c r="BK157">
         <v>6</v>
-      </c>
-      <c r="BH157">
-        <v>17</v>
-      </c>
-      <c r="BI157">
-        <v>3</v>
-      </c>
-      <c r="BJ157">
-        <v>24</v>
-      </c>
-      <c r="BK157">
-        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:63">
@@ -31240,7 +31243,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>4869782</v>
+        <v>4869783</v>
       </c>
       <c r="C158" t="s">
         <v>63</v>
@@ -31255,175 +31258,175 @@
         <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H158" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O158" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>85</v>
+        <v>287</v>
       </c>
       <c r="Q158">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R158">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S158">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T158">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="U158">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V158">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="W158">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X158">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y158">
+        <v>2.3</v>
+      </c>
+      <c r="Z158">
+        <v>1.57</v>
+      </c>
+      <c r="AA158">
+        <v>4.75</v>
+      </c>
+      <c r="AB158">
+        <v>1.15</v>
+      </c>
+      <c r="AC158">
+        <v>2.45</v>
+      </c>
+      <c r="AD158">
+        <v>3.65</v>
+      </c>
+      <c r="AE158">
+        <v>2.4</v>
+      </c>
+      <c r="AF158">
+        <v>1.02</v>
+      </c>
+      <c r="AG158">
+        <v>12</v>
+      </c>
+      <c r="AH158">
+        <v>1.17</v>
+      </c>
+      <c r="AI158">
+        <v>4.5</v>
+      </c>
+      <c r="AJ158">
+        <v>1.45</v>
+      </c>
+      <c r="AK158">
+        <v>2.55</v>
+      </c>
+      <c r="AL158">
+        <v>1.5</v>
+      </c>
+      <c r="AM158">
         <v>2.5</v>
       </c>
-      <c r="Z158">
+      <c r="AN158">
         <v>1.5</v>
       </c>
-      <c r="AA158">
-        <v>5.5</v>
-      </c>
-      <c r="AB158">
-        <v>1.12</v>
-      </c>
-      <c r="AC158">
-        <v>2.55</v>
-      </c>
-      <c r="AD158">
-        <v>3.5</v>
-      </c>
-      <c r="AE158">
-        <v>2.35</v>
-      </c>
-      <c r="AF158">
-        <v>1.04</v>
-      </c>
-      <c r="AG158">
-        <v>10</v>
-      </c>
-      <c r="AH158">
+      <c r="AO158">
         <v>1.25</v>
-      </c>
-      <c r="AI158">
-        <v>3.75</v>
-      </c>
-      <c r="AJ158">
-        <v>1.55</v>
-      </c>
-      <c r="AK158">
-        <v>2.3</v>
-      </c>
-      <c r="AL158">
-        <v>1.62</v>
-      </c>
-      <c r="AM158">
-        <v>2.2</v>
-      </c>
-      <c r="AN158">
-        <v>1.44</v>
-      </c>
-      <c r="AO158">
-        <v>1.29</v>
       </c>
       <c r="AP158">
         <v>1.53</v>
       </c>
       <c r="AQ158">
-        <v>1.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR158">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AS158">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="AT158">
         <v>1.27</v>
       </c>
       <c r="AU158">
+        <v>1.22</v>
+      </c>
+      <c r="AV158">
+        <v>1.14</v>
+      </c>
+      <c r="AW158">
+        <v>2.36</v>
+      </c>
+      <c r="AX158">
+        <v>2.06</v>
+      </c>
+      <c r="AY158">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ158">
+        <v>2</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>1.27</v>
+      </c>
+      <c r="BC158">
         <v>1.48</v>
       </c>
-      <c r="AV158">
-        <v>1.6</v>
-      </c>
-      <c r="AW158">
-        <v>3.08</v>
-      </c>
-      <c r="AX158">
+      <c r="BD158">
+        <v>1.85</v>
+      </c>
+      <c r="BE158">
+        <v>2.35</v>
+      </c>
+      <c r="BF158">
+        <v>0</v>
+      </c>
+      <c r="BG158">
         <v>3</v>
       </c>
-      <c r="AY158">
-        <v>8</v>
-      </c>
-      <c r="AZ158">
-        <v>1.55</v>
-      </c>
-      <c r="BA158">
-        <v>0</v>
-      </c>
-      <c r="BB158">
-        <v>1.24</v>
-      </c>
-      <c r="BC158">
-        <v>1.43</v>
-      </c>
-      <c r="BD158">
-        <v>1.74</v>
-      </c>
-      <c r="BE158">
-        <v>2.23</v>
-      </c>
-      <c r="BF158">
-        <v>6</v>
-      </c>
-      <c r="BG158">
+      <c r="BH158">
         <v>4</v>
       </c>
-      <c r="BH158">
-        <v>3</v>
-      </c>
       <c r="BI158">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ158">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BK158">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:63">
@@ -31431,7 +31434,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>4869783</v>
+        <v>4869784</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -31446,79 +31449,79 @@
         <v>20</v>
       </c>
       <c r="G159" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H159" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159">
         <v>1</v>
       </c>
       <c r="O159" t="s">
+        <v>202</v>
+      </c>
+      <c r="P159" t="s">
         <v>85</v>
       </c>
-      <c r="P159" t="s">
-        <v>287</v>
-      </c>
       <c r="Q159">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S159">
         <v>7</v>
       </c>
       <c r="T159">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V159">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="W159">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X159">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="Y159">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Z159">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA159">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="AB159">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AC159">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="AD159">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="AE159">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="AF159">
         <v>1.02</v>
@@ -31527,94 +31530,94 @@
         <v>12</v>
       </c>
       <c r="AH159">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AI159">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ159">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AK159">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="AL159">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AM159">
+        <v>2.25</v>
+      </c>
+      <c r="AN159">
+        <v>1.18</v>
+      </c>
+      <c r="AO159">
+        <v>1.22</v>
+      </c>
+      <c r="AP159">
+        <v>2.15</v>
+      </c>
+      <c r="AQ159">
+        <v>2.44</v>
+      </c>
+      <c r="AR159">
+        <v>0.7</v>
+      </c>
+      <c r="AS159">
         <v>2.5</v>
       </c>
-      <c r="AN159">
-        <v>1.5</v>
-      </c>
-      <c r="AO159">
-        <v>1.25</v>
-      </c>
-      <c r="AP159">
-        <v>1.53</v>
-      </c>
-      <c r="AQ159">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR159">
-        <v>1.1</v>
-      </c>
-      <c r="AS159">
-        <v>0.5</v>
-      </c>
       <c r="AT159">
+        <v>0.64</v>
+      </c>
+      <c r="AU159">
+        <v>1.76</v>
+      </c>
+      <c r="AV159">
         <v>1.27</v>
       </c>
-      <c r="AU159">
-        <v>1.22</v>
-      </c>
-      <c r="AV159">
-        <v>1.14</v>
-      </c>
       <c r="AW159">
-        <v>2.36</v>
+        <v>3.03</v>
       </c>
       <c r="AX159">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="AY159">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="AZ159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA159">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BB159">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BC159">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="BD159">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="BE159">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="BF159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI159">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ159">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BK159">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:63">
@@ -31858,13 +31861,13 @@
         <v>154</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R161">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S161">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T161">
         <v>3</v>
@@ -31981,22 +31984,22 @@
         <v>1.9</v>
       </c>
       <c r="BF161">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG161">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ161">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BK161">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:63">
@@ -32049,13 +32052,13 @@
         <v>85</v>
       </c>
       <c r="Q162">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R162">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T162">
         <v>2.1</v>
@@ -32172,22 +32175,22 @@
         <v>2.1</v>
       </c>
       <c r="BF162">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG162">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH162">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI162">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ162">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK162">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:63">
@@ -32240,13 +32243,13 @@
         <v>85</v>
       </c>
       <c r="Q163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R163">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S163">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T163">
         <v>2.8</v>
@@ -32363,22 +32366,22 @@
         <v>2.58</v>
       </c>
       <c r="BF163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH163">
         <v>3</v>
       </c>
       <c r="BI163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ163">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK163">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:63">
@@ -32431,13 +32434,13 @@
         <v>152</v>
       </c>
       <c r="Q164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S164">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T164">
         <v>2.65</v>
@@ -32554,22 +32557,22 @@
         <v>2.93</v>
       </c>
       <c r="BF164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ164">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BK164">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:63">
@@ -32622,13 +32625,13 @@
         <v>85</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R165">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S165">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T165">
         <v>2.1</v>
@@ -32745,22 +32748,22 @@
         <v>2.78</v>
       </c>
       <c r="BF165">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG165">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH165">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI165">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ165">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK165">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:63">
@@ -32813,13 +32816,13 @@
         <v>288</v>
       </c>
       <c r="Q166">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R166">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S166">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="T166">
         <v>2.65</v>
@@ -32936,22 +32939,213 @@
         <v>2.08</v>
       </c>
       <c r="BF166">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG166">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BH166">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI166">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ166">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK166">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>4869788</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45166.58333333334</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167" t="s">
+        <v>69</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>3</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>85</v>
+      </c>
+      <c r="P167" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q167">
+        <v>10</v>
+      </c>
+      <c r="R167">
+        <v>5</v>
+      </c>
+      <c r="S167">
+        <v>15</v>
+      </c>
+      <c r="T167">
+        <v>3.5</v>
+      </c>
+      <c r="U167">
+        <v>2.25</v>
+      </c>
+      <c r="V167">
+        <v>2.9</v>
+      </c>
+      <c r="W167">
+        <v>1.32</v>
+      </c>
+      <c r="X167">
+        <v>3.1</v>
+      </c>
+      <c r="Y167">
+        <v>2.55</v>
+      </c>
+      <c r="Z167">
+        <v>1.46</v>
+      </c>
+      <c r="AA167">
+        <v>5.95</v>
+      </c>
+      <c r="AB167">
+        <v>1.1</v>
+      </c>
+      <c r="AC167">
+        <v>2.52</v>
+      </c>
+      <c r="AD167">
+        <v>3.7</v>
+      </c>
+      <c r="AE167">
+        <v>2.32</v>
+      </c>
+      <c r="AF167">
+        <v>1.02</v>
+      </c>
+      <c r="AG167">
+        <v>15</v>
+      </c>
+      <c r="AH167">
+        <v>1.22</v>
+      </c>
+      <c r="AI167">
+        <v>4.2</v>
+      </c>
+      <c r="AJ167">
+        <v>1.57</v>
+      </c>
+      <c r="AK167">
+        <v>2.25</v>
+      </c>
+      <c r="AL167">
+        <v>1.62</v>
+      </c>
+      <c r="AM167">
+        <v>2.25</v>
+      </c>
+      <c r="AN167">
+        <v>1.63</v>
+      </c>
+      <c r="AO167">
+        <v>1.25</v>
+      </c>
+      <c r="AP167">
+        <v>1.4</v>
+      </c>
+      <c r="AQ167">
+        <v>1.9</v>
+      </c>
+      <c r="AR167">
+        <v>0.75</v>
+      </c>
+      <c r="AS167">
+        <v>1.73</v>
+      </c>
+      <c r="AT167">
+        <v>1</v>
+      </c>
+      <c r="AU167">
+        <v>1.57</v>
+      </c>
+      <c r="AV167">
+        <v>1.38</v>
+      </c>
+      <c r="AW167">
+        <v>2.95</v>
+      </c>
+      <c r="AX167">
+        <v>1.8</v>
+      </c>
+      <c r="AY167">
+        <v>5.75</v>
+      </c>
+      <c r="AZ167">
+        <v>2.3</v>
+      </c>
+      <c r="BA167">
+        <v>1.18</v>
+      </c>
+      <c r="BB167">
+        <v>1.34</v>
+      </c>
+      <c r="BC167">
+        <v>1.6</v>
+      </c>
+      <c r="BD167">
+        <v>2.02</v>
+      </c>
+      <c r="BE167">
+        <v>2.65</v>
+      </c>
+      <c r="BF167">
+        <v>6</v>
+      </c>
+      <c r="BG167">
+        <v>5</v>
+      </c>
+      <c r="BH167">
+        <v>5</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>11</v>
+      </c>
+      <c r="BK167">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,13 +643,31 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['35', '45+1']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['17', '21', '44']</t>
+  </si>
+  <si>
+    <t>['30', '46', '50', '56', '85', '87']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['61', '71']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
     <t>['32', '43']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['53', '61']</t>
@@ -680,9 +698,6 @@
   </si>
   <si>
     <t>['76', '88']</t>
-  </si>
-  <si>
-    <t>['66']</t>
   </si>
   <si>
     <t>['85', '90+1', '90+3']</t>
@@ -884,6 +899,18 @@
   </si>
   <si>
     <t>['21', '42', '49']</t>
+  </si>
+  <si>
+    <t>['4', '26', '85']</t>
+  </si>
+  <si>
+    <t>['23', '45+1']</t>
+  </si>
+  <si>
+    <t>['11', '90+2']</t>
+  </si>
+  <si>
+    <t>['23', '84']</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1516,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1576,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1767,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT3">
         <v>0.91</v>
@@ -1871,7 +1898,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1961,7 +1988,7 @@
         <v>1.36</v>
       </c>
       <c r="AT4">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2062,7 +2089,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2149,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT5">
         <v>1.27</v>
@@ -2340,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2534,7 +2561,7 @@
         <v>0.91</v>
       </c>
       <c r="AT7">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2826,7 +2853,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3104,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT10">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3399,7 +3426,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3489,7 +3516,7 @@
         <v>1.3</v>
       </c>
       <c r="AT12">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3590,7 +3617,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3677,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT13">
         <v>0.91</v>
@@ -3868,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -4062,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4253,7 +4280,7 @@
         <v>2.27</v>
       </c>
       <c r="AT16">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4441,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT17">
         <v>1.36</v>
@@ -4545,7 +4572,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4632,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT18">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU18">
         <v>0.89</v>
@@ -4823,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU19">
         <v>0.75</v>
@@ -4927,7 +4954,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5309,7 +5336,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -5396,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>0.82</v>
@@ -5500,7 +5527,7 @@
         <v>85</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5587,10 +5614,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT23">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU23">
         <v>1.5</v>
@@ -5691,7 +5718,7 @@
         <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5972,7 +5999,7 @@
         <v>0.91</v>
       </c>
       <c r="AT25">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU25">
         <v>1.23</v>
@@ -6073,7 +6100,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6264,7 +6291,7 @@
         <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6455,7 +6482,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6542,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>0.7</v>
@@ -6646,7 +6673,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6837,7 +6864,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6924,7 +6951,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT30">
         <v>0.91</v>
@@ -7028,7 +7055,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7118,7 +7145,7 @@
         <v>1.73</v>
       </c>
       <c r="AT31">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>1.79</v>
@@ -7219,7 +7246,7 @@
         <v>85</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7500,7 +7527,7 @@
         <v>2.27</v>
       </c>
       <c r="AT33">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU33">
         <v>1.22</v>
@@ -7688,10 +7715,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT34">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU34">
         <v>1.28</v>
@@ -7879,10 +7906,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT35">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU35">
         <v>1.01</v>
@@ -7983,7 +8010,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8073,7 +8100,7 @@
         <v>1.36</v>
       </c>
       <c r="AT36">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU36">
         <v>1.17</v>
@@ -8174,7 +8201,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8261,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT37">
         <v>0.82</v>
@@ -8365,7 +8392,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8452,7 +8479,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>1.27</v>
@@ -8643,10 +8670,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT39">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU39">
         <v>1.6</v>
@@ -8747,7 +8774,7 @@
         <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8837,7 +8864,7 @@
         <v>1.36</v>
       </c>
       <c r="AT40">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -8938,7 +8965,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -9025,10 +9052,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT41">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU41">
         <v>1.24</v>
@@ -9216,7 +9243,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>0.7</v>
@@ -9320,7 +9347,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9511,7 +9538,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9601,7 +9628,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU44">
         <v>1.68</v>
@@ -9789,7 +9816,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>0.91</v>
@@ -9893,7 +9920,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9980,7 +10007,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT46">
         <v>0.91</v>
@@ -10174,7 +10201,7 @@
         <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10556,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.77</v>
@@ -10657,7 +10684,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10935,10 +10962,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT51">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -11126,10 +11153,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT52">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU52">
         <v>0.9399999999999999</v>
@@ -11230,7 +11257,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>13</v>
@@ -11320,7 +11347,7 @@
         <v>1.36</v>
       </c>
       <c r="AT53">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU53">
         <v>1.12</v>
@@ -11508,10 +11535,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT54">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -11699,10 +11726,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT55">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU55">
         <v>1.56</v>
@@ -11803,7 +11830,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -11890,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT56">
         <v>0.82</v>
@@ -11994,7 +12021,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12275,7 +12302,7 @@
         <v>1.73</v>
       </c>
       <c r="AT58">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU58">
         <v>1.87</v>
@@ -12376,7 +12403,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12463,10 +12490,10 @@
         <v>0.33</v>
       </c>
       <c r="AS59">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT59">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU59">
         <v>1.56</v>
@@ -12654,7 +12681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.91</v>
@@ -13140,7 +13167,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13227,10 +13254,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU63">
         <v>1.41</v>
@@ -13609,10 +13636,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT65">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13991,10 +14018,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT67">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU67">
         <v>1.12</v>
@@ -14095,7 +14122,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>15</v>
@@ -14286,7 +14313,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14373,10 +14400,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT69">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU69">
         <v>1.28</v>
@@ -14668,7 +14695,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14755,10 +14782,10 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT71">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU71">
         <v>1.55</v>
@@ -14859,7 +14886,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14946,10 +14973,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT72">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU72">
         <v>1.51</v>
@@ -15050,7 +15077,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15241,7 +15268,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15328,10 +15355,10 @@
         <v>1.6</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT74">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU74">
         <v>1.49</v>
@@ -15623,7 +15650,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15713,7 +15740,7 @@
         <v>0.91</v>
       </c>
       <c r="AT76">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU76">
         <v>1.13</v>
@@ -15814,7 +15841,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -15901,7 +15928,7 @@
         <v>0.8</v>
       </c>
       <c r="AS77">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT77">
         <v>0.55</v>
@@ -16005,7 +16032,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16196,7 +16223,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16286,7 +16313,7 @@
         <v>2.27</v>
       </c>
       <c r="AT79">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU79">
         <v>1.28</v>
@@ -16387,7 +16414,7 @@
         <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16474,7 +16501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS80">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>1.36</v>
@@ -16769,7 +16796,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16859,7 +16886,7 @@
         <v>1.3</v>
       </c>
       <c r="AT82">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -16960,7 +16987,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17047,10 +17074,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT83">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU83">
         <v>1.14</v>
@@ -17238,7 +17265,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17342,7 +17369,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17432,7 +17459,7 @@
         <v>1.6</v>
       </c>
       <c r="AT85">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU85">
         <v>2.04</v>
@@ -17533,7 +17560,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17620,10 +17647,10 @@
         <v>1.8</v>
       </c>
       <c r="AS86">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT86">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU86">
         <v>1.49</v>
@@ -17724,7 +17751,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17814,7 +17841,7 @@
         <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.64</v>
@@ -18002,7 +18029,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT88">
         <v>0.7</v>
@@ -18193,7 +18220,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT89">
         <v>0.82</v>
@@ -18575,10 +18602,10 @@
         <v>0.6</v>
       </c>
       <c r="AS91">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU91">
         <v>1.74</v>
@@ -18870,7 +18897,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19061,7 +19088,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19148,10 +19175,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU94">
         <v>1.6</v>
@@ -19533,7 +19560,7 @@
         <v>2</v>
       </c>
       <c r="AT96">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU96">
         <v>1.72</v>
@@ -19634,7 +19661,7 @@
         <v>85</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>3</v>
@@ -19721,7 +19748,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT97">
         <v>1.36</v>
@@ -19912,10 +19939,10 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT98">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.55</v>
@@ -20103,7 +20130,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT99">
         <v>0.7</v>
@@ -20207,7 +20234,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20297,7 +20324,7 @@
         <v>1.6</v>
       </c>
       <c r="AT100">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU100">
         <v>1.91</v>
@@ -20485,10 +20512,10 @@
         <v>1.67</v>
       </c>
       <c r="AS101">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU101">
         <v>1.3</v>
@@ -20589,7 +20616,7 @@
         <v>159</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20867,7 +20894,7 @@
         <v>0.83</v>
       </c>
       <c r="AS103">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT103">
         <v>0.55</v>
@@ -20971,7 +20998,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21061,7 +21088,7 @@
         <v>1.73</v>
       </c>
       <c r="AT104">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU104">
         <v>1.82</v>
@@ -21162,7 +21189,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>7</v>
@@ -21249,10 +21276,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT105">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU105">
         <v>1.38</v>
@@ -21353,7 +21380,7 @@
         <v>162</v>
       </c>
       <c r="P106" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21631,7 +21658,7 @@
         <v>1.17</v>
       </c>
       <c r="AS107">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT107">
         <v>0.91</v>
@@ -21735,7 +21762,7 @@
         <v>164</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21825,7 +21852,7 @@
         <v>0.91</v>
       </c>
       <c r="AT108">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU108">
         <v>1.18</v>
@@ -21926,7 +21953,7 @@
         <v>165</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22016,7 +22043,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU109">
         <v>1.62</v>
@@ -22117,7 +22144,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22204,7 +22231,7 @@
         <v>1.14</v>
       </c>
       <c r="AS110">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT110">
         <v>1.27</v>
@@ -22308,7 +22335,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22586,7 +22613,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT112">
         <v>0.91</v>
@@ -22780,7 +22807,7 @@
         <v>2.27</v>
       </c>
       <c r="AT113">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU113">
         <v>1.36</v>
@@ -22881,7 +22908,7 @@
         <v>85</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22971,7 +22998,7 @@
         <v>1.6</v>
       </c>
       <c r="AT114">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU114">
         <v>1.85</v>
@@ -23159,10 +23186,10 @@
         <v>2</v>
       </c>
       <c r="AS115">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT115">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU115">
         <v>1.68</v>
@@ -23350,10 +23377,10 @@
         <v>1.17</v>
       </c>
       <c r="AS116">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT116">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>1.21</v>
@@ -23541,7 +23568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS117">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT117">
         <v>1.36</v>
@@ -23645,7 +23672,7 @@
         <v>172</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23732,7 +23759,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -24027,7 +24054,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24117,7 +24144,7 @@
         <v>2.27</v>
       </c>
       <c r="AT120">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU120">
         <v>1.44</v>
@@ -24218,7 +24245,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24409,7 +24436,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24496,10 +24523,10 @@
         <v>1.86</v>
       </c>
       <c r="AS122">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT122">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU122">
         <v>1.35</v>
@@ -24690,7 +24717,7 @@
         <v>1.36</v>
       </c>
       <c r="AT123">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU123">
         <v>1.33</v>
@@ -24791,7 +24818,7 @@
         <v>176</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -24878,7 +24905,7 @@
         <v>0.88</v>
       </c>
       <c r="AS124">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT124">
         <v>0.82</v>
@@ -25260,10 +25287,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT126">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU126">
         <v>1.47</v>
@@ -25451,10 +25478,10 @@
         <v>0.88</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT127">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25555,7 +25582,7 @@
         <v>114</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>13</v>
@@ -25746,7 +25773,7 @@
         <v>180</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -25937,7 +25964,7 @@
         <v>181</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26027,7 +26054,7 @@
         <v>1.3</v>
       </c>
       <c r="AT130">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU130">
         <v>1.49</v>
@@ -26215,7 +26242,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT131">
         <v>0.55</v>
@@ -26319,7 +26346,7 @@
         <v>84</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26409,7 +26436,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU132">
         <v>1.8</v>
@@ -26510,7 +26537,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26597,10 +26624,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT133">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -26892,7 +26919,7 @@
         <v>85</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27170,7 +27197,7 @@
         <v>1.56</v>
       </c>
       <c r="AS136">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT136">
         <v>1.27</v>
@@ -27361,7 +27388,7 @@
         <v>0.88</v>
       </c>
       <c r="AS137">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>0.91</v>
@@ -27552,10 +27579,10 @@
         <v>2</v>
       </c>
       <c r="AS138">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT138">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU138">
         <v>1.46</v>
@@ -27656,7 +27683,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>2</v>
@@ -27746,7 +27773,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU139">
         <v>1.7</v>
@@ -27847,7 +27874,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -27934,10 +27961,10 @@
         <v>1.25</v>
       </c>
       <c r="AS140">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT140">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU140">
         <v>1.73</v>
@@ -28038,7 +28065,7 @@
         <v>154</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28128,7 +28155,7 @@
         <v>0.91</v>
       </c>
       <c r="AT141">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU141">
         <v>1.18</v>
@@ -28319,7 +28346,7 @@
         <v>1.36</v>
       </c>
       <c r="AT142">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU142">
         <v>1.63</v>
@@ -28420,7 +28447,7 @@
         <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28507,7 +28534,7 @@
         <v>0.78</v>
       </c>
       <c r="AS143">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT143">
         <v>0.91</v>
@@ -28611,7 +28638,7 @@
         <v>85</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>12</v>
@@ -28701,7 +28728,7 @@
         <v>1.36</v>
       </c>
       <c r="AT144">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU144">
         <v>1.36</v>
@@ -28802,7 +28829,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>9</v>
@@ -28889,10 +28916,10 @@
         <v>1.78</v>
       </c>
       <c r="AS145">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT145">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU145">
         <v>1.31</v>
@@ -29080,7 +29107,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT146">
         <v>0.55</v>
@@ -29184,7 +29211,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29375,7 +29402,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29462,7 +29489,7 @@
         <v>0.89</v>
       </c>
       <c r="AS148">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT148">
         <v>0.82</v>
@@ -29656,7 +29683,7 @@
         <v>1.73</v>
       </c>
       <c r="AT149">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU149">
         <v>1.62</v>
@@ -29757,7 +29784,7 @@
         <v>197</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -30139,7 +30166,7 @@
         <v>199</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30226,10 +30253,10 @@
         <v>0.78</v>
       </c>
       <c r="AS152">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT152">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU152">
         <v>1.37</v>
@@ -30330,7 +30357,7 @@
         <v>85</v>
       </c>
       <c r="P153" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q153">
         <v>9</v>
@@ -30417,7 +30444,7 @@
         <v>0.78</v>
       </c>
       <c r="AS153">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT153">
         <v>0.91</v>
@@ -30521,7 +30548,7 @@
         <v>116</v>
       </c>
       <c r="P154" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30611,7 +30638,7 @@
         <v>2</v>
       </c>
       <c r="AT154">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU154">
         <v>1.67</v>
@@ -30799,10 +30826,10 @@
         <v>1.38</v>
       </c>
       <c r="AS155">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT155">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU155">
         <v>1.74</v>
@@ -30903,7 +30930,7 @@
         <v>200</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>7</v>
@@ -30993,7 +31020,7 @@
         <v>0.91</v>
       </c>
       <c r="AT156">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.18</v>
@@ -31181,7 +31208,7 @@
         <v>1.4</v>
       </c>
       <c r="AS157">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT157">
         <v>1.27</v>
@@ -31285,7 +31312,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31372,10 +31399,10 @@
         <v>1.1</v>
       </c>
       <c r="AS158">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT158">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU158">
         <v>1.22</v>
@@ -31563,10 +31590,10 @@
         <v>0.7</v>
       </c>
       <c r="AS159">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT159">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU159">
         <v>1.76</v>
@@ -32136,7 +32163,7 @@
         <v>0.6</v>
       </c>
       <c r="AS162">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT162">
         <v>0.55</v>
@@ -32330,7 +32357,7 @@
         <v>1.36</v>
       </c>
       <c r="AT163">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU163">
         <v>1.64</v>
@@ -32813,7 +32840,7 @@
         <v>208</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33004,7 +33031,7 @@
         <v>85</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>10</v>
@@ -33146,6 +33173,1534 @@
       </c>
       <c r="BK167">
         <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>4869798</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45170.58333333334</v>
+      </c>
+      <c r="F168">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168">
+        <v>3</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>209</v>
+      </c>
+      <c r="P168" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q168">
+        <v>4</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>6</v>
+      </c>
+      <c r="T168">
+        <v>2.88</v>
+      </c>
+      <c r="U168">
+        <v>2.45</v>
+      </c>
+      <c r="V168">
+        <v>2.7</v>
+      </c>
+      <c r="W168">
+        <v>1.25</v>
+      </c>
+      <c r="X168">
+        <v>3.75</v>
+      </c>
+      <c r="Y168">
+        <v>2.2</v>
+      </c>
+      <c r="Z168">
+        <v>1.62</v>
+      </c>
+      <c r="AA168">
+        <v>4.5</v>
+      </c>
+      <c r="AB168">
+        <v>1.17</v>
+      </c>
+      <c r="AC168">
+        <v>2.53</v>
+      </c>
+      <c r="AD168">
+        <v>3.62</v>
+      </c>
+      <c r="AE168">
+        <v>2.64</v>
+      </c>
+      <c r="AF168">
+        <v>1.02</v>
+      </c>
+      <c r="AG168">
+        <v>12</v>
+      </c>
+      <c r="AH168">
+        <v>1.15</v>
+      </c>
+      <c r="AI168">
+        <v>4.75</v>
+      </c>
+      <c r="AJ168">
+        <v>1.43</v>
+      </c>
+      <c r="AK168">
+        <v>2.49</v>
+      </c>
+      <c r="AL168">
+        <v>1.44</v>
+      </c>
+      <c r="AM168">
+        <v>2.62</v>
+      </c>
+      <c r="AN168">
+        <v>1.53</v>
+      </c>
+      <c r="AO168">
+        <v>1.29</v>
+      </c>
+      <c r="AP168">
+        <v>1.44</v>
+      </c>
+      <c r="AQ168">
+        <v>0.5</v>
+      </c>
+      <c r="AR168">
+        <v>0.64</v>
+      </c>
+      <c r="AS168">
+        <v>0.45</v>
+      </c>
+      <c r="AT168">
+        <v>0.83</v>
+      </c>
+      <c r="AU168">
+        <v>1.17</v>
+      </c>
+      <c r="AV168">
+        <v>1.24</v>
+      </c>
+      <c r="AW168">
+        <v>2.41</v>
+      </c>
+      <c r="AX168">
+        <v>2.2</v>
+      </c>
+      <c r="AY168">
+        <v>9.1</v>
+      </c>
+      <c r="AZ168">
+        <v>1.89</v>
+      </c>
+      <c r="BA168">
+        <v>1.22</v>
+      </c>
+      <c r="BB168">
+        <v>1.38</v>
+      </c>
+      <c r="BC168">
+        <v>1.69</v>
+      </c>
+      <c r="BD168">
+        <v>2.16</v>
+      </c>
+      <c r="BE168">
+        <v>2.84</v>
+      </c>
+      <c r="BF168">
+        <v>5</v>
+      </c>
+      <c r="BG168">
+        <v>5</v>
+      </c>
+      <c r="BH168">
+        <v>1</v>
+      </c>
+      <c r="BI168">
+        <v>5</v>
+      </c>
+      <c r="BJ168">
+        <v>6</v>
+      </c>
+      <c r="BK168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>4869794</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F169">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>66</v>
+      </c>
+      <c r="H169" t="s">
+        <v>78</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>210</v>
+      </c>
+      <c r="P169" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q169">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>4</v>
+      </c>
+      <c r="S169">
+        <v>7</v>
+      </c>
+      <c r="T169">
+        <v>3.6</v>
+      </c>
+      <c r="U169">
+        <v>2.25</v>
+      </c>
+      <c r="V169">
+        <v>2.8</v>
+      </c>
+      <c r="W169">
+        <v>1.34</v>
+      </c>
+      <c r="X169">
+        <v>3</v>
+      </c>
+      <c r="Y169">
+        <v>2.7</v>
+      </c>
+      <c r="Z169">
+        <v>1.41</v>
+      </c>
+      <c r="AA169">
+        <v>6.9</v>
+      </c>
+      <c r="AB169">
+        <v>1.07</v>
+      </c>
+      <c r="AC169">
+        <v>2.62</v>
+      </c>
+      <c r="AD169">
+        <v>3.3</v>
+      </c>
+      <c r="AE169">
+        <v>2.29</v>
+      </c>
+      <c r="AF169">
+        <v>1.04</v>
+      </c>
+      <c r="AG169">
+        <v>13</v>
+      </c>
+      <c r="AH169">
+        <v>1.28</v>
+      </c>
+      <c r="AI169">
+        <v>3.6</v>
+      </c>
+      <c r="AJ169">
+        <v>1.8</v>
+      </c>
+      <c r="AK169">
+        <v>1.93</v>
+      </c>
+      <c r="AL169">
+        <v>1.72</v>
+      </c>
+      <c r="AM169">
+        <v>2.1</v>
+      </c>
+      <c r="AN169">
+        <v>1.68</v>
+      </c>
+      <c r="AO169">
+        <v>1.25</v>
+      </c>
+      <c r="AP169">
+        <v>1.38</v>
+      </c>
+      <c r="AQ169">
+        <v>1.11</v>
+      </c>
+      <c r="AR169">
+        <v>1.7</v>
+      </c>
+      <c r="AS169">
+        <v>1.3</v>
+      </c>
+      <c r="AT169">
+        <v>1.55</v>
+      </c>
+      <c r="AU169">
+        <v>1.18</v>
+      </c>
+      <c r="AV169">
+        <v>1.14</v>
+      </c>
+      <c r="AW169">
+        <v>2.32</v>
+      </c>
+      <c r="AX169">
+        <v>2.27</v>
+      </c>
+      <c r="AY169">
+        <v>8.9</v>
+      </c>
+      <c r="AZ169">
+        <v>1.85</v>
+      </c>
+      <c r="BA169">
+        <v>1.29</v>
+      </c>
+      <c r="BB169">
+        <v>1.49</v>
+      </c>
+      <c r="BC169">
+        <v>2</v>
+      </c>
+      <c r="BD169">
+        <v>2.27</v>
+      </c>
+      <c r="BE169">
+        <v>3.5</v>
+      </c>
+      <c r="BF169">
+        <v>4</v>
+      </c>
+      <c r="BG169">
+        <v>6</v>
+      </c>
+      <c r="BH169">
+        <v>4</v>
+      </c>
+      <c r="BI169">
+        <v>4</v>
+      </c>
+      <c r="BJ169">
+        <v>8</v>
+      </c>
+      <c r="BK169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>4869796</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>69</v>
+      </c>
+      <c r="H170" t="s">
+        <v>70</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>85</v>
+      </c>
+      <c r="P170" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q170">
+        <v>6</v>
+      </c>
+      <c r="R170">
+        <v>8</v>
+      </c>
+      <c r="S170">
+        <v>14</v>
+      </c>
+      <c r="T170">
+        <v>2.05</v>
+      </c>
+      <c r="U170">
+        <v>2.55</v>
+      </c>
+      <c r="V170">
+        <v>5</v>
+      </c>
+      <c r="W170">
+        <v>1.22</v>
+      </c>
+      <c r="X170">
+        <v>3.9</v>
+      </c>
+      <c r="Y170">
+        <v>2.17</v>
+      </c>
+      <c r="Z170">
+        <v>1.63</v>
+      </c>
+      <c r="AA170">
+        <v>4.7</v>
+      </c>
+      <c r="AB170">
+        <v>1.16</v>
+      </c>
+      <c r="AC170">
+        <v>1.6</v>
+      </c>
+      <c r="AD170">
+        <v>3.95</v>
+      </c>
+      <c r="AE170">
+        <v>4.2</v>
+      </c>
+      <c r="AF170">
+        <v>1.02</v>
+      </c>
+      <c r="AG170">
+        <v>12</v>
+      </c>
+      <c r="AH170">
+        <v>1.14</v>
+      </c>
+      <c r="AI170">
+        <v>5.5</v>
+      </c>
+      <c r="AJ170">
+        <v>1.46</v>
+      </c>
+      <c r="AK170">
+        <v>2.52</v>
+      </c>
+      <c r="AL170">
+        <v>1.57</v>
+      </c>
+      <c r="AM170">
+        <v>2.4</v>
+      </c>
+      <c r="AN170">
+        <v>1.16</v>
+      </c>
+      <c r="AO170">
+        <v>1.16</v>
+      </c>
+      <c r="AP170">
+        <v>2.45</v>
+      </c>
+      <c r="AQ170">
+        <v>2.09</v>
+      </c>
+      <c r="AR170">
+        <v>1.2</v>
+      </c>
+      <c r="AS170">
+        <v>2</v>
+      </c>
+      <c r="AT170">
+        <v>1.18</v>
+      </c>
+      <c r="AU170">
+        <v>1.73</v>
+      </c>
+      <c r="AV170">
+        <v>1.36</v>
+      </c>
+      <c r="AW170">
+        <v>3.09</v>
+      </c>
+      <c r="AX170">
+        <v>1.39</v>
+      </c>
+      <c r="AY170">
+        <v>10.75</v>
+      </c>
+      <c r="AZ170">
+        <v>3.56</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>1.24</v>
+      </c>
+      <c r="BC170">
+        <v>1.51</v>
+      </c>
+      <c r="BD170">
+        <v>1.95</v>
+      </c>
+      <c r="BE170">
+        <v>2.11</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>7</v>
+      </c>
+      <c r="BH170">
+        <v>3</v>
+      </c>
+      <c r="BI170">
+        <v>3</v>
+      </c>
+      <c r="BJ170">
+        <v>3</v>
+      </c>
+      <c r="BK170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>4869799</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45171.41666666666</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" t="s">
+        <v>74</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>2</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>211</v>
+      </c>
+      <c r="P171" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q171">
+        <v>11</v>
+      </c>
+      <c r="R171">
+        <v>6</v>
+      </c>
+      <c r="S171">
+        <v>17</v>
+      </c>
+      <c r="T171">
+        <v>1.95</v>
+      </c>
+      <c r="U171">
+        <v>2.68</v>
+      </c>
+      <c r="V171">
+        <v>5.01</v>
+      </c>
+      <c r="W171">
+        <v>1.21</v>
+      </c>
+      <c r="X171">
+        <v>4.15</v>
+      </c>
+      <c r="Y171">
+        <v>1.99</v>
+      </c>
+      <c r="Z171">
+        <v>1.77</v>
+      </c>
+      <c r="AA171">
+        <v>4.05</v>
+      </c>
+      <c r="AB171">
+        <v>1.22</v>
+      </c>
+      <c r="AC171">
+        <v>1.88</v>
+      </c>
+      <c r="AD171">
+        <v>3.6</v>
+      </c>
+      <c r="AE171">
+        <v>3.25</v>
+      </c>
+      <c r="AF171">
+        <v>1.02</v>
+      </c>
+      <c r="AG171">
+        <v>15</v>
+      </c>
+      <c r="AH171">
+        <v>1.12</v>
+      </c>
+      <c r="AI171">
+        <v>6</v>
+      </c>
+      <c r="AJ171">
+        <v>1.36</v>
+      </c>
+      <c r="AK171">
+        <v>2.89</v>
+      </c>
+      <c r="AL171">
+        <v>1.5</v>
+      </c>
+      <c r="AM171">
+        <v>2.55</v>
+      </c>
+      <c r="AN171">
+        <v>1.15</v>
+      </c>
+      <c r="AO171">
+        <v>1.18</v>
+      </c>
+      <c r="AP171">
+        <v>2.57</v>
+      </c>
+      <c r="AQ171">
+        <v>2.22</v>
+      </c>
+      <c r="AR171">
+        <v>1.27</v>
+      </c>
+      <c r="AS171">
+        <v>2</v>
+      </c>
+      <c r="AT171">
+        <v>1.42</v>
+      </c>
+      <c r="AU171">
+        <v>1.37</v>
+      </c>
+      <c r="AV171">
+        <v>1.15</v>
+      </c>
+      <c r="AW171">
+        <v>2.52</v>
+      </c>
+      <c r="AX171">
+        <v>1.3</v>
+      </c>
+      <c r="AY171">
+        <v>11.25</v>
+      </c>
+      <c r="AZ171">
+        <v>4.25</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>1.27</v>
+      </c>
+      <c r="BC171">
+        <v>1.48</v>
+      </c>
+      <c r="BD171">
+        <v>1.83</v>
+      </c>
+      <c r="BE171">
+        <v>2.15</v>
+      </c>
+      <c r="BF171">
+        <v>8</v>
+      </c>
+      <c r="BG171">
+        <v>3</v>
+      </c>
+      <c r="BH171">
+        <v>8</v>
+      </c>
+      <c r="BI171">
+        <v>3</v>
+      </c>
+      <c r="BJ171">
+        <v>16</v>
+      </c>
+      <c r="BK171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>4869793</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>65</v>
+      </c>
+      <c r="H172" t="s">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>3</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>212</v>
+      </c>
+      <c r="P172" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q172">
+        <v>3</v>
+      </c>
+      <c r="R172">
+        <v>6</v>
+      </c>
+      <c r="S172">
+        <v>9</v>
+      </c>
+      <c r="T172">
+        <v>2.55</v>
+      </c>
+      <c r="U172">
+        <v>2.25</v>
+      </c>
+      <c r="V172">
+        <v>3.6</v>
+      </c>
+      <c r="W172">
+        <v>1.3</v>
+      </c>
+      <c r="X172">
+        <v>3.4</v>
+      </c>
+      <c r="Y172">
+        <v>2.5</v>
+      </c>
+      <c r="Z172">
+        <v>1.5</v>
+      </c>
+      <c r="AA172">
+        <v>6</v>
+      </c>
+      <c r="AB172">
+        <v>1.13</v>
+      </c>
+      <c r="AC172">
+        <v>2.23</v>
+      </c>
+      <c r="AD172">
+        <v>3.35</v>
+      </c>
+      <c r="AE172">
+        <v>2.69</v>
+      </c>
+      <c r="AF172">
+        <v>1.03</v>
+      </c>
+      <c r="AG172">
+        <v>16.75</v>
+      </c>
+      <c r="AH172">
+        <v>1.2</v>
+      </c>
+      <c r="AI172">
+        <v>4.57</v>
+      </c>
+      <c r="AJ172">
+        <v>1.62</v>
+      </c>
+      <c r="AK172">
+        <v>2.2</v>
+      </c>
+      <c r="AL172">
+        <v>1.58</v>
+      </c>
+      <c r="AM172">
+        <v>2.35</v>
+      </c>
+      <c r="AN172">
+        <v>1.35</v>
+      </c>
+      <c r="AO172">
+        <v>1.28</v>
+      </c>
+      <c r="AP172">
+        <v>1.72</v>
+      </c>
+      <c r="AQ172">
+        <v>1.91</v>
+      </c>
+      <c r="AR172">
+        <v>1.56</v>
+      </c>
+      <c r="AS172">
+        <v>2</v>
+      </c>
+      <c r="AT172">
+        <v>1.4</v>
+      </c>
+      <c r="AU172">
+        <v>1.36</v>
+      </c>
+      <c r="AV172">
+        <v>1.33</v>
+      </c>
+      <c r="AW172">
+        <v>2.69</v>
+      </c>
+      <c r="AX172">
+        <v>1.57</v>
+      </c>
+      <c r="AY172">
+        <v>10.25</v>
+      </c>
+      <c r="AZ172">
+        <v>2.79</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>1.27</v>
+      </c>
+      <c r="BC172">
+        <v>1.48</v>
+      </c>
+      <c r="BD172">
+        <v>1.83</v>
+      </c>
+      <c r="BE172">
+        <v>2.12</v>
+      </c>
+      <c r="BF172">
+        <v>12</v>
+      </c>
+      <c r="BG172">
+        <v>3</v>
+      </c>
+      <c r="BH172">
+        <v>4</v>
+      </c>
+      <c r="BI172">
+        <v>4</v>
+      </c>
+      <c r="BJ172">
+        <v>16</v>
+      </c>
+      <c r="BK172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>4869795</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>68</v>
+      </c>
+      <c r="H173" t="s">
+        <v>67</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>6</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>8</v>
+      </c>
+      <c r="O173" t="s">
+        <v>213</v>
+      </c>
+      <c r="P173" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q173">
+        <v>9</v>
+      </c>
+      <c r="R173">
+        <v>5</v>
+      </c>
+      <c r="S173">
+        <v>14</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>2.45</v>
+      </c>
+      <c r="V173">
+        <v>5</v>
+      </c>
+      <c r="W173">
+        <v>1.25</v>
+      </c>
+      <c r="X173">
+        <v>3.75</v>
+      </c>
+      <c r="Y173">
+        <v>2.2</v>
+      </c>
+      <c r="Z173">
+        <v>1.62</v>
+      </c>
+      <c r="AA173">
+        <v>5</v>
+      </c>
+      <c r="AB173">
+        <v>1.17</v>
+      </c>
+      <c r="AC173">
+        <v>1.61</v>
+      </c>
+      <c r="AD173">
+        <v>3.95</v>
+      </c>
+      <c r="AE173">
+        <v>4</v>
+      </c>
+      <c r="AF173">
+        <v>1.02</v>
+      </c>
+      <c r="AG173">
+        <v>21</v>
+      </c>
+      <c r="AH173">
+        <v>1.16</v>
+      </c>
+      <c r="AI173">
+        <v>5.2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.47</v>
+      </c>
+      <c r="AK173">
+        <v>2.37</v>
+      </c>
+      <c r="AL173">
+        <v>1.62</v>
+      </c>
+      <c r="AM173">
+        <v>2.25</v>
+      </c>
+      <c r="AN173">
+        <v>1.18</v>
+      </c>
+      <c r="AO173">
+        <v>1.22</v>
+      </c>
+      <c r="AP173">
+        <v>2.4</v>
+      </c>
+      <c r="AQ173">
+        <v>2</v>
+      </c>
+      <c r="AR173">
+        <v>1.1</v>
+      </c>
+      <c r="AS173">
+        <v>2.09</v>
+      </c>
+      <c r="AT173">
+        <v>1</v>
+      </c>
+      <c r="AU173">
+        <v>1.45</v>
+      </c>
+      <c r="AV173">
+        <v>1.39</v>
+      </c>
+      <c r="AW173">
+        <v>2.84</v>
+      </c>
+      <c r="AX173">
+        <v>1.43</v>
+      </c>
+      <c r="AY173">
+        <v>10.5</v>
+      </c>
+      <c r="AZ173">
+        <v>3.35</v>
+      </c>
+      <c r="BA173">
+        <v>1.15</v>
+      </c>
+      <c r="BB173">
+        <v>1.27</v>
+      </c>
+      <c r="BC173">
+        <v>1.56</v>
+      </c>
+      <c r="BD173">
+        <v>1.83</v>
+      </c>
+      <c r="BE173">
+        <v>2.35</v>
+      </c>
+      <c r="BF173">
+        <v>8</v>
+      </c>
+      <c r="BG173">
+        <v>5</v>
+      </c>
+      <c r="BH173">
+        <v>8</v>
+      </c>
+      <c r="BI173">
+        <v>3</v>
+      </c>
+      <c r="BJ173">
+        <v>16</v>
+      </c>
+      <c r="BK173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>4869797</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>80</v>
+      </c>
+      <c r="H174" t="s">
+        <v>71</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>214</v>
+      </c>
+      <c r="P174" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q174">
+        <v>10</v>
+      </c>
+      <c r="R174">
+        <v>5</v>
+      </c>
+      <c r="S174">
+        <v>15</v>
+      </c>
+      <c r="T174">
+        <v>2.65</v>
+      </c>
+      <c r="U174">
+        <v>2.3</v>
+      </c>
+      <c r="V174">
+        <v>3.75</v>
+      </c>
+      <c r="W174">
+        <v>1.31</v>
+      </c>
+      <c r="X174">
+        <v>3.2</v>
+      </c>
+      <c r="Y174">
+        <v>2.55</v>
+      </c>
+      <c r="Z174">
+        <v>1.46</v>
+      </c>
+      <c r="AA174">
+        <v>5.95</v>
+      </c>
+      <c r="AB174">
+        <v>1.1</v>
+      </c>
+      <c r="AC174">
+        <v>2.15</v>
+      </c>
+      <c r="AD174">
+        <v>3.35</v>
+      </c>
+      <c r="AE174">
+        <v>2.8</v>
+      </c>
+      <c r="AF174">
+        <v>1.02</v>
+      </c>
+      <c r="AG174">
+        <v>10</v>
+      </c>
+      <c r="AH174">
+        <v>1.22</v>
+      </c>
+      <c r="AI174">
+        <v>3.8</v>
+      </c>
+      <c r="AJ174">
+        <v>1.82</v>
+      </c>
+      <c r="AK174">
+        <v>2.04</v>
+      </c>
+      <c r="AL174">
+        <v>1.63</v>
+      </c>
+      <c r="AM174">
+        <v>2.2</v>
+      </c>
+      <c r="AN174">
+        <v>1.22</v>
+      </c>
+      <c r="AO174">
+        <v>1.28</v>
+      </c>
+      <c r="AP174">
+        <v>1.77</v>
+      </c>
+      <c r="AQ174">
+        <v>1.8</v>
+      </c>
+      <c r="AR174">
+        <v>0.7</v>
+      </c>
+      <c r="AS174">
+        <v>1.73</v>
+      </c>
+      <c r="AT174">
+        <v>0.73</v>
+      </c>
+      <c r="AU174">
+        <v>1.45</v>
+      </c>
+      <c r="AV174">
+        <v>1.44</v>
+      </c>
+      <c r="AW174">
+        <v>2.89</v>
+      </c>
+      <c r="AX174">
+        <v>1.84</v>
+      </c>
+      <c r="AY174">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ174">
+        <v>2.23</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>1.2</v>
+      </c>
+      <c r="BC174">
+        <v>1.36</v>
+      </c>
+      <c r="BD174">
+        <v>1.63</v>
+      </c>
+      <c r="BE174">
+        <v>1.95</v>
+      </c>
+      <c r="BF174">
+        <v>6</v>
+      </c>
+      <c r="BG174">
+        <v>8</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>8</v>
+      </c>
+      <c r="BJ174">
+        <v>10</v>
+      </c>
+      <c r="BK174">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>4869800</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45172.41666666666</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>77</v>
+      </c>
+      <c r="H175" t="s">
+        <v>79</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>215</v>
+      </c>
+      <c r="P175" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q175">
+        <v>8</v>
+      </c>
+      <c r="R175">
+        <v>4</v>
+      </c>
+      <c r="S175">
+        <v>12</v>
+      </c>
+      <c r="T175">
+        <v>3.2</v>
+      </c>
+      <c r="U175">
+        <v>2.2</v>
+      </c>
+      <c r="V175">
+        <v>2.95</v>
+      </c>
+      <c r="W175">
+        <v>1.35</v>
+      </c>
+      <c r="X175">
+        <v>3.05</v>
+      </c>
+      <c r="Y175">
+        <v>2.5</v>
+      </c>
+      <c r="Z175">
+        <v>1.45</v>
+      </c>
+      <c r="AA175">
+        <v>6.25</v>
+      </c>
+      <c r="AB175">
+        <v>1.11</v>
+      </c>
+      <c r="AC175">
+        <v>2.44</v>
+      </c>
+      <c r="AD175">
+        <v>3.25</v>
+      </c>
+      <c r="AE175">
+        <v>2.49</v>
+      </c>
+      <c r="AF175">
+        <v>1.04</v>
+      </c>
+      <c r="AG175">
+        <v>14.25</v>
+      </c>
+      <c r="AH175">
+        <v>1.24</v>
+      </c>
+      <c r="AI175">
+        <v>4.13</v>
+      </c>
+      <c r="AJ175">
+        <v>1.67</v>
+      </c>
+      <c r="AK175">
+        <v>2.15</v>
+      </c>
+      <c r="AL175">
+        <v>1.62</v>
+      </c>
+      <c r="AM175">
+        <v>2.25</v>
+      </c>
+      <c r="AN175">
+        <v>1.55</v>
+      </c>
+      <c r="AO175">
+        <v>1.3</v>
+      </c>
+      <c r="AP175">
+        <v>1.45</v>
+      </c>
+      <c r="AQ175">
+        <v>2.5</v>
+      </c>
+      <c r="AR175">
+        <v>1.9</v>
+      </c>
+      <c r="AS175">
+        <v>2.36</v>
+      </c>
+      <c r="AT175">
+        <v>1.82</v>
+      </c>
+      <c r="AU175">
+        <v>1.69</v>
+      </c>
+      <c r="AV175">
+        <v>1.31</v>
+      </c>
+      <c r="AW175">
+        <v>3</v>
+      </c>
+      <c r="AX175">
+        <v>2.08</v>
+      </c>
+      <c r="AY175">
+        <v>9.1</v>
+      </c>
+      <c r="AZ175">
+        <v>1.99</v>
+      </c>
+      <c r="BA175">
+        <v>1.22</v>
+      </c>
+      <c r="BB175">
+        <v>1.42</v>
+      </c>
+      <c r="BC175">
+        <v>1.67</v>
+      </c>
+      <c r="BD175">
+        <v>2.04</v>
+      </c>
+      <c r="BE175">
+        <v>3</v>
+      </c>
+      <c r="BF175">
+        <v>5</v>
+      </c>
+      <c r="BG175">
+        <v>5</v>
+      </c>
+      <c r="BH175">
+        <v>5</v>
+      </c>
+      <c r="BI175">
+        <v>2</v>
+      </c>
+      <c r="BJ175">
+        <v>10</v>
+      </c>
+      <c r="BK175">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT4" t="n">
         <v>1.42</v>
@@ -1512,7 +1512,7 @@
         <v>2.09</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT7" t="n">
         <v>0.83</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.25</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.45</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>0.45</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT15" t="n">
         <v>1.18</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0.73</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0.46</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>0.93</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT25" t="n">
         <v>1.82</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1.45</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.79</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU28" t="n">
         <v>0.73</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT29" t="n">
         <v>1.5</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU32" t="n">
         <v>1.84</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT33" t="n">
         <v>1.4</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT36" t="n">
         <v>1.18</v>
@@ -8008,7 +8008,7 @@
         <v>2.09</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.36</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU38" t="n">
         <v>1.05</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU42" t="n">
         <v>1.24</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9835,7 +9835,7 @@
         <v>2.36</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.42</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT47" t="n">
         <v>1.4</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.15</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -11253,7 +11253,7 @@
         <v>2.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
         <v>1.82</v>
@@ -11865,7 +11865,7 @@
         <v>0.45</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.61</v>
@@ -12065,10 +12065,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU57" t="n">
         <v>1.32</v>
@@ -12268,7 +12268,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT58" t="n">
         <v>0.83</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU60" t="n">
         <v>1.4</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT61" t="n">
         <v>1.08</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1.76</v>
@@ -13486,7 +13486,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>1.25</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1.45</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU70" t="n">
         <v>1.96</v>
@@ -15313,10 +15313,10 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.36</v>
@@ -15719,7 +15719,7 @@
         <v>0.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT75" t="n">
         <v>1.08</v>
@@ -15922,7 +15922,7 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT76" t="n">
         <v>1.4</v>
@@ -16128,7 +16128,7 @@
         <v>2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU78" t="n">
         <v>1.26</v>
@@ -16531,7 +16531,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT79" t="n">
         <v>0.83</v>
@@ -16937,10 +16937,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU81" t="n">
         <v>1.94</v>
@@ -17140,7 +17140,7 @@
         <v>1.2</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT82" t="n">
         <v>1.55</v>
@@ -18361,7 +18361,7 @@
         <v>0.45</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.36</v>
@@ -18764,7 +18764,7 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT90" t="n">
         <v>1.08</v>
@@ -19170,10 +19170,10 @@
         <v>1.17</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU92" t="n">
         <v>1.21</v>
@@ -19376,7 +19376,7 @@
         <v>1.25</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19779,10 +19779,10 @@
         <v>1.17</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.32</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT96" t="n">
         <v>1.42</v>
@@ -20594,7 +20594,7 @@
         <v>1.3</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU99" t="n">
         <v>1.1</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21406,7 +21406,7 @@
         <v>1.73</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.41</v>
@@ -21606,7 +21606,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT104" t="n">
         <v>1.55</v>
@@ -22012,7 +22012,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU107" t="n">
         <v>1.73</v>
@@ -22418,7 +22418,7 @@
         <v>0.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT108" t="n">
         <v>0.73</v>
@@ -22827,7 +22827,7 @@
         <v>0.45</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU110" t="n">
         <v>1.35</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.83</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT113" t="n">
         <v>1.42</v>
@@ -24651,10 +24651,10 @@
         <v>0.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.45</v>
@@ -24854,7 +24854,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT120" t="n">
         <v>1.55</v>
@@ -25057,10 +25057,10 @@
         <v>0.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.74</v>
@@ -25463,7 +25463,7 @@
         <v>0.86</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT123" t="n">
         <v>0.73</v>
@@ -25669,7 +25669,7 @@
         <v>2</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.76</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU125" t="n">
         <v>1.17</v>
@@ -26478,7 +26478,7 @@
         <v>0.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT128" t="n">
         <v>1.08</v>
@@ -26684,7 +26684,7 @@
         <v>1.25</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU129" t="n">
         <v>1.63</v>
@@ -26884,7 +26884,7 @@
         <v>1.71</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT130" t="n">
         <v>1.18</v>
@@ -27090,7 +27090,7 @@
         <v>2.36</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.77</v>
@@ -27696,10 +27696,10 @@
         <v>0.57</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU134" t="n">
         <v>1.41</v>
@@ -27899,7 +27899,7 @@
         <v>1.38</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT135" t="n">
         <v>1.5</v>
@@ -28105,7 +28105,7 @@
         <v>2.36</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU136" t="n">
         <v>1.76</v>
@@ -28308,7 +28308,7 @@
         <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU137" t="n">
         <v>1.43</v>
@@ -28711,7 +28711,7 @@
         <v>0.78</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT139" t="n">
         <v>0.83</v>
@@ -29117,7 +29117,7 @@
         <v>0.89</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT141" t="n">
         <v>1.42</v>
@@ -29726,7 +29726,7 @@
         <v>1.14</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT144" t="n">
         <v>1.4</v>
@@ -30135,7 +30135,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU146" t="n">
         <v>1.13</v>
@@ -30541,7 +30541,7 @@
         <v>1.73</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.49</v>
@@ -30741,7 +30741,7 @@
         <v>1.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT149" t="n">
         <v>1.18</v>
@@ -30944,10 +30944,10 @@
         <v>0.5</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -31147,7 +31147,7 @@
         <v>0.86</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -31556,7 +31556,7 @@
         <v>2.09</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU153" t="n">
         <v>1.45</v>
@@ -31756,7 +31756,7 @@
         <v>1.78</v>
       </c>
       <c r="AS154" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT154" t="n">
         <v>1.82</v>
@@ -32162,7 +32162,7 @@
         <v>1.11</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT156" t="n">
         <v>1</v>
@@ -32368,7 +32368,7 @@
         <v>1.73</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU157" t="n">
         <v>1.48</v>
@@ -32977,7 +32977,7 @@
         <v>1.45</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33177,7 +33177,7 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT161" t="n">
         <v>1.08</v>
@@ -33383,7 +33383,7 @@
         <v>2</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU162" t="n">
         <v>1.35</v>
@@ -33786,7 +33786,7 @@
         <v>1.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT164" t="n">
         <v>1.5</v>
@@ -33989,10 +33989,10 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU165" t="n">
         <v>1.56</v>
@@ -34192,10 +34192,10 @@
         <v>0.44</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU166" t="n">
         <v>1.4</v>
@@ -34395,7 +34395,7 @@
         <v>0.75</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT167" t="n">
         <v>1</v>
@@ -36261,22 +36261,22 @@
         <v>1.8</v>
       </c>
       <c r="BF176" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG176" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH176" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BI176" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ176" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BK176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
@@ -36480,6 +36480,1224 @@
       </c>
       <c r="BK177" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4869802</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45185.63541666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Jerv</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>6</v>
+      </c>
+      <c r="R178" t="n">
+        <v>5</v>
+      </c>
+      <c r="S178" t="n">
+        <v>11</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4869808</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Åsane</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Hødd</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>4</v>
+      </c>
+      <c r="R179" t="n">
+        <v>6</v>
+      </c>
+      <c r="S179" t="n">
+        <v>10</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V179" t="n">
+        <v>4</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4869805</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Moss</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Skeid</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['29', '67', '82']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>7</v>
+      </c>
+      <c r="R180" t="n">
+        <v>1</v>
+      </c>
+      <c r="S180" t="n">
+        <v>8</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V180" t="n">
+        <v>5</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4869803</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>7</v>
+      </c>
+      <c r="R181" t="n">
+        <v>9</v>
+      </c>
+      <c r="S181" t="n">
+        <v>16</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4869801</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Sogndal</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['30', '61']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>8</v>
+      </c>
+      <c r="R182" t="n">
+        <v>7</v>
+      </c>
+      <c r="S182" t="n">
+        <v>15</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V182" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4869804</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['40', '71']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>9</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1</v>
+      </c>
+      <c r="S183" t="n">
+        <v>10</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT3" t="n">
         <v>1.08</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.08</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT10" t="n">
         <v>1.4</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT11" t="n">
         <v>0.64</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT13" t="n">
         <v>0.83</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU18" t="n">
         <v>0.89</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0.75</v>
@@ -5572,7 +5572,7 @@
         <v>1.08</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU25" t="n">
         <v>1.23</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT28" t="n">
         <v>0.64</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU34" t="n">
         <v>1.28</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT35" t="n">
         <v>1.42</v>
@@ -8414,7 +8414,7 @@
         <v>1.73</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU39" t="n">
         <v>1.6</v>
@@ -8617,7 +8617,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.56</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT41" t="n">
         <v>0.73</v>
@@ -9426,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU44" t="n">
         <v>1.68</v>
@@ -9629,7 +9629,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT45" t="n">
         <v>1.08</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT52" t="n">
         <v>0.73</v>
@@ -11256,7 +11256,7 @@
         <v>1.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU53" t="n">
         <v>1.12</v>
@@ -11459,7 +11459,7 @@
         <v>2.09</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.4</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>1.83</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU58" t="n">
         <v>1.87</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT60" t="n">
         <v>0.83</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU67" t="n">
         <v>1.12</v>
@@ -14704,7 +14704,7 @@
         <v>1.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT70" t="n">
         <v>1.17</v>
@@ -14910,7 +14910,7 @@
         <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.55</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT72" t="n">
         <v>1.18</v>
@@ -16534,7 +16534,7 @@
         <v>2.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU79" t="n">
         <v>1.28</v>
@@ -17143,7 +17143,7 @@
         <v>1.45</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT83" t="n">
         <v>1.18</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT85" t="n">
         <v>0.73</v>
@@ -17955,7 +17955,7 @@
         <v>1.73</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU86" t="n">
         <v>1.49</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT88" t="n">
         <v>0.64</v>
@@ -18561,7 +18561,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU94" t="n">
         <v>1.6</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT97" t="n">
         <v>1.5</v>
@@ -20591,7 +20591,7 @@
         <v>0.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT99" t="n">
         <v>0.64</v>
@@ -20794,7 +20794,7 @@
         <v>1.8</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT100" t="n">
         <v>1.18</v>
@@ -20997,10 +20997,10 @@
         <v>1.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU101" t="n">
         <v>1.3</v>
@@ -21609,7 +21609,7 @@
         <v>1.83</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU104" t="n">
         <v>1.82</v>
@@ -22624,7 +22624,7 @@
         <v>1.25</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU109" t="n">
         <v>1.62</v>
@@ -22824,7 +22824,7 @@
         <v>1.14</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT110" t="n">
         <v>1.17</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT114" t="n">
         <v>1.4</v>
@@ -24042,7 +24042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>1.14</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT117" t="n">
         <v>1.5</v>
@@ -24857,7 +24857,7 @@
         <v>2.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU120" t="n">
         <v>1.44</v>
@@ -25260,10 +25260,10 @@
         <v>1.86</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU122" t="n">
         <v>1.35</v>
@@ -26278,7 +26278,7 @@
         <v>2.09</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -27290,10 +27290,10 @@
         <v>1.63</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -28511,7 +28511,7 @@
         <v>2.09</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU138" t="n">
         <v>1.46</v>
@@ -28714,7 +28714,7 @@
         <v>1.92</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU139" t="n">
         <v>1.7</v>
@@ -29523,7 +29523,7 @@
         <v>0.78</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT143" t="n">
         <v>1.08</v>
@@ -29929,10 +29929,10 @@
         <v>1.78</v>
       </c>
       <c r="AS145" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU145" t="n">
         <v>1.31</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT146" t="n">
         <v>0.5</v>
@@ -30335,7 +30335,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT147" t="n">
         <v>1.5</v>
@@ -31759,7 +31759,7 @@
         <v>1.92</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU154" t="n">
         <v>1.67</v>
@@ -32568,7 +32568,7 @@
         <v>1.1</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT158" t="n">
         <v>1.42</v>
@@ -32774,7 +32774,7 @@
         <v>2.36</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU159" t="n">
         <v>1.76</v>
@@ -32974,7 +32974,7 @@
         <v>0.8</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT160" t="n">
         <v>1</v>
@@ -33380,7 +33380,7 @@
         <v>0.6</v>
       </c>
       <c r="AS162" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT162" t="n">
         <v>0.5</v>
@@ -34598,10 +34598,10 @@
         <v>0.64</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU168" t="n">
         <v>1.17</v>
@@ -34801,10 +34801,10 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU169" t="n">
         <v>1.18</v>
@@ -35207,7 +35207,7 @@
         <v>1.27</v>
       </c>
       <c r="AS171" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT171" t="n">
         <v>1.42</v>
@@ -36022,7 +36022,7 @@
         <v>2.36</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU175" t="n">
         <v>1.69</v>
@@ -36222,7 +36222,7 @@
         <v>0.91</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT176" t="n">
         <v>1.08</v>
@@ -37698,6 +37698,818 @@
       </c>
       <c r="BK183" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4869810</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>24</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Hødd</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Jerv</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>4</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['42', '60']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['29', '51']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>7</v>
+      </c>
+      <c r="R184" t="n">
+        <v>5</v>
+      </c>
+      <c r="S184" t="n">
+        <v>12</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4869812</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Ranheim</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>3</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['61', '71']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>4</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1</v>
+      </c>
+      <c r="S185" t="n">
+        <v>5</v>
+      </c>
+      <c r="T185" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4869814</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Skeid</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>3</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['29', '53']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>9</v>
+      </c>
+      <c r="R186" t="n">
+        <v>6</v>
+      </c>
+      <c r="S186" t="n">
+        <v>15</v>
+      </c>
+      <c r="T186" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4869815</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Sogndal</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Åsane</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>6</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>11</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V187" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X187" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT2" t="n">
         <v>1.67</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT5" t="n">
         <v>1.17</v>
@@ -2527,7 +2527,7 @@
         <v>1.91</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1.92</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT23" t="n">
         <v>1.42</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT30" t="n">
         <v>1.08</v>
@@ -7196,7 +7196,7 @@
         <v>2.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU33" t="n">
         <v>1.22</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT34" t="n">
         <v>1.92</v>
@@ -7805,7 +7805,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU36" t="n">
         <v>1.17</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>0.85</v>
@@ -8820,7 +8820,7 @@
         <v>0.42</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU41" t="n">
         <v>1.24</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT46" t="n">
         <v>0.83</v>
@@ -10038,7 +10038,7 @@
         <v>1.83</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU47" t="n">
         <v>1.71</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11053,7 +11053,7 @@
         <v>1.27</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU52" t="n">
         <v>0.9399999999999999</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT54" t="n">
         <v>1.67</v>
@@ -11659,7 +11659,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>1.42</v>
@@ -12471,10 +12471,10 @@
         <v>0.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU59" t="n">
         <v>1.56</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU69" t="n">
         <v>1.28</v>
@@ -14907,7 +14907,7 @@
         <v>0.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT71" t="n">
         <v>1.67</v>
@@ -15113,7 +15113,7 @@
         <v>0.42</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU72" t="n">
         <v>1.51</v>
@@ -15516,7 +15516,7 @@
         <v>1.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT74" t="n">
         <v>1.42</v>
@@ -15925,7 +15925,7 @@
         <v>1.08</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU76" t="n">
         <v>1.13</v>
@@ -16734,7 +16734,7 @@
         <v>0.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>1.27</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU83" t="n">
         <v>1.14</v>
@@ -17546,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -17752,7 +17752,7 @@
         <v>1.33</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU85" t="n">
         <v>2.04</v>
@@ -17952,7 +17952,7 @@
         <v>1.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
         <v>1.92</v>
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU91" t="n">
         <v>1.74</v>
@@ -19576,7 +19576,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT94" t="n">
         <v>0.85</v>
@@ -20388,7 +20388,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>1.33</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU100" t="n">
         <v>1.91</v>
@@ -21403,7 +21403,7 @@
         <v>0.83</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>0.5</v>
@@ -21809,10 +21809,10 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU105" t="n">
         <v>1.38</v>
@@ -22421,7 +22421,7 @@
         <v>1.08</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU108" t="n">
         <v>1.18</v>
@@ -23230,7 +23230,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT112" t="n">
         <v>1.08</v>
@@ -23639,7 +23639,7 @@
         <v>1.33</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU114" t="n">
         <v>1.85</v>
@@ -23839,10 +23839,10 @@
         <v>2</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU115" t="n">
         <v>1.68</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -25466,7 +25466,7 @@
         <v>1.25</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU123" t="n">
         <v>1.33</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT126" t="n">
         <v>1.42</v>
@@ -26275,7 +26275,7 @@
         <v>0.88</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT127" t="n">
         <v>0.85</v>
@@ -26887,7 +26887,7 @@
         <v>1.45</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU130" t="n">
         <v>1.49</v>
@@ -27087,7 +27087,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT131" t="n">
         <v>0.5</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -28102,7 +28102,7 @@
         <v>1.56</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT136" t="n">
         <v>1.17</v>
@@ -28305,7 +28305,7 @@
         <v>0.88</v>
       </c>
       <c r="AS137" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT137" t="n">
         <v>0.83</v>
@@ -28508,7 +28508,7 @@
         <v>2</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT138" t="n">
         <v>1.92</v>
@@ -29323,7 +29323,7 @@
         <v>1.25</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU142" t="n">
         <v>1.63</v>
@@ -29729,7 +29729,7 @@
         <v>1.25</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU144" t="n">
         <v>1.36</v>
@@ -30538,7 +30538,7 @@
         <v>0.89</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30744,7 +30744,7 @@
         <v>1.83</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU149" t="n">
         <v>1.62</v>
@@ -31350,10 +31350,10 @@
         <v>0.78</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU152" t="n">
         <v>1.37</v>
@@ -31553,7 +31553,7 @@
         <v>0.78</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT153" t="n">
         <v>0.83</v>
@@ -31962,7 +31962,7 @@
         <v>2</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU155" t="n">
         <v>1.74</v>
@@ -32365,7 +32365,7 @@
         <v>1.4</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT157" t="n">
         <v>1.17</v>
@@ -32771,7 +32771,7 @@
         <v>0.7</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT159" t="n">
         <v>0.85</v>
@@ -33586,7 +33586,7 @@
         <v>1.25</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU163" t="n">
         <v>1.64</v>
@@ -35007,7 +35007,7 @@
         <v>2</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU170" t="n">
         <v>1.73</v>
@@ -35410,10 +35410,10 @@
         <v>1.56</v>
       </c>
       <c r="AS172" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU172" t="n">
         <v>1.36</v>
@@ -35613,7 +35613,7 @@
         <v>1.1</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT173" t="n">
         <v>1</v>
@@ -35816,10 +35816,10 @@
         <v>0.7</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU174" t="n">
         <v>1.45</v>
@@ -36019,7 +36019,7 @@
         <v>1.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AT175" t="n">
         <v>1.92</v>
@@ -38371,13 +38371,13 @@
         </is>
       </c>
       <c r="Q187" t="n">
+        <v>7</v>
+      </c>
+      <c r="R187" t="n">
         <v>6</v>
       </c>
-      <c r="R187" t="n">
-        <v>5</v>
-      </c>
       <c r="S187" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T187" t="n">
         <v>2.01</v>
@@ -38510,6 +38510,818 @@
       </c>
       <c r="BK187" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4869809</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>2</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>5</v>
+      </c>
+      <c r="R188" t="n">
+        <v>4</v>
+      </c>
+      <c r="S188" t="n">
+        <v>9</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4869811</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>KFUM</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>9</v>
+      </c>
+      <c r="R189" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>12</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V189" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4869813</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Raufoss</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Sandnes Ulf</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>7</v>
+      </c>
+      <c r="R190" t="n">
+        <v>10</v>
+      </c>
+      <c r="S190" t="n">
+        <v>17</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V190" t="n">
+        <v>4</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4869816</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Moss</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>8</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2</v>
+      </c>
+      <c r="S191" t="n">
+        <v>10</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V191" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ191"/>
+  <dimension ref="A1:AZ192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.08</v>
@@ -2199,7 +2199,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.85</v>
@@ -6109,7 +6109,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR33" t="n">
         <v>1.22</v>
@@ -6446,7 +6446,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.42</v>
@@ -8489,7 +8489,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR47" t="n">
         <v>1.71</v>
@@ -9336,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.75</v>
@@ -10529,7 +10529,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR59" t="n">
         <v>1.56</v>
@@ -11886,7 +11886,7 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.92</v>
@@ -13419,7 +13419,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR76" t="n">
         <v>1.13</v>
@@ -14606,7 +14606,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.08</v>
@@ -17326,7 +17326,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.64</v>
@@ -18349,7 +18349,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -19879,7 +19879,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR114" t="n">
         <v>1.85</v>
@@ -20386,7 +20386,7 @@
         <v>1.14</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.5</v>
@@ -24979,7 +24979,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR144" t="n">
         <v>1.36</v>
@@ -25316,7 +25316,7 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.5</v>
@@ -26849,7 +26849,7 @@
         <v>2</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR155" t="n">
         <v>1.74</v>
@@ -29226,7 +29226,7 @@
         <v>1.7</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.67</v>
@@ -29739,7 +29739,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR172" t="n">
         <v>1.36</v>
@@ -31776,7 +31776,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ184" t="n">
         <v>1</v>
@@ -32799,7 +32799,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR190" t="n">
         <v>1.46</v>
@@ -32996,6 +32996,176 @@
         <v>7</v>
       </c>
       <c r="AZ191" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4869754</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45196.54166666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>17</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Hødd</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Sandnes Ulf</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S192" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U192" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ192" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ192"/>
+  <dimension ref="A1:AZ196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.42</v>
@@ -1349,7 +1349,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.92</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.85</v>
@@ -1859,7 +1859,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.67</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR20" t="n">
         <v>0.46</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.08</v>
@@ -4239,7 +4239,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR22" t="n">
         <v>0.93</v>
@@ -4579,7 +4579,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR24" t="n">
         <v>1.81</v>
@@ -4746,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.92</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5089,7 +5089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR27" t="n">
         <v>1.79</v>
@@ -5429,7 +5429,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.08</v>
@@ -6789,7 +6789,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR37" t="n">
         <v>1.36</v>
@@ -6956,10 +6956,10 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR38" t="n">
         <v>1.05</v>
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.67</v>
@@ -7636,7 +7636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.64</v>
@@ -7806,10 +7806,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR43" t="n">
         <v>1.03</v>
@@ -8659,7 +8659,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR48" t="n">
         <v>1.15</v>
@@ -8996,7 +8996,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -9506,7 +9506,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.92</v>
@@ -10019,7 +10019,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR56" t="n">
         <v>1.61</v>
@@ -10189,7 +10189,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR57" t="n">
         <v>1.32</v>
@@ -10866,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.08</v>
@@ -11039,7 +11039,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR62" t="n">
         <v>1.76</v>
@@ -11206,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.42</v>
@@ -11379,7 +11379,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -11716,7 +11716,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.64</v>
@@ -12056,7 +12056,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ68" t="n">
         <v>1</v>
@@ -12399,7 +12399,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR70" t="n">
         <v>1.96</v>
@@ -12909,7 +12909,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -13416,7 +13416,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.33</v>
@@ -13586,10 +13586,10 @@
         <v>0.8</v>
       </c>
       <c r="AP77" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR77" t="n">
         <v>1.56</v>
@@ -13756,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.83</v>
@@ -14099,7 +14099,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR80" t="n">
         <v>1.62</v>
@@ -14269,7 +14269,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR81" t="n">
         <v>1.94</v>
@@ -15286,7 +15286,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -15629,7 +15629,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR89" t="n">
         <v>1.36</v>
@@ -15796,7 +15796,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.08</v>
@@ -15966,7 +15966,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.75</v>
@@ -16136,10 +16136,10 @@
         <v>1.17</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR92" t="n">
         <v>1.21</v>
@@ -16306,7 +16306,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.83</v>
@@ -16649,7 +16649,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR95" t="n">
         <v>1.32</v>
@@ -16989,7 +16989,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR97" t="n">
         <v>1.43</v>
@@ -18009,7 +18009,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR103" t="n">
         <v>1.41</v>
@@ -18516,10 +18516,10 @@
         <v>1.33</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR106" t="n">
         <v>1.31</v>
@@ -18686,7 +18686,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.83</v>
@@ -18856,7 +18856,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.75</v>
@@ -19026,7 +19026,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.85</v>
@@ -19199,7 +19199,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR110" t="n">
         <v>1.35</v>
@@ -19369,7 +19369,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR111" t="n">
         <v>1.83</v>
@@ -20389,7 +20389,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR117" t="n">
         <v>1.12</v>
@@ -20729,7 +20729,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR119" t="n">
         <v>1.45</v>
@@ -21406,7 +21406,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.75</v>
@@ -21576,10 +21576,10 @@
         <v>0.88</v>
       </c>
       <c r="AP124" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR124" t="n">
         <v>1.76</v>
@@ -21746,7 +21746,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.83</v>
@@ -22426,10 +22426,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR129" t="n">
         <v>1.63</v>
@@ -22769,7 +22769,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR131" t="n">
         <v>1.77</v>
@@ -23449,7 +23449,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR135" t="n">
         <v>1.69</v>
@@ -23619,7 +23619,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR136" t="n">
         <v>1.76</v>
@@ -24296,7 +24296,7 @@
         <v>1.25</v>
       </c>
       <c r="AP140" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -24466,7 +24466,7 @@
         <v>0.89</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.42</v>
@@ -24636,7 +24636,7 @@
         <v>0.88</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.75</v>
@@ -24976,7 +24976,7 @@
         <v>1.14</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.33</v>
@@ -25319,7 +25319,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR146" t="n">
         <v>1.13</v>
@@ -25489,7 +25489,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR147" t="n">
         <v>1.66</v>
@@ -25659,7 +25659,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR148" t="n">
         <v>1.49</v>
@@ -26846,7 +26846,7 @@
         <v>1.38</v>
       </c>
       <c r="AP155" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.33</v>
@@ -27016,7 +27016,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ156" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR157" t="n">
         <v>1.48</v>
@@ -27699,7 +27699,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR160" t="n">
         <v>1.64</v>
@@ -28039,7 +28039,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR162" t="n">
         <v>1.35</v>
@@ -28206,7 +28206,7 @@
         <v>1.33</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.08</v>
@@ -28379,7 +28379,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR164" t="n">
         <v>1.63</v>
@@ -28716,7 +28716,7 @@
         <v>0.44</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.64</v>
@@ -29396,7 +29396,7 @@
         <v>1.2</v>
       </c>
       <c r="AP170" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.08</v>
@@ -30586,10 +30586,10 @@
         <v>1.36</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR177" t="n">
         <v>1.58</v>
@@ -30756,10 +30756,10 @@
         <v>0.82</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR178" t="n">
         <v>1.4</v>
@@ -31099,7 +31099,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR180" t="n">
         <v>1.58</v>
@@ -31439,7 +31439,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR182" t="n">
         <v>1.53</v>
@@ -31606,7 +31606,7 @@
         <v>0.7</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.64</v>
@@ -33167,6 +33167,686 @@
       </c>
       <c r="AZ192" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4869823</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>25</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Sandnes Ulf</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>3</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S193" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4869821</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Skeid</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['23', '47']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S194" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U194" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="V194" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X194" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4869820</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>KFUM</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['36', '84']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X195" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4869818</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Jerv</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Sogndal</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>3</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['24', '41', '83']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S196" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X196" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ196"/>
+  <dimension ref="A1:AZ200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1009,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.92</v>
@@ -2369,7 +2369,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.08</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.75</v>
@@ -4069,7 +4069,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>1.91</v>
@@ -4409,7 +4409,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR23" t="n">
         <v>1.5</v>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.31</v>
@@ -5259,7 +5259,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR28" t="n">
         <v>0.73</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.62</v>
@@ -5599,7 +5599,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.12</v>
@@ -5766,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -5936,10 +5936,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR32" t="n">
         <v>1.84</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.33</v>
@@ -6449,7 +6449,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR35" t="n">
         <v>1.01</v>
@@ -7639,7 +7639,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -8149,7 +8149,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.14</v>
@@ -8319,7 +8319,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR46" t="n">
         <v>1.42</v>
@@ -8486,7 +8486,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.33</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.46</v>
@@ -8826,7 +8826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -9849,7 +9849,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR55" t="n">
         <v>1.56</v>
@@ -10186,7 +10186,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.31</v>
@@ -10356,7 +10356,7 @@
         <v>0.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.85</v>
@@ -10699,7 +10699,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR60" t="n">
         <v>1.4</v>
@@ -10869,7 +10869,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR61" t="n">
         <v>1.04</v>
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.46</v>
@@ -11209,7 +11209,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR63" t="n">
         <v>1.41</v>
@@ -11376,7 +11376,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.62</v>
@@ -11719,7 +11719,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR66" t="n">
         <v>1.56</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.92</v>
@@ -13079,7 +13079,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -13246,10 +13246,10 @@
         <v>0.8</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR75" t="n">
         <v>1.84</v>
@@ -13759,7 +13759,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR78" t="n">
         <v>1.26</v>
@@ -13926,7 +13926,7 @@
         <v>0.6</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.85</v>
@@ -14266,7 +14266,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.31</v>
@@ -14436,7 +14436,7 @@
         <v>1.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.67</v>
@@ -15459,7 +15459,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR88" t="n">
         <v>1.54</v>
@@ -15799,7 +15799,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR90" t="n">
         <v>1.35</v>
@@ -16309,7 +16309,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR93" t="n">
         <v>1.68</v>
@@ -16646,7 +16646,7 @@
         <v>1.17</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.92</v>
@@ -16816,10 +16816,10 @@
         <v>1.33</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR96" t="n">
         <v>1.72</v>
@@ -17329,7 +17329,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR99" t="n">
         <v>1.1</v>
@@ -17836,7 +17836,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ102" t="n">
         <v>1</v>
@@ -18176,7 +18176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.67</v>
@@ -18689,7 +18689,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR107" t="n">
         <v>1.73</v>
@@ -19366,7 +19366,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.92</v>
@@ -19539,7 +19539,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR112" t="n">
         <v>1.53</v>
@@ -19706,10 +19706,10 @@
         <v>1.14</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR113" t="n">
         <v>1.36</v>
@@ -20726,7 +20726,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.46</v>
@@ -20896,7 +20896,7 @@
         <v>1.71</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.67</v>
@@ -21066,10 +21066,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR121" t="n">
         <v>1.74</v>
@@ -21749,7 +21749,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR125" t="n">
         <v>1.17</v>
@@ -21919,7 +21919,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR126" t="n">
         <v>1.47</v>
@@ -22256,10 +22256,10 @@
         <v>0.5</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR128" t="n">
         <v>1.82</v>
@@ -22596,7 +22596,7 @@
         <v>1.71</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.08</v>
@@ -23276,10 +23276,10 @@
         <v>0.57</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR134" t="n">
         <v>1.41</v>
@@ -23446,7 +23446,7 @@
         <v>1.38</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.62</v>
@@ -23789,7 +23789,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR137" t="n">
         <v>1.43</v>
@@ -24126,7 +24126,7 @@
         <v>0.78</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.85</v>
@@ -24469,7 +24469,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR141" t="n">
         <v>1.18</v>
@@ -24809,7 +24809,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR143" t="n">
         <v>1.27</v>
@@ -25826,7 +25826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.08</v>
@@ -25996,10 +25996,10 @@
         <v>0.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR150" t="n">
         <v>1.45</v>
@@ -26166,7 +26166,7 @@
         <v>0.86</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ151" t="n">
         <v>1</v>
@@ -26509,7 +26509,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR153" t="n">
         <v>1.45</v>
@@ -26676,7 +26676,7 @@
         <v>1.78</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.92</v>
@@ -27359,7 +27359,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR158" t="n">
         <v>1.22</v>
@@ -27866,10 +27866,10 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR161" t="n">
         <v>1.41</v>
@@ -28376,7 +28376,7 @@
         <v>1.4</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.62</v>
@@ -28546,10 +28546,10 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR165" t="n">
         <v>1.56</v>
@@ -28719,7 +28719,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR166" t="n">
         <v>1.4</v>
@@ -28886,7 +28886,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ167" t="n">
         <v>1</v>
@@ -29569,7 +29569,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR171" t="n">
         <v>1.37</v>
@@ -30419,7 +30419,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR176" t="n">
         <v>1.6</v>
@@ -30926,10 +30926,10 @@
         <v>0.91</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR179" t="n">
         <v>1.37</v>
@@ -31096,7 +31096,7 @@
         <v>0.55</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.46</v>
@@ -31266,7 +31266,7 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ181" t="n">
         <v>1</v>
@@ -31436,7 +31436,7 @@
         <v>1.27</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.31</v>
@@ -31609,7 +31609,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AR183" t="n">
         <v>1.33</v>
@@ -33847,6 +33847,686 @@
       </c>
       <c r="AZ196" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4869819</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>3</v>
+      </c>
+      <c r="N197" t="n">
+        <v>4</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['45', '89', '90+11']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X197" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4869817</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Raufoss</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>3</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['47', '51', '71']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S198" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U198" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X198" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4869822</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Moss</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Hødd</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>2</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>3</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['15', '16', '90+6']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S199" t="n">
+        <v>4</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U199" t="n">
+        <v>3</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X199" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4869824</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45200.41666666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Åsane</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Ranheim</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>2</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2</v>
+      </c>
+      <c r="L200" t="n">
+        <v>3</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>3</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['21', '32', '72']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U200" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X200" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.31</v>
@@ -1791,7 +1791,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.77</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.62</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.85</v>
@@ -4625,7 +4625,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR19" t="n">
         <v>0.75</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.31</v>
@@ -5933,7 +5933,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
         <v>1.23</v>
@@ -6151,7 +6151,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR26" t="n">
         <v>0.9</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.46</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR28" t="n">
         <v>0.73</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.62</v>
@@ -7020,7 +7020,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR31" t="n">
         <v>1.79</v>
@@ -7677,7 +7677,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR33" t="n">
         <v>1.22</v>
@@ -7895,7 +7895,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.28</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.31</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.92</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.85</v>
@@ -9203,7 +9203,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR40" t="n">
         <v>1.56</v>
@@ -9418,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR41" t="n">
         <v>1.24</v>
@@ -9639,7 +9639,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.85</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10508,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.77</v>
@@ -10729,7 +10729,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR47" t="n">
         <v>1.71</v>
@@ -11165,7 +11165,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR49" t="n">
         <v>1.77</v>
@@ -11383,7 +11383,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR50" t="n">
         <v>1.58</v>
@@ -11816,10 +11816,10 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52" t="n">
         <v>0.9399999999999999</v>
@@ -12037,7 +12037,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.12</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR54" t="n">
         <v>1.4</v>
@@ -12470,7 +12470,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.31</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.92</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.31</v>
@@ -13342,10 +13342,10 @@
         <v>0.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR59" t="n">
         <v>1.56</v>
@@ -13560,7 +13560,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.77</v>
@@ -14653,7 +14653,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR65" t="n">
         <v>1.64</v>
@@ -14871,7 +14871,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR66" t="n">
         <v>1.56</v>
@@ -15086,10 +15086,10 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR67" t="n">
         <v>1.12</v>
@@ -15307,7 +15307,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR68" t="n">
         <v>1.1</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR69" t="n">
         <v>1.28</v>
@@ -15740,7 +15740,7 @@
         <v>1.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.31</v>
@@ -15958,10 +15958,10 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR71" t="n">
         <v>1.55</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.08</v>
@@ -16394,7 +16394,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.92</v>
@@ -16612,7 +16612,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.31</v>
@@ -17051,7 +17051,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR76" t="n">
         <v>1.13</v>
@@ -18356,10 +18356,10 @@
         <v>1.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR82" t="n">
         <v>1.59</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.08</v>
@@ -18792,10 +18792,10 @@
         <v>1.25</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR84" t="n">
         <v>1.29</v>
@@ -19010,10 +19010,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR85" t="n">
         <v>2.04</v>
@@ -19228,10 +19228,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19449,7 +19449,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR87" t="n">
         <v>1.64</v>
@@ -19664,10 +19664,10 @@
         <v>0.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR88" t="n">
         <v>1.54</v>
@@ -19882,7 +19882,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.92</v>
@@ -20321,7 +20321,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR91" t="n">
         <v>1.74</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.62</v>
@@ -21844,10 +21844,10 @@
         <v>1.4</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22062,10 +22062,10 @@
         <v>0.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR99" t="n">
         <v>1.1</v>
@@ -22280,7 +22280,7 @@
         <v>1.8</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.08</v>
@@ -22498,10 +22498,10 @@
         <v>1.67</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR101" t="n">
         <v>1.3</v>
@@ -22716,10 +22716,10 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR102" t="n">
         <v>1.46</v>
@@ -22934,7 +22934,7 @@
         <v>0.83</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.46</v>
@@ -23155,7 +23155,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR104" t="n">
         <v>1.82</v>
@@ -23370,10 +23370,10 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -24027,7 +24027,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR108" t="n">
         <v>1.18</v>
@@ -24460,7 +24460,7 @@
         <v>1.14</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.31</v>
@@ -25332,10 +25332,10 @@
         <v>0.83</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR114" t="n">
         <v>1.85</v>
@@ -25550,7 +25550,7 @@
         <v>2</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.08</v>
@@ -25768,10 +25768,10 @@
         <v>1.17</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR116" t="n">
         <v>1.21</v>
@@ -25986,7 +25986,7 @@
         <v>1.14</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.62</v>
@@ -26204,10 +26204,10 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR118" t="n">
         <v>1.38</v>
@@ -26422,7 +26422,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.46</v>
@@ -26643,7 +26643,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR120" t="n">
         <v>1.44</v>
@@ -26861,7 +26861,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR121" t="n">
         <v>1.74</v>
@@ -27076,10 +27076,10 @@
         <v>1.86</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR122" t="n">
         <v>1.35</v>
@@ -27297,7 +27297,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR123" t="n">
         <v>1.33</v>
@@ -28166,7 +28166,7 @@
         <v>0.88</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.85</v>
@@ -28820,7 +28820,7 @@
         <v>1.71</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.08</v>
@@ -29038,7 +29038,7 @@
         <v>0.75</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.46</v>
@@ -29256,10 +29256,10 @@
         <v>1.63</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR132" t="n">
         <v>1.8</v>
@@ -29474,10 +29474,10 @@
         <v>1</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR133" t="n">
         <v>1.46</v>
@@ -29695,7 +29695,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR134" t="n">
         <v>1.41</v>
@@ -30128,7 +30128,7 @@
         <v>1.56</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.31</v>
@@ -30564,10 +30564,10 @@
         <v>2</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR138" t="n">
         <v>1.46</v>
@@ -31003,7 +31003,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR140" t="n">
         <v>1.73</v>
@@ -31439,7 +31439,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR142" t="n">
         <v>1.63</v>
@@ -31654,7 +31654,7 @@
         <v>0.78</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ143" t="n">
         <v>1</v>
@@ -31875,7 +31875,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR144" t="n">
         <v>1.36</v>
@@ -32090,10 +32090,10 @@
         <v>1.78</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR145" t="n">
         <v>1.31</v>
@@ -32308,7 +32308,7 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.46</v>
@@ -32526,7 +32526,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.62</v>
@@ -32744,7 +32744,7 @@
         <v>0.89</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.92</v>
@@ -33180,10 +33180,10 @@
         <v>0.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR150" t="n">
         <v>1.45</v>
@@ -33401,7 +33401,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -33619,7 +33619,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR152" t="n">
         <v>1.37</v>
@@ -33834,7 +33834,7 @@
         <v>0.78</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.77</v>
@@ -34055,7 +34055,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34273,7 +34273,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR155" t="n">
         <v>1.74</v>
@@ -34491,7 +34491,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR156" t="n">
         <v>1.18</v>
@@ -34706,7 +34706,7 @@
         <v>1.4</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.31</v>
@@ -34924,7 +34924,7 @@
         <v>1.1</v>
       </c>
       <c r="AP158" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.31</v>
@@ -35142,7 +35142,7 @@
         <v>0.7</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.85</v>
@@ -35360,7 +35360,7 @@
         <v>0.8</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.92</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ161" t="n">
         <v>1</v>
@@ -35796,7 +35796,7 @@
         <v>0.6</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.46</v>
@@ -36671,7 +36671,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR166" t="n">
         <v>1.4</v>
@@ -36889,7 +36889,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR167" t="n">
         <v>1.57</v>
@@ -37104,7 +37104,7 @@
         <v>0.64</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.85</v>
@@ -37322,10 +37322,10 @@
         <v>1.7</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR169" t="n">
         <v>1.18</v>
@@ -37758,7 +37758,7 @@
         <v>1.27</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.31</v>
@@ -37979,7 +37979,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR172" t="n">
         <v>1.36</v>
@@ -38194,10 +38194,10 @@
         <v>1.1</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR173" t="n">
         <v>1.45</v>
@@ -38412,10 +38412,10 @@
         <v>0.7</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR174" t="n">
         <v>1.45</v>
@@ -38630,10 +38630,10 @@
         <v>1.9</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR175" t="n">
         <v>1.69</v>
@@ -38848,7 +38848,7 @@
         <v>0.91</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ176" t="n">
         <v>1</v>
@@ -39502,7 +39502,7 @@
         <v>0.91</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.77</v>
@@ -39941,7 +39941,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR181" t="n">
         <v>1.57</v>
@@ -40377,7 +40377,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR183" t="n">
         <v>1.33</v>
@@ -40592,10 +40592,10 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR184" t="n">
         <v>1.17</v>
@@ -40810,10 +40810,10 @@
         <v>1.82</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR185" t="n">
         <v>1.69</v>
@@ -41028,10 +41028,10 @@
         <v>1.55</v>
       </c>
       <c r="AP186" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR186" t="n">
         <v>1.17</v>
@@ -41246,7 +41246,7 @@
         <v>0.83</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.85</v>
@@ -41467,7 +41467,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR188" t="n">
         <v>1.43</v>
@@ -41682,7 +41682,7 @@
         <v>1.18</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.08</v>
@@ -41900,10 +41900,10 @@
         <v>1.4</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR190" t="n">
         <v>1.46</v>
@@ -42118,10 +42118,10 @@
         <v>0.73</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR191" t="n">
         <v>1.68</v>
@@ -42336,10 +42336,10 @@
         <v>1.36</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR192" t="n">
         <v>1.21</v>
@@ -43429,7 +43429,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR197" t="n">
         <v>1.55</v>
@@ -44080,7 +44080,7 @@
         <v>1.42</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.31</v>
@@ -44298,10 +44298,10 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR201" t="n">
         <v>1.38</v>
@@ -44377,6 +44377,1750 @@
       </c>
       <c r="BP201" t="n">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4869828</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Raufoss</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S202" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U202" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X202" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4869829</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Skeid</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Sandnes Ulf</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['35', '38', '56']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U203" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V203" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X203" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4869830</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45206.41666666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Sogndal</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Moss</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['70', '90+4']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S204" t="n">
+        <v>5</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X204" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4869825</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Hødd</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S205" t="n">
+        <v>3</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X205" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4869832</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Åsane</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>4</v>
+      </c>
+      <c r="N206" t="n">
+        <v>4</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['13', '27', '83', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S206" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X206" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4869831</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['60', '63']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U207" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X207" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4869827</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Ranheim</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Jerv</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2</v>
+      </c>
+      <c r="K208" t="n">
+        <v>3</v>
+      </c>
+      <c r="L208" t="n">
+        <v>4</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>6</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['5', '77', '89', '90']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['6', '42']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S208" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U208" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X208" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4869826</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>KFUM</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S209" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X209" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -44549,13 +44549,13 @@
         <v>7</v>
       </c>
       <c r="BA202" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB202" t="n">
         <v>6</v>
       </c>
       <c r="BC202" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD202" t="n">
         <v>1.74</v>
@@ -45185,31 +45185,31 @@
         <v>2.76</v>
       </c>
       <c r="AU205" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV205" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW205" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX205" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY205" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ205" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA205" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB205" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC205" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD205" t="n">
         <v>1.95</v>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR18" t="n">
         <v>0.89</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR19" t="n">
         <v>0.75</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR20" t="n">
         <v>0.46</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR22" t="n">
         <v>0.93</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR23" t="n">
         <v>1.5</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR24" t="n">
         <v>1.81</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR25" t="n">
         <v>1.23</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.31</v>
@@ -6369,7 +6369,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR27" t="n">
         <v>1.79</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.92</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR34" t="n">
         <v>1.28</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR35" t="n">
         <v>1.01</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.08</v>
@@ -8546,10 +8546,10 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR37" t="n">
         <v>1.36</v>
@@ -8764,10 +8764,10 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR38" t="n">
         <v>1.05</v>
@@ -8985,7 +8985,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR39" t="n">
         <v>1.6</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR40" t="n">
         <v>1.56</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.77</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.62</v>
@@ -10075,7 +10075,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR44" t="n">
         <v>1.68</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.23</v>
@@ -10947,7 +10947,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR48" t="n">
         <v>1.15</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.31</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.08</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.6899999999999999</v>
@@ -12034,10 +12034,10 @@
         <v>2.33</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR53" t="n">
         <v>1.12</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR54" t="n">
         <v>1.4</v>
@@ -12473,7 +12473,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR55" t="n">
         <v>1.56</v>
@@ -12691,7 +12691,7 @@
         <v>0.62</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR56" t="n">
         <v>1.61</v>
@@ -12909,7 +12909,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR57" t="n">
         <v>1.32</v>
@@ -13124,10 +13124,10 @@
         <v>0.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR58" t="n">
         <v>1.87</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR62" t="n">
         <v>1.76</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR63" t="n">
         <v>1.41</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.92</v>
@@ -14868,7 +14868,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.77</v>
@@ -15086,10 +15086,10 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR67" t="n">
         <v>1.12</v>
@@ -15304,7 +15304,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.31</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.6899999999999999</v>
@@ -15743,7 +15743,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR70" t="n">
         <v>1.96</v>
@@ -15961,7 +15961,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR71" t="n">
         <v>1.55</v>
@@ -16397,7 +16397,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -16615,7 +16615,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -16830,7 +16830,7 @@
         <v>0.8</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17048,7 +17048,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.23</v>
@@ -17266,10 +17266,10 @@
         <v>0.8</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR77" t="n">
         <v>1.56</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.77</v>
@@ -17705,7 +17705,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR79" t="n">
         <v>1.28</v>
@@ -17920,7 +17920,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.62</v>
@@ -18141,7 +18141,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR81" t="n">
         <v>1.94</v>
@@ -18359,7 +18359,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR82" t="n">
         <v>1.59</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.08</v>
@@ -18792,7 +18792,7 @@
         <v>1.25</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.31</v>
@@ -19231,7 +19231,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ86" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.92</v>
@@ -19885,7 +19885,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR89" t="n">
         <v>1.36</v>
@@ -20100,7 +20100,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ90" t="n">
         <v>1</v>
@@ -20318,7 +20318,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.6899999999999999</v>
@@ -20536,10 +20536,10 @@
         <v>1.17</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR92" t="n">
         <v>1.21</v>
@@ -20754,7 +20754,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.77</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR94" t="n">
         <v>1.6</v>
@@ -21193,7 +21193,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR95" t="n">
         <v>1.32</v>
@@ -21411,7 +21411,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR96" t="n">
         <v>1.72</v>
@@ -22062,7 +22062,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.77</v>
@@ -22501,7 +22501,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ101" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR101" t="n">
         <v>1.3</v>
@@ -22937,7 +22937,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR103" t="n">
         <v>1.41</v>
@@ -23152,10 +23152,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR104" t="n">
         <v>1.82</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.23</v>
@@ -23588,7 +23588,7 @@
         <v>1.33</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.62</v>
@@ -23806,7 +23806,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.77</v>
@@ -24024,7 +24024,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.6899999999999999</v>
@@ -24242,10 +24242,10 @@
         <v>0.86</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR109" t="n">
         <v>1.62</v>
@@ -24463,7 +24463,7 @@
         <v>0.62</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR110" t="n">
         <v>1.35</v>
@@ -24681,7 +24681,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR111" t="n">
         <v>1.83</v>
@@ -24896,7 +24896,7 @@
         <v>0.57</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -25117,7 +25117,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR113" t="n">
         <v>1.36</v>
@@ -25986,7 +25986,7 @@
         <v>1.14</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.62</v>
@@ -26425,7 +26425,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR119" t="n">
         <v>1.45</v>
@@ -26643,7 +26643,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR120" t="n">
         <v>1.44</v>
@@ -26858,7 +26858,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.77</v>
@@ -27079,7 +27079,7 @@
         <v>0.62</v>
       </c>
       <c r="AQ122" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR122" t="n">
         <v>1.35</v>
@@ -27294,7 +27294,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.6899999999999999</v>
@@ -27512,10 +27512,10 @@
         <v>0.88</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR124" t="n">
         <v>1.76</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.77</v>
@@ -27948,10 +27948,10 @@
         <v>1</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR126" t="n">
         <v>1.47</v>
@@ -28166,10 +28166,10 @@
         <v>0.88</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR127" t="n">
         <v>1.51</v>
@@ -28602,10 +28602,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR129" t="n">
         <v>1.63</v>
@@ -29041,7 +29041,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR131" t="n">
         <v>1.77</v>
@@ -29259,7 +29259,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR132" t="n">
         <v>1.8</v>
@@ -29910,7 +29910,7 @@
         <v>1.38</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.62</v>
@@ -30131,7 +30131,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR136" t="n">
         <v>1.76</v>
@@ -30346,7 +30346,7 @@
         <v>0.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.77</v>
@@ -30564,10 +30564,10 @@
         <v>2</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ138" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR138" t="n">
         <v>1.46</v>
@@ -30785,7 +30785,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR139" t="n">
         <v>1.7</v>
@@ -31000,7 +31000,7 @@
         <v>1.25</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.92</v>
@@ -31218,10 +31218,10 @@
         <v>0.89</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR141" t="n">
         <v>1.18</v>
@@ -31436,7 +31436,7 @@
         <v>0.88</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.6899999999999999</v>
@@ -31872,7 +31872,7 @@
         <v>1.14</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.23</v>
@@ -32093,7 +32093,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR145" t="n">
         <v>1.31</v>
@@ -32308,10 +32308,10 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR146" t="n">
         <v>1.13</v>
@@ -32747,7 +32747,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR148" t="n">
         <v>1.49</v>
@@ -32962,7 +32962,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.08</v>
@@ -33616,7 +33616,7 @@
         <v>0.78</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.6899999999999999</v>
@@ -33834,7 +33834,7 @@
         <v>0.78</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.77</v>
@@ -34055,7 +34055,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ154" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34270,7 +34270,7 @@
         <v>1.38</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.23</v>
@@ -34488,7 +34488,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.92</v>
@@ -34709,7 +34709,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR157" t="n">
         <v>1.48</v>
@@ -34927,7 +34927,7 @@
         <v>0.62</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR158" t="n">
         <v>1.22</v>
@@ -35145,7 +35145,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR159" t="n">
         <v>1.76</v>
@@ -35363,7 +35363,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR160" t="n">
         <v>1.64</v>
@@ -35799,7 +35799,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR162" t="n">
         <v>1.35</v>
@@ -36014,7 +36014,7 @@
         <v>1.33</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.08</v>
@@ -36668,7 +36668,7 @@
         <v>0.44</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ166" t="n">
         <v>0.77</v>
@@ -36886,7 +36886,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.31</v>
@@ -37107,7 +37107,7 @@
         <v>0.62</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR168" t="n">
         <v>1.17</v>
@@ -37322,10 +37322,10 @@
         <v>1.7</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR169" t="n">
         <v>1.18</v>
@@ -37540,7 +37540,7 @@
         <v>1.2</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.08</v>
@@ -37761,7 +37761,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR171" t="n">
         <v>1.37</v>
@@ -37976,7 +37976,7 @@
         <v>1.56</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.23</v>
@@ -38194,7 +38194,7 @@
         <v>1.1</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ173" t="n">
         <v>0.92</v>
@@ -38633,7 +38633,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ175" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR175" t="n">
         <v>1.69</v>
@@ -39066,7 +39066,7 @@
         <v>1.36</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.62</v>
@@ -39284,10 +39284,10 @@
         <v>0.82</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR178" t="n">
         <v>1.4</v>
@@ -39720,10 +39720,10 @@
         <v>0.55</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR180" t="n">
         <v>1.58</v>
@@ -40159,7 +40159,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR182" t="n">
         <v>1.53</v>
@@ -40374,7 +40374,7 @@
         <v>0.7</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.77</v>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.92</v>
@@ -40813,7 +40813,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ185" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR185" t="n">
         <v>1.69</v>
@@ -41031,7 +41031,7 @@
         <v>0.62</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR186" t="n">
         <v>1.17</v>
@@ -41249,7 +41249,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR187" t="n">
         <v>1.41</v>
@@ -41464,7 +41464,7 @@
         <v>1</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.31</v>
@@ -41682,7 +41682,7 @@
         <v>1.18</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.08</v>
@@ -42336,7 +42336,7 @@
         <v>1.36</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.23</v>
@@ -42554,10 +42554,10 @@
         <v>1</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR193" t="n">
         <v>1.56</v>
@@ -42772,10 +42772,10 @@
         <v>0.5</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AR194" t="n">
         <v>1.34</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.62</v>
@@ -43208,10 +43208,10 @@
         <v>1.17</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR196" t="n">
         <v>1.38</v>
@@ -43862,7 +43862,7 @@
         <v>0.83</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.77</v>
@@ -44083,7 +44083,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR200" t="n">
         <v>1.34</v>
@@ -45170,7 +45170,7 @@
         <v>1.17</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.31</v>
@@ -45391,7 +45391,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ206" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR206" t="n">
         <v>1.41</v>
@@ -45609,7 +45609,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR207" t="n">
         <v>1.6</v>
@@ -46042,7 +46042,7 @@
         <v>0.83</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.77</v>
@@ -46121,6 +46121,1750 @@
       </c>
       <c r="BP209" t="n">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4869840</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Sandnes Ulf</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>3</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="n">
+        <v>3</v>
+      </c>
+      <c r="N210" t="n">
+        <v>5</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['16', '45']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['36', '67', '84']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X210" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4869838</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['17', '60']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S211" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X211" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4869837</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Åsane</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>4</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>5</v>
+      </c>
+      <c r="L212" t="n">
+        <v>4</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>5</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['13', '25', '40', '45+1']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S212" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U212" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X212" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4869834</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Hødd</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Sogndal</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2</v>
+      </c>
+      <c r="N213" t="n">
+        <v>4</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['23', '72']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['16', '70']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4869835</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45220.41666666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Jerv</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['15', '89']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S214" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U214" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X214" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4869833</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Skeid</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S215" t="n">
+        <v>6</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X215" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4869839</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Moss</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Ranheim</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S216" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X216" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4869836</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>KFUM</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Raufoss</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X217" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.23</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.77</v>
@@ -3099,7 +3099,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.77</v>
@@ -3535,7 +3535,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR26" t="n">
         <v>0.9</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.43</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.77</v>
@@ -6805,7 +6805,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR29" t="n">
         <v>1.38</v>
@@ -7241,7 +7241,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR31" t="n">
         <v>1.79</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.6899999999999999</v>
@@ -9857,7 +9857,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR43" t="n">
         <v>1.03</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.79</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -11165,7 +11165,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR49" t="n">
         <v>1.77</v>
@@ -11383,7 +11383,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR50" t="n">
         <v>1.58</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.86</v>
@@ -13560,7 +13560,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.77</v>
@@ -14435,7 +14435,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR64" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR65" t="n">
         <v>1.64</v>
@@ -15307,7 +15307,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR68" t="n">
         <v>1.1</v>
@@ -15740,7 +15740,7 @@
         <v>1.75</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.29</v>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.08</v>
@@ -17923,7 +17923,7 @@
         <v>2</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR80" t="n">
         <v>1.62</v>
@@ -18795,7 +18795,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR84" t="n">
         <v>1.29</v>
@@ -19010,7 +19010,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.6899999999999999</v>
@@ -19449,7 +19449,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR87" t="n">
         <v>1.64</v>
@@ -19664,7 +19664,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.77</v>
@@ -19882,7 +19882,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.86</v>
@@ -21626,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR97" t="n">
         <v>1.43</v>
@@ -21847,7 +21847,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22280,7 +22280,7 @@
         <v>1.8</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.08</v>
@@ -22498,7 +22498,7 @@
         <v>1.67</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ101" t="n">
         <v>2.07</v>
@@ -22719,7 +22719,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR102" t="n">
         <v>1.46</v>
@@ -23591,7 +23591,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR106" t="n">
         <v>1.31</v>
@@ -24460,7 +24460,7 @@
         <v>1.14</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.29</v>
@@ -25332,7 +25332,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.23</v>
@@ -25768,10 +25768,10 @@
         <v>1.17</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR116" t="n">
         <v>1.21</v>
@@ -25989,7 +25989,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR117" t="n">
         <v>1.12</v>
@@ -26207,7 +26207,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR118" t="n">
         <v>1.38</v>
@@ -27076,7 +27076,7 @@
         <v>1.86</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ122" t="n">
         <v>2.07</v>
@@ -29256,7 +29256,7 @@
         <v>1.63</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.64</v>
@@ -29477,7 +29477,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR133" t="n">
         <v>1.46</v>
@@ -29913,7 +29913,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR135" t="n">
         <v>1.69</v>
@@ -31003,7 +31003,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR140" t="n">
         <v>1.73</v>
@@ -31654,7 +31654,7 @@
         <v>0.78</v>
       </c>
       <c r="AP143" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ143" t="n">
         <v>1</v>
@@ -32090,7 +32090,7 @@
         <v>1.78</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.64</v>
@@ -32526,10 +32526,10 @@
         <v>1.56</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR147" t="n">
         <v>1.66</v>
@@ -33401,7 +33401,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -34491,7 +34491,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR156" t="n">
         <v>1.18</v>
@@ -34924,7 +34924,7 @@
         <v>1.1</v>
       </c>
       <c r="AP158" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.43</v>
@@ -35360,7 +35360,7 @@
         <v>0.8</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.86</v>
@@ -35796,7 +35796,7 @@
         <v>0.6</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ162" t="n">
         <v>0.43</v>
@@ -36235,7 +36235,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR164" t="n">
         <v>1.63</v>
@@ -36889,7 +36889,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR167" t="n">
         <v>1.57</v>
@@ -37104,7 +37104,7 @@
         <v>0.64</v>
       </c>
       <c r="AP168" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.79</v>
@@ -37758,7 +37758,7 @@
         <v>1.27</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.43</v>
@@ -38197,7 +38197,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR173" t="n">
         <v>1.45</v>
@@ -38848,7 +38848,7 @@
         <v>0.91</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ176" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR177" t="n">
         <v>1.58</v>
@@ -39941,7 +39941,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR181" t="n">
         <v>1.57</v>
@@ -40595,7 +40595,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR184" t="n">
         <v>1.17</v>
@@ -40810,7 +40810,7 @@
         <v>1.82</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ185" t="n">
         <v>2.07</v>
@@ -41028,7 +41028,7 @@
         <v>1.55</v>
       </c>
       <c r="AP186" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.64</v>
@@ -41246,7 +41246,7 @@
         <v>0.83</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.79</v>
@@ -41467,7 +41467,7 @@
         <v>2</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR188" t="n">
         <v>1.43</v>
@@ -42993,7 +42993,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR195" t="n">
         <v>1.65</v>
@@ -44298,10 +44298,10 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR201" t="n">
         <v>1.38</v>
@@ -44734,7 +44734,7 @@
         <v>1.33</v>
       </c>
       <c r="AP203" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.23</v>
@@ -44952,7 +44952,7 @@
         <v>0.75</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ204" t="n">
         <v>0.6899999999999999</v>
@@ -45173,7 +45173,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR205" t="n">
         <v>1.32</v>
@@ -45824,10 +45824,10 @@
         <v>1</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR208" t="n">
         <v>1.62</v>
@@ -47865,6 +47865,660 @@
       </c>
       <c r="BP217" t="n">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4869843</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Ranheim</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['5', '17']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S218" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U218" t="n">
+        <v>4</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X218" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4869845</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Skeid</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Jerv</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S219" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X219" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4869846</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45227.41666666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Sogndal</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>KFUM</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>3</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['19', '35', '89']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S220" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.07</v>
@@ -3317,7 +3317,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.43</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.71</v>
@@ -6587,7 +6587,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR28" t="n">
         <v>0.73</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.71</v>
@@ -7020,7 +7020,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7456,10 +7456,10 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR32" t="n">
         <v>1.84</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR33" t="n">
         <v>1.22</v>
@@ -8331,7 +8331,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR36" t="n">
         <v>1.17</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.79</v>
@@ -9421,7 +9421,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR41" t="n">
         <v>1.24</v>
@@ -9639,7 +9639,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -10508,10 +10508,10 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR46" t="n">
         <v>1.42</v>
@@ -10729,7 +10729,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR47" t="n">
         <v>1.71</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.43</v>
@@ -11162,7 +11162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.07</v>
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR51" t="n">
         <v>1.47</v>
@@ -11819,7 +11819,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR52" t="n">
         <v>0.9399999999999999</v>
@@ -12470,7 +12470,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.43</v>
@@ -12906,7 +12906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.29</v>
@@ -13342,10 +13342,10 @@
         <v>0.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR59" t="n">
         <v>1.56</v>
@@ -13563,7 +13563,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR60" t="n">
         <v>1.4</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.43</v>
@@ -14432,7 +14432,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.71</v>
@@ -14871,7 +14871,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR66" t="n">
         <v>1.56</v>
@@ -15525,7 +15525,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR69" t="n">
         <v>1.28</v>
@@ -15958,7 +15958,7 @@
         <v>0.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.64</v>
@@ -16179,7 +16179,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR72" t="n">
         <v>1.51</v>
@@ -16394,7 +16394,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.86</v>
@@ -16612,7 +16612,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.43</v>
@@ -17051,7 +17051,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR76" t="n">
         <v>1.13</v>
@@ -17487,7 +17487,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR78" t="n">
         <v>1.26</v>
@@ -17702,7 +17702,7 @@
         <v>0.6</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.79</v>
@@ -18138,7 +18138,7 @@
         <v>1.4</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.29</v>
@@ -18356,7 +18356,7 @@
         <v>1.2</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.64</v>
@@ -18577,7 +18577,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR83" t="n">
         <v>1.14</v>
@@ -19013,7 +19013,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR85" t="n">
         <v>2.04</v>
@@ -19228,7 +19228,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
         <v>2.07</v>
@@ -19667,7 +19667,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR88" t="n">
         <v>1.54</v>
@@ -20321,7 +20321,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR91" t="n">
         <v>1.74</v>
@@ -20757,7 +20757,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR93" t="n">
         <v>1.68</v>
@@ -21190,7 +21190,7 @@
         <v>1.17</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.86</v>
@@ -21408,7 +21408,7 @@
         <v>1.33</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.43</v>
@@ -21844,7 +21844,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.07</v>
@@ -22065,7 +22065,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR99" t="n">
         <v>1.1</v>
@@ -22283,7 +22283,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR100" t="n">
         <v>1.91</v>
@@ -22716,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.43</v>
@@ -22934,7 +22934,7 @@
         <v>0.83</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.43</v>
@@ -23373,7 +23373,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR105" t="n">
         <v>1.38</v>
@@ -23809,7 +23809,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR107" t="n">
         <v>1.73</v>
@@ -24027,7 +24027,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR108" t="n">
         <v>1.18</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.86</v>
@@ -25114,7 +25114,7 @@
         <v>1.14</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.43</v>
@@ -25335,7 +25335,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR114" t="n">
         <v>1.85</v>
@@ -25550,10 +25550,10 @@
         <v>2</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR115" t="n">
         <v>1.68</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.43</v>
@@ -26422,7 +26422,7 @@
         <v>0.71</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.43</v>
@@ -26640,7 +26640,7 @@
         <v>1.71</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.64</v>
@@ -26861,7 +26861,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR121" t="n">
         <v>1.74</v>
@@ -27297,7 +27297,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR123" t="n">
         <v>1.33</v>
@@ -27733,7 +27733,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR125" t="n">
         <v>1.17</v>
@@ -28384,7 +28384,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ128" t="n">
         <v>1</v>
@@ -28820,10 +28820,10 @@
         <v>1.71</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR130" t="n">
         <v>1.49</v>
@@ -29038,7 +29038,7 @@
         <v>0.75</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.43</v>
@@ -29474,7 +29474,7 @@
         <v>1</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.07</v>
@@ -29692,10 +29692,10 @@
         <v>0.57</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR134" t="n">
         <v>1.41</v>
@@ -30128,7 +30128,7 @@
         <v>1.56</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.29</v>
@@ -30349,7 +30349,7 @@
         <v>2</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR137" t="n">
         <v>1.43</v>
@@ -30782,7 +30782,7 @@
         <v>0.78</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.79</v>
@@ -31439,7 +31439,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR142" t="n">
         <v>1.63</v>
@@ -31875,7 +31875,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR144" t="n">
         <v>1.36</v>
@@ -32744,7 +32744,7 @@
         <v>0.89</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.86</v>
@@ -32965,7 +32965,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ149" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR149" t="n">
         <v>1.62</v>
@@ -33180,10 +33180,10 @@
         <v>0.5</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR150" t="n">
         <v>1.45</v>
@@ -33398,7 +33398,7 @@
         <v>0.86</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.43</v>
@@ -33619,7 +33619,7 @@
         <v>2</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR152" t="n">
         <v>1.37</v>
@@ -33837,7 +33837,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ153" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR153" t="n">
         <v>1.45</v>
@@ -34052,7 +34052,7 @@
         <v>1.78</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ154" t="n">
         <v>2.07</v>
@@ -34273,7 +34273,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR155" t="n">
         <v>1.74</v>
@@ -34706,7 +34706,7 @@
         <v>1.4</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.29</v>
@@ -35142,7 +35142,7 @@
         <v>0.7</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.79</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ161" t="n">
         <v>1</v>
@@ -36017,7 +36017,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR163" t="n">
         <v>1.64</v>
@@ -36232,7 +36232,7 @@
         <v>1.4</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.71</v>
@@ -36450,10 +36450,10 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR165" t="n">
         <v>1.56</v>
@@ -36671,7 +36671,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR166" t="n">
         <v>1.4</v>
@@ -37543,7 +37543,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR170" t="n">
         <v>1.73</v>
@@ -37979,7 +37979,7 @@
         <v>2</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR172" t="n">
         <v>1.36</v>
@@ -38412,10 +38412,10 @@
         <v>0.7</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ174" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR174" t="n">
         <v>1.45</v>
@@ -38630,7 +38630,7 @@
         <v>1.9</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ175" t="n">
         <v>2.07</v>
@@ -39502,10 +39502,10 @@
         <v>0.91</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR179" t="n">
         <v>1.37</v>
@@ -39938,7 +39938,7 @@
         <v>1</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.43</v>
@@ -40156,7 +40156,7 @@
         <v>1.27</v>
       </c>
       <c r="AP182" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.29</v>
@@ -40377,7 +40377,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR183" t="n">
         <v>1.33</v>
@@ -41685,7 +41685,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR189" t="n">
         <v>1.51</v>
@@ -41900,10 +41900,10 @@
         <v>1.4</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR190" t="n">
         <v>1.46</v>
@@ -42118,10 +42118,10 @@
         <v>0.73</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR191" t="n">
         <v>1.68</v>
@@ -42339,7 +42339,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR192" t="n">
         <v>1.21</v>
@@ -43426,10 +43426,10 @@
         <v>0.64</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR197" t="n">
         <v>1.55</v>
@@ -43644,7 +43644,7 @@
         <v>1.08</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AQ198" t="n">
         <v>1</v>
@@ -43865,7 +43865,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR199" t="n">
         <v>1.58</v>
@@ -44080,7 +44080,7 @@
         <v>1.42</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.43</v>
@@ -44516,10 +44516,10 @@
         <v>1.08</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR202" t="n">
         <v>1.43</v>
@@ -44737,7 +44737,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR203" t="n">
         <v>1.16</v>
@@ -44955,7 +44955,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR204" t="n">
         <v>1.44</v>
@@ -45388,7 +45388,7 @@
         <v>1.92</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ206" t="n">
         <v>2.07</v>
@@ -45606,7 +45606,7 @@
         <v>1.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.64</v>
@@ -46045,7 +46045,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR209" t="n">
         <v>1.54</v>
@@ -48519,6 +48519,1096 @@
       </c>
       <c r="BP220" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4869841</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['9', '34']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4869842</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Sandnes Ulf</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>2</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>2</v>
+      </c>
+      <c r="L222" t="n">
+        <v>4</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>4</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['15', '23', '48', '77']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S222" t="n">
+        <v>5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U222" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X222" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4869844</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Raufoss</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Hødd</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U223" t="n">
+        <v>3</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X223" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4869847</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>2</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['2', '78']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S224" t="n">
+        <v>4</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U224" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X224" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4869848</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Åsane</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Moss</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>3</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['25', '37']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S225" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X225" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -48673,22 +48673,22 @@
         <v>2.86</v>
       </c>
       <c r="AU221" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV221" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW221" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY221" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AZ221" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA221" t="n">
         <v>6</v>
@@ -48897,16 +48897,16 @@
         <v>4</v>
       </c>
       <c r="AW222" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY222" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ222" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA222" t="n">
         <v>2</v>
@@ -49115,13 +49115,13 @@
         <v>5</v>
       </c>
       <c r="AW223" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX223" t="n">
         <v>2</v>
       </c>
       <c r="AY223" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ223" t="n">
         <v>7</v>
@@ -49330,19 +49330,19 @@
         <v>6</v>
       </c>
       <c r="AV224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX224" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY224" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ224" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA224" t="n">
         <v>5</v>
@@ -49545,22 +49545,22 @@
         <v>2.83</v>
       </c>
       <c r="AU225" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV225" t="n">
         <v>3</v>
       </c>
-      <c r="AV225" t="n">
-        <v>2</v>
-      </c>
       <c r="AW225" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ225" t="n">
         <v>6</v>
-      </c>
-      <c r="AY225" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ225" t="n">
-        <v>8</v>
       </c>
       <c r="BA225" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR18" t="n">
         <v>0.89</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR19" t="n">
         <v>0.75</v>
@@ -4843,7 +4843,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR20" t="n">
         <v>0.46</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR21" t="n">
         <v>1.91</v>
@@ -5276,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR22" t="n">
         <v>0.93</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR23" t="n">
         <v>1.5</v>
@@ -5712,10 +5712,10 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR24" t="n">
         <v>1.81</v>
@@ -5930,10 +5930,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
         <v>1.23</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.43</v>
@@ -6369,7 +6369,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR27" t="n">
         <v>1.79</v>
@@ -7023,7 +7023,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR30" t="n">
         <v>1.12</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.07</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.28</v>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR35" t="n">
         <v>1.01</v>
@@ -8546,10 +8546,10 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR37" t="n">
         <v>1.36</v>
@@ -8764,10 +8764,10 @@
         <v>2</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR38" t="n">
         <v>1.05</v>
@@ -8985,7 +8985,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR39" t="n">
         <v>1.6</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR40" t="n">
         <v>1.56</v>
@@ -9636,7 +9636,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.71</v>
@@ -9854,7 +9854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.71</v>
@@ -10075,7 +10075,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR44" t="n">
         <v>1.68</v>
@@ -10293,7 +10293,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR45" t="n">
         <v>1.14</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.14</v>
@@ -10947,7 +10947,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR48" t="n">
         <v>1.15</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.43</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.21</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.64</v>
@@ -12037,7 +12037,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR53" t="n">
         <v>1.12</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR54" t="n">
         <v>1.4</v>
@@ -12473,7 +12473,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR55" t="n">
         <v>1.56</v>
@@ -12691,7 +12691,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR56" t="n">
         <v>1.61</v>
@@ -12909,7 +12909,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR57" t="n">
         <v>1.32</v>
@@ -13124,10 +13124,10 @@
         <v>0.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR58" t="n">
         <v>1.87</v>
@@ -13778,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR61" t="n">
         <v>1.04</v>
@@ -13999,7 +13999,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR62" t="n">
         <v>1.76</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR63" t="n">
         <v>1.41</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.07</v>
@@ -14868,7 +14868,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.71</v>
@@ -15086,10 +15086,10 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR67" t="n">
         <v>1.12</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.64</v>
@@ -15743,7 +15743,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.96</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR71" t="n">
         <v>1.55</v>
@@ -16397,7 +16397,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR73" t="n">
         <v>1.36</v>
@@ -16615,7 +16615,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR74" t="n">
         <v>1.49</v>
@@ -16830,10 +16830,10 @@
         <v>0.8</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR75" t="n">
         <v>1.84</v>
@@ -17048,7 +17048,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.14</v>
@@ -17266,10 +17266,10 @@
         <v>0.8</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR77" t="n">
         <v>1.56</v>
@@ -17705,7 +17705,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR79" t="n">
         <v>1.28</v>
@@ -17920,7 +17920,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.71</v>
@@ -18141,7 +18141,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR81" t="n">
         <v>1.94</v>
@@ -18359,7 +18359,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR82" t="n">
         <v>1.59</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.21</v>
@@ -18792,7 +18792,7 @@
         <v>1.25</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.43</v>
@@ -19231,7 +19231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR86" t="n">
         <v>1.49</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.07</v>
@@ -19885,7 +19885,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR89" t="n">
         <v>1.36</v>
@@ -20103,7 +20103,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR90" t="n">
         <v>1.35</v>
@@ -20318,7 +20318,7 @@
         <v>0.6</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.64</v>
@@ -20536,10 +20536,10 @@
         <v>1.17</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR92" t="n">
         <v>1.21</v>
@@ -20754,7 +20754,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.93</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR94" t="n">
         <v>1.6</v>
@@ -21193,7 +21193,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR95" t="n">
         <v>1.32</v>
@@ -21411,7 +21411,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR96" t="n">
         <v>1.72</v>
@@ -22062,7 +22062,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.71</v>
@@ -22501,7 +22501,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ101" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR101" t="n">
         <v>1.3</v>
@@ -22937,7 +22937,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR103" t="n">
         <v>1.41</v>
@@ -23152,10 +23152,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR104" t="n">
         <v>1.82</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.14</v>
@@ -23806,7 +23806,7 @@
         <v>1.17</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.93</v>
@@ -24024,7 +24024,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.64</v>
@@ -24242,10 +24242,10 @@
         <v>0.86</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR109" t="n">
         <v>1.62</v>
@@ -24463,7 +24463,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR110" t="n">
         <v>1.35</v>
@@ -24681,7 +24681,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR111" t="n">
         <v>1.83</v>
@@ -24896,10 +24896,10 @@
         <v>0.57</v>
       </c>
       <c r="AP112" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR112" t="n">
         <v>1.53</v>
@@ -25117,7 +25117,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR113" t="n">
         <v>1.36</v>
@@ -25986,7 +25986,7 @@
         <v>1.14</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.71</v>
@@ -26425,7 +26425,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR119" t="n">
         <v>1.45</v>
@@ -26643,7 +26643,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR120" t="n">
         <v>1.44</v>
@@ -26858,7 +26858,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.71</v>
@@ -27079,7 +27079,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ122" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR122" t="n">
         <v>1.35</v>
@@ -27512,10 +27512,10 @@
         <v>0.88</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR124" t="n">
         <v>1.76</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.93</v>
@@ -27948,10 +27948,10 @@
         <v>1</v>
       </c>
       <c r="AP126" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR126" t="n">
         <v>1.47</v>
@@ -28166,10 +28166,10 @@
         <v>0.88</v>
       </c>
       <c r="AP127" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR127" t="n">
         <v>1.51</v>
@@ -28387,7 +28387,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR128" t="n">
         <v>1.82</v>
@@ -28602,10 +28602,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR129" t="n">
         <v>1.63</v>
@@ -29041,7 +29041,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR131" t="n">
         <v>1.77</v>
@@ -29259,7 +29259,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR132" t="n">
         <v>1.8</v>
@@ -29910,7 +29910,7 @@
         <v>1.38</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.71</v>
@@ -30131,7 +30131,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR136" t="n">
         <v>1.76</v>
@@ -30346,7 +30346,7 @@
         <v>0.88</v>
       </c>
       <c r="AP137" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.93</v>
@@ -30564,10 +30564,10 @@
         <v>2</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR138" t="n">
         <v>1.46</v>
@@ -30785,7 +30785,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR139" t="n">
         <v>1.7</v>
@@ -31000,7 +31000,7 @@
         <v>1.25</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.07</v>
@@ -31218,10 +31218,10 @@
         <v>0.89</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR141" t="n">
         <v>1.18</v>
@@ -31436,7 +31436,7 @@
         <v>0.88</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.64</v>
@@ -31657,7 +31657,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR143" t="n">
         <v>1.27</v>
@@ -32093,7 +32093,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR145" t="n">
         <v>1.31</v>
@@ -32308,10 +32308,10 @@
         <v>0.67</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR146" t="n">
         <v>1.13</v>
@@ -32747,7 +32747,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR148" t="n">
         <v>1.49</v>
@@ -32962,7 +32962,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ149" t="n">
         <v>1.21</v>
@@ -33616,7 +33616,7 @@
         <v>0.78</v>
       </c>
       <c r="AP152" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.64</v>
@@ -33834,7 +33834,7 @@
         <v>0.78</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ153" t="n">
         <v>0.93</v>
@@ -34055,7 +34055,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ154" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34270,7 +34270,7 @@
         <v>1.38</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.14</v>
@@ -34488,7 +34488,7 @@
         <v>1.11</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.07</v>
@@ -34709,7 +34709,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR157" t="n">
         <v>1.48</v>
@@ -34927,7 +34927,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR158" t="n">
         <v>1.22</v>
@@ -35145,7 +35145,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ159" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR159" t="n">
         <v>1.76</v>
@@ -35363,7 +35363,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR160" t="n">
         <v>1.64</v>
@@ -35581,7 +35581,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR161" t="n">
         <v>1.41</v>
@@ -35799,7 +35799,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR162" t="n">
         <v>1.35</v>
@@ -36014,7 +36014,7 @@
         <v>1.33</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.21</v>
@@ -36886,7 +36886,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.43</v>
@@ -37107,7 +37107,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR168" t="n">
         <v>1.17</v>
@@ -37322,10 +37322,10 @@
         <v>1.7</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR169" t="n">
         <v>1.18</v>
@@ -37540,7 +37540,7 @@
         <v>1.2</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.21</v>
@@ -37761,7 +37761,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR171" t="n">
         <v>1.37</v>
@@ -37976,7 +37976,7 @@
         <v>1.56</v>
       </c>
       <c r="AP172" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.14</v>
@@ -38194,7 +38194,7 @@
         <v>1.1</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.07</v>
@@ -38633,7 +38633,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ175" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR175" t="n">
         <v>1.69</v>
@@ -38851,7 +38851,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR176" t="n">
         <v>1.6</v>
@@ -39066,7 +39066,7 @@
         <v>1.36</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.71</v>
@@ -39287,7 +39287,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR178" t="n">
         <v>1.4</v>
@@ -39720,10 +39720,10 @@
         <v>0.55</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR180" t="n">
         <v>1.58</v>
@@ -40159,7 +40159,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR182" t="n">
         <v>1.53</v>
@@ -40374,7 +40374,7 @@
         <v>0.7</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.71</v>
@@ -40592,7 +40592,7 @@
         <v>1</v>
       </c>
       <c r="AP184" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.07</v>
@@ -40813,7 +40813,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ185" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR185" t="n">
         <v>1.69</v>
@@ -41031,7 +41031,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR186" t="n">
         <v>1.17</v>
@@ -41249,7 +41249,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR187" t="n">
         <v>1.41</v>
@@ -41464,7 +41464,7 @@
         <v>1</v>
       </c>
       <c r="AP188" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.43</v>
@@ -41682,7 +41682,7 @@
         <v>1.18</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.21</v>
@@ -42336,7 +42336,7 @@
         <v>1.36</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.14</v>
@@ -42554,10 +42554,10 @@
         <v>1</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR193" t="n">
         <v>1.56</v>
@@ -42772,10 +42772,10 @@
         <v>0.5</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ194" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR194" t="n">
         <v>1.34</v>
@@ -42990,7 +42990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.71</v>
@@ -43211,7 +43211,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR196" t="n">
         <v>1.38</v>
@@ -43647,7 +43647,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR198" t="n">
         <v>1.52</v>
@@ -43862,7 +43862,7 @@
         <v>0.83</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.93</v>
@@ -44083,7 +44083,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR200" t="n">
         <v>1.34</v>
@@ -45170,7 +45170,7 @@
         <v>1.17</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.43</v>
@@ -45391,7 +45391,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ206" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR206" t="n">
         <v>1.41</v>
@@ -45609,7 +45609,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR207" t="n">
         <v>1.6</v>
@@ -46042,7 +46042,7 @@
         <v>0.83</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.71</v>
@@ -46260,10 +46260,10 @@
         <v>2</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ210" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR210" t="n">
         <v>1.54</v>
@@ -46478,10 +46478,10 @@
         <v>0.92</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ211" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR211" t="n">
         <v>1.38</v>
@@ -46696,10 +46696,10 @@
         <v>0.85</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR212" t="n">
         <v>1.61</v>
@@ -46914,10 +46914,10 @@
         <v>1.31</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR213" t="n">
         <v>1.31</v>
@@ -47135,7 +47135,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AR214" t="n">
         <v>1.34</v>
@@ -47350,10 +47350,10 @@
         <v>0.46</v>
       </c>
       <c r="AP215" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ215" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR215" t="n">
         <v>1.45</v>
@@ -47568,10 +47568,10 @@
         <v>1.31</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AR216" t="n">
         <v>1.55</v>
@@ -47786,10 +47786,10 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR217" t="n">
         <v>1.46</v>
@@ -49609,6 +49609,1750 @@
       </c>
       <c r="BP225" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4869856</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>29</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Sandnes Ulf</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Ranheim</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2</v>
+      </c>
+      <c r="K226" t="n">
+        <v>3</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3</v>
+      </c>
+      <c r="M226" t="n">
+        <v>2</v>
+      </c>
+      <c r="N226" t="n">
+        <v>5</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['5', '68', '72']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['1', '10']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S226" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U226" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X226" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4869855</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>29</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Moss</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Fredrikstad</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2</v>
+      </c>
+      <c r="N227" t="n">
+        <v>4</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['54', '60']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['50', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X227" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4869854</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>29</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Mjøndalen</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2</v>
+      </c>
+      <c r="M228" t="n">
+        <v>3</v>
+      </c>
+      <c r="N228" t="n">
+        <v>5</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['40', '90+5']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['14', '78', '87']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X228" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4869853</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>29</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Raufoss</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['9', '78']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S229" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X229" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4869850</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>29</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Hødd</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>3</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['22', '34']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X230" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4869851</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>29</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Jerv</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Åsane</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U231" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X231" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4869849</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Sogndal</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>2</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>3</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['15', '38']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>3</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U232" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X232" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4869852</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>KFUM</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Skeid</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U233" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V233" t="n">
+        <v>2</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X233" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,7 +2881,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.53</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>0.73</v>
@@ -7020,7 +7020,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.13</v>
@@ -9639,7 +9639,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.24</v>
@@ -10508,7 +10508,7 @@
         <v>2</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.93</v>
@@ -13342,7 +13342,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.07</v>
@@ -14871,7 +14871,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR66" t="n">
         <v>1.56</v>
@@ -16612,7 +16612,7 @@
         <v>1.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.33</v>
@@ -18795,7 +18795,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR84" t="n">
         <v>1.54</v>
@@ -21844,7 +21844,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ98" t="n">
         <v>1</v>
@@ -22065,7 +22065,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR99" t="n">
         <v>1.1</v>
@@ -25986,7 +25986,7 @@
         <v>2</v>
       </c>
       <c r="AP117" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.2</v>
@@ -26643,7 +26643,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR120" t="n">
         <v>1.74</v>
@@ -28823,7 +28823,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.41</v>
@@ -29692,7 +29692,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.4</v>
@@ -30128,7 +30128,7 @@
         <v>1.56</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.2</v>
@@ -33401,7 +33401,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ151" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR151" t="n">
         <v>1.45</v>
@@ -34052,7 +34052,7 @@
         <v>0.7</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.8</v>
@@ -36671,7 +36671,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ166" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR166" t="n">
         <v>1.4</v>
@@ -38630,7 +38630,7 @@
         <v>1.9</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ175" t="n">
         <v>2</v>
@@ -39723,7 +39723,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR180" t="n">
         <v>1.33</v>
@@ -42118,7 +42118,7 @@
         <v>0.73</v>
       </c>
       <c r="AP191" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.8</v>
@@ -43865,7 +43865,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR199" t="n">
         <v>1.55</v>
@@ -45391,7 +45391,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR206" t="n">
         <v>1.54</v>
@@ -45606,7 +45606,7 @@
         <v>1.67</v>
       </c>
       <c r="AP207" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.73</v>
@@ -49312,10 +49312,10 @@
         <v>0.77</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ224" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR224" t="n">
         <v>1.59</v>
@@ -51360,7 +51360,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>4869864</v>
+        <v>4869857</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -51380,35 +51380,35 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Åsane</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Sandnes Ulf</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>['19', '71']</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
@@ -51417,130 +51417,130 @@
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="R234" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="S234" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="T234" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U234" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="V234" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="W234" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="X234" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="Y234" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z234" t="n">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="AA234" t="n">
-        <v>3.85</v>
+        <v>4.62</v>
       </c>
       <c r="AB234" t="n">
-        <v>3.45</v>
+        <v>6.8</v>
       </c>
       <c r="AC234" t="n">
         <v>1.02</v>
       </c>
       <c r="AD234" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE234" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AF234" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="AG234" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AH234" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AI234" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AJ234" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="AK234" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AL234" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM234" t="n">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="AN234" t="n">
-        <v>1.57</v>
+        <v>2.21</v>
       </c>
       <c r="AO234" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR234" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT234" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="AU234" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV234" t="n">
         <v>3</v>
       </c>
       <c r="AW234" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX234" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY234" t="n">
         <v>12</v>
       </c>
       <c r="AZ234" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA234" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB234" t="n">
         <v>3</v>
       </c>
       <c r="BC234" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD234" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="BE234" t="n">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="BF234" t="n">
-        <v>2.81</v>
+        <v>3.7</v>
       </c>
       <c r="BG234" t="n">
         <v>0</v>
@@ -51549,28 +51549,28 @@
         <v>0</v>
       </c>
       <c r="BI234" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="BJ234" t="n">
-        <v>3.45</v>
+        <v>4.56</v>
       </c>
       <c r="BK234" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="BL234" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="BM234" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="BN234" t="n">
-        <v>1.88</v>
+        <v>2.33</v>
       </c>
       <c r="BO234" t="n">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="BP234" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="235">
@@ -51578,7 +51578,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>4869857</v>
+        <v>4869858</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -51598,62 +51598,62 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>['84']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['30', '44']</t>
         </is>
       </c>
       <c r="Q235" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R235" t="n">
         <v>2.4</v>
       </c>
       <c r="S235" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T235" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U235" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="V235" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="W235" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X235" t="n">
         <v>5.2</v>
@@ -51662,133 +51662,133 @@
         <v>1.13</v>
       </c>
       <c r="Z235" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AA235" t="n">
-        <v>4.62</v>
+        <v>4.11</v>
       </c>
       <c r="AB235" t="n">
-        <v>6.8</v>
+        <v>5.26</v>
       </c>
       <c r="AC235" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD235" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE235" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK235" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AF235" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AG235" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AH235" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AI235" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AJ235" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK235" t="n">
-        <v>1.09</v>
       </c>
       <c r="AL235" t="n">
         <v>1.2</v>
       </c>
       <c r="AM235" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AN235" t="n">
-        <v>2.21</v>
+        <v>1.86</v>
       </c>
       <c r="AO235" t="n">
-        <v>1.07</v>
+        <v>0.64</v>
       </c>
       <c r="AP235" t="n">
-        <v>2.27</v>
+        <v>1.73</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR235" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT235" t="n">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="AU235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV235" t="n">
         <v>6</v>
       </c>
-      <c r="AV235" t="n">
-        <v>3</v>
-      </c>
       <c r="AW235" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX235" t="n">
         <v>6</v>
       </c>
       <c r="AY235" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ235" t="n">
         <v>12</v>
       </c>
-      <c r="AZ235" t="n">
-        <v>9</v>
-      </c>
       <c r="BA235" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC235" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD235" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="BE235" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="BF235" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="BG235" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BH235" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BI235" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="BJ235" t="n">
-        <v>4.56</v>
+        <v>2.48</v>
       </c>
       <c r="BK235" t="n">
-        <v>1.32</v>
+        <v>1.85</v>
       </c>
       <c r="BL235" t="n">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="BM235" t="n">
-        <v>1.56</v>
+        <v>2.45</v>
       </c>
       <c r="BN235" t="n">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="BO235" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="BP235" t="n">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="236">
@@ -51796,7 +51796,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>4869858</v>
+        <v>4869859</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -51816,197 +51816,197 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Hødd</t>
         </is>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>['90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>['30', '44']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q236" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R236" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S236" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U236" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V236" t="n">
         <v>2.4</v>
-      </c>
-      <c r="S236" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T236" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U236" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V236" t="n">
-        <v>2.35</v>
       </c>
       <c r="W236" t="n">
         <v>1.52</v>
       </c>
       <c r="X236" t="n">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="Y236" t="n">
         <v>1.13</v>
       </c>
       <c r="Z236" t="n">
-        <v>1.55</v>
+        <v>2.44</v>
       </c>
       <c r="AA236" t="n">
-        <v>4.11</v>
+        <v>3.59</v>
       </c>
       <c r="AB236" t="n">
-        <v>5.26</v>
+        <v>2.47</v>
       </c>
       <c r="AC236" t="n">
         <v>1.03</v>
       </c>
       <c r="AD236" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV236" t="n">
         <v>9</v>
       </c>
-      <c r="AE236" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AF236" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AG236" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AH236" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AI236" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AJ236" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AK236" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AL236" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM236" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN236" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AO236" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AP236" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ236" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AR236" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AS236" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT236" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AU236" t="n">
+      <c r="AW236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA236" t="n">
         <v>8</v>
       </c>
-      <c r="AV236" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW236" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX236" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY236" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ236" t="n">
+      <c r="BB236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC236" t="n">
         <v>12</v>
       </c>
-      <c r="BA236" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB236" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC236" t="n">
-        <v>6</v>
-      </c>
       <c r="BD236" t="n">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="BE236" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF236" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO236" t="n">
         <v>3.05</v>
       </c>
-      <c r="BG236" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BH236" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BI236" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ236" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BK236" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BL236" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BM236" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BN236" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO236" t="n">
-        <v>3.4</v>
-      </c>
       <c r="BP236" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="237">
@@ -52014,7 +52014,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>4869859</v>
+        <v>4869860</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -52034,12 +52034,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Hødd</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="I237" t="n">
@@ -52055,10 +52055,10 @@
         <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
@@ -52067,164 +52067,164 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="Q237" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R237" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S237" t="n">
         <v>2.6</v>
       </c>
       <c r="T237" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U237" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V237" t="n">
         <v>2.4</v>
       </c>
       <c r="W237" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X237" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="Y237" t="n">
         <v>1.13</v>
       </c>
       <c r="Z237" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="AA237" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="AB237" t="n">
-        <v>2.47</v>
+        <v>3.18</v>
       </c>
       <c r="AC237" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD237" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE237" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AF237" t="n">
-        <v>4.53</v>
+        <v>4.4</v>
       </c>
       <c r="AG237" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AH237" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AI237" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AJ237" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AK237" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AL237" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AM237" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AN237" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AO237" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AQ237" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AR237" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.15</v>
+        <v>1.46</v>
       </c>
       <c r="AT237" t="n">
-        <v>2.78</v>
+        <v>2.91</v>
       </c>
       <c r="AU237" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV237" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW237" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX237" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AY237" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC237" t="n">
         <v>10</v>
       </c>
-      <c r="AZ237" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA237" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB237" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC237" t="n">
-        <v>12</v>
-      </c>
       <c r="BD237" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="BE237" t="n">
-        <v>9.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="BF237" t="n">
-        <v>2.13</v>
+        <v>2.32</v>
       </c>
       <c r="BG237" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="BH237" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="BI237" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="BJ237" t="n">
-        <v>2.75</v>
+        <v>4.3</v>
       </c>
       <c r="BK237" t="n">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="BL237" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="BM237" t="n">
-        <v>2.23</v>
+        <v>1.52</v>
       </c>
       <c r="BN237" t="n">
-        <v>1.6</v>
+        <v>2.43</v>
       </c>
       <c r="BO237" t="n">
-        <v>3.05</v>
+        <v>1.9</v>
       </c>
       <c r="BP237" t="n">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="238">
@@ -52232,7 +52232,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>4869860</v>
+        <v>4869861</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -52252,31 +52252,31 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L238" t="n">
         <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N238" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O238" t="inlineStr">
         <is>
@@ -52285,134 +52285,134 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['29', '37', '41', '79', '90+2']</t>
         </is>
       </c>
       <c r="Q238" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="R238" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="S238" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="T238" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U238" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="V238" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="W238" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="X238" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y238" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="Z238" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="AA238" t="n">
-        <v>3.45</v>
+        <v>4.04</v>
       </c>
       <c r="AB238" t="n">
-        <v>3.18</v>
+        <v>1.7</v>
       </c>
       <c r="AC238" t="n">
         <v>1.01</v>
       </c>
       <c r="AD238" t="n">
-        <v>12</v>
+        <v>30.5</v>
       </c>
       <c r="AE238" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AF238" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="AG238" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AH238" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AI238" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AJ238" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AK238" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="AL238" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AM238" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="AN238" t="n">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AO238" t="n">
-        <v>0.71</v>
+        <v>1.43</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.4</v>
+        <v>0.53</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.87</v>
+        <v>1.53</v>
       </c>
       <c r="AR238" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="AU238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX238" t="n">
         <v>4</v>
       </c>
-      <c r="AV238" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW238" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX238" t="n">
-        <v>11</v>
-      </c>
       <c r="AY238" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AZ238" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA238" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB238" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC238" t="n">
         <v>10</v>
       </c>
       <c r="BD238" t="n">
-        <v>1.8</v>
+        <v>3.18</v>
       </c>
       <c r="BE238" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="BF238" t="n">
-        <v>2.32</v>
+        <v>1.48</v>
       </c>
       <c r="BG238" t="n">
         <v>0</v>
@@ -52421,28 +52421,28 @@
         <v>0</v>
       </c>
       <c r="BI238" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BJ238" t="n">
         <v>4.3</v>
       </c>
       <c r="BK238" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BL238" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="BM238" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="BN238" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BO238" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="BP238" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="239">
@@ -52450,7 +52450,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>4869861</v>
+        <v>4869862</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -52470,197 +52470,197 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Mjøndalen</t>
         </is>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M239" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N239" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>['29', '37', '41', '79', '90+2']</t>
+          <t>['61']</t>
         </is>
       </c>
       <c r="Q239" t="n">
-        <v>5</v>
+        <v>1.87</v>
       </c>
       <c r="R239" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="S239" t="n">
-        <v>1.75</v>
+        <v>5.67</v>
       </c>
       <c r="T239" t="n">
         <v>1.22</v>
       </c>
       <c r="U239" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="V239" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="W239" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="X239" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="Y239" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ239" t="n">
         <v>1.2</v>
       </c>
-      <c r="Z239" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AA239" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AB239" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC239" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD239" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="AE239" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AF239" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG239" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AH239" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI239" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AJ239" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK239" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL239" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AM239" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AN239" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AO239" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AP239" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AQ239" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AR239" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AT239" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU239" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV239" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AW239" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX239" t="n">
         <v>4</v>
       </c>
       <c r="AY239" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ239" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BA239" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB239" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC239" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD239" t="n">
-        <v>3.18</v>
+        <v>1.49</v>
       </c>
       <c r="BE239" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="BF239" t="n">
-        <v>1.48</v>
+        <v>3.16</v>
       </c>
       <c r="BG239" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BH239" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BI239" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BJ239" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="BK239" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="BL239" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="BM239" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="BN239" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="BO239" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="BP239" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="240">
@@ -52668,7 +52668,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>4869862</v>
+        <v>4869864</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -52688,197 +52688,197 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Åsane</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Mjøndalen</t>
+          <t>Sandnes Ulf</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N240" t="n">
         <v>2</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>['72']</t>
+          <t>['19', '71']</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>['61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q240" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="R240" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="S240" t="n">
-        <v>5.67</v>
+        <v>3.9</v>
       </c>
       <c r="T240" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U240" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="V240" t="n">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="W240" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="X240" t="n">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="Y240" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="Z240" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="AA240" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AB240" t="n">
-        <v>4.87</v>
+        <v>3.45</v>
       </c>
       <c r="AC240" t="n">
         <v>1.02</v>
       </c>
       <c r="AD240" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE240" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AF240" t="n">
-        <v>5.95</v>
+        <v>5.7</v>
       </c>
       <c r="AG240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI240" t="n">
         <v>1.4</v>
       </c>
-      <c r="AH240" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI240" t="n">
-        <v>1.58</v>
-      </c>
       <c r="AJ240" t="n">
-        <v>2.31</v>
+        <v>2.7</v>
       </c>
       <c r="AK240" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AL240" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AM240" t="n">
-        <v>2.81</v>
+        <v>1.97</v>
       </c>
       <c r="AN240" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO240" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AP240" t="n">
         <v>1.67</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AR240" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AT240" t="n">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU240" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW240" t="n">
         <v>4</v>
       </c>
-      <c r="AW240" t="n">
-        <v>6</v>
-      </c>
       <c r="AX240" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY240" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ240" t="n">
         <v>8</v>
       </c>
       <c r="BA240" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB240" t="n">
         <v>3</v>
       </c>
       <c r="BC240" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD240" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="BE240" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="BF240" t="n">
-        <v>3.16</v>
+        <v>2.81</v>
       </c>
       <c r="BG240" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="BH240" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BI240" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BJ240" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="BK240" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="BL240" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BM240" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BN240" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BO240" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="BP240" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="241">
@@ -53018,7 +53018,7 @@
         <v>1.71</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.67</v>
@@ -53097,6 +53097,224 @@
       </c>
       <c r="BP241" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>7263389</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Bryne</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>3</v>
+      </c>
+      <c r="N242" t="n">
+        <v>3</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S242" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X242" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP243"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,7 +3535,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.2</v>
@@ -6151,7 +6151,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR26" t="n">
         <v>0.9</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32" t="n">
         <v>0.93</v>
@@ -10726,7 +10726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR50" t="n">
         <v>1.58</v>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.4</v>
@@ -15307,7 +15307,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR68" t="n">
         <v>1.1</v>
@@ -17702,7 +17702,7 @@
         <v>1.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.2</v>
@@ -18795,7 +18795,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR84" t="n">
         <v>1.29</v>
@@ -21408,7 +21408,7 @@
         <v>1.33</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.33</v>
@@ -23373,7 +23373,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR105" t="n">
         <v>1.46</v>
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.8</v>
@@ -26207,7 +26207,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR118" t="n">
         <v>1.38</v>
@@ -28166,7 +28166,7 @@
         <v>0.5</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.13</v>
@@ -30564,7 +30564,7 @@
         <v>0.78</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.8</v>
@@ -33183,7 +33183,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR150" t="n">
         <v>1.5</v>
@@ -35142,7 +35142,7 @@
         <v>1.78</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ159" t="n">
         <v>2</v>
@@ -36668,7 +36668,7 @@
         <v>1.4</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.67</v>
@@ -36889,7 +36889,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR167" t="n">
         <v>1.57</v>
@@ -40374,10 +40374,10 @@
         <v>1</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR183" t="n">
         <v>1.57</v>
@@ -41467,7 +41467,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR188" t="n">
         <v>1.43</v>
@@ -43426,7 +43426,7 @@
         <v>0.64</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ197" t="n">
         <v>1</v>
@@ -44301,7 +44301,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR201" t="n">
         <v>1.38</v>
@@ -45173,7 +45173,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR205" t="n">
         <v>1.32</v>
@@ -48007,7 +48007,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR218" t="n">
         <v>1.62</v>
@@ -48876,7 +48876,7 @@
         <v>1.23</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.07</v>
@@ -51710,7 +51710,7 @@
         <v>0.64</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.8</v>
@@ -52367,7 +52367,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR238" t="n">
         <v>1.29</v>
@@ -53454,7 +53454,7 @@
         <v>1.52</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.5</v>
@@ -53533,6 +53533,224 @@
       </c>
       <c r="BP243" t="n">
         <v>1.78</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>7273649</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Norway First Division</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45263.41666666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Kristiansund</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>4</v>
+      </c>
+      <c r="N244" t="n">
+        <v>6</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['48', '85']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['7', '54', '72', '84']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R244" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S244" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V244" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X244" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Norway First Division_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
